--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>68817200</v>
+        <v>65698400</v>
       </c>
       <c r="E8" s="3">
-        <v>67222900</v>
+        <v>66699700</v>
       </c>
       <c r="F8" s="3">
-        <v>63189900</v>
+        <v>67810600</v>
       </c>
       <c r="G8" s="3">
-        <v>77353000</v>
+        <v>63742400</v>
       </c>
       <c r="H8" s="3">
-        <v>81609900</v>
+        <v>78029300</v>
       </c>
       <c r="I8" s="3">
-        <v>81222400</v>
+        <v>82323500</v>
       </c>
       <c r="J8" s="3">
+        <v>81932500</v>
+      </c>
+      <c r="K8" s="3">
         <v>79197600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>86271500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48662300</v>
+        <v>47694400</v>
       </c>
       <c r="E9" s="3">
-        <v>45666900</v>
+        <v>47531500</v>
       </c>
       <c r="F9" s="3">
-        <v>43113000</v>
+        <v>46066200</v>
       </c>
       <c r="G9" s="3">
-        <v>56406500</v>
+        <v>43489900</v>
       </c>
       <c r="H9" s="3">
-        <v>61311200</v>
+        <v>56899600</v>
       </c>
       <c r="I9" s="3">
-        <v>61022400</v>
+        <v>61847300</v>
       </c>
       <c r="J9" s="3">
+        <v>61556000</v>
+      </c>
+      <c r="K9" s="3">
         <v>123292200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63369300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20154900</v>
+        <v>18004000</v>
       </c>
       <c r="E10" s="3">
-        <v>21555900</v>
+        <v>19168100</v>
       </c>
       <c r="F10" s="3">
-        <v>20076900</v>
+        <v>21744400</v>
       </c>
       <c r="G10" s="3">
-        <v>20946500</v>
+        <v>20252500</v>
       </c>
       <c r="H10" s="3">
-        <v>20298700</v>
+        <v>21129700</v>
       </c>
       <c r="I10" s="3">
-        <v>20199900</v>
+        <v>20476200</v>
       </c>
       <c r="J10" s="3">
+        <v>20376500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-44094600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22902200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,38 +828,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2226700</v>
+        <v>2390200</v>
       </c>
       <c r="E12" s="3">
-        <v>2023600</v>
+        <v>2208600</v>
       </c>
       <c r="F12" s="3">
-        <v>2045600</v>
+        <v>2041300</v>
       </c>
       <c r="G12" s="3">
-        <v>2144400</v>
+        <v>2063500</v>
       </c>
       <c r="H12" s="3">
-        <v>2068600</v>
+        <v>2163100</v>
       </c>
       <c r="I12" s="3">
-        <v>2030200</v>
+        <v>2086700</v>
       </c>
       <c r="J12" s="3">
+        <v>2048000</v>
+      </c>
+      <c r="K12" s="3">
         <v>4062600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2099900</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,69 +891,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>452400</v>
+        <v>772000</v>
       </c>
       <c r="E14" s="3">
-        <v>394200</v>
+        <v>447500</v>
       </c>
       <c r="F14" s="3">
-        <v>529200</v>
+        <v>397600</v>
       </c>
       <c r="G14" s="3">
-        <v>336000</v>
+        <v>533900</v>
       </c>
       <c r="H14" s="3">
-        <v>193200</v>
+        <v>338900</v>
       </c>
       <c r="I14" s="3">
-        <v>347000</v>
+        <v>194900</v>
       </c>
       <c r="J14" s="3">
+        <v>350000</v>
+      </c>
+      <c r="K14" s="3">
         <v>413900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>273500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>79100</v>
+        <v>471800</v>
       </c>
       <c r="E15" s="3">
-        <v>242700</v>
+        <v>79700</v>
       </c>
       <c r="F15" s="3">
-        <v>370000</v>
+        <v>244800</v>
       </c>
       <c r="G15" s="3">
-        <v>741200</v>
+        <v>373300</v>
       </c>
       <c r="H15" s="3">
-        <v>406300</v>
+        <v>747600</v>
       </c>
       <c r="I15" s="3">
-        <v>272300</v>
+        <v>409800</v>
       </c>
       <c r="J15" s="3">
+        <v>274700</v>
+      </c>
+      <c r="K15" s="3">
         <v>413900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>429600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>62192900</v>
+        <v>61210400</v>
       </c>
       <c r="E17" s="3">
-        <v>58892300</v>
+        <v>60082900</v>
       </c>
       <c r="F17" s="3">
-        <v>56300000</v>
+        <v>59407200</v>
       </c>
       <c r="G17" s="3">
-        <v>70492700</v>
+        <v>56792200</v>
       </c>
       <c r="H17" s="3">
-        <v>73236600</v>
+        <v>71109000</v>
       </c>
       <c r="I17" s="3">
-        <v>73360700</v>
+        <v>73876900</v>
       </c>
       <c r="J17" s="3">
+        <v>74002100</v>
+      </c>
+      <c r="K17" s="3">
         <v>71794900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76193200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6624200</v>
+        <v>4488000</v>
       </c>
       <c r="E18" s="3">
-        <v>8330500</v>
+        <v>6616800</v>
       </c>
       <c r="F18" s="3">
-        <v>6890000</v>
+        <v>8403400</v>
       </c>
       <c r="G18" s="3">
-        <v>6860300</v>
+        <v>6950200</v>
       </c>
       <c r="H18" s="3">
-        <v>8373300</v>
+        <v>6920300</v>
       </c>
       <c r="I18" s="3">
-        <v>7861700</v>
+        <v>8446600</v>
       </c>
       <c r="J18" s="3">
+        <v>7930400</v>
+      </c>
+      <c r="K18" s="3">
         <v>7402700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10078300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1020,158 +1053,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-258000</v>
+        <v>-151700</v>
       </c>
       <c r="E20" s="3">
-        <v>-274500</v>
+        <v>-260300</v>
       </c>
       <c r="F20" s="3">
-        <v>-341500</v>
+        <v>-276900</v>
       </c>
       <c r="G20" s="3">
-        <v>-231700</v>
+        <v>-344500</v>
       </c>
       <c r="H20" s="3">
-        <v>144900</v>
+        <v>-233700</v>
       </c>
       <c r="I20" s="3">
-        <v>22000</v>
+        <v>146200</v>
       </c>
       <c r="J20" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K20" s="3">
         <v>707100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1346400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10490100</v>
+        <v>8977300</v>
       </c>
       <c r="E21" s="3">
-        <v>12689100</v>
+        <v>10482600</v>
       </c>
       <c r="F21" s="3">
-        <v>11267300</v>
+        <v>12762000</v>
       </c>
       <c r="G21" s="3">
-        <v>11520100</v>
+        <v>11327100</v>
       </c>
       <c r="H21" s="3">
-        <v>12317700</v>
+        <v>11580700</v>
       </c>
       <c r="I21" s="3">
-        <v>11528000</v>
+        <v>12394300</v>
       </c>
       <c r="J21" s="3">
+        <v>11599000</v>
+      </c>
+      <c r="K21" s="3">
         <v>11725600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15440700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>560000</v>
+        <v>679000</v>
       </c>
       <c r="E22" s="3">
-        <v>499600</v>
+        <v>560400</v>
       </c>
       <c r="F22" s="3">
-        <v>624800</v>
+        <v>504000</v>
       </c>
       <c r="G22" s="3">
-        <v>536900</v>
+        <v>630200</v>
       </c>
       <c r="H22" s="3">
-        <v>609400</v>
+        <v>541600</v>
       </c>
       <c r="I22" s="3">
-        <v>636800</v>
+        <v>614700</v>
       </c>
       <c r="J22" s="3">
+        <v>642400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1547100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>895600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>5806200</v>
+        <v>3657300</v>
       </c>
       <c r="E23" s="3">
-        <v>7556400</v>
+        <v>5796100</v>
       </c>
       <c r="F23" s="3">
-        <v>5923700</v>
+        <v>7622500</v>
       </c>
       <c r="G23" s="3">
-        <v>6091700</v>
+        <v>5975500</v>
       </c>
       <c r="H23" s="3">
-        <v>7908900</v>
+        <v>6145000</v>
       </c>
       <c r="I23" s="3">
-        <v>7246800</v>
+        <v>7978000</v>
       </c>
       <c r="J23" s="3">
+        <v>7310200</v>
+      </c>
+      <c r="K23" s="3">
         <v>6562700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10529100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1717300</v>
+        <v>837300</v>
       </c>
       <c r="E24" s="3">
-        <v>1416400</v>
+        <v>1237200</v>
       </c>
       <c r="F24" s="3">
-        <v>1251700</v>
+        <v>1428800</v>
       </c>
       <c r="G24" s="3">
-        <v>1369200</v>
+        <v>1262700</v>
       </c>
       <c r="H24" s="3">
-        <v>1878700</v>
+        <v>1381200</v>
       </c>
       <c r="I24" s="3">
-        <v>1632700</v>
+        <v>1895100</v>
       </c>
       <c r="J24" s="3">
+        <v>1647000</v>
+      </c>
+      <c r="K24" s="3">
         <v>999200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2778400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1199,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4089000</v>
+        <v>2819900</v>
       </c>
       <c r="E26" s="3">
-        <v>6140000</v>
+        <v>4558900</v>
       </c>
       <c r="F26" s="3">
-        <v>4672000</v>
+        <v>6193700</v>
       </c>
       <c r="G26" s="3">
-        <v>4722500</v>
+        <v>4712800</v>
       </c>
       <c r="H26" s="3">
-        <v>6030200</v>
+        <v>4763800</v>
       </c>
       <c r="I26" s="3">
-        <v>5614100</v>
+        <v>6082900</v>
       </c>
       <c r="J26" s="3">
+        <v>5663200</v>
+      </c>
+      <c r="K26" s="3">
         <v>5563600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7750700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3790300</v>
+        <v>2742400</v>
       </c>
       <c r="E27" s="3">
-        <v>5839200</v>
+        <v>4257600</v>
       </c>
       <c r="F27" s="3">
-        <v>4453500</v>
+        <v>5890200</v>
       </c>
       <c r="G27" s="3">
-        <v>4377700</v>
+        <v>4492400</v>
       </c>
       <c r="H27" s="3">
-        <v>5660200</v>
+        <v>4416000</v>
       </c>
       <c r="I27" s="3">
-        <v>5261600</v>
+        <v>5709700</v>
       </c>
       <c r="J27" s="3">
+        <v>5307600</v>
+      </c>
+      <c r="K27" s="3">
         <v>4914600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7263500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1289,20 +1347,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>1378000</v>
+        <v>6584700</v>
       </c>
       <c r="E29" s="3">
-        <v>1250600</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>1427700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1261600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1319,9 +1380,12 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>258000</v>
+        <v>151700</v>
       </c>
       <c r="E32" s="3">
-        <v>274500</v>
+        <v>260300</v>
       </c>
       <c r="F32" s="3">
-        <v>341500</v>
+        <v>276900</v>
       </c>
       <c r="G32" s="3">
-        <v>231700</v>
+        <v>344500</v>
       </c>
       <c r="H32" s="3">
-        <v>-144900</v>
+        <v>233700</v>
       </c>
       <c r="I32" s="3">
-        <v>-22000</v>
+        <v>-146200</v>
       </c>
       <c r="J32" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-707100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1346400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5168300</v>
+        <v>9327100</v>
       </c>
       <c r="E33" s="3">
-        <v>7089800</v>
+        <v>5685300</v>
       </c>
       <c r="F33" s="3">
-        <v>4453500</v>
+        <v>7151800</v>
       </c>
       <c r="G33" s="3">
-        <v>4377700</v>
+        <v>4492400</v>
       </c>
       <c r="H33" s="3">
-        <v>5660200</v>
+        <v>4416000</v>
       </c>
       <c r="I33" s="3">
-        <v>5261600</v>
+        <v>5709700</v>
       </c>
       <c r="J33" s="3">
+        <v>5307600</v>
+      </c>
+      <c r="K33" s="3">
         <v>4914600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7263500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5168300</v>
+        <v>9327100</v>
       </c>
       <c r="E35" s="3">
-        <v>7089800</v>
+        <v>5685300</v>
       </c>
       <c r="F35" s="3">
-        <v>4453500</v>
+        <v>7151800</v>
       </c>
       <c r="G35" s="3">
-        <v>4377700</v>
+        <v>4492400</v>
       </c>
       <c r="H35" s="3">
-        <v>5660200</v>
+        <v>4416000</v>
       </c>
       <c r="I35" s="3">
-        <v>5261600</v>
+        <v>5709700</v>
       </c>
       <c r="J35" s="3">
+        <v>5307600</v>
+      </c>
+      <c r="K35" s="3">
         <v>4914600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7263500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,278 +1649,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2525400</v>
+        <v>2693500</v>
       </c>
       <c r="E41" s="3">
-        <v>7131500</v>
+        <v>2552500</v>
       </c>
       <c r="F41" s="3">
-        <v>1509800</v>
+        <v>7208200</v>
       </c>
       <c r="G41" s="3">
-        <v>2460600</v>
+        <v>1526000</v>
       </c>
       <c r="H41" s="3">
-        <v>1886400</v>
+        <v>2487100</v>
       </c>
       <c r="I41" s="3">
-        <v>2006000</v>
+        <v>1906600</v>
       </c>
       <c r="J41" s="3">
+        <v>2027600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3759600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4637700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>377700</v>
+        <v>492800</v>
       </c>
       <c r="E42" s="3">
-        <v>57100</v>
+        <v>381800</v>
       </c>
       <c r="F42" s="3">
-        <v>588500</v>
+        <v>57700</v>
       </c>
       <c r="G42" s="3">
-        <v>23100</v>
+        <v>594900</v>
       </c>
       <c r="H42" s="3">
-        <v>20900</v>
+        <v>23300</v>
       </c>
       <c r="I42" s="3">
-        <v>18700</v>
+        <v>21100</v>
       </c>
       <c r="J42" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K42" s="3">
         <v>40600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14635200</v>
+        <v>14100000</v>
       </c>
       <c r="E43" s="3">
-        <v>15070100</v>
+        <v>14792500</v>
       </c>
       <c r="F43" s="3">
-        <v>14847200</v>
+        <v>15232000</v>
       </c>
       <c r="G43" s="3">
-        <v>13133200</v>
+        <v>15006700</v>
       </c>
       <c r="H43" s="3">
-        <v>13576800</v>
+        <v>13274300</v>
       </c>
       <c r="I43" s="3">
-        <v>14065400</v>
+        <v>13722700</v>
       </c>
       <c r="J43" s="3">
+        <v>14216500</v>
+      </c>
+      <c r="K43" s="3">
         <v>27515900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32577900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13358300</v>
+        <v>12455300</v>
       </c>
       <c r="E44" s="3">
-        <v>11312700</v>
+        <v>13501800</v>
       </c>
       <c r="F44" s="3">
-        <v>10985500</v>
+        <v>11434300</v>
       </c>
       <c r="G44" s="3">
-        <v>10642900</v>
+        <v>11103500</v>
       </c>
       <c r="H44" s="3">
-        <v>12370100</v>
+        <v>10757300</v>
       </c>
       <c r="I44" s="3">
-        <v>11155700</v>
+        <v>12503000</v>
       </c>
       <c r="J44" s="3">
+        <v>11275600</v>
+      </c>
+      <c r="K44" s="3">
         <v>21423100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23165100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16560000</v>
+        <v>4651200</v>
       </c>
       <c r="E45" s="3">
-        <v>625900</v>
+        <v>16738000</v>
       </c>
       <c r="F45" s="3">
-        <v>557800</v>
+        <v>632600</v>
       </c>
       <c r="G45" s="3">
-        <v>713700</v>
+        <v>563800</v>
       </c>
       <c r="H45" s="3">
-        <v>2253100</v>
+        <v>721400</v>
       </c>
       <c r="I45" s="3">
-        <v>4353600</v>
+        <v>2277300</v>
       </c>
       <c r="J45" s="3">
+        <v>4400400</v>
+      </c>
+      <c r="K45" s="3">
         <v>9030000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1564700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47456700</v>
+        <v>34392700</v>
       </c>
       <c r="E46" s="3">
-        <v>34197200</v>
+        <v>47966700</v>
       </c>
       <c r="F46" s="3">
-        <v>28488700</v>
+        <v>34564700</v>
       </c>
       <c r="G46" s="3">
-        <v>26973500</v>
+        <v>28794900</v>
       </c>
       <c r="H46" s="3">
-        <v>30107200</v>
+        <v>27263300</v>
       </c>
       <c r="I46" s="3">
-        <v>28494200</v>
+        <v>30430700</v>
       </c>
       <c r="J46" s="3">
+        <v>28800400</v>
+      </c>
+      <c r="K46" s="3">
         <v>30158800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30188000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3044800</v>
+        <v>17361700</v>
       </c>
       <c r="E47" s="3">
-        <v>5842500</v>
+        <v>3077500</v>
       </c>
       <c r="F47" s="3">
-        <v>5766700</v>
+        <v>5905200</v>
       </c>
       <c r="G47" s="3">
-        <v>5448300</v>
+        <v>5828700</v>
       </c>
       <c r="H47" s="3">
-        <v>4155900</v>
+        <v>5506800</v>
       </c>
       <c r="I47" s="3">
-        <v>6252000</v>
+        <v>4200600</v>
       </c>
       <c r="J47" s="3">
+        <v>6319200</v>
+      </c>
+      <c r="K47" s="3">
         <v>8683000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7939700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22816400</v>
+        <v>24184800</v>
       </c>
       <c r="E48" s="3">
-        <v>27733300</v>
+        <v>23061600</v>
       </c>
       <c r="F48" s="3">
-        <v>29001500</v>
+        <v>28031300</v>
       </c>
       <c r="G48" s="3">
-        <v>27735500</v>
+        <v>29313100</v>
       </c>
       <c r="H48" s="3">
-        <v>25798600</v>
+        <v>28033500</v>
       </c>
       <c r="I48" s="3">
-        <v>21113400</v>
+        <v>26075900</v>
       </c>
       <c r="J48" s="3">
+        <v>21340300</v>
+      </c>
+      <c r="K48" s="3">
         <v>38196100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40083300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18176300</v>
+        <v>16119800</v>
       </c>
       <c r="E49" s="3">
-        <v>14926200</v>
+        <v>18371600</v>
       </c>
       <c r="F49" s="3">
-        <v>16647900</v>
+        <v>15086600</v>
       </c>
       <c r="G49" s="3">
-        <v>13765600</v>
+        <v>16826800</v>
       </c>
       <c r="H49" s="3">
-        <v>14237800</v>
+        <v>13913600</v>
       </c>
       <c r="I49" s="3">
-        <v>13531800</v>
+        <v>14390800</v>
       </c>
       <c r="J49" s="3">
+        <v>13677200</v>
+      </c>
+      <c r="K49" s="3">
         <v>26828500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>27900300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3544300</v>
+        <v>4438100</v>
       </c>
       <c r="E52" s="3">
-        <v>3788100</v>
+        <v>3582400</v>
       </c>
       <c r="F52" s="3">
-        <v>4087900</v>
+        <v>3828800</v>
       </c>
       <c r="G52" s="3">
-        <v>3855100</v>
+        <v>4131800</v>
       </c>
       <c r="H52" s="3">
-        <v>4052700</v>
+        <v>3896500</v>
       </c>
       <c r="I52" s="3">
-        <v>1104600</v>
+        <v>4096300</v>
       </c>
       <c r="J52" s="3">
+        <v>1116500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4027500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3732700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>95038500</v>
+        <v>96497100</v>
       </c>
       <c r="E54" s="3">
-        <v>86487300</v>
+        <v>96059800</v>
       </c>
       <c r="F54" s="3">
-        <v>83992600</v>
+        <v>87416700</v>
       </c>
       <c r="G54" s="3">
-        <v>77777900</v>
+        <v>84895300</v>
       </c>
       <c r="H54" s="3">
-        <v>78352200</v>
+        <v>78613800</v>
       </c>
       <c r="I54" s="3">
-        <v>70496000</v>
+        <v>79194200</v>
       </c>
       <c r="J54" s="3">
+        <v>71253600</v>
+      </c>
+      <c r="K54" s="3">
         <v>68873100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69832300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,188 +2141,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5624000</v>
+        <v>5645600</v>
       </c>
       <c r="E57" s="3">
-        <v>5458200</v>
+        <v>5684400</v>
       </c>
       <c r="F57" s="3">
-        <v>5061800</v>
+        <v>5516800</v>
       </c>
       <c r="G57" s="3">
-        <v>4414000</v>
+        <v>5116200</v>
       </c>
       <c r="H57" s="3">
-        <v>5337400</v>
+        <v>4461400</v>
       </c>
       <c r="I57" s="3">
-        <v>5658000</v>
+        <v>5394700</v>
       </c>
       <c r="J57" s="3">
+        <v>5718800</v>
+      </c>
+      <c r="K57" s="3">
         <v>10099400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11677100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6048900</v>
+        <v>4154000</v>
       </c>
       <c r="E58" s="3">
-        <v>2741700</v>
+        <v>6113900</v>
       </c>
       <c r="F58" s="3">
-        <v>4160300</v>
+        <v>2771200</v>
       </c>
       <c r="G58" s="3">
-        <v>4497400</v>
+        <v>4205000</v>
       </c>
       <c r="H58" s="3">
-        <v>3913300</v>
+        <v>4545700</v>
       </c>
       <c r="I58" s="3">
-        <v>3589400</v>
+        <v>3955300</v>
       </c>
       <c r="J58" s="3">
+        <v>3627900</v>
+      </c>
+      <c r="K58" s="3">
         <v>9177100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9188600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13942400</v>
+        <v>8627600</v>
       </c>
       <c r="E59" s="3">
-        <v>8138400</v>
+        <v>14092200</v>
       </c>
       <c r="F59" s="3">
-        <v>7596000</v>
+        <v>8225800</v>
       </c>
       <c r="G59" s="3">
-        <v>6719800</v>
+        <v>7677600</v>
       </c>
       <c r="H59" s="3">
-        <v>8199900</v>
+        <v>6792000</v>
       </c>
       <c r="I59" s="3">
-        <v>9346200</v>
+        <v>8288000</v>
       </c>
       <c r="J59" s="3">
+        <v>9446600</v>
+      </c>
+      <c r="K59" s="3">
         <v>18101600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16962700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25615200</v>
+        <v>18427100</v>
       </c>
       <c r="E60" s="3">
-        <v>16338200</v>
+        <v>25890500</v>
       </c>
       <c r="F60" s="3">
-        <v>16818100</v>
+        <v>16513800</v>
       </c>
       <c r="G60" s="3">
-        <v>15631100</v>
+        <v>16998800</v>
       </c>
       <c r="H60" s="3">
-        <v>17450500</v>
+        <v>15799100</v>
       </c>
       <c r="I60" s="3">
-        <v>15744200</v>
+        <v>17638100</v>
       </c>
       <c r="J60" s="3">
+        <v>15913400</v>
+      </c>
+      <c r="K60" s="3">
         <v>18347600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18487500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16934500</v>
+        <v>17816700</v>
       </c>
       <c r="E61" s="3">
-        <v>17166100</v>
+        <v>17116400</v>
       </c>
       <c r="F61" s="3">
-        <v>13866600</v>
+        <v>17350600</v>
       </c>
       <c r="G61" s="3">
-        <v>12278900</v>
+        <v>14015700</v>
       </c>
       <c r="H61" s="3">
-        <v>13077200</v>
+        <v>12410900</v>
       </c>
       <c r="I61" s="3">
-        <v>12322900</v>
+        <v>13217700</v>
       </c>
       <c r="J61" s="3">
+        <v>12455300</v>
+      </c>
+      <c r="K61" s="3">
         <v>9624000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10176900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12841100</v>
+        <v>13253200</v>
       </c>
       <c r="E62" s="3">
-        <v>14820800</v>
+        <v>12979100</v>
       </c>
       <c r="F62" s="3">
-        <v>17548200</v>
+        <v>14980100</v>
       </c>
       <c r="G62" s="3">
-        <v>15231500</v>
+        <v>17736800</v>
       </c>
       <c r="H62" s="3">
-        <v>16866400</v>
+        <v>15395100</v>
       </c>
       <c r="I62" s="3">
-        <v>12044000</v>
+        <v>17047600</v>
       </c>
       <c r="J62" s="3">
+        <v>12173400</v>
+      </c>
+      <c r="K62" s="3">
         <v>25963300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23594800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2250,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56549200</v>
+        <v>50443700</v>
       </c>
       <c r="E66" s="3">
-        <v>49334200</v>
+        <v>57156900</v>
       </c>
       <c r="F66" s="3">
-        <v>49068500</v>
+        <v>49864400</v>
       </c>
       <c r="G66" s="3">
-        <v>43832200</v>
+        <v>49595900</v>
       </c>
       <c r="H66" s="3">
-        <v>48032000</v>
+        <v>44303200</v>
       </c>
       <c r="I66" s="3">
-        <v>40802800</v>
+        <v>48548200</v>
       </c>
       <c r="J66" s="3">
+        <v>41241300</v>
+      </c>
+      <c r="K66" s="3">
         <v>41850300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41455400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43719100</v>
+        <v>50130800</v>
       </c>
       <c r="E72" s="3">
-        <v>41661400</v>
+        <v>44188900</v>
       </c>
       <c r="F72" s="3">
-        <v>38040200</v>
+        <v>42109100</v>
       </c>
       <c r="G72" s="3">
-        <v>36520600</v>
+        <v>38449000</v>
       </c>
       <c r="H72" s="3">
-        <v>35048200</v>
+        <v>36913100</v>
       </c>
       <c r="I72" s="3">
-        <v>32135200</v>
+        <v>35424800</v>
       </c>
       <c r="J72" s="3">
+        <v>32480500</v>
+      </c>
+      <c r="K72" s="3">
         <v>51608200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51432800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38489300</v>
+        <v>46053400</v>
       </c>
       <c r="E76" s="3">
-        <v>37153000</v>
+        <v>38902900</v>
       </c>
       <c r="F76" s="3">
-        <v>34924100</v>
+        <v>37552300</v>
       </c>
       <c r="G76" s="3">
-        <v>33945800</v>
+        <v>35299400</v>
       </c>
       <c r="H76" s="3">
-        <v>30320200</v>
+        <v>34310600</v>
       </c>
       <c r="I76" s="3">
-        <v>29693200</v>
+        <v>30646000</v>
       </c>
       <c r="J76" s="3">
+        <v>30012300</v>
+      </c>
+      <c r="K76" s="3">
         <v>27022900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28376900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5168300</v>
+        <v>9327100</v>
       </c>
       <c r="E81" s="3">
-        <v>7089800</v>
+        <v>5685300</v>
       </c>
       <c r="F81" s="3">
-        <v>4453500</v>
+        <v>7151800</v>
       </c>
       <c r="G81" s="3">
-        <v>4377700</v>
+        <v>4492400</v>
       </c>
       <c r="H81" s="3">
-        <v>5660200</v>
+        <v>4416000</v>
       </c>
       <c r="I81" s="3">
-        <v>5261600</v>
+        <v>5709700</v>
       </c>
       <c r="J81" s="3">
+        <v>5307600</v>
+      </c>
+      <c r="K81" s="3">
         <v>4914600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7263500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4117500</v>
+        <v>4671900</v>
       </c>
       <c r="E83" s="3">
-        <v>4625900</v>
+        <v>4153500</v>
       </c>
       <c r="F83" s="3">
-        <v>4711500</v>
+        <v>4666300</v>
       </c>
       <c r="G83" s="3">
-        <v>4883900</v>
+        <v>4752700</v>
       </c>
       <c r="H83" s="3">
-        <v>3793600</v>
+        <v>4926600</v>
       </c>
       <c r="I83" s="3">
-        <v>3638800</v>
+        <v>3826800</v>
       </c>
       <c r="J83" s="3">
+        <v>3670600</v>
+      </c>
+      <c r="K83" s="3">
         <v>3610200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4013300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8717000</v>
+        <v>8300400</v>
       </c>
       <c r="E89" s="3">
-        <v>9655800</v>
+        <v>8793200</v>
       </c>
       <c r="F89" s="3">
-        <v>8474400</v>
+        <v>9740200</v>
       </c>
       <c r="G89" s="3">
-        <v>10376100</v>
+        <v>8548500</v>
       </c>
       <c r="H89" s="3">
-        <v>7636600</v>
+        <v>10466800</v>
       </c>
       <c r="I89" s="3">
-        <v>8894900</v>
+        <v>7703400</v>
       </c>
       <c r="J89" s="3">
+        <v>8972700</v>
+      </c>
+      <c r="K89" s="3">
         <v>7251200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8336400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4275600</v>
+        <v>-4235500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4387600</v>
+        <v>-4313000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4551200</v>
+        <v>-4426000</v>
       </c>
       <c r="G91" s="3">
-        <v>-6381600</v>
+        <v>-4591000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5815000</v>
+        <v>-6437400</v>
       </c>
       <c r="I91" s="3">
-        <v>-5350600</v>
+        <v>-5865800</v>
       </c>
       <c r="J91" s="3">
+        <v>-5397300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4408500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4002700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12960800</v>
+        <v>-1318000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4345900</v>
+        <v>-13074100</v>
       </c>
       <c r="F94" s="3">
-        <v>-7126000</v>
+        <v>-4383900</v>
       </c>
       <c r="G94" s="3">
-        <v>-5748000</v>
+        <v>-7188300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4936600</v>
+        <v>-5798300</v>
       </c>
       <c r="I94" s="3">
-        <v>-6581400</v>
+        <v>-4979800</v>
       </c>
       <c r="J94" s="3">
+        <v>-6639000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4366700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2040100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,38 +3295,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3126000</v>
+        <v>-3255200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3025000</v>
+        <v>-3153300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2925100</v>
+        <v>-3051400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2824100</v>
+        <v>-2950600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2723000</v>
+        <v>-2848700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2622000</v>
+        <v>-2746800</v>
       </c>
       <c r="J96" s="3">
+        <v>-2644900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2521000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2372300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57100</v>
+        <v>-7094200</v>
       </c>
       <c r="E100" s="3">
-        <v>432600</v>
+        <v>-57600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2371700</v>
+        <v>436400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4033000</v>
+        <v>-2392400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2720800</v>
+        <v>-4068200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2057700</v>
+        <v>-2744600</v>
       </c>
       <c r="J100" s="3">
+        <v>-2075600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3188600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5655400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64800</v>
+        <v>41000</v>
       </c>
       <c r="E101" s="3">
-        <v>-120800</v>
+        <v>-65300</v>
       </c>
       <c r="F101" s="3">
-        <v>72500</v>
+        <v>-121800</v>
       </c>
       <c r="G101" s="3">
-        <v>-20900</v>
+        <v>73100</v>
       </c>
       <c r="H101" s="3">
-        <v>-98800</v>
+        <v>-21000</v>
       </c>
       <c r="I101" s="3">
-        <v>-65900</v>
+        <v>-99700</v>
       </c>
       <c r="J101" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="K101" s="3">
         <v>23100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4365600</v>
+        <v>-70900</v>
       </c>
       <c r="E102" s="3">
-        <v>5621800</v>
+        <v>-4403800</v>
       </c>
       <c r="F102" s="3">
-        <v>-950900</v>
+        <v>5670900</v>
       </c>
       <c r="G102" s="3">
-        <v>574300</v>
+        <v>-959200</v>
       </c>
       <c r="H102" s="3">
-        <v>-119700</v>
+        <v>579300</v>
       </c>
       <c r="I102" s="3">
-        <v>190000</v>
+        <v>-120700</v>
       </c>
       <c r="J102" s="3">
+        <v>191600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-281100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>651500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -721,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>65698400</v>
+        <v>70164900</v>
       </c>
       <c r="E8" s="3">
-        <v>66699700</v>
+        <v>71234200</v>
       </c>
       <c r="F8" s="3">
-        <v>67810600</v>
+        <v>72420700</v>
       </c>
       <c r="G8" s="3">
-        <v>63742400</v>
+        <v>68075900</v>
       </c>
       <c r="H8" s="3">
-        <v>78029300</v>
+        <v>83334100</v>
       </c>
       <c r="I8" s="3">
-        <v>82323500</v>
+        <v>87920200</v>
       </c>
       <c r="J8" s="3">
-        <v>81932500</v>
+        <v>87502700</v>
       </c>
       <c r="K8" s="3">
         <v>79197600</v>
@@ -754,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47694400</v>
+        <v>50936900</v>
       </c>
       <c r="E9" s="3">
-        <v>47531500</v>
+        <v>50763000</v>
       </c>
       <c r="F9" s="3">
-        <v>46066200</v>
+        <v>49198000</v>
       </c>
       <c r="G9" s="3">
-        <v>43489900</v>
+        <v>46446600</v>
       </c>
       <c r="H9" s="3">
-        <v>56899600</v>
+        <v>60767900</v>
       </c>
       <c r="I9" s="3">
-        <v>61847300</v>
+        <v>66052000</v>
       </c>
       <c r="J9" s="3">
-        <v>61556000</v>
+        <v>65740900</v>
       </c>
       <c r="K9" s="3">
         <v>123292200</v>
@@ -787,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18004000</v>
+        <v>19228000</v>
       </c>
       <c r="E10" s="3">
-        <v>19168100</v>
+        <v>20471300</v>
       </c>
       <c r="F10" s="3">
-        <v>21744400</v>
+        <v>23222700</v>
       </c>
       <c r="G10" s="3">
-        <v>20252500</v>
+        <v>21629300</v>
       </c>
       <c r="H10" s="3">
-        <v>21129700</v>
+        <v>22566200</v>
       </c>
       <c r="I10" s="3">
-        <v>20476200</v>
+        <v>21868300</v>
       </c>
       <c r="J10" s="3">
-        <v>20376500</v>
+        <v>21761800</v>
       </c>
       <c r="K10" s="3">
         <v>-44094600</v>
@@ -835,25 +834,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2390200</v>
+        <v>2552700</v>
       </c>
       <c r="E12" s="3">
-        <v>2208600</v>
+        <v>2358700</v>
       </c>
       <c r="F12" s="3">
-        <v>2041300</v>
+        <v>2180100</v>
       </c>
       <c r="G12" s="3">
-        <v>2063500</v>
+        <v>2203700</v>
       </c>
       <c r="H12" s="3">
-        <v>2163100</v>
+        <v>2310200</v>
       </c>
       <c r="I12" s="3">
-        <v>2086700</v>
+        <v>2228600</v>
       </c>
       <c r="J12" s="3">
-        <v>2048000</v>
+        <v>2187200</v>
       </c>
       <c r="K12" s="3">
         <v>4062600</v>
@@ -901,25 +900,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>772000</v>
+        <v>824500</v>
       </c>
       <c r="E14" s="3">
-        <v>447500</v>
+        <v>477900</v>
       </c>
       <c r="F14" s="3">
-        <v>397600</v>
+        <v>424700</v>
       </c>
       <c r="G14" s="3">
-        <v>533900</v>
+        <v>570200</v>
       </c>
       <c r="H14" s="3">
-        <v>338900</v>
+        <v>362000</v>
       </c>
       <c r="I14" s="3">
-        <v>194900</v>
+        <v>208200</v>
       </c>
       <c r="J14" s="3">
-        <v>350000</v>
+        <v>373800</v>
       </c>
       <c r="K14" s="3">
         <v>413900</v>
@@ -934,25 +933,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>471800</v>
+        <v>503900</v>
       </c>
       <c r="E15" s="3">
-        <v>79700</v>
+        <v>85200</v>
       </c>
       <c r="F15" s="3">
-        <v>244800</v>
+        <v>261400</v>
       </c>
       <c r="G15" s="3">
-        <v>373300</v>
+        <v>398600</v>
       </c>
       <c r="H15" s="3">
-        <v>747600</v>
+        <v>798500</v>
       </c>
       <c r="I15" s="3">
-        <v>409800</v>
+        <v>437700</v>
       </c>
       <c r="J15" s="3">
-        <v>274700</v>
+        <v>293400</v>
       </c>
       <c r="K15" s="3">
         <v>413900</v>
@@ -979,25 +978,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>61210400</v>
+        <v>65371800</v>
       </c>
       <c r="E17" s="3">
-        <v>60082900</v>
+        <v>64167600</v>
       </c>
       <c r="F17" s="3">
-        <v>59407200</v>
+        <v>63446000</v>
       </c>
       <c r="G17" s="3">
-        <v>56792200</v>
+        <v>60653200</v>
       </c>
       <c r="H17" s="3">
-        <v>71109000</v>
+        <v>75943400</v>
       </c>
       <c r="I17" s="3">
-        <v>73876900</v>
+        <v>78899400</v>
       </c>
       <c r="J17" s="3">
-        <v>74002100</v>
+        <v>79033100</v>
       </c>
       <c r="K17" s="3">
         <v>71794900</v>
@@ -1012,25 +1011,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4488000</v>
+        <v>4793100</v>
       </c>
       <c r="E18" s="3">
-        <v>6616800</v>
+        <v>7066600</v>
       </c>
       <c r="F18" s="3">
-        <v>8403400</v>
+        <v>8974700</v>
       </c>
       <c r="G18" s="3">
-        <v>6950200</v>
+        <v>7422700</v>
       </c>
       <c r="H18" s="3">
-        <v>6920300</v>
+        <v>7390800</v>
       </c>
       <c r="I18" s="3">
-        <v>8446600</v>
+        <v>9020800</v>
       </c>
       <c r="J18" s="3">
-        <v>7930400</v>
+        <v>8469600</v>
       </c>
       <c r="K18" s="3">
         <v>7402700</v>
@@ -1060,25 +1059,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-151700</v>
+        <v>-162100</v>
       </c>
       <c r="E20" s="3">
-        <v>-260300</v>
+        <v>-278000</v>
       </c>
       <c r="F20" s="3">
-        <v>-276900</v>
+        <v>-295700</v>
       </c>
       <c r="G20" s="3">
-        <v>-344500</v>
+        <v>-367900</v>
       </c>
       <c r="H20" s="3">
-        <v>-233700</v>
+        <v>-249600</v>
       </c>
       <c r="I20" s="3">
-        <v>146200</v>
+        <v>156100</v>
       </c>
       <c r="J20" s="3">
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="K20" s="3">
         <v>707100</v>
@@ -1093,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8977300</v>
+        <v>9622300</v>
       </c>
       <c r="E21" s="3">
-        <v>10482600</v>
+        <v>11226100</v>
       </c>
       <c r="F21" s="3">
-        <v>12762000</v>
+        <v>13664200</v>
       </c>
       <c r="G21" s="3">
-        <v>11327100</v>
+        <v>12132400</v>
       </c>
       <c r="H21" s="3">
-        <v>11580700</v>
+        <v>12404500</v>
       </c>
       <c r="I21" s="3">
-        <v>12394300</v>
+        <v>13265300</v>
       </c>
       <c r="J21" s="3">
-        <v>11599000</v>
+        <v>12414700</v>
       </c>
       <c r="K21" s="3">
         <v>11725600</v>
@@ -1126,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>679000</v>
+        <v>725100</v>
       </c>
       <c r="E22" s="3">
-        <v>560400</v>
+        <v>598500</v>
       </c>
       <c r="F22" s="3">
-        <v>504000</v>
+        <v>538200</v>
       </c>
       <c r="G22" s="3">
-        <v>630200</v>
+        <v>673100</v>
       </c>
       <c r="H22" s="3">
-        <v>541600</v>
+        <v>578400</v>
       </c>
       <c r="I22" s="3">
-        <v>614700</v>
+        <v>656500</v>
       </c>
       <c r="J22" s="3">
-        <v>642400</v>
+        <v>686100</v>
       </c>
       <c r="K22" s="3">
         <v>1547100</v>
@@ -1159,25 +1158,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3657300</v>
+        <v>3905900</v>
       </c>
       <c r="E23" s="3">
-        <v>5796100</v>
+        <v>6190100</v>
       </c>
       <c r="F23" s="3">
-        <v>7622500</v>
+        <v>8140700</v>
       </c>
       <c r="G23" s="3">
-        <v>5975500</v>
+        <v>6381700</v>
       </c>
       <c r="H23" s="3">
-        <v>6145000</v>
+        <v>6562700</v>
       </c>
       <c r="I23" s="3">
-        <v>7978000</v>
+        <v>8520400</v>
       </c>
       <c r="J23" s="3">
-        <v>7310200</v>
+        <v>7807100</v>
       </c>
       <c r="K23" s="3">
         <v>6562700</v>
@@ -1192,25 +1191,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>837300</v>
+        <v>894300</v>
       </c>
       <c r="E24" s="3">
-        <v>1237200</v>
+        <v>1321300</v>
       </c>
       <c r="F24" s="3">
-        <v>1428800</v>
+        <v>1525900</v>
       </c>
       <c r="G24" s="3">
-        <v>1262700</v>
+        <v>1348500</v>
       </c>
       <c r="H24" s="3">
-        <v>1381200</v>
+        <v>1475100</v>
       </c>
       <c r="I24" s="3">
-        <v>1895100</v>
+        <v>2023900</v>
       </c>
       <c r="J24" s="3">
-        <v>1647000</v>
+        <v>1759000</v>
       </c>
       <c r="K24" s="3">
         <v>999200</v>
@@ -1258,25 +1257,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2819900</v>
+        <v>3011700</v>
       </c>
       <c r="E26" s="3">
-        <v>4558900</v>
+        <v>4868800</v>
       </c>
       <c r="F26" s="3">
-        <v>6193700</v>
+        <v>6614800</v>
       </c>
       <c r="G26" s="3">
-        <v>4712800</v>
+        <v>5033200</v>
       </c>
       <c r="H26" s="3">
-        <v>4763800</v>
+        <v>5087700</v>
       </c>
       <c r="I26" s="3">
-        <v>6082900</v>
+        <v>6496500</v>
       </c>
       <c r="J26" s="3">
-        <v>5663200</v>
+        <v>6048200</v>
       </c>
       <c r="K26" s="3">
         <v>5563600</v>
@@ -1291,25 +1290,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2742400</v>
+        <v>2928900</v>
       </c>
       <c r="E27" s="3">
-        <v>4257600</v>
+        <v>4547100</v>
       </c>
       <c r="F27" s="3">
-        <v>5890200</v>
+        <v>6290700</v>
       </c>
       <c r="G27" s="3">
-        <v>4492400</v>
+        <v>4797800</v>
       </c>
       <c r="H27" s="3">
-        <v>4416000</v>
+        <v>4716200</v>
       </c>
       <c r="I27" s="3">
-        <v>5709700</v>
+        <v>6097800</v>
       </c>
       <c r="J27" s="3">
-        <v>5307600</v>
+        <v>5668500</v>
       </c>
       <c r="K27" s="3">
         <v>4914600</v>
@@ -1357,13 +1356,13 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>6584700</v>
+        <v>7032300</v>
       </c>
       <c r="E29" s="3">
-        <v>1427700</v>
+        <v>1524800</v>
       </c>
       <c r="F29" s="3">
-        <v>1261600</v>
+        <v>1347300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1456,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>151700</v>
+        <v>162100</v>
       </c>
       <c r="E32" s="3">
-        <v>260300</v>
+        <v>278000</v>
       </c>
       <c r="F32" s="3">
-        <v>276900</v>
+        <v>295700</v>
       </c>
       <c r="G32" s="3">
-        <v>344500</v>
+        <v>367900</v>
       </c>
       <c r="H32" s="3">
-        <v>233700</v>
+        <v>249600</v>
       </c>
       <c r="I32" s="3">
-        <v>-146200</v>
+        <v>-156100</v>
       </c>
       <c r="J32" s="3">
-        <v>-22200</v>
+        <v>-23700</v>
       </c>
       <c r="K32" s="3">
         <v>-707100</v>
@@ -1489,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9327100</v>
+        <v>9961200</v>
       </c>
       <c r="E33" s="3">
-        <v>5685300</v>
+        <v>6071800</v>
       </c>
       <c r="F33" s="3">
-        <v>7151800</v>
+        <v>7638000</v>
       </c>
       <c r="G33" s="3">
-        <v>4492400</v>
+        <v>4797800</v>
       </c>
       <c r="H33" s="3">
-        <v>4416000</v>
+        <v>4716200</v>
       </c>
       <c r="I33" s="3">
-        <v>5709700</v>
+        <v>6097800</v>
       </c>
       <c r="J33" s="3">
-        <v>5307600</v>
+        <v>5668500</v>
       </c>
       <c r="K33" s="3">
         <v>4914600</v>
@@ -1555,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9327100</v>
+        <v>9961200</v>
       </c>
       <c r="E35" s="3">
-        <v>5685300</v>
+        <v>6071800</v>
       </c>
       <c r="F35" s="3">
-        <v>7151800</v>
+        <v>7638000</v>
       </c>
       <c r="G35" s="3">
-        <v>4492400</v>
+        <v>4797800</v>
       </c>
       <c r="H35" s="3">
-        <v>4416000</v>
+        <v>4716200</v>
       </c>
       <c r="I35" s="3">
-        <v>5709700</v>
+        <v>6097800</v>
       </c>
       <c r="J35" s="3">
-        <v>5307600</v>
+        <v>5668500</v>
       </c>
       <c r="K35" s="3">
         <v>4914600</v>
@@ -1656,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2693500</v>
+        <v>2870900</v>
       </c>
       <c r="E41" s="3">
-        <v>2552500</v>
+        <v>2720700</v>
       </c>
       <c r="F41" s="3">
-        <v>7208200</v>
+        <v>7682900</v>
       </c>
       <c r="G41" s="3">
-        <v>1526000</v>
+        <v>1626500</v>
       </c>
       <c r="H41" s="3">
-        <v>2487100</v>
+        <v>2650900</v>
       </c>
       <c r="I41" s="3">
-        <v>1906600</v>
+        <v>2032200</v>
       </c>
       <c r="J41" s="3">
-        <v>2027600</v>
+        <v>2161200</v>
       </c>
       <c r="K41" s="3">
         <v>3759600</v>
@@ -1689,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>492800</v>
+        <v>525200</v>
       </c>
       <c r="E42" s="3">
-        <v>381800</v>
+        <v>406900</v>
       </c>
       <c r="F42" s="3">
-        <v>57700</v>
+        <v>61500</v>
       </c>
       <c r="G42" s="3">
-        <v>594900</v>
+        <v>634000</v>
       </c>
       <c r="H42" s="3">
-        <v>23300</v>
+        <v>24800</v>
       </c>
       <c r="I42" s="3">
-        <v>21100</v>
+        <v>22500</v>
       </c>
       <c r="J42" s="3">
-        <v>18900</v>
+        <v>20100</v>
       </c>
       <c r="K42" s="3">
         <v>40600</v>
@@ -1722,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14100000</v>
+        <v>15028700</v>
       </c>
       <c r="E43" s="3">
-        <v>14792500</v>
+        <v>15766900</v>
       </c>
       <c r="F43" s="3">
-        <v>15232000</v>
+        <v>16235300</v>
       </c>
       <c r="G43" s="3">
-        <v>15006700</v>
+        <v>15995200</v>
       </c>
       <c r="H43" s="3">
-        <v>13274300</v>
+        <v>14148700</v>
       </c>
       <c r="I43" s="3">
-        <v>13722700</v>
+        <v>14626600</v>
       </c>
       <c r="J43" s="3">
-        <v>14216500</v>
+        <v>15152900</v>
       </c>
       <c r="K43" s="3">
         <v>27515900</v>
@@ -1755,25 +1754,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12455300</v>
+        <v>13275700</v>
       </c>
       <c r="E44" s="3">
-        <v>13501800</v>
+        <v>14391200</v>
       </c>
       <c r="F44" s="3">
-        <v>11434300</v>
+        <v>12187400</v>
       </c>
       <c r="G44" s="3">
-        <v>11103500</v>
+        <v>11834900</v>
       </c>
       <c r="H44" s="3">
-        <v>10757300</v>
+        <v>11465800</v>
       </c>
       <c r="I44" s="3">
-        <v>12503000</v>
+        <v>13326600</v>
       </c>
       <c r="J44" s="3">
-        <v>11275600</v>
+        <v>12018300</v>
       </c>
       <c r="K44" s="3">
         <v>21423100</v>
@@ -1788,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4651200</v>
+        <v>4957500</v>
       </c>
       <c r="E45" s="3">
-        <v>16738000</v>
+        <v>17840500</v>
       </c>
       <c r="F45" s="3">
-        <v>632600</v>
+        <v>674300</v>
       </c>
       <c r="G45" s="3">
-        <v>563800</v>
+        <v>600900</v>
       </c>
       <c r="H45" s="3">
-        <v>721400</v>
+        <v>768900</v>
       </c>
       <c r="I45" s="3">
-        <v>2277300</v>
+        <v>2427300</v>
       </c>
       <c r="J45" s="3">
-        <v>4400400</v>
+        <v>4690200</v>
       </c>
       <c r="K45" s="3">
         <v>9030000</v>
@@ -1821,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34392700</v>
+        <v>36658100</v>
       </c>
       <c r="E46" s="3">
-        <v>47966700</v>
+        <v>51126100</v>
       </c>
       <c r="F46" s="3">
-        <v>34564700</v>
+        <v>36841400</v>
       </c>
       <c r="G46" s="3">
-        <v>28794900</v>
+        <v>30691500</v>
       </c>
       <c r="H46" s="3">
-        <v>27263300</v>
+        <v>29059100</v>
       </c>
       <c r="I46" s="3">
-        <v>30430700</v>
+        <v>32435100</v>
       </c>
       <c r="J46" s="3">
-        <v>28800400</v>
+        <v>30697400</v>
       </c>
       <c r="K46" s="3">
         <v>30158800</v>
@@ -1854,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17361700</v>
+        <v>18505300</v>
       </c>
       <c r="E47" s="3">
-        <v>3077500</v>
+        <v>3280200</v>
       </c>
       <c r="F47" s="3">
-        <v>5905200</v>
+        <v>6294200</v>
       </c>
       <c r="G47" s="3">
-        <v>5828700</v>
+        <v>6212600</v>
       </c>
       <c r="H47" s="3">
-        <v>5506800</v>
+        <v>5869500</v>
       </c>
       <c r="I47" s="3">
-        <v>4200600</v>
+        <v>4477300</v>
       </c>
       <c r="J47" s="3">
-        <v>6319200</v>
+        <v>6735400</v>
       </c>
       <c r="K47" s="3">
         <v>8683000</v>
@@ -1887,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24184800</v>
+        <v>25777800</v>
       </c>
       <c r="E48" s="3">
-        <v>23061600</v>
+        <v>24580700</v>
       </c>
       <c r="F48" s="3">
-        <v>28031300</v>
+        <v>29877700</v>
       </c>
       <c r="G48" s="3">
-        <v>29313100</v>
+        <v>31243900</v>
       </c>
       <c r="H48" s="3">
-        <v>28033500</v>
+        <v>29880100</v>
       </c>
       <c r="I48" s="3">
-        <v>26075900</v>
+        <v>27793400</v>
       </c>
       <c r="J48" s="3">
-        <v>21340300</v>
+        <v>22746000</v>
       </c>
       <c r="K48" s="3">
         <v>38196100</v>
@@ -1920,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16119800</v>
+        <v>17181600</v>
       </c>
       <c r="E49" s="3">
-        <v>18371600</v>
+        <v>19581700</v>
       </c>
       <c r="F49" s="3">
-        <v>15086600</v>
+        <v>16080300</v>
       </c>
       <c r="G49" s="3">
-        <v>16826800</v>
+        <v>17935100</v>
       </c>
       <c r="H49" s="3">
-        <v>13913600</v>
+        <v>14830000</v>
       </c>
       <c r="I49" s="3">
-        <v>14390800</v>
+        <v>15338700</v>
       </c>
       <c r="J49" s="3">
-        <v>13677200</v>
+        <v>14578100</v>
       </c>
       <c r="K49" s="3">
         <v>26828500</v>
@@ -2019,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4438100</v>
+        <v>4730400</v>
       </c>
       <c r="E52" s="3">
-        <v>3582400</v>
+        <v>3818400</v>
       </c>
       <c r="F52" s="3">
-        <v>3828800</v>
+        <v>4081000</v>
       </c>
       <c r="G52" s="3">
-        <v>4131800</v>
+        <v>4403900</v>
       </c>
       <c r="H52" s="3">
-        <v>3896500</v>
+        <v>4153200</v>
       </c>
       <c r="I52" s="3">
-        <v>4096300</v>
+        <v>4366100</v>
       </c>
       <c r="J52" s="3">
-        <v>1116500</v>
+        <v>1190000</v>
       </c>
       <c r="K52" s="3">
         <v>4027500</v>
@@ -2085,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>96497100</v>
+        <v>102853000</v>
       </c>
       <c r="E54" s="3">
-        <v>96059800</v>
+        <v>102387000</v>
       </c>
       <c r="F54" s="3">
-        <v>87416700</v>
+        <v>93174700</v>
       </c>
       <c r="G54" s="3">
-        <v>84895300</v>
+        <v>90487100</v>
       </c>
       <c r="H54" s="3">
-        <v>78613800</v>
+        <v>83791900</v>
       </c>
       <c r="I54" s="3">
-        <v>79194200</v>
+        <v>84410600</v>
       </c>
       <c r="J54" s="3">
-        <v>71253600</v>
+        <v>75946900</v>
       </c>
       <c r="K54" s="3">
         <v>68873100</v>
@@ -2148,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5645600</v>
+        <v>6017400</v>
       </c>
       <c r="E57" s="3">
-        <v>5684400</v>
+        <v>6058800</v>
       </c>
       <c r="F57" s="3">
-        <v>5516800</v>
+        <v>5880200</v>
       </c>
       <c r="G57" s="3">
-        <v>5116200</v>
+        <v>5453200</v>
       </c>
       <c r="H57" s="3">
-        <v>4461400</v>
+        <v>4755300</v>
       </c>
       <c r="I57" s="3">
-        <v>5394700</v>
+        <v>5750100</v>
       </c>
       <c r="J57" s="3">
-        <v>5718800</v>
+        <v>6095500</v>
       </c>
       <c r="K57" s="3">
         <v>10099400</v>
@@ -2181,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4154000</v>
+        <v>4427600</v>
       </c>
       <c r="E58" s="3">
-        <v>6113900</v>
+        <v>6516600</v>
       </c>
       <c r="F58" s="3">
-        <v>2771200</v>
+        <v>2953700</v>
       </c>
       <c r="G58" s="3">
-        <v>4205000</v>
+        <v>4482000</v>
       </c>
       <c r="H58" s="3">
-        <v>4545700</v>
+        <v>4845200</v>
       </c>
       <c r="I58" s="3">
-        <v>3955300</v>
+        <v>4215900</v>
       </c>
       <c r="J58" s="3">
-        <v>3627900</v>
+        <v>3866900</v>
       </c>
       <c r="K58" s="3">
         <v>9177100</v>
@@ -2214,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8627600</v>
+        <v>9195900</v>
       </c>
       <c r="E59" s="3">
-        <v>14092200</v>
+        <v>15020500</v>
       </c>
       <c r="F59" s="3">
-        <v>8225800</v>
+        <v>8767700</v>
       </c>
       <c r="G59" s="3">
-        <v>7677600</v>
+        <v>8183300</v>
       </c>
       <c r="H59" s="3">
-        <v>6792000</v>
+        <v>7239300</v>
       </c>
       <c r="I59" s="3">
-        <v>8288000</v>
+        <v>8833900</v>
       </c>
       <c r="J59" s="3">
-        <v>9446600</v>
+        <v>10068800</v>
       </c>
       <c r="K59" s="3">
         <v>18101600</v>
@@ -2247,25 +2246,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18427100</v>
+        <v>19640900</v>
       </c>
       <c r="E60" s="3">
-        <v>25890500</v>
+        <v>27595900</v>
       </c>
       <c r="F60" s="3">
-        <v>16513800</v>
+        <v>17601600</v>
       </c>
       <c r="G60" s="3">
-        <v>16998800</v>
+        <v>18118500</v>
       </c>
       <c r="H60" s="3">
-        <v>15799100</v>
+        <v>16839800</v>
       </c>
       <c r="I60" s="3">
-        <v>17638100</v>
+        <v>18799800</v>
       </c>
       <c r="J60" s="3">
-        <v>15913400</v>
+        <v>16961600</v>
       </c>
       <c r="K60" s="3">
         <v>18347600</v>
@@ -2280,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17816700</v>
+        <v>18990300</v>
       </c>
       <c r="E61" s="3">
-        <v>17116400</v>
+        <v>18243900</v>
       </c>
       <c r="F61" s="3">
-        <v>17350600</v>
+        <v>18493500</v>
       </c>
       <c r="G61" s="3">
-        <v>14015700</v>
+        <v>14938800</v>
       </c>
       <c r="H61" s="3">
-        <v>12410900</v>
+        <v>13228400</v>
       </c>
       <c r="I61" s="3">
-        <v>13217700</v>
+        <v>14088300</v>
       </c>
       <c r="J61" s="3">
-        <v>12455300</v>
+        <v>13275700</v>
       </c>
       <c r="K61" s="3">
         <v>9624000</v>
@@ -2313,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13253200</v>
+        <v>14126200</v>
       </c>
       <c r="E62" s="3">
-        <v>12979100</v>
+        <v>13834000</v>
       </c>
       <c r="F62" s="3">
-        <v>14980100</v>
+        <v>15966800</v>
       </c>
       <c r="G62" s="3">
-        <v>17736800</v>
+        <v>18905100</v>
       </c>
       <c r="H62" s="3">
-        <v>15395100</v>
+        <v>16409200</v>
       </c>
       <c r="I62" s="3">
-        <v>17047600</v>
+        <v>18170500</v>
       </c>
       <c r="J62" s="3">
-        <v>12173400</v>
+        <v>12975200</v>
       </c>
       <c r="K62" s="3">
         <v>25963300</v>
@@ -2445,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50443700</v>
+        <v>53766400</v>
       </c>
       <c r="E66" s="3">
-        <v>57156900</v>
+        <v>60921700</v>
       </c>
       <c r="F66" s="3">
-        <v>49864400</v>
+        <v>53148900</v>
       </c>
       <c r="G66" s="3">
-        <v>49595900</v>
+        <v>52862600</v>
       </c>
       <c r="H66" s="3">
-        <v>44303200</v>
+        <v>47221400</v>
       </c>
       <c r="I66" s="3">
-        <v>48548200</v>
+        <v>51746000</v>
       </c>
       <c r="J66" s="3">
-        <v>41241300</v>
+        <v>43957700</v>
       </c>
       <c r="K66" s="3">
         <v>41850300</v>
@@ -2625,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50130800</v>
+        <v>53432800</v>
       </c>
       <c r="E72" s="3">
-        <v>44188900</v>
+        <v>47099500</v>
       </c>
       <c r="F72" s="3">
-        <v>42109100</v>
+        <v>44882800</v>
       </c>
       <c r="G72" s="3">
-        <v>38449000</v>
+        <v>40981600</v>
       </c>
       <c r="H72" s="3">
-        <v>36913100</v>
+        <v>39344400</v>
       </c>
       <c r="I72" s="3">
-        <v>35424800</v>
+        <v>37758200</v>
       </c>
       <c r="J72" s="3">
-        <v>32480500</v>
+        <v>34619900</v>
       </c>
       <c r="K72" s="3">
         <v>51608200</v>
@@ -2757,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46053400</v>
+        <v>49086800</v>
       </c>
       <c r="E76" s="3">
-        <v>38902900</v>
+        <v>41465400</v>
       </c>
       <c r="F76" s="3">
-        <v>37552300</v>
+        <v>40025800</v>
       </c>
       <c r="G76" s="3">
-        <v>35299400</v>
+        <v>37624500</v>
       </c>
       <c r="H76" s="3">
-        <v>34310600</v>
+        <v>36570500</v>
       </c>
       <c r="I76" s="3">
-        <v>30646000</v>
+        <v>32664600</v>
       </c>
       <c r="J76" s="3">
-        <v>30012300</v>
+        <v>31989200</v>
       </c>
       <c r="K76" s="3">
         <v>27022900</v>
@@ -2861,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9327100</v>
+        <v>9961200</v>
       </c>
       <c r="E81" s="3">
-        <v>5685300</v>
+        <v>6071800</v>
       </c>
       <c r="F81" s="3">
-        <v>7151800</v>
+        <v>7638000</v>
       </c>
       <c r="G81" s="3">
-        <v>4492400</v>
+        <v>4797800</v>
       </c>
       <c r="H81" s="3">
-        <v>4416000</v>
+        <v>4716200</v>
       </c>
       <c r="I81" s="3">
-        <v>5709700</v>
+        <v>6097800</v>
       </c>
       <c r="J81" s="3">
-        <v>5307600</v>
+        <v>5668500</v>
       </c>
       <c r="K81" s="3">
         <v>4914600</v>
@@ -2909,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4671900</v>
+        <v>4989500</v>
       </c>
       <c r="E83" s="3">
-        <v>4153500</v>
+        <v>4435900</v>
       </c>
       <c r="F83" s="3">
-        <v>4666300</v>
+        <v>4983600</v>
       </c>
       <c r="G83" s="3">
-        <v>4752700</v>
+        <v>5075800</v>
       </c>
       <c r="H83" s="3">
-        <v>4926600</v>
+        <v>5261500</v>
       </c>
       <c r="I83" s="3">
-        <v>3826800</v>
+        <v>4086900</v>
       </c>
       <c r="J83" s="3">
-        <v>3670600</v>
+        <v>3920100</v>
       </c>
       <c r="K83" s="3">
         <v>3610200</v>
@@ -3107,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8300400</v>
+        <v>8864700</v>
       </c>
       <c r="E89" s="3">
-        <v>8793200</v>
+        <v>9391000</v>
       </c>
       <c r="F89" s="3">
-        <v>9740200</v>
+        <v>10402400</v>
       </c>
       <c r="G89" s="3">
-        <v>8548500</v>
+        <v>9129600</v>
       </c>
       <c r="H89" s="3">
-        <v>10466800</v>
+        <v>11178400</v>
       </c>
       <c r="I89" s="3">
-        <v>7703400</v>
+        <v>8227100</v>
       </c>
       <c r="J89" s="3">
-        <v>8972700</v>
+        <v>9582700</v>
       </c>
       <c r="K89" s="3">
         <v>7251200</v>
@@ -3155,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4235500</v>
+        <v>-4523400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4313000</v>
+        <v>-4606200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4426000</v>
+        <v>-4726900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4591000</v>
+        <v>-4903100</v>
       </c>
       <c r="H91" s="3">
-        <v>-6437400</v>
+        <v>-6875000</v>
       </c>
       <c r="I91" s="3">
-        <v>-5865800</v>
+        <v>-6264600</v>
       </c>
       <c r="J91" s="3">
-        <v>-5397300</v>
+        <v>-5764300</v>
       </c>
       <c r="K91" s="3">
         <v>-4408500</v>
@@ -3254,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1318000</v>
+        <v>-1407700</v>
       </c>
       <c r="E94" s="3">
-        <v>-13074100</v>
+        <v>-13963000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4383900</v>
+        <v>-4681900</v>
       </c>
       <c r="G94" s="3">
-        <v>-7188300</v>
+        <v>-7677000</v>
       </c>
       <c r="H94" s="3">
-        <v>-5798300</v>
+        <v>-6192500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4979800</v>
+        <v>-5318300</v>
       </c>
       <c r="J94" s="3">
-        <v>-6639000</v>
+        <v>-7090300</v>
       </c>
       <c r="K94" s="3">
         <v>-4366700</v>
@@ -3302,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3255200</v>
+        <v>-3476500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3153300</v>
+        <v>-3367700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3051400</v>
+        <v>-3258900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2950600</v>
+        <v>-3151200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2848700</v>
+        <v>-3042400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2746800</v>
+        <v>-2933600</v>
       </c>
       <c r="J96" s="3">
-        <v>-2644900</v>
+        <v>-2824800</v>
       </c>
       <c r="K96" s="3">
         <v>-2521000</v>
@@ -3434,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7094200</v>
+        <v>-7576500</v>
       </c>
       <c r="E100" s="3">
-        <v>-57600</v>
+        <v>-61500</v>
       </c>
       <c r="F100" s="3">
-        <v>436400</v>
+        <v>466100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2392400</v>
+        <v>-2555100</v>
       </c>
       <c r="H100" s="3">
-        <v>-4068200</v>
+        <v>-4344800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2744600</v>
+        <v>-2931200</v>
       </c>
       <c r="J100" s="3">
-        <v>-2075600</v>
+        <v>-2216800</v>
       </c>
       <c r="K100" s="3">
         <v>-3188600</v>
@@ -3467,25 +3466,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>41000</v>
+        <v>43800</v>
       </c>
       <c r="E101" s="3">
-        <v>-65300</v>
+        <v>-69800</v>
       </c>
       <c r="F101" s="3">
-        <v>-121800</v>
+        <v>-130100</v>
       </c>
       <c r="G101" s="3">
-        <v>73100</v>
+        <v>78100</v>
       </c>
       <c r="H101" s="3">
-        <v>-21000</v>
+        <v>-22500</v>
       </c>
       <c r="I101" s="3">
-        <v>-99700</v>
+        <v>-106500</v>
       </c>
       <c r="J101" s="3">
-        <v>-66500</v>
+        <v>-71000</v>
       </c>
       <c r="K101" s="3">
         <v>23100</v>
@@ -3500,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70900</v>
+        <v>-75700</v>
       </c>
       <c r="E102" s="3">
-        <v>-4403800</v>
+        <v>-4703200</v>
       </c>
       <c r="F102" s="3">
-        <v>5670900</v>
+        <v>6056400</v>
       </c>
       <c r="G102" s="3">
-        <v>-959200</v>
+        <v>-1024400</v>
       </c>
       <c r="H102" s="3">
-        <v>579300</v>
+        <v>618700</v>
       </c>
       <c r="I102" s="3">
-        <v>-120700</v>
+        <v>-128900</v>
       </c>
       <c r="J102" s="3">
-        <v>191600</v>
+        <v>204600</v>
       </c>
       <c r="K102" s="3">
         <v>-281100</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70164900</v>
+        <v>70953800</v>
       </c>
       <c r="E8" s="3">
-        <v>71234200</v>
+        <v>72035200</v>
       </c>
       <c r="F8" s="3">
-        <v>72420700</v>
+        <v>73235000</v>
       </c>
       <c r="G8" s="3">
-        <v>68075900</v>
+        <v>68841300</v>
       </c>
       <c r="H8" s="3">
-        <v>83334100</v>
+        <v>84271100</v>
       </c>
       <c r="I8" s="3">
-        <v>87920200</v>
+        <v>88908800</v>
       </c>
       <c r="J8" s="3">
-        <v>87502700</v>
+        <v>88486500</v>
       </c>
       <c r="K8" s="3">
         <v>79197600</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50936900</v>
+        <v>51509600</v>
       </c>
       <c r="E9" s="3">
-        <v>50763000</v>
+        <v>51333700</v>
       </c>
       <c r="F9" s="3">
-        <v>49198000</v>
+        <v>49751200</v>
       </c>
       <c r="G9" s="3">
-        <v>46446600</v>
+        <v>46968800</v>
       </c>
       <c r="H9" s="3">
-        <v>60767900</v>
+        <v>61451200</v>
       </c>
       <c r="I9" s="3">
-        <v>66052000</v>
+        <v>66794600</v>
       </c>
       <c r="J9" s="3">
-        <v>65740900</v>
+        <v>66480000</v>
       </c>
       <c r="K9" s="3">
         <v>123292200</v>
@@ -786,25 +786,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19228000</v>
+        <v>19444200</v>
       </c>
       <c r="E10" s="3">
-        <v>20471300</v>
+        <v>20701400</v>
       </c>
       <c r="F10" s="3">
-        <v>23222700</v>
+        <v>23483800</v>
       </c>
       <c r="G10" s="3">
-        <v>21629300</v>
+        <v>21872500</v>
       </c>
       <c r="H10" s="3">
-        <v>22566200</v>
+        <v>22819900</v>
       </c>
       <c r="I10" s="3">
-        <v>21868300</v>
+        <v>22114100</v>
       </c>
       <c r="J10" s="3">
-        <v>21761800</v>
+        <v>22006500</v>
       </c>
       <c r="K10" s="3">
         <v>-44094600</v>
@@ -834,25 +834,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2552700</v>
+        <v>2581400</v>
       </c>
       <c r="E12" s="3">
-        <v>2358700</v>
+        <v>2385200</v>
       </c>
       <c r="F12" s="3">
-        <v>2180100</v>
+        <v>2204600</v>
       </c>
       <c r="G12" s="3">
-        <v>2203700</v>
+        <v>2228500</v>
       </c>
       <c r="H12" s="3">
-        <v>2310200</v>
+        <v>2336200</v>
       </c>
       <c r="I12" s="3">
-        <v>2228600</v>
+        <v>2253600</v>
       </c>
       <c r="J12" s="3">
-        <v>2187200</v>
+        <v>2211800</v>
       </c>
       <c r="K12" s="3">
         <v>4062600</v>
@@ -900,25 +900,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>824500</v>
+        <v>833800</v>
       </c>
       <c r="E14" s="3">
-        <v>477900</v>
+        <v>483300</v>
       </c>
       <c r="F14" s="3">
-        <v>424700</v>
+        <v>429400</v>
       </c>
       <c r="G14" s="3">
-        <v>570200</v>
+        <v>576600</v>
       </c>
       <c r="H14" s="3">
-        <v>362000</v>
+        <v>366000</v>
       </c>
       <c r="I14" s="3">
-        <v>208200</v>
+        <v>210500</v>
       </c>
       <c r="J14" s="3">
-        <v>373800</v>
+        <v>378000</v>
       </c>
       <c r="K14" s="3">
         <v>413900</v>
@@ -933,25 +933,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>503900</v>
+        <v>509600</v>
       </c>
       <c r="E15" s="3">
-        <v>85200</v>
+        <v>86100</v>
       </c>
       <c r="F15" s="3">
-        <v>261400</v>
+        <v>264400</v>
       </c>
       <c r="G15" s="3">
-        <v>398600</v>
+        <v>403100</v>
       </c>
       <c r="H15" s="3">
-        <v>798500</v>
+        <v>807400</v>
       </c>
       <c r="I15" s="3">
-        <v>437700</v>
+        <v>442600</v>
       </c>
       <c r="J15" s="3">
-        <v>293400</v>
+        <v>296700</v>
       </c>
       <c r="K15" s="3">
         <v>413900</v>
@@ -978,25 +978,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>65371800</v>
+        <v>66106800</v>
       </c>
       <c r="E17" s="3">
-        <v>64167600</v>
+        <v>64889100</v>
       </c>
       <c r="F17" s="3">
-        <v>63446000</v>
+        <v>64159400</v>
       </c>
       <c r="G17" s="3">
-        <v>60653200</v>
+        <v>61335200</v>
       </c>
       <c r="H17" s="3">
-        <v>75943400</v>
+        <v>76797200</v>
       </c>
       <c r="I17" s="3">
-        <v>78899400</v>
+        <v>79786500</v>
       </c>
       <c r="J17" s="3">
-        <v>79033100</v>
+        <v>79921700</v>
       </c>
       <c r="K17" s="3">
         <v>71794900</v>
@@ -1011,25 +1011,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4793100</v>
+        <v>4847000</v>
       </c>
       <c r="E18" s="3">
-        <v>7066600</v>
+        <v>7146100</v>
       </c>
       <c r="F18" s="3">
-        <v>8974700</v>
+        <v>9075600</v>
       </c>
       <c r="G18" s="3">
-        <v>7422700</v>
+        <v>7506200</v>
       </c>
       <c r="H18" s="3">
-        <v>7390800</v>
+        <v>7473900</v>
       </c>
       <c r="I18" s="3">
-        <v>9020800</v>
+        <v>9122200</v>
       </c>
       <c r="J18" s="3">
-        <v>8469600</v>
+        <v>8564800</v>
       </c>
       <c r="K18" s="3">
         <v>7402700</v>
@@ -1059,25 +1059,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-162100</v>
+        <v>-163900</v>
       </c>
       <c r="E20" s="3">
-        <v>-278000</v>
+        <v>-281100</v>
       </c>
       <c r="F20" s="3">
-        <v>-295700</v>
+        <v>-299000</v>
       </c>
       <c r="G20" s="3">
-        <v>-367900</v>
+        <v>-372000</v>
       </c>
       <c r="H20" s="3">
-        <v>-249600</v>
+        <v>-252400</v>
       </c>
       <c r="I20" s="3">
-        <v>156100</v>
+        <v>157900</v>
       </c>
       <c r="J20" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="K20" s="3">
         <v>707100</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9622300</v>
+        <v>9708000</v>
       </c>
       <c r="E21" s="3">
-        <v>11226100</v>
+        <v>11332400</v>
       </c>
       <c r="F21" s="3">
-        <v>13664200</v>
+        <v>13795500</v>
       </c>
       <c r="G21" s="3">
-        <v>12132400</v>
+        <v>12246000</v>
       </c>
       <c r="H21" s="3">
-        <v>12404500</v>
+        <v>12520400</v>
       </c>
       <c r="I21" s="3">
-        <v>13265300</v>
+        <v>13396100</v>
       </c>
       <c r="J21" s="3">
-        <v>12414700</v>
+        <v>12536700</v>
       </c>
       <c r="K21" s="3">
         <v>11725600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>725100</v>
+        <v>733300</v>
       </c>
       <c r="E22" s="3">
-        <v>598500</v>
+        <v>605300</v>
       </c>
       <c r="F22" s="3">
-        <v>538200</v>
+        <v>544300</v>
       </c>
       <c r="G22" s="3">
-        <v>673100</v>
+        <v>680600</v>
       </c>
       <c r="H22" s="3">
-        <v>578400</v>
+        <v>584900</v>
       </c>
       <c r="I22" s="3">
-        <v>656500</v>
+        <v>663900</v>
       </c>
       <c r="J22" s="3">
-        <v>686100</v>
+        <v>693800</v>
       </c>
       <c r="K22" s="3">
         <v>1547100</v>
@@ -1158,25 +1158,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3905900</v>
+        <v>3949900</v>
       </c>
       <c r="E23" s="3">
-        <v>6190100</v>
+        <v>6259700</v>
       </c>
       <c r="F23" s="3">
-        <v>8140700</v>
+        <v>8232200</v>
       </c>
       <c r="G23" s="3">
-        <v>6381700</v>
+        <v>6453500</v>
       </c>
       <c r="H23" s="3">
-        <v>6562700</v>
+        <v>6636500</v>
       </c>
       <c r="I23" s="3">
-        <v>8520400</v>
+        <v>8616200</v>
       </c>
       <c r="J23" s="3">
-        <v>7807100</v>
+        <v>7894900</v>
       </c>
       <c r="K23" s="3">
         <v>6562700</v>
@@ -1191,25 +1191,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>894300</v>
+        <v>904300</v>
       </c>
       <c r="E24" s="3">
-        <v>1321300</v>
+        <v>1336200</v>
       </c>
       <c r="F24" s="3">
-        <v>1525900</v>
+        <v>1543100</v>
       </c>
       <c r="G24" s="3">
-        <v>1348500</v>
+        <v>1363700</v>
       </c>
       <c r="H24" s="3">
-        <v>1475100</v>
+        <v>1491700</v>
       </c>
       <c r="I24" s="3">
-        <v>2023900</v>
+        <v>2046700</v>
       </c>
       <c r="J24" s="3">
-        <v>1759000</v>
+        <v>1778700</v>
       </c>
       <c r="K24" s="3">
         <v>999200</v>
@@ -1257,25 +1257,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3011700</v>
+        <v>3045500</v>
       </c>
       <c r="E26" s="3">
-        <v>4868800</v>
+        <v>4923600</v>
       </c>
       <c r="F26" s="3">
-        <v>6614800</v>
+        <v>6689200</v>
       </c>
       <c r="G26" s="3">
-        <v>5033200</v>
+        <v>5089800</v>
       </c>
       <c r="H26" s="3">
-        <v>5087700</v>
+        <v>5144900</v>
       </c>
       <c r="I26" s="3">
-        <v>6496500</v>
+        <v>6569500</v>
       </c>
       <c r="J26" s="3">
-        <v>6048200</v>
+        <v>6116200</v>
       </c>
       <c r="K26" s="3">
         <v>5563600</v>
@@ -1290,25 +1290,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2928900</v>
+        <v>2961800</v>
       </c>
       <c r="E27" s="3">
-        <v>4547100</v>
+        <v>4598200</v>
       </c>
       <c r="F27" s="3">
-        <v>6290700</v>
+        <v>6361400</v>
       </c>
       <c r="G27" s="3">
-        <v>4797800</v>
+        <v>4851800</v>
       </c>
       <c r="H27" s="3">
-        <v>4716200</v>
+        <v>4769200</v>
       </c>
       <c r="I27" s="3">
-        <v>6097800</v>
+        <v>6166400</v>
       </c>
       <c r="J27" s="3">
-        <v>5668500</v>
+        <v>5732200</v>
       </c>
       <c r="K27" s="3">
         <v>4914600</v>
@@ -1356,13 +1356,13 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>7032300</v>
+        <v>7111400</v>
       </c>
       <c r="E29" s="3">
-        <v>1524800</v>
+        <v>1541900</v>
       </c>
       <c r="F29" s="3">
-        <v>1347300</v>
+        <v>1362500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1455,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>162100</v>
+        <v>163900</v>
       </c>
       <c r="E32" s="3">
-        <v>278000</v>
+        <v>281100</v>
       </c>
       <c r="F32" s="3">
-        <v>295700</v>
+        <v>299000</v>
       </c>
       <c r="G32" s="3">
-        <v>367900</v>
+        <v>372000</v>
       </c>
       <c r="H32" s="3">
-        <v>249600</v>
+        <v>252400</v>
       </c>
       <c r="I32" s="3">
-        <v>-156100</v>
+        <v>-157900</v>
       </c>
       <c r="J32" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="K32" s="3">
         <v>-707100</v>
@@ -1488,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9961200</v>
+        <v>10073200</v>
       </c>
       <c r="E33" s="3">
-        <v>6071800</v>
+        <v>6140100</v>
       </c>
       <c r="F33" s="3">
-        <v>7638000</v>
+        <v>7723900</v>
       </c>
       <c r="G33" s="3">
-        <v>4797800</v>
+        <v>4851800</v>
       </c>
       <c r="H33" s="3">
-        <v>4716200</v>
+        <v>4769200</v>
       </c>
       <c r="I33" s="3">
-        <v>6097800</v>
+        <v>6166400</v>
       </c>
       <c r="J33" s="3">
-        <v>5668500</v>
+        <v>5732200</v>
       </c>
       <c r="K33" s="3">
         <v>4914600</v>
@@ -1554,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9961200</v>
+        <v>10073200</v>
       </c>
       <c r="E35" s="3">
-        <v>6071800</v>
+        <v>6140100</v>
       </c>
       <c r="F35" s="3">
-        <v>7638000</v>
+        <v>7723900</v>
       </c>
       <c r="G35" s="3">
-        <v>4797800</v>
+        <v>4851800</v>
       </c>
       <c r="H35" s="3">
-        <v>4716200</v>
+        <v>4769200</v>
       </c>
       <c r="I35" s="3">
-        <v>6097800</v>
+        <v>6166400</v>
       </c>
       <c r="J35" s="3">
-        <v>5668500</v>
+        <v>5732200</v>
       </c>
       <c r="K35" s="3">
         <v>4914600</v>
@@ -1655,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2870900</v>
+        <v>2903200</v>
       </c>
       <c r="E41" s="3">
-        <v>2720700</v>
+        <v>2751300</v>
       </c>
       <c r="F41" s="3">
-        <v>7682900</v>
+        <v>7769300</v>
       </c>
       <c r="G41" s="3">
-        <v>1626500</v>
+        <v>1644800</v>
       </c>
       <c r="H41" s="3">
-        <v>2650900</v>
+        <v>2680700</v>
       </c>
       <c r="I41" s="3">
-        <v>2032200</v>
+        <v>2055100</v>
       </c>
       <c r="J41" s="3">
-        <v>2161200</v>
+        <v>2185500</v>
       </c>
       <c r="K41" s="3">
         <v>3759600</v>
@@ -1688,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>525200</v>
+        <v>531100</v>
       </c>
       <c r="E42" s="3">
-        <v>406900</v>
+        <v>411500</v>
       </c>
       <c r="F42" s="3">
-        <v>61500</v>
+        <v>62200</v>
       </c>
       <c r="G42" s="3">
-        <v>634000</v>
+        <v>641200</v>
       </c>
       <c r="H42" s="3">
-        <v>24800</v>
+        <v>25100</v>
       </c>
       <c r="I42" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="J42" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="K42" s="3">
         <v>40600</v>
@@ -1721,25 +1721,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15028700</v>
+        <v>15197700</v>
       </c>
       <c r="E43" s="3">
-        <v>15766900</v>
+        <v>15944100</v>
       </c>
       <c r="F43" s="3">
-        <v>16235300</v>
+        <v>16417800</v>
       </c>
       <c r="G43" s="3">
-        <v>15995200</v>
+        <v>16175000</v>
       </c>
       <c r="H43" s="3">
-        <v>14148700</v>
+        <v>14307700</v>
       </c>
       <c r="I43" s="3">
-        <v>14626600</v>
+        <v>14791000</v>
       </c>
       <c r="J43" s="3">
-        <v>15152900</v>
+        <v>15323300</v>
       </c>
       <c r="K43" s="3">
         <v>27515900</v>
@@ -1754,25 +1754,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13275700</v>
+        <v>13425000</v>
       </c>
       <c r="E44" s="3">
-        <v>14391200</v>
+        <v>14553000</v>
       </c>
       <c r="F44" s="3">
-        <v>12187400</v>
+        <v>12324400</v>
       </c>
       <c r="G44" s="3">
-        <v>11834900</v>
+        <v>11968000</v>
       </c>
       <c r="H44" s="3">
-        <v>11465800</v>
+        <v>11594800</v>
       </c>
       <c r="I44" s="3">
-        <v>13326600</v>
+        <v>13476400</v>
       </c>
       <c r="J44" s="3">
-        <v>12018300</v>
+        <v>12153400</v>
       </c>
       <c r="K44" s="3">
         <v>21423100</v>
@@ -1787,25 +1787,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4957500</v>
+        <v>5013300</v>
       </c>
       <c r="E45" s="3">
-        <v>17840500</v>
+        <v>18041100</v>
       </c>
       <c r="F45" s="3">
-        <v>674300</v>
+        <v>681800</v>
       </c>
       <c r="G45" s="3">
-        <v>600900</v>
+        <v>607700</v>
       </c>
       <c r="H45" s="3">
-        <v>768900</v>
+        <v>777500</v>
       </c>
       <c r="I45" s="3">
-        <v>2427300</v>
+        <v>2454600</v>
       </c>
       <c r="J45" s="3">
-        <v>4690200</v>
+        <v>4742900</v>
       </c>
       <c r="K45" s="3">
         <v>9030000</v>
@@ -1820,25 +1820,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36658100</v>
+        <v>37070200</v>
       </c>
       <c r="E46" s="3">
-        <v>51126100</v>
+        <v>51701000</v>
       </c>
       <c r="F46" s="3">
-        <v>36841400</v>
+        <v>37255600</v>
       </c>
       <c r="G46" s="3">
-        <v>30691500</v>
+        <v>31036600</v>
       </c>
       <c r="H46" s="3">
-        <v>29059100</v>
+        <v>29385800</v>
       </c>
       <c r="I46" s="3">
-        <v>32435100</v>
+        <v>32799800</v>
       </c>
       <c r="J46" s="3">
-        <v>30697400</v>
+        <v>31042600</v>
       </c>
       <c r="K46" s="3">
         <v>30158800</v>
@@ -1853,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18505300</v>
+        <v>18713400</v>
       </c>
       <c r="E47" s="3">
-        <v>3280200</v>
+        <v>3317100</v>
       </c>
       <c r="F47" s="3">
-        <v>6294200</v>
+        <v>6365000</v>
       </c>
       <c r="G47" s="3">
-        <v>6212600</v>
+        <v>6282400</v>
       </c>
       <c r="H47" s="3">
-        <v>5869500</v>
+        <v>5935500</v>
       </c>
       <c r="I47" s="3">
-        <v>4477300</v>
+        <v>4527600</v>
       </c>
       <c r="J47" s="3">
-        <v>6735400</v>
+        <v>6811200</v>
       </c>
       <c r="K47" s="3">
         <v>8683000</v>
@@ -1886,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25777800</v>
+        <v>26067600</v>
       </c>
       <c r="E48" s="3">
-        <v>24580700</v>
+        <v>24857000</v>
       </c>
       <c r="F48" s="3">
-        <v>29877700</v>
+        <v>30213600</v>
       </c>
       <c r="G48" s="3">
-        <v>31243900</v>
+        <v>31595200</v>
       </c>
       <c r="H48" s="3">
-        <v>29880100</v>
+        <v>30216000</v>
       </c>
       <c r="I48" s="3">
-        <v>27793400</v>
+        <v>28105900</v>
       </c>
       <c r="J48" s="3">
-        <v>22746000</v>
+        <v>23001700</v>
       </c>
       <c r="K48" s="3">
         <v>38196100</v>
@@ -1919,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17181600</v>
+        <v>17374800</v>
       </c>
       <c r="E49" s="3">
-        <v>19581700</v>
+        <v>19801900</v>
       </c>
       <c r="F49" s="3">
-        <v>16080300</v>
+        <v>16261100</v>
       </c>
       <c r="G49" s="3">
-        <v>17935100</v>
+        <v>18136800</v>
       </c>
       <c r="H49" s="3">
-        <v>14830000</v>
+        <v>14996800</v>
       </c>
       <c r="I49" s="3">
-        <v>15338700</v>
+        <v>15511100</v>
       </c>
       <c r="J49" s="3">
-        <v>14578100</v>
+        <v>14742000</v>
       </c>
       <c r="K49" s="3">
         <v>26828500</v>
@@ -2018,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4730400</v>
+        <v>4783600</v>
       </c>
       <c r="E52" s="3">
-        <v>3818400</v>
+        <v>3861300</v>
       </c>
       <c r="F52" s="3">
-        <v>4081000</v>
+        <v>4126900</v>
       </c>
       <c r="G52" s="3">
-        <v>4403900</v>
+        <v>4453500</v>
       </c>
       <c r="H52" s="3">
-        <v>4153200</v>
+        <v>4199900</v>
       </c>
       <c r="I52" s="3">
-        <v>4366100</v>
+        <v>4415200</v>
       </c>
       <c r="J52" s="3">
-        <v>1190000</v>
+        <v>1203400</v>
       </c>
       <c r="K52" s="3">
         <v>4027500</v>
@@ -2084,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>102853000</v>
+        <v>104010000</v>
       </c>
       <c r="E54" s="3">
-        <v>102387000</v>
+        <v>103538000</v>
       </c>
       <c r="F54" s="3">
-        <v>93174700</v>
+        <v>94222300</v>
       </c>
       <c r="G54" s="3">
-        <v>90487100</v>
+        <v>91504500</v>
       </c>
       <c r="H54" s="3">
-        <v>83791900</v>
+        <v>84734000</v>
       </c>
       <c r="I54" s="3">
-        <v>84410600</v>
+        <v>85359600</v>
       </c>
       <c r="J54" s="3">
-        <v>75946900</v>
+        <v>76800800</v>
       </c>
       <c r="K54" s="3">
         <v>68873100</v>
@@ -2147,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6017400</v>
+        <v>6085100</v>
       </c>
       <c r="E57" s="3">
-        <v>6058800</v>
+        <v>6126900</v>
       </c>
       <c r="F57" s="3">
-        <v>5880200</v>
+        <v>5946300</v>
       </c>
       <c r="G57" s="3">
-        <v>5453200</v>
+        <v>5514500</v>
       </c>
       <c r="H57" s="3">
-        <v>4755300</v>
+        <v>4808700</v>
       </c>
       <c r="I57" s="3">
-        <v>5750100</v>
+        <v>5814700</v>
       </c>
       <c r="J57" s="3">
-        <v>6095500</v>
+        <v>6164000</v>
       </c>
       <c r="K57" s="3">
         <v>10099400</v>
@@ -2180,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4427600</v>
+        <v>4477400</v>
       </c>
       <c r="E58" s="3">
-        <v>6516600</v>
+        <v>6589900</v>
       </c>
       <c r="F58" s="3">
-        <v>2953700</v>
+        <v>2986900</v>
       </c>
       <c r="G58" s="3">
-        <v>4482000</v>
+        <v>4532400</v>
       </c>
       <c r="H58" s="3">
-        <v>4845200</v>
+        <v>4899600</v>
       </c>
       <c r="I58" s="3">
-        <v>4215900</v>
+        <v>4263300</v>
       </c>
       <c r="J58" s="3">
-        <v>3866900</v>
+        <v>3910400</v>
       </c>
       <c r="K58" s="3">
         <v>9177100</v>
@@ -2213,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9195900</v>
+        <v>9299300</v>
       </c>
       <c r="E59" s="3">
-        <v>15020500</v>
+        <v>15189300</v>
       </c>
       <c r="F59" s="3">
-        <v>8767700</v>
+        <v>8866200</v>
       </c>
       <c r="G59" s="3">
-        <v>8183300</v>
+        <v>8275300</v>
       </c>
       <c r="H59" s="3">
-        <v>7239300</v>
+        <v>7320700</v>
       </c>
       <c r="I59" s="3">
-        <v>8833900</v>
+        <v>8933200</v>
       </c>
       <c r="J59" s="3">
-        <v>10068800</v>
+        <v>10182100</v>
       </c>
       <c r="K59" s="3">
         <v>18101600</v>
@@ -2246,25 +2246,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19640900</v>
+        <v>19861700</v>
       </c>
       <c r="E60" s="3">
-        <v>27595900</v>
+        <v>27906100</v>
       </c>
       <c r="F60" s="3">
-        <v>17601600</v>
+        <v>17799500</v>
       </c>
       <c r="G60" s="3">
-        <v>18118500</v>
+        <v>18322200</v>
       </c>
       <c r="H60" s="3">
-        <v>16839800</v>
+        <v>17029100</v>
       </c>
       <c r="I60" s="3">
-        <v>18799800</v>
+        <v>19011200</v>
       </c>
       <c r="J60" s="3">
-        <v>16961600</v>
+        <v>17152300</v>
       </c>
       <c r="K60" s="3">
         <v>18347600</v>
@@ -2279,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18990300</v>
+        <v>19203800</v>
       </c>
       <c r="E61" s="3">
-        <v>18243900</v>
+        <v>18449000</v>
       </c>
       <c r="F61" s="3">
-        <v>18493500</v>
+        <v>18701400</v>
       </c>
       <c r="G61" s="3">
-        <v>14938800</v>
+        <v>15106800</v>
       </c>
       <c r="H61" s="3">
-        <v>13228400</v>
+        <v>13377100</v>
       </c>
       <c r="I61" s="3">
-        <v>14088300</v>
+        <v>14246700</v>
       </c>
       <c r="J61" s="3">
-        <v>13275700</v>
+        <v>13425000</v>
       </c>
       <c r="K61" s="3">
         <v>9624000</v>
@@ -2312,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14126200</v>
+        <v>14285000</v>
       </c>
       <c r="E62" s="3">
-        <v>13834000</v>
+        <v>13989600</v>
       </c>
       <c r="F62" s="3">
-        <v>15966800</v>
+        <v>16146300</v>
       </c>
       <c r="G62" s="3">
-        <v>18905100</v>
+        <v>19117700</v>
       </c>
       <c r="H62" s="3">
-        <v>16409200</v>
+        <v>16593700</v>
       </c>
       <c r="I62" s="3">
-        <v>18170500</v>
+        <v>18374800</v>
       </c>
       <c r="J62" s="3">
-        <v>12975200</v>
+        <v>13121100</v>
       </c>
       <c r="K62" s="3">
         <v>25963300</v>
@@ -2444,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53766400</v>
+        <v>54370900</v>
       </c>
       <c r="E66" s="3">
-        <v>60921700</v>
+        <v>61606700</v>
       </c>
       <c r="F66" s="3">
-        <v>53148900</v>
+        <v>53746500</v>
       </c>
       <c r="G66" s="3">
-        <v>52862600</v>
+        <v>53457000</v>
       </c>
       <c r="H66" s="3">
-        <v>47221400</v>
+        <v>47752300</v>
       </c>
       <c r="I66" s="3">
-        <v>51746000</v>
+        <v>52327800</v>
       </c>
       <c r="J66" s="3">
-        <v>43957700</v>
+        <v>44452000</v>
       </c>
       <c r="K66" s="3">
         <v>41850300</v>
@@ -2624,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>53432800</v>
+        <v>54033600</v>
       </c>
       <c r="E72" s="3">
-        <v>47099500</v>
+        <v>47629100</v>
       </c>
       <c r="F72" s="3">
-        <v>44882800</v>
+        <v>45387400</v>
       </c>
       <c r="G72" s="3">
-        <v>40981600</v>
+        <v>41442300</v>
       </c>
       <c r="H72" s="3">
-        <v>39344400</v>
+        <v>39786800</v>
       </c>
       <c r="I72" s="3">
-        <v>37758200</v>
+        <v>38182700</v>
       </c>
       <c r="J72" s="3">
-        <v>34619900</v>
+        <v>35009200</v>
       </c>
       <c r="K72" s="3">
         <v>51608200</v>
@@ -2756,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49086800</v>
+        <v>49638700</v>
       </c>
       <c r="E76" s="3">
-        <v>41465400</v>
+        <v>41931600</v>
       </c>
       <c r="F76" s="3">
-        <v>40025800</v>
+        <v>40475800</v>
       </c>
       <c r="G76" s="3">
-        <v>37624500</v>
+        <v>38047500</v>
       </c>
       <c r="H76" s="3">
-        <v>36570500</v>
+        <v>36981700</v>
       </c>
       <c r="I76" s="3">
-        <v>32664600</v>
+        <v>33031900</v>
       </c>
       <c r="J76" s="3">
-        <v>31989200</v>
+        <v>32348800</v>
       </c>
       <c r="K76" s="3">
         <v>27022900</v>
@@ -2860,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9961200</v>
+        <v>10073200</v>
       </c>
       <c r="E81" s="3">
-        <v>6071800</v>
+        <v>6140100</v>
       </c>
       <c r="F81" s="3">
-        <v>7638000</v>
+        <v>7723900</v>
       </c>
       <c r="G81" s="3">
-        <v>4797800</v>
+        <v>4851800</v>
       </c>
       <c r="H81" s="3">
-        <v>4716200</v>
+        <v>4769200</v>
       </c>
       <c r="I81" s="3">
-        <v>6097800</v>
+        <v>6166400</v>
       </c>
       <c r="J81" s="3">
-        <v>5668500</v>
+        <v>5732200</v>
       </c>
       <c r="K81" s="3">
         <v>4914600</v>
@@ -2908,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4989500</v>
+        <v>5045600</v>
       </c>
       <c r="E83" s="3">
-        <v>4435900</v>
+        <v>4485800</v>
       </c>
       <c r="F83" s="3">
-        <v>4983600</v>
+        <v>5039600</v>
       </c>
       <c r="G83" s="3">
-        <v>5075800</v>
+        <v>5132900</v>
       </c>
       <c r="H83" s="3">
-        <v>5261500</v>
+        <v>5320700</v>
       </c>
       <c r="I83" s="3">
-        <v>4086900</v>
+        <v>4132900</v>
       </c>
       <c r="J83" s="3">
-        <v>3920100</v>
+        <v>3964200</v>
       </c>
       <c r="K83" s="3">
         <v>3610200</v>
@@ -3106,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8864700</v>
+        <v>8964300</v>
       </c>
       <c r="E89" s="3">
-        <v>9391000</v>
+        <v>9496600</v>
       </c>
       <c r="F89" s="3">
-        <v>10402400</v>
+        <v>10519400</v>
       </c>
       <c r="G89" s="3">
-        <v>9129600</v>
+        <v>9232300</v>
       </c>
       <c r="H89" s="3">
-        <v>11178400</v>
+        <v>11304100</v>
       </c>
       <c r="I89" s="3">
-        <v>8227100</v>
+        <v>8319600</v>
       </c>
       <c r="J89" s="3">
-        <v>9582700</v>
+        <v>9690400</v>
       </c>
       <c r="K89" s="3">
         <v>7251200</v>
@@ -3154,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4523400</v>
+        <v>-4574300</v>
       </c>
       <c r="E91" s="3">
-        <v>-4606200</v>
+        <v>-4658000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4726900</v>
+        <v>-4780000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4903100</v>
+        <v>-4958200</v>
       </c>
       <c r="H91" s="3">
-        <v>-6875000</v>
+        <v>-6952300</v>
       </c>
       <c r="I91" s="3">
-        <v>-6264600</v>
+        <v>-6335100</v>
       </c>
       <c r="J91" s="3">
-        <v>-5764300</v>
+        <v>-5829100</v>
       </c>
       <c r="K91" s="3">
         <v>-4408500</v>
@@ -3253,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1407700</v>
+        <v>-1423500</v>
       </c>
       <c r="E94" s="3">
-        <v>-13963000</v>
+        <v>-14119900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4681900</v>
+        <v>-4734600</v>
       </c>
       <c r="G94" s="3">
-        <v>-7677000</v>
+        <v>-7763300</v>
       </c>
       <c r="H94" s="3">
-        <v>-6192500</v>
+        <v>-6262100</v>
       </c>
       <c r="I94" s="3">
-        <v>-5318300</v>
+        <v>-5378100</v>
       </c>
       <c r="J94" s="3">
-        <v>-7090300</v>
+        <v>-7170000</v>
       </c>
       <c r="K94" s="3">
         <v>-4366700</v>
@@ -3301,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3476500</v>
+        <v>-3515600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3367700</v>
+        <v>-3405600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3258900</v>
+        <v>-3295500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3151200</v>
+        <v>-3186700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3042400</v>
+        <v>-3076600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2933600</v>
+        <v>-2966600</v>
       </c>
       <c r="J96" s="3">
-        <v>-2824800</v>
+        <v>-2856500</v>
       </c>
       <c r="K96" s="3">
         <v>-2521000</v>
@@ -3433,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7576500</v>
+        <v>-7661700</v>
       </c>
       <c r="E100" s="3">
-        <v>-61500</v>
+        <v>-62200</v>
       </c>
       <c r="F100" s="3">
-        <v>466100</v>
+        <v>471300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2555100</v>
+        <v>-2583800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4344800</v>
+        <v>-4393600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2931200</v>
+        <v>-2964200</v>
       </c>
       <c r="J100" s="3">
-        <v>-2216800</v>
+        <v>-2241700</v>
       </c>
       <c r="K100" s="3">
         <v>-3188600</v>
@@ -3466,25 +3466,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43800</v>
+        <v>44300</v>
       </c>
       <c r="E101" s="3">
-        <v>-69800</v>
+        <v>-70600</v>
       </c>
       <c r="F101" s="3">
-        <v>-130100</v>
+        <v>-131600</v>
       </c>
       <c r="G101" s="3">
-        <v>78100</v>
+        <v>78900</v>
       </c>
       <c r="H101" s="3">
-        <v>-22500</v>
+        <v>-22700</v>
       </c>
       <c r="I101" s="3">
-        <v>-106500</v>
+        <v>-107700</v>
       </c>
       <c r="J101" s="3">
-        <v>-71000</v>
+        <v>-71800</v>
       </c>
       <c r="K101" s="3">
         <v>23100</v>
@@ -3499,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-75700</v>
+        <v>-76600</v>
       </c>
       <c r="E102" s="3">
-        <v>-4703200</v>
+        <v>-4756100</v>
       </c>
       <c r="F102" s="3">
-        <v>6056400</v>
+        <v>6124500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1024400</v>
+        <v>-1035900</v>
       </c>
       <c r="H102" s="3">
-        <v>618700</v>
+        <v>625600</v>
       </c>
       <c r="I102" s="3">
-        <v>-128900</v>
+        <v>-130400</v>
       </c>
       <c r="J102" s="3">
-        <v>204600</v>
+        <v>206900</v>
       </c>
       <c r="K102" s="3">
         <v>-281100</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70953800</v>
+        <v>69582900</v>
       </c>
       <c r="E8" s="3">
-        <v>72035200</v>
+        <v>69779300</v>
       </c>
       <c r="F8" s="3">
-        <v>73235000</v>
+        <v>70842800</v>
       </c>
       <c r="G8" s="3">
-        <v>68841300</v>
+        <v>72022700</v>
       </c>
       <c r="H8" s="3">
-        <v>84271100</v>
+        <v>67701800</v>
       </c>
       <c r="I8" s="3">
-        <v>88908800</v>
+        <v>82876200</v>
       </c>
       <c r="J8" s="3">
+        <v>87437100</v>
+      </c>
+      <c r="K8" s="3">
         <v>88486500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79197600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>86271500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51509600</v>
+        <v>51808700</v>
       </c>
       <c r="E9" s="3">
-        <v>51333700</v>
+        <v>50657000</v>
       </c>
       <c r="F9" s="3">
-        <v>49751200</v>
+        <v>50484000</v>
       </c>
       <c r="G9" s="3">
-        <v>46968800</v>
+        <v>48927700</v>
       </c>
       <c r="H9" s="3">
-        <v>61451200</v>
+        <v>46191300</v>
       </c>
       <c r="I9" s="3">
-        <v>66794600</v>
+        <v>60434000</v>
       </c>
       <c r="J9" s="3">
+        <v>65689000</v>
+      </c>
+      <c r="K9" s="3">
         <v>66480000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>123292200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63369300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19444200</v>
+        <v>17774200</v>
       </c>
       <c r="E10" s="3">
-        <v>20701400</v>
+        <v>19122400</v>
       </c>
       <c r="F10" s="3">
-        <v>23483800</v>
+        <v>20358800</v>
       </c>
       <c r="G10" s="3">
-        <v>21872500</v>
+        <v>23095100</v>
       </c>
       <c r="H10" s="3">
-        <v>22819900</v>
+        <v>21510500</v>
       </c>
       <c r="I10" s="3">
-        <v>22114100</v>
+        <v>22442200</v>
       </c>
       <c r="J10" s="3">
+        <v>21748100</v>
+      </c>
+      <c r="K10" s="3">
         <v>22006500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-44094600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22902200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,41 +841,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2581400</v>
+        <v>2454000</v>
       </c>
       <c r="E12" s="3">
-        <v>2385200</v>
+        <v>2538700</v>
       </c>
       <c r="F12" s="3">
-        <v>2204600</v>
+        <v>2345700</v>
       </c>
       <c r="G12" s="3">
-        <v>2228500</v>
+        <v>2168100</v>
       </c>
       <c r="H12" s="3">
-        <v>2336200</v>
+        <v>2191600</v>
       </c>
       <c r="I12" s="3">
-        <v>2253600</v>
+        <v>2297500</v>
       </c>
       <c r="J12" s="3">
+        <v>2216300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2211800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4062600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2099900</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,75 +910,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>833800</v>
+        <v>991700</v>
       </c>
       <c r="E14" s="3">
-        <v>483300</v>
+        <v>820000</v>
       </c>
       <c r="F14" s="3">
-        <v>429400</v>
+        <v>475300</v>
       </c>
       <c r="G14" s="3">
-        <v>576600</v>
+        <v>422300</v>
       </c>
       <c r="H14" s="3">
-        <v>366000</v>
+        <v>567000</v>
       </c>
       <c r="I14" s="3">
-        <v>210500</v>
+        <v>360000</v>
       </c>
       <c r="J14" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K14" s="3">
         <v>378000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>413900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>273500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>509600</v>
+        <v>3491600</v>
       </c>
       <c r="E15" s="3">
-        <v>86100</v>
+        <v>501100</v>
       </c>
       <c r="F15" s="3">
-        <v>264400</v>
+        <v>84700</v>
       </c>
       <c r="G15" s="3">
-        <v>403100</v>
+        <v>260000</v>
       </c>
       <c r="H15" s="3">
-        <v>807400</v>
+        <v>396400</v>
       </c>
       <c r="I15" s="3">
-        <v>442600</v>
+        <v>794100</v>
       </c>
       <c r="J15" s="3">
+        <v>435300</v>
+      </c>
+      <c r="K15" s="3">
         <v>296700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>413900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>429600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>66106800</v>
+        <v>69847600</v>
       </c>
       <c r="E17" s="3">
-        <v>64889100</v>
+        <v>64837300</v>
       </c>
       <c r="F17" s="3">
-        <v>64159400</v>
+        <v>63815000</v>
       </c>
       <c r="G17" s="3">
-        <v>61335200</v>
+        <v>63097400</v>
       </c>
       <c r="H17" s="3">
-        <v>76797200</v>
+        <v>60319900</v>
       </c>
       <c r="I17" s="3">
-        <v>79786500</v>
+        <v>75526100</v>
       </c>
       <c r="J17" s="3">
+        <v>78465900</v>
+      </c>
+      <c r="K17" s="3">
         <v>79921700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>71794900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76193200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4847000</v>
+        <v>-264700</v>
       </c>
       <c r="E18" s="3">
-        <v>7146100</v>
+        <v>4942100</v>
       </c>
       <c r="F18" s="3">
-        <v>9075600</v>
+        <v>7027800</v>
       </c>
       <c r="G18" s="3">
-        <v>7506200</v>
+        <v>8925300</v>
       </c>
       <c r="H18" s="3">
-        <v>7473900</v>
+        <v>7381900</v>
       </c>
       <c r="I18" s="3">
-        <v>9122200</v>
+        <v>7350100</v>
       </c>
       <c r="J18" s="3">
+        <v>8971200</v>
+      </c>
+      <c r="K18" s="3">
         <v>8564800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7402700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10078300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,173 +1086,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-163900</v>
+        <v>-976400</v>
       </c>
       <c r="E20" s="3">
-        <v>-281100</v>
+        <v>-336500</v>
       </c>
       <c r="F20" s="3">
-        <v>-299000</v>
+        <v>-276500</v>
       </c>
       <c r="G20" s="3">
-        <v>-372000</v>
+        <v>-294100</v>
       </c>
       <c r="H20" s="3">
-        <v>-252400</v>
+        <v>-365900</v>
       </c>
       <c r="I20" s="3">
-        <v>157900</v>
+        <v>-248200</v>
       </c>
       <c r="J20" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K20" s="3">
         <v>23900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>707100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1346400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9708000</v>
+        <v>6733200</v>
       </c>
       <c r="E21" s="3">
-        <v>11332400</v>
+        <v>9587900</v>
       </c>
       <c r="F21" s="3">
-        <v>13795500</v>
+        <v>11180900</v>
       </c>
       <c r="G21" s="3">
-        <v>12246000</v>
+        <v>13607600</v>
       </c>
       <c r="H21" s="3">
-        <v>12520400</v>
+        <v>12084600</v>
       </c>
       <c r="I21" s="3">
-        <v>13396100</v>
+        <v>12355900</v>
       </c>
       <c r="J21" s="3">
+        <v>13207600</v>
+      </c>
+      <c r="K21" s="3">
         <v>12536700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11725600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>15440700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>733300</v>
+        <v>596400</v>
       </c>
       <c r="E22" s="3">
-        <v>605300</v>
+        <v>721100</v>
       </c>
       <c r="F22" s="3">
-        <v>544300</v>
+        <v>595300</v>
       </c>
       <c r="G22" s="3">
-        <v>680600</v>
+        <v>535300</v>
       </c>
       <c r="H22" s="3">
-        <v>584900</v>
+        <v>669400</v>
       </c>
       <c r="I22" s="3">
-        <v>663900</v>
+        <v>575300</v>
       </c>
       <c r="J22" s="3">
+        <v>652900</v>
+      </c>
+      <c r="K22" s="3">
         <v>693800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1547100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>895600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3949900</v>
+        <v>-1837500</v>
       </c>
       <c r="E23" s="3">
-        <v>6259700</v>
+        <v>3884500</v>
       </c>
       <c r="F23" s="3">
-        <v>8232200</v>
+        <v>6156100</v>
       </c>
       <c r="G23" s="3">
-        <v>6453500</v>
+        <v>8096000</v>
       </c>
       <c r="H23" s="3">
-        <v>6636500</v>
+        <v>6346700</v>
       </c>
       <c r="I23" s="3">
-        <v>8616200</v>
+        <v>6526700</v>
       </c>
       <c r="J23" s="3">
+        <v>8473600</v>
+      </c>
+      <c r="K23" s="3">
         <v>7894900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6562700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10529100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>904300</v>
+        <v>-107100</v>
       </c>
       <c r="E24" s="3">
-        <v>1336200</v>
+        <v>889400</v>
       </c>
       <c r="F24" s="3">
-        <v>1543100</v>
+        <v>1314000</v>
       </c>
       <c r="G24" s="3">
-        <v>1363700</v>
+        <v>1517600</v>
       </c>
       <c r="H24" s="3">
-        <v>1491700</v>
+        <v>1341100</v>
       </c>
       <c r="I24" s="3">
-        <v>2046700</v>
+        <v>1467000</v>
       </c>
       <c r="J24" s="3">
+        <v>2012800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1778700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>999200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2778400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3045500</v>
+        <v>-1730500</v>
       </c>
       <c r="E26" s="3">
-        <v>4923600</v>
+        <v>2995100</v>
       </c>
       <c r="F26" s="3">
-        <v>6689200</v>
+        <v>4842100</v>
       </c>
       <c r="G26" s="3">
-        <v>5089800</v>
+        <v>6578400</v>
       </c>
       <c r="H26" s="3">
-        <v>5144900</v>
+        <v>5005600</v>
       </c>
       <c r="I26" s="3">
-        <v>6569500</v>
+        <v>5059700</v>
       </c>
       <c r="J26" s="3">
+        <v>6460800</v>
+      </c>
+      <c r="K26" s="3">
         <v>6116200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5563600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7750700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2961800</v>
+        <v>-1712800</v>
       </c>
       <c r="E27" s="3">
-        <v>4598200</v>
+        <v>2912800</v>
       </c>
       <c r="F27" s="3">
-        <v>6361400</v>
+        <v>4522100</v>
       </c>
       <c r="G27" s="3">
-        <v>4851800</v>
+        <v>6256100</v>
       </c>
       <c r="H27" s="3">
-        <v>4769200</v>
+        <v>4771500</v>
       </c>
       <c r="I27" s="3">
-        <v>6166400</v>
+        <v>4690300</v>
       </c>
       <c r="J27" s="3">
+        <v>6064300</v>
+      </c>
+      <c r="K27" s="3">
         <v>5732200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4914600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7263500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1349,23 +1407,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>7111400</v>
+        <v>465900</v>
       </c>
       <c r="E29" s="3">
-        <v>1541900</v>
+        <v>6993700</v>
       </c>
       <c r="F29" s="3">
-        <v>1362500</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
+        <v>1516400</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1339900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1382,9 +1443,12 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>163900</v>
+        <v>976400</v>
       </c>
       <c r="E32" s="3">
-        <v>281100</v>
+        <v>336500</v>
       </c>
       <c r="F32" s="3">
-        <v>299000</v>
+        <v>276500</v>
       </c>
       <c r="G32" s="3">
-        <v>372000</v>
+        <v>294100</v>
       </c>
       <c r="H32" s="3">
-        <v>252400</v>
+        <v>365900</v>
       </c>
       <c r="I32" s="3">
-        <v>-157900</v>
+        <v>248200</v>
       </c>
       <c r="J32" s="3">
+        <v>-155300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-707100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1346400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10073200</v>
+        <v>-1247000</v>
       </c>
       <c r="E33" s="3">
-        <v>6140100</v>
+        <v>9906500</v>
       </c>
       <c r="F33" s="3">
-        <v>7723900</v>
+        <v>6038500</v>
       </c>
       <c r="G33" s="3">
-        <v>4851800</v>
+        <v>7596000</v>
       </c>
       <c r="H33" s="3">
-        <v>4769200</v>
+        <v>4771500</v>
       </c>
       <c r="I33" s="3">
-        <v>6166400</v>
+        <v>4690300</v>
       </c>
       <c r="J33" s="3">
+        <v>6064300</v>
+      </c>
+      <c r="K33" s="3">
         <v>5732200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4914600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7263500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10073200</v>
+        <v>-1247000</v>
       </c>
       <c r="E35" s="3">
-        <v>6140100</v>
+        <v>9906500</v>
       </c>
       <c r="F35" s="3">
-        <v>7723900</v>
+        <v>6038500</v>
       </c>
       <c r="G35" s="3">
-        <v>4851800</v>
+        <v>7596000</v>
       </c>
       <c r="H35" s="3">
-        <v>4769200</v>
+        <v>4771500</v>
       </c>
       <c r="I35" s="3">
-        <v>6166400</v>
+        <v>4690300</v>
       </c>
       <c r="J35" s="3">
+        <v>6064300</v>
+      </c>
+      <c r="K35" s="3">
         <v>5732200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4914600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7263500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,305 +1735,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2903200</v>
+        <v>5093800</v>
       </c>
       <c r="E41" s="3">
-        <v>2751300</v>
+        <v>2855100</v>
       </c>
       <c r="F41" s="3">
-        <v>7769300</v>
+        <v>2705700</v>
       </c>
       <c r="G41" s="3">
-        <v>1644800</v>
+        <v>7640700</v>
       </c>
       <c r="H41" s="3">
-        <v>2680700</v>
+        <v>1617500</v>
       </c>
       <c r="I41" s="3">
-        <v>2055100</v>
+        <v>2636300</v>
       </c>
       <c r="J41" s="3">
+        <v>2021100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2185500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3759600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4637700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>531100</v>
+        <v>243500</v>
       </c>
       <c r="E42" s="3">
-        <v>411500</v>
+        <v>522300</v>
       </c>
       <c r="F42" s="3">
-        <v>62200</v>
+        <v>404700</v>
       </c>
       <c r="G42" s="3">
-        <v>641200</v>
+        <v>61200</v>
       </c>
       <c r="H42" s="3">
-        <v>25100</v>
+        <v>630600</v>
       </c>
       <c r="I42" s="3">
-        <v>22700</v>
+        <v>24700</v>
       </c>
       <c r="J42" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K42" s="3">
         <v>20300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15197700</v>
+        <v>15843800</v>
       </c>
       <c r="E43" s="3">
-        <v>15944100</v>
+        <v>14326200</v>
       </c>
       <c r="F43" s="3">
-        <v>16417800</v>
+        <v>15680200</v>
       </c>
       <c r="G43" s="3">
-        <v>16175000</v>
+        <v>16146100</v>
       </c>
       <c r="H43" s="3">
-        <v>14307700</v>
+        <v>15907300</v>
       </c>
       <c r="I43" s="3">
-        <v>14791000</v>
+        <v>14070900</v>
       </c>
       <c r="J43" s="3">
+        <v>14546200</v>
+      </c>
+      <c r="K43" s="3">
         <v>15323300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27515900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32577900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13425000</v>
+        <v>11775800</v>
       </c>
       <c r="E44" s="3">
-        <v>14553000</v>
+        <v>13202700</v>
       </c>
       <c r="F44" s="3">
-        <v>12324400</v>
+        <v>14312100</v>
       </c>
       <c r="G44" s="3">
-        <v>11968000</v>
+        <v>12120400</v>
       </c>
       <c r="H44" s="3">
-        <v>11594800</v>
+        <v>11769900</v>
       </c>
       <c r="I44" s="3">
-        <v>13476400</v>
+        <v>11402800</v>
       </c>
       <c r="J44" s="3">
+        <v>13253300</v>
+      </c>
+      <c r="K44" s="3">
         <v>12153400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21423100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23165100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5013300</v>
+        <v>2179900</v>
       </c>
       <c r="E45" s="3">
-        <v>18041100</v>
+        <v>5550300</v>
       </c>
       <c r="F45" s="3">
-        <v>681800</v>
+        <v>17742500</v>
       </c>
       <c r="G45" s="3">
-        <v>607700</v>
+        <v>670500</v>
       </c>
       <c r="H45" s="3">
-        <v>777500</v>
+        <v>597600</v>
       </c>
       <c r="I45" s="3">
-        <v>2454600</v>
+        <v>764700</v>
       </c>
       <c r="J45" s="3">
+        <v>2414000</v>
+      </c>
+      <c r="K45" s="3">
         <v>4742900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9030000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1564700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37070200</v>
+        <v>35136700</v>
       </c>
       <c r="E46" s="3">
-        <v>51701000</v>
+        <v>36456600</v>
       </c>
       <c r="F46" s="3">
-        <v>37255600</v>
+        <v>50845200</v>
       </c>
       <c r="G46" s="3">
-        <v>31036600</v>
+        <v>36639000</v>
       </c>
       <c r="H46" s="3">
-        <v>29385800</v>
+        <v>30522900</v>
       </c>
       <c r="I46" s="3">
-        <v>32799800</v>
+        <v>28899400</v>
       </c>
       <c r="J46" s="3">
+        <v>32256900</v>
+      </c>
+      <c r="K46" s="3">
         <v>31042600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30158800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30188000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18713400</v>
+        <v>15686100</v>
       </c>
       <c r="E47" s="3">
-        <v>3317100</v>
+        <v>18403600</v>
       </c>
       <c r="F47" s="3">
-        <v>6365000</v>
+        <v>3262200</v>
       </c>
       <c r="G47" s="3">
-        <v>6282400</v>
+        <v>6259600</v>
       </c>
       <c r="H47" s="3">
-        <v>5935500</v>
+        <v>6178500</v>
       </c>
       <c r="I47" s="3">
-        <v>4527600</v>
+        <v>5837300</v>
       </c>
       <c r="J47" s="3">
+        <v>4452700</v>
+      </c>
+      <c r="K47" s="3">
         <v>6811200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8683000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7939700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26067600</v>
+        <v>23112700</v>
       </c>
       <c r="E48" s="3">
-        <v>24857000</v>
+        <v>25636100</v>
       </c>
       <c r="F48" s="3">
-        <v>30213600</v>
+        <v>24445600</v>
       </c>
       <c r="G48" s="3">
-        <v>31595200</v>
+        <v>29713500</v>
       </c>
       <c r="H48" s="3">
-        <v>30216000</v>
+        <v>31072300</v>
       </c>
       <c r="I48" s="3">
-        <v>28105900</v>
+        <v>29715900</v>
       </c>
       <c r="J48" s="3">
+        <v>27640700</v>
+      </c>
+      <c r="K48" s="3">
         <v>23001700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38196100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40083300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17374800</v>
+        <v>15463800</v>
       </c>
       <c r="E49" s="3">
-        <v>19801900</v>
+        <v>17087200</v>
       </c>
       <c r="F49" s="3">
-        <v>16261100</v>
+        <v>19474100</v>
       </c>
       <c r="G49" s="3">
-        <v>18136800</v>
+        <v>15992000</v>
       </c>
       <c r="H49" s="3">
-        <v>14996800</v>
+        <v>17836600</v>
       </c>
       <c r="I49" s="3">
-        <v>15511100</v>
+        <v>14748500</v>
       </c>
       <c r="J49" s="3">
+        <v>15254400</v>
+      </c>
+      <c r="K49" s="3">
         <v>14742000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26828500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27900300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4783600</v>
+        <v>5056200</v>
       </c>
       <c r="E52" s="3">
-        <v>3861300</v>
+        <v>4704400</v>
       </c>
       <c r="F52" s="3">
-        <v>4126900</v>
+        <v>3797400</v>
       </c>
       <c r="G52" s="3">
-        <v>4453500</v>
+        <v>4058600</v>
       </c>
       <c r="H52" s="3">
-        <v>4199900</v>
+        <v>4379700</v>
       </c>
       <c r="I52" s="3">
-        <v>4415200</v>
+        <v>4130300</v>
       </c>
       <c r="J52" s="3">
+        <v>4342100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1203400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4027500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3732700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>104010000</v>
+        <v>94455500</v>
       </c>
       <c r="E54" s="3">
-        <v>103538000</v>
+        <v>102288000</v>
       </c>
       <c r="F54" s="3">
-        <v>94222300</v>
+        <v>101825000</v>
       </c>
       <c r="G54" s="3">
-        <v>91504500</v>
+        <v>92662700</v>
       </c>
       <c r="H54" s="3">
-        <v>84734000</v>
+        <v>89989900</v>
       </c>
       <c r="I54" s="3">
-        <v>85359600</v>
+        <v>83331500</v>
       </c>
       <c r="J54" s="3">
+        <v>83946700</v>
+      </c>
+      <c r="K54" s="3">
         <v>76800800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68873100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69832300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,206 +2271,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6085100</v>
+        <v>6224300</v>
       </c>
       <c r="E57" s="3">
-        <v>6126900</v>
+        <v>5984300</v>
       </c>
       <c r="F57" s="3">
-        <v>5946300</v>
+        <v>6025500</v>
       </c>
       <c r="G57" s="3">
-        <v>5514500</v>
+        <v>5847900</v>
       </c>
       <c r="H57" s="3">
-        <v>4808700</v>
+        <v>5423200</v>
       </c>
       <c r="I57" s="3">
-        <v>5814700</v>
+        <v>4729100</v>
       </c>
       <c r="J57" s="3">
+        <v>5718500</v>
+      </c>
+      <c r="K57" s="3">
         <v>6164000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10099400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11677100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4477400</v>
+        <v>4386800</v>
       </c>
       <c r="E58" s="3">
-        <v>6589900</v>
+        <v>4403300</v>
       </c>
       <c r="F58" s="3">
-        <v>2986900</v>
+        <v>6480800</v>
       </c>
       <c r="G58" s="3">
-        <v>4532400</v>
+        <v>2937500</v>
       </c>
       <c r="H58" s="3">
-        <v>4899600</v>
+        <v>4457400</v>
       </c>
       <c r="I58" s="3">
-        <v>4263300</v>
+        <v>4818500</v>
       </c>
       <c r="J58" s="3">
+        <v>4192700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3910400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9177100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9188600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9299300</v>
+        <v>8540700</v>
       </c>
       <c r="E59" s="3">
-        <v>15189300</v>
+        <v>9145300</v>
       </c>
       <c r="F59" s="3">
-        <v>8866200</v>
+        <v>14937900</v>
       </c>
       <c r="G59" s="3">
-        <v>8275300</v>
+        <v>8719500</v>
       </c>
       <c r="H59" s="3">
-        <v>7320700</v>
+        <v>8138300</v>
       </c>
       <c r="I59" s="3">
-        <v>8933200</v>
+        <v>7199600</v>
       </c>
       <c r="J59" s="3">
+        <v>8785400</v>
+      </c>
+      <c r="K59" s="3">
         <v>10182100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18101600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16962700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19861700</v>
+        <v>19151800</v>
       </c>
       <c r="E60" s="3">
-        <v>27906100</v>
+        <v>19532900</v>
       </c>
       <c r="F60" s="3">
-        <v>17799500</v>
+        <v>27444200</v>
       </c>
       <c r="G60" s="3">
-        <v>18322200</v>
+        <v>17504800</v>
       </c>
       <c r="H60" s="3">
-        <v>17029100</v>
+        <v>18018900</v>
       </c>
       <c r="I60" s="3">
-        <v>19011200</v>
+        <v>16747200</v>
       </c>
       <c r="J60" s="3">
+        <v>18696500</v>
+      </c>
+      <c r="K60" s="3">
         <v>17152300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18347600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18487500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19203800</v>
+        <v>19816500</v>
       </c>
       <c r="E61" s="3">
-        <v>18449000</v>
+        <v>18885900</v>
       </c>
       <c r="F61" s="3">
-        <v>18701400</v>
+        <v>18143600</v>
       </c>
       <c r="G61" s="3">
-        <v>15106800</v>
+        <v>18391800</v>
       </c>
       <c r="H61" s="3">
-        <v>13377100</v>
+        <v>14856800</v>
       </c>
       <c r="I61" s="3">
-        <v>14246700</v>
+        <v>13155700</v>
       </c>
       <c r="J61" s="3">
+        <v>14010900</v>
+      </c>
+      <c r="K61" s="3">
         <v>13425000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9624000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10176900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14285000</v>
+        <v>15021500</v>
       </c>
       <c r="E62" s="3">
-        <v>13989600</v>
+        <v>14048600</v>
       </c>
       <c r="F62" s="3">
-        <v>16146300</v>
+        <v>13758000</v>
       </c>
       <c r="G62" s="3">
-        <v>19117700</v>
+        <v>15879000</v>
       </c>
       <c r="H62" s="3">
-        <v>16593700</v>
+        <v>18801200</v>
       </c>
       <c r="I62" s="3">
-        <v>18374800</v>
+        <v>16319000</v>
       </c>
       <c r="J62" s="3">
+        <v>18070700</v>
+      </c>
+      <c r="K62" s="3">
         <v>13121100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25963300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23594800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2404,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54370900</v>
+        <v>54777900</v>
       </c>
       <c r="E66" s="3">
-        <v>61606700</v>
+        <v>53470900</v>
       </c>
       <c r="F66" s="3">
-        <v>53746500</v>
+        <v>60587000</v>
       </c>
       <c r="G66" s="3">
-        <v>53457000</v>
+        <v>52856800</v>
       </c>
       <c r="H66" s="3">
-        <v>47752300</v>
+        <v>52572100</v>
       </c>
       <c r="I66" s="3">
-        <v>52327800</v>
+        <v>46961900</v>
       </c>
       <c r="J66" s="3">
+        <v>51461600</v>
+      </c>
+      <c r="K66" s="3">
         <v>44452000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41850300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41455400</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>54033600</v>
+        <v>48263000</v>
       </c>
       <c r="E72" s="3">
-        <v>47629100</v>
+        <v>53139200</v>
       </c>
       <c r="F72" s="3">
-        <v>45387400</v>
+        <v>46840700</v>
       </c>
       <c r="G72" s="3">
-        <v>41442300</v>
+        <v>44636100</v>
       </c>
       <c r="H72" s="3">
-        <v>39786800</v>
+        <v>40756400</v>
       </c>
       <c r="I72" s="3">
-        <v>38182700</v>
+        <v>39128200</v>
       </c>
       <c r="J72" s="3">
+        <v>37550700</v>
+      </c>
+      <c r="K72" s="3">
         <v>35009200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51608200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51432800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49638700</v>
+        <v>39677600</v>
       </c>
       <c r="E76" s="3">
-        <v>41931600</v>
+        <v>48817100</v>
       </c>
       <c r="F76" s="3">
-        <v>40475800</v>
+        <v>41237500</v>
       </c>
       <c r="G76" s="3">
-        <v>38047500</v>
+        <v>39805800</v>
       </c>
       <c r="H76" s="3">
-        <v>36981700</v>
+        <v>37417800</v>
       </c>
       <c r="I76" s="3">
-        <v>33031900</v>
+        <v>36369600</v>
       </c>
       <c r="J76" s="3">
+        <v>32485100</v>
+      </c>
+      <c r="K76" s="3">
         <v>32348800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27022900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28376900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10073200</v>
+        <v>-1247000</v>
       </c>
       <c r="E81" s="3">
-        <v>6140100</v>
+        <v>9906500</v>
       </c>
       <c r="F81" s="3">
-        <v>7723900</v>
+        <v>6038500</v>
       </c>
       <c r="G81" s="3">
-        <v>4851800</v>
+        <v>7596000</v>
       </c>
       <c r="H81" s="3">
-        <v>4769200</v>
+        <v>4771500</v>
       </c>
       <c r="I81" s="3">
-        <v>6166400</v>
+        <v>4690300</v>
       </c>
       <c r="J81" s="3">
+        <v>6064300</v>
+      </c>
+      <c r="K81" s="3">
         <v>5732200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4914600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7263500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5045600</v>
+        <v>7941900</v>
       </c>
       <c r="E83" s="3">
-        <v>4485800</v>
+        <v>4962100</v>
       </c>
       <c r="F83" s="3">
-        <v>5039600</v>
+        <v>4411500</v>
       </c>
       <c r="G83" s="3">
-        <v>5132900</v>
+        <v>4956200</v>
       </c>
       <c r="H83" s="3">
-        <v>5320700</v>
+        <v>5047900</v>
       </c>
       <c r="I83" s="3">
-        <v>4132900</v>
+        <v>5232600</v>
       </c>
       <c r="J83" s="3">
+        <v>4064500</v>
+      </c>
+      <c r="K83" s="3">
         <v>3964200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3610200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4013300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8964300</v>
+        <v>6377300</v>
       </c>
       <c r="E89" s="3">
-        <v>9496600</v>
+        <v>8815900</v>
       </c>
       <c r="F89" s="3">
-        <v>10519400</v>
+        <v>9339400</v>
       </c>
       <c r="G89" s="3">
-        <v>9232300</v>
+        <v>10345300</v>
       </c>
       <c r="H89" s="3">
-        <v>11304100</v>
+        <v>9079500</v>
       </c>
       <c r="I89" s="3">
-        <v>8319600</v>
+        <v>11117000</v>
       </c>
       <c r="J89" s="3">
+        <v>8181900</v>
+      </c>
+      <c r="K89" s="3">
         <v>9690400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7251200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8336400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4574300</v>
+        <v>-3681000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4658000</v>
+        <v>-4498600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4780000</v>
+        <v>-4580900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4958200</v>
+        <v>-4700900</v>
       </c>
       <c r="H91" s="3">
-        <v>-6952300</v>
+        <v>-4876200</v>
       </c>
       <c r="I91" s="3">
-        <v>-6335100</v>
+        <v>-6837200</v>
       </c>
       <c r="J91" s="3">
+        <v>-6230200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5829100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4408500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4002700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1423500</v>
+        <v>-2239900</v>
       </c>
       <c r="E94" s="3">
-        <v>-14119900</v>
+        <v>-1399900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4734600</v>
+        <v>-13886200</v>
       </c>
       <c r="G94" s="3">
-        <v>-7763300</v>
+        <v>-4656200</v>
       </c>
       <c r="H94" s="3">
-        <v>-6262100</v>
+        <v>-7634800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5378100</v>
+        <v>-6158500</v>
       </c>
       <c r="J94" s="3">
+        <v>-5289100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7170000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4366700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2040100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3515600</v>
+        <v>-3565700</v>
       </c>
       <c r="E96" s="3">
-        <v>-3405600</v>
+        <v>-3457400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3295500</v>
+        <v>-3349200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3186700</v>
+        <v>-3241000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3076600</v>
+        <v>-3133900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2966600</v>
+        <v>-3025700</v>
       </c>
       <c r="J96" s="3">
+        <v>-2917500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2856500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2521000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2372300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7661700</v>
+        <v>-1830500</v>
       </c>
       <c r="E100" s="3">
-        <v>-62200</v>
+        <v>-7534800</v>
       </c>
       <c r="F100" s="3">
-        <v>471300</v>
+        <v>-61200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2583800</v>
+        <v>463500</v>
       </c>
       <c r="H100" s="3">
-        <v>-4393600</v>
+        <v>-2541000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2964200</v>
+        <v>-4320900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2915100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2241700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3188600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5655400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44300</v>
+        <v>-95300</v>
       </c>
       <c r="E101" s="3">
-        <v>-70600</v>
+        <v>43500</v>
       </c>
       <c r="F101" s="3">
-        <v>-131600</v>
+        <v>-69400</v>
       </c>
       <c r="G101" s="3">
-        <v>78900</v>
+        <v>-129400</v>
       </c>
       <c r="H101" s="3">
-        <v>-22700</v>
+        <v>77600</v>
       </c>
       <c r="I101" s="3">
-        <v>-107700</v>
+        <v>-22400</v>
       </c>
       <c r="J101" s="3">
+        <v>-105900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-71800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-76600</v>
+        <v>2211600</v>
       </c>
       <c r="E102" s="3">
-        <v>-4756100</v>
+        <v>-75300</v>
       </c>
       <c r="F102" s="3">
-        <v>6124500</v>
+        <v>-4677400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1035900</v>
+        <v>6023200</v>
       </c>
       <c r="H102" s="3">
-        <v>625600</v>
+        <v>-1018800</v>
       </c>
       <c r="I102" s="3">
-        <v>-130400</v>
+        <v>615300</v>
       </c>
       <c r="J102" s="3">
+        <v>-128200</v>
+      </c>
+      <c r="K102" s="3">
         <v>206900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-281100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>651500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>69582900</v>
+        <v>72456900</v>
       </c>
       <c r="E8" s="3">
-        <v>69779300</v>
+        <v>72661500</v>
       </c>
       <c r="F8" s="3">
-        <v>70842800</v>
+        <v>73768900</v>
       </c>
       <c r="G8" s="3">
-        <v>72022700</v>
+        <v>74997600</v>
       </c>
       <c r="H8" s="3">
-        <v>67701800</v>
+        <v>70498200</v>
       </c>
       <c r="I8" s="3">
-        <v>82876200</v>
+        <v>86299300</v>
       </c>
       <c r="J8" s="3">
-        <v>87437100</v>
+        <v>91048600</v>
       </c>
       <c r="K8" s="3">
         <v>88486500</v>
@@ -760,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51808700</v>
+        <v>53948600</v>
       </c>
       <c r="E9" s="3">
-        <v>50657000</v>
+        <v>52749300</v>
       </c>
       <c r="F9" s="3">
-        <v>50484000</v>
+        <v>52569200</v>
       </c>
       <c r="G9" s="3">
-        <v>48927700</v>
+        <v>50948600</v>
       </c>
       <c r="H9" s="3">
-        <v>46191300</v>
+        <v>48099200</v>
       </c>
       <c r="I9" s="3">
-        <v>60434000</v>
+        <v>62930200</v>
       </c>
       <c r="J9" s="3">
-        <v>65689000</v>
+        <v>68402200</v>
       </c>
       <c r="K9" s="3">
         <v>66480000</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17774200</v>
+        <v>18508400</v>
       </c>
       <c r="E10" s="3">
-        <v>19122400</v>
+        <v>19912200</v>
       </c>
       <c r="F10" s="3">
-        <v>20358800</v>
+        <v>21199700</v>
       </c>
       <c r="G10" s="3">
-        <v>23095100</v>
+        <v>24049000</v>
       </c>
       <c r="H10" s="3">
-        <v>21510500</v>
+        <v>22398900</v>
       </c>
       <c r="I10" s="3">
-        <v>22442200</v>
+        <v>23369100</v>
       </c>
       <c r="J10" s="3">
-        <v>21748100</v>
+        <v>22646400</v>
       </c>
       <c r="K10" s="3">
         <v>22006500</v>
@@ -848,25 +848,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2454000</v>
+        <v>2555300</v>
       </c>
       <c r="E12" s="3">
-        <v>2538700</v>
+        <v>2643500</v>
       </c>
       <c r="F12" s="3">
-        <v>2345700</v>
+        <v>2442600</v>
       </c>
       <c r="G12" s="3">
-        <v>2168100</v>
+        <v>2257700</v>
       </c>
       <c r="H12" s="3">
-        <v>2191600</v>
+        <v>2282200</v>
       </c>
       <c r="I12" s="3">
-        <v>2297500</v>
+        <v>2392400</v>
       </c>
       <c r="J12" s="3">
-        <v>2216300</v>
+        <v>2307900</v>
       </c>
       <c r="K12" s="3">
         <v>2211800</v>
@@ -920,25 +920,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>991700</v>
+        <v>1032700</v>
       </c>
       <c r="E14" s="3">
-        <v>820000</v>
+        <v>853800</v>
       </c>
       <c r="F14" s="3">
-        <v>475300</v>
+        <v>494900</v>
       </c>
       <c r="G14" s="3">
-        <v>422300</v>
+        <v>439800</v>
       </c>
       <c r="H14" s="3">
-        <v>567000</v>
+        <v>590400</v>
       </c>
       <c r="I14" s="3">
-        <v>360000</v>
+        <v>374800</v>
       </c>
       <c r="J14" s="3">
-        <v>207000</v>
+        <v>215600</v>
       </c>
       <c r="K14" s="3">
         <v>378000</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3491600</v>
+        <v>3635800</v>
       </c>
       <c r="E15" s="3">
-        <v>501100</v>
+        <v>521800</v>
       </c>
       <c r="F15" s="3">
-        <v>84700</v>
+        <v>88200</v>
       </c>
       <c r="G15" s="3">
-        <v>260000</v>
+        <v>270700</v>
       </c>
       <c r="H15" s="3">
-        <v>396400</v>
+        <v>412800</v>
       </c>
       <c r="I15" s="3">
-        <v>794100</v>
+        <v>826900</v>
       </c>
       <c r="J15" s="3">
-        <v>435300</v>
+        <v>453200</v>
       </c>
       <c r="K15" s="3">
         <v>296700</v>
@@ -1005,25 +1005,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>69847600</v>
+        <v>72732600</v>
       </c>
       <c r="E17" s="3">
-        <v>64837300</v>
+        <v>67515300</v>
       </c>
       <c r="F17" s="3">
-        <v>63815000</v>
+        <v>66450800</v>
       </c>
       <c r="G17" s="3">
-        <v>63097400</v>
+        <v>65703600</v>
       </c>
       <c r="H17" s="3">
-        <v>60319900</v>
+        <v>62811400</v>
       </c>
       <c r="I17" s="3">
-        <v>75526100</v>
+        <v>78645600</v>
       </c>
       <c r="J17" s="3">
-        <v>78465900</v>
+        <v>81706800</v>
       </c>
       <c r="K17" s="3">
         <v>79921700</v>
@@ -1041,25 +1041,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-264700</v>
+        <v>-275600</v>
       </c>
       <c r="E18" s="3">
-        <v>4942100</v>
+        <v>5146200</v>
       </c>
       <c r="F18" s="3">
-        <v>7027800</v>
+        <v>7318100</v>
       </c>
       <c r="G18" s="3">
-        <v>8925300</v>
+        <v>9294000</v>
       </c>
       <c r="H18" s="3">
-        <v>7381900</v>
+        <v>7686800</v>
       </c>
       <c r="I18" s="3">
-        <v>7350100</v>
+        <v>7653700</v>
       </c>
       <c r="J18" s="3">
-        <v>8971200</v>
+        <v>9341800</v>
       </c>
       <c r="K18" s="3">
         <v>8564800</v>
@@ -1093,25 +1093,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-976400</v>
+        <v>-1016700</v>
       </c>
       <c r="E20" s="3">
-        <v>-336500</v>
+        <v>-350300</v>
       </c>
       <c r="F20" s="3">
-        <v>-276500</v>
+        <v>-287900</v>
       </c>
       <c r="G20" s="3">
-        <v>-294100</v>
+        <v>-306200</v>
       </c>
       <c r="H20" s="3">
-        <v>-365900</v>
+        <v>-381000</v>
       </c>
       <c r="I20" s="3">
-        <v>-248200</v>
+        <v>-258500</v>
       </c>
       <c r="J20" s="3">
-        <v>155300</v>
+        <v>161700</v>
       </c>
       <c r="K20" s="3">
         <v>23900</v>
@@ -1129,25 +1129,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6733200</v>
+        <v>6953900</v>
       </c>
       <c r="E21" s="3">
-        <v>9587900</v>
+        <v>9948100</v>
       </c>
       <c r="F21" s="3">
-        <v>11180900</v>
+        <v>11610800</v>
       </c>
       <c r="G21" s="3">
-        <v>13607600</v>
+        <v>14133900</v>
       </c>
       <c r="H21" s="3">
-        <v>12084600</v>
+        <v>12547300</v>
       </c>
       <c r="I21" s="3">
-        <v>12355900</v>
+        <v>12828500</v>
       </c>
       <c r="J21" s="3">
-        <v>13207600</v>
+        <v>13723700</v>
       </c>
       <c r="K21" s="3">
         <v>12536700</v>
@@ -1165,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>596400</v>
+        <v>621100</v>
       </c>
       <c r="E22" s="3">
-        <v>721100</v>
+        <v>750900</v>
       </c>
       <c r="F22" s="3">
-        <v>595300</v>
+        <v>619800</v>
       </c>
       <c r="G22" s="3">
-        <v>535300</v>
+        <v>557400</v>
       </c>
       <c r="H22" s="3">
-        <v>669400</v>
+        <v>697000</v>
       </c>
       <c r="I22" s="3">
-        <v>575300</v>
+        <v>599000</v>
       </c>
       <c r="J22" s="3">
-        <v>652900</v>
+        <v>679900</v>
       </c>
       <c r="K22" s="3">
         <v>693800</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1837500</v>
+        <v>-1913400</v>
       </c>
       <c r="E23" s="3">
-        <v>3884500</v>
+        <v>4044900</v>
       </c>
       <c r="F23" s="3">
-        <v>6156100</v>
+        <v>6410400</v>
       </c>
       <c r="G23" s="3">
-        <v>8096000</v>
+        <v>8430400</v>
       </c>
       <c r="H23" s="3">
-        <v>6346700</v>
+        <v>6608800</v>
       </c>
       <c r="I23" s="3">
-        <v>6526700</v>
+        <v>6796200</v>
       </c>
       <c r="J23" s="3">
-        <v>8473600</v>
+        <v>8823600</v>
       </c>
       <c r="K23" s="3">
         <v>7894900</v>
@@ -1237,25 +1237,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-107100</v>
+        <v>-111500</v>
       </c>
       <c r="E24" s="3">
-        <v>889400</v>
+        <v>926100</v>
       </c>
       <c r="F24" s="3">
-        <v>1314000</v>
+        <v>1368300</v>
       </c>
       <c r="G24" s="3">
-        <v>1517600</v>
+        <v>1580200</v>
       </c>
       <c r="H24" s="3">
-        <v>1341100</v>
+        <v>1396500</v>
       </c>
       <c r="I24" s="3">
-        <v>1467000</v>
+        <v>1527600</v>
       </c>
       <c r="J24" s="3">
-        <v>2012800</v>
+        <v>2096000</v>
       </c>
       <c r="K24" s="3">
         <v>1778700</v>
@@ -1309,25 +1309,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1730500</v>
+        <v>-1802000</v>
       </c>
       <c r="E26" s="3">
-        <v>2995100</v>
+        <v>3118800</v>
       </c>
       <c r="F26" s="3">
-        <v>4842100</v>
+        <v>5042100</v>
       </c>
       <c r="G26" s="3">
-        <v>6578400</v>
+        <v>6850100</v>
       </c>
       <c r="H26" s="3">
-        <v>5005600</v>
+        <v>5212300</v>
       </c>
       <c r="I26" s="3">
-        <v>5059700</v>
+        <v>5268700</v>
       </c>
       <c r="J26" s="3">
-        <v>6460800</v>
+        <v>6727600</v>
       </c>
       <c r="K26" s="3">
         <v>6116200</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1712800</v>
+        <v>-1783600</v>
       </c>
       <c r="E27" s="3">
-        <v>2912800</v>
+        <v>3033100</v>
       </c>
       <c r="F27" s="3">
-        <v>4522100</v>
+        <v>4708900</v>
       </c>
       <c r="G27" s="3">
-        <v>6256100</v>
+        <v>6514500</v>
       </c>
       <c r="H27" s="3">
-        <v>4771500</v>
+        <v>4968600</v>
       </c>
       <c r="I27" s="3">
-        <v>4690300</v>
+        <v>4884000</v>
       </c>
       <c r="J27" s="3">
-        <v>6064300</v>
+        <v>6314800</v>
       </c>
       <c r="K27" s="3">
         <v>5732200</v>
@@ -1417,16 +1417,16 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>465900</v>
+        <v>485100</v>
       </c>
       <c r="E29" s="3">
-        <v>6993700</v>
+        <v>7282600</v>
       </c>
       <c r="F29" s="3">
-        <v>1516400</v>
+        <v>1579000</v>
       </c>
       <c r="G29" s="3">
-        <v>1339900</v>
+        <v>1395300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1525,25 +1525,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>976400</v>
+        <v>1016700</v>
       </c>
       <c r="E32" s="3">
-        <v>336500</v>
+        <v>350300</v>
       </c>
       <c r="F32" s="3">
-        <v>276500</v>
+        <v>287900</v>
       </c>
       <c r="G32" s="3">
-        <v>294100</v>
+        <v>306200</v>
       </c>
       <c r="H32" s="3">
-        <v>365900</v>
+        <v>381000</v>
       </c>
       <c r="I32" s="3">
-        <v>248200</v>
+        <v>258500</v>
       </c>
       <c r="J32" s="3">
-        <v>-155300</v>
+        <v>-161700</v>
       </c>
       <c r="K32" s="3">
         <v>-23900</v>
@@ -1561,25 +1561,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1247000</v>
+        <v>-1298500</v>
       </c>
       <c r="E33" s="3">
-        <v>9906500</v>
+        <v>10315600</v>
       </c>
       <c r="F33" s="3">
-        <v>6038500</v>
+        <v>6287900</v>
       </c>
       <c r="G33" s="3">
-        <v>7596000</v>
+        <v>7909800</v>
       </c>
       <c r="H33" s="3">
-        <v>4771500</v>
+        <v>4968600</v>
       </c>
       <c r="I33" s="3">
-        <v>4690300</v>
+        <v>4884000</v>
       </c>
       <c r="J33" s="3">
-        <v>6064300</v>
+        <v>6314800</v>
       </c>
       <c r="K33" s="3">
         <v>5732200</v>
@@ -1633,25 +1633,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1247000</v>
+        <v>-1298500</v>
       </c>
       <c r="E35" s="3">
-        <v>9906500</v>
+        <v>10315600</v>
       </c>
       <c r="F35" s="3">
-        <v>6038500</v>
+        <v>6287900</v>
       </c>
       <c r="G35" s="3">
-        <v>7596000</v>
+        <v>7909800</v>
       </c>
       <c r="H35" s="3">
-        <v>4771500</v>
+        <v>4968600</v>
       </c>
       <c r="I35" s="3">
-        <v>4690300</v>
+        <v>4884000</v>
       </c>
       <c r="J35" s="3">
-        <v>6064300</v>
+        <v>6314800</v>
       </c>
       <c r="K35" s="3">
         <v>5732200</v>
@@ -1742,25 +1742,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5093800</v>
+        <v>5304200</v>
       </c>
       <c r="E41" s="3">
-        <v>2855100</v>
+        <v>2973100</v>
       </c>
       <c r="F41" s="3">
-        <v>2705700</v>
+        <v>2817500</v>
       </c>
       <c r="G41" s="3">
-        <v>7640700</v>
+        <v>7956300</v>
       </c>
       <c r="H41" s="3">
-        <v>1617500</v>
+        <v>1684400</v>
       </c>
       <c r="I41" s="3">
-        <v>2636300</v>
+        <v>2745200</v>
       </c>
       <c r="J41" s="3">
-        <v>2021100</v>
+        <v>2104500</v>
       </c>
       <c r="K41" s="3">
         <v>2185500</v>
@@ -1778,25 +1778,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>243500</v>
+        <v>253600</v>
       </c>
       <c r="E42" s="3">
-        <v>522300</v>
+        <v>543900</v>
       </c>
       <c r="F42" s="3">
-        <v>404700</v>
+        <v>421400</v>
       </c>
       <c r="G42" s="3">
-        <v>61200</v>
+        <v>63700</v>
       </c>
       <c r="H42" s="3">
-        <v>630600</v>
+        <v>656600</v>
       </c>
       <c r="I42" s="3">
-        <v>24700</v>
+        <v>25700</v>
       </c>
       <c r="J42" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="K42" s="3">
         <v>20300</v>
@@ -1814,25 +1814,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15843800</v>
+        <v>16498200</v>
       </c>
       <c r="E43" s="3">
-        <v>14326200</v>
+        <v>14917900</v>
       </c>
       <c r="F43" s="3">
-        <v>15680200</v>
+        <v>16327900</v>
       </c>
       <c r="G43" s="3">
-        <v>16146100</v>
+        <v>16813000</v>
       </c>
       <c r="H43" s="3">
-        <v>15907300</v>
+        <v>16564300</v>
       </c>
       <c r="I43" s="3">
-        <v>14070900</v>
+        <v>14652100</v>
       </c>
       <c r="J43" s="3">
-        <v>14546200</v>
+        <v>15147000</v>
       </c>
       <c r="K43" s="3">
         <v>15323300</v>
@@ -1850,25 +1850,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11775800</v>
+        <v>12262100</v>
       </c>
       <c r="E44" s="3">
-        <v>13202700</v>
+        <v>13748100</v>
       </c>
       <c r="F44" s="3">
-        <v>14312100</v>
+        <v>14903200</v>
       </c>
       <c r="G44" s="3">
-        <v>12120400</v>
+        <v>12621100</v>
       </c>
       <c r="H44" s="3">
-        <v>11769900</v>
+        <v>12256000</v>
       </c>
       <c r="I44" s="3">
-        <v>11402800</v>
+        <v>11873800</v>
       </c>
       <c r="J44" s="3">
-        <v>13253300</v>
+        <v>13800700</v>
       </c>
       <c r="K44" s="3">
         <v>12153400</v>
@@ -1886,25 +1886,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2179900</v>
+        <v>2269900</v>
       </c>
       <c r="E45" s="3">
-        <v>5550300</v>
+        <v>5779500</v>
       </c>
       <c r="F45" s="3">
-        <v>17742500</v>
+        <v>18475300</v>
       </c>
       <c r="G45" s="3">
-        <v>670500</v>
+        <v>698200</v>
       </c>
       <c r="H45" s="3">
-        <v>597600</v>
+        <v>622300</v>
       </c>
       <c r="I45" s="3">
-        <v>764700</v>
+        <v>796200</v>
       </c>
       <c r="J45" s="3">
-        <v>2414000</v>
+        <v>2513700</v>
       </c>
       <c r="K45" s="3">
         <v>4742900</v>
@@ -1922,25 +1922,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35136700</v>
+        <v>36588000</v>
       </c>
       <c r="E46" s="3">
-        <v>36456600</v>
+        <v>37962400</v>
       </c>
       <c r="F46" s="3">
-        <v>50845200</v>
+        <v>52945300</v>
       </c>
       <c r="G46" s="3">
-        <v>36639000</v>
+        <v>38152300</v>
       </c>
       <c r="H46" s="3">
-        <v>30522900</v>
+        <v>31783600</v>
       </c>
       <c r="I46" s="3">
-        <v>28899400</v>
+        <v>30093100</v>
       </c>
       <c r="J46" s="3">
-        <v>32256900</v>
+        <v>33589200</v>
       </c>
       <c r="K46" s="3">
         <v>31042600</v>
@@ -1958,25 +1958,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15686100</v>
+        <v>16334000</v>
       </c>
       <c r="E47" s="3">
-        <v>18403600</v>
+        <v>19163700</v>
       </c>
       <c r="F47" s="3">
-        <v>3262200</v>
+        <v>3396900</v>
       </c>
       <c r="G47" s="3">
-        <v>6259600</v>
+        <v>6518200</v>
       </c>
       <c r="H47" s="3">
-        <v>6178500</v>
+        <v>6433600</v>
       </c>
       <c r="I47" s="3">
-        <v>5837300</v>
+        <v>6078400</v>
       </c>
       <c r="J47" s="3">
-        <v>4452700</v>
+        <v>4636600</v>
       </c>
       <c r="K47" s="3">
         <v>6811200</v>
@@ -1994,25 +1994,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23112700</v>
+        <v>24067400</v>
       </c>
       <c r="E48" s="3">
-        <v>25636100</v>
+        <v>26695000</v>
       </c>
       <c r="F48" s="3">
-        <v>24445600</v>
+        <v>25455300</v>
       </c>
       <c r="G48" s="3">
-        <v>29713500</v>
+        <v>30940800</v>
       </c>
       <c r="H48" s="3">
-        <v>31072300</v>
+        <v>32355700</v>
       </c>
       <c r="I48" s="3">
-        <v>29715900</v>
+        <v>30943200</v>
       </c>
       <c r="J48" s="3">
-        <v>27640700</v>
+        <v>28782400</v>
       </c>
       <c r="K48" s="3">
         <v>23001700</v>
@@ -2030,25 +2030,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15463800</v>
+        <v>16102500</v>
       </c>
       <c r="E49" s="3">
-        <v>17087200</v>
+        <v>17793000</v>
       </c>
       <c r="F49" s="3">
-        <v>19474100</v>
+        <v>20278500</v>
       </c>
       <c r="G49" s="3">
-        <v>15992000</v>
+        <v>16652500</v>
       </c>
       <c r="H49" s="3">
-        <v>17836600</v>
+        <v>18573300</v>
       </c>
       <c r="I49" s="3">
-        <v>14748500</v>
+        <v>15357700</v>
       </c>
       <c r="J49" s="3">
-        <v>15254400</v>
+        <v>15884400</v>
       </c>
       <c r="K49" s="3">
         <v>14742000</v>
@@ -2138,25 +2138,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5056200</v>
+        <v>5265000</v>
       </c>
       <c r="E52" s="3">
-        <v>4704400</v>
+        <v>4898700</v>
       </c>
       <c r="F52" s="3">
-        <v>3797400</v>
+        <v>3954300</v>
       </c>
       <c r="G52" s="3">
-        <v>4058600</v>
+        <v>4226200</v>
       </c>
       <c r="H52" s="3">
-        <v>4379700</v>
+        <v>4560600</v>
       </c>
       <c r="I52" s="3">
-        <v>4130300</v>
+        <v>4300900</v>
       </c>
       <c r="J52" s="3">
-        <v>4342100</v>
+        <v>4521400</v>
       </c>
       <c r="K52" s="3">
         <v>1203400</v>
@@ -2210,25 +2210,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>94455500</v>
+        <v>98356900</v>
       </c>
       <c r="E54" s="3">
-        <v>102288000</v>
+        <v>106513000</v>
       </c>
       <c r="F54" s="3">
-        <v>101825000</v>
+        <v>106030000</v>
       </c>
       <c r="G54" s="3">
-        <v>92662700</v>
+        <v>96490000</v>
       </c>
       <c r="H54" s="3">
-        <v>89989900</v>
+        <v>93706800</v>
       </c>
       <c r="I54" s="3">
-        <v>83331500</v>
+        <v>86773400</v>
       </c>
       <c r="J54" s="3">
-        <v>83946700</v>
+        <v>87414100</v>
       </c>
       <c r="K54" s="3">
         <v>76800800</v>
@@ -2278,25 +2278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6224300</v>
+        <v>6481400</v>
       </c>
       <c r="E57" s="3">
-        <v>5984300</v>
+        <v>6231500</v>
       </c>
       <c r="F57" s="3">
-        <v>6025500</v>
+        <v>6274400</v>
       </c>
       <c r="G57" s="3">
-        <v>5847900</v>
+        <v>6089400</v>
       </c>
       <c r="H57" s="3">
-        <v>5423200</v>
+        <v>5647200</v>
       </c>
       <c r="I57" s="3">
-        <v>4729100</v>
+        <v>4924500</v>
       </c>
       <c r="J57" s="3">
-        <v>5718500</v>
+        <v>5954700</v>
       </c>
       <c r="K57" s="3">
         <v>6164000</v>
@@ -2314,25 +2314,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4386800</v>
+        <v>4568000</v>
       </c>
       <c r="E58" s="3">
-        <v>4403300</v>
+        <v>4585100</v>
       </c>
       <c r="F58" s="3">
-        <v>6480800</v>
+        <v>6748500</v>
       </c>
       <c r="G58" s="3">
-        <v>2937500</v>
+        <v>3058800</v>
       </c>
       <c r="H58" s="3">
-        <v>4457400</v>
+        <v>4641500</v>
       </c>
       <c r="I58" s="3">
-        <v>4818500</v>
+        <v>5017600</v>
       </c>
       <c r="J58" s="3">
-        <v>4192700</v>
+        <v>4365900</v>
       </c>
       <c r="K58" s="3">
         <v>3910400</v>
@@ -2350,25 +2350,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8540700</v>
+        <v>8893400</v>
       </c>
       <c r="E59" s="3">
-        <v>9145300</v>
+        <v>9523100</v>
       </c>
       <c r="F59" s="3">
-        <v>14937900</v>
+        <v>15554900</v>
       </c>
       <c r="G59" s="3">
-        <v>8719500</v>
+        <v>9079600</v>
       </c>
       <c r="H59" s="3">
-        <v>8138300</v>
+        <v>8474500</v>
       </c>
       <c r="I59" s="3">
-        <v>7199600</v>
+        <v>7496900</v>
       </c>
       <c r="J59" s="3">
-        <v>8785400</v>
+        <v>9148200</v>
       </c>
       <c r="K59" s="3">
         <v>10182100</v>
@@ -2386,25 +2386,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19151800</v>
+        <v>19942800</v>
       </c>
       <c r="E60" s="3">
-        <v>19532900</v>
+        <v>20339700</v>
       </c>
       <c r="F60" s="3">
-        <v>27444200</v>
+        <v>28577800</v>
       </c>
       <c r="G60" s="3">
-        <v>17504800</v>
+        <v>18227900</v>
       </c>
       <c r="H60" s="3">
-        <v>18018900</v>
+        <v>18763200</v>
       </c>
       <c r="I60" s="3">
-        <v>16747200</v>
+        <v>17439000</v>
       </c>
       <c r="J60" s="3">
-        <v>18696500</v>
+        <v>19468800</v>
       </c>
       <c r="K60" s="3">
         <v>17152300</v>
@@ -2422,25 +2422,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19816500</v>
+        <v>20635000</v>
       </c>
       <c r="E61" s="3">
-        <v>18885900</v>
+        <v>19666000</v>
       </c>
       <c r="F61" s="3">
-        <v>18143600</v>
+        <v>18893000</v>
       </c>
       <c r="G61" s="3">
-        <v>18391800</v>
+        <v>19151500</v>
       </c>
       <c r="H61" s="3">
-        <v>14856800</v>
+        <v>15470400</v>
       </c>
       <c r="I61" s="3">
-        <v>13155700</v>
+        <v>13699100</v>
       </c>
       <c r="J61" s="3">
-        <v>14010900</v>
+        <v>14589600</v>
       </c>
       <c r="K61" s="3">
         <v>13425000</v>
@@ -2458,25 +2458,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15021500</v>
+        <v>15641900</v>
       </c>
       <c r="E62" s="3">
-        <v>14048600</v>
+        <v>14628800</v>
       </c>
       <c r="F62" s="3">
-        <v>13758000</v>
+        <v>14326300</v>
       </c>
       <c r="G62" s="3">
-        <v>15879000</v>
+        <v>16534900</v>
       </c>
       <c r="H62" s="3">
-        <v>18801200</v>
+        <v>19577800</v>
       </c>
       <c r="I62" s="3">
-        <v>16319000</v>
+        <v>16993100</v>
       </c>
       <c r="J62" s="3">
-        <v>18070700</v>
+        <v>18817100</v>
       </c>
       <c r="K62" s="3">
         <v>13121100</v>
@@ -2602,25 +2602,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54777900</v>
+        <v>57040400</v>
       </c>
       <c r="E66" s="3">
-        <v>53470900</v>
+        <v>55679500</v>
       </c>
       <c r="F66" s="3">
-        <v>60587000</v>
+        <v>63089400</v>
       </c>
       <c r="G66" s="3">
-        <v>52856800</v>
+        <v>55040000</v>
       </c>
       <c r="H66" s="3">
-        <v>52572100</v>
+        <v>54743600</v>
       </c>
       <c r="I66" s="3">
-        <v>46961900</v>
+        <v>48901600</v>
       </c>
       <c r="J66" s="3">
-        <v>51461600</v>
+        <v>53587200</v>
       </c>
       <c r="K66" s="3">
         <v>44452000</v>
@@ -2798,25 +2798,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>48263000</v>
+        <v>50256400</v>
       </c>
       <c r="E72" s="3">
-        <v>53139200</v>
+        <v>55334000</v>
       </c>
       <c r="F72" s="3">
-        <v>46840700</v>
+        <v>48775400</v>
       </c>
       <c r="G72" s="3">
-        <v>44636100</v>
+        <v>46479800</v>
       </c>
       <c r="H72" s="3">
-        <v>40756400</v>
+        <v>42439800</v>
       </c>
       <c r="I72" s="3">
-        <v>39128200</v>
+        <v>40744400</v>
       </c>
       <c r="J72" s="3">
-        <v>37550700</v>
+        <v>39101700</v>
       </c>
       <c r="K72" s="3">
         <v>35009200</v>
@@ -2942,25 +2942,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39677600</v>
+        <v>41316500</v>
       </c>
       <c r="E76" s="3">
-        <v>48817100</v>
+        <v>50833400</v>
       </c>
       <c r="F76" s="3">
-        <v>41237500</v>
+        <v>42940800</v>
       </c>
       <c r="G76" s="3">
-        <v>39805800</v>
+        <v>41450000</v>
       </c>
       <c r="H76" s="3">
-        <v>37417800</v>
+        <v>38963300</v>
       </c>
       <c r="I76" s="3">
-        <v>36369600</v>
+        <v>37871800</v>
       </c>
       <c r="J76" s="3">
-        <v>32485100</v>
+        <v>33826900</v>
       </c>
       <c r="K76" s="3">
         <v>32348800</v>
@@ -3055,25 +3055,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1247000</v>
+        <v>-1298500</v>
       </c>
       <c r="E81" s="3">
-        <v>9906500</v>
+        <v>10315600</v>
       </c>
       <c r="F81" s="3">
-        <v>6038500</v>
+        <v>6287900</v>
       </c>
       <c r="G81" s="3">
-        <v>7596000</v>
+        <v>7909800</v>
       </c>
       <c r="H81" s="3">
-        <v>4771500</v>
+        <v>4968600</v>
       </c>
       <c r="I81" s="3">
-        <v>4690300</v>
+        <v>4884000</v>
       </c>
       <c r="J81" s="3">
-        <v>6064300</v>
+        <v>6314800</v>
       </c>
       <c r="K81" s="3">
         <v>5732200</v>
@@ -3107,25 +3107,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7941900</v>
+        <v>8269900</v>
       </c>
       <c r="E83" s="3">
-        <v>4962100</v>
+        <v>5167000</v>
       </c>
       <c r="F83" s="3">
-        <v>4411500</v>
+        <v>4593700</v>
       </c>
       <c r="G83" s="3">
-        <v>4956200</v>
+        <v>5160900</v>
       </c>
       <c r="H83" s="3">
-        <v>5047900</v>
+        <v>5256400</v>
       </c>
       <c r="I83" s="3">
-        <v>5232600</v>
+        <v>5448800</v>
       </c>
       <c r="J83" s="3">
-        <v>4064500</v>
+        <v>4232300</v>
       </c>
       <c r="K83" s="3">
         <v>3964200</v>
@@ -3323,25 +3323,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6377300</v>
+        <v>6640700</v>
       </c>
       <c r="E89" s="3">
-        <v>8815900</v>
+        <v>9180100</v>
       </c>
       <c r="F89" s="3">
-        <v>9339400</v>
+        <v>9725200</v>
       </c>
       <c r="G89" s="3">
-        <v>10345300</v>
+        <v>10772600</v>
       </c>
       <c r="H89" s="3">
-        <v>9079500</v>
+        <v>9454500</v>
       </c>
       <c r="I89" s="3">
-        <v>11117000</v>
+        <v>11576200</v>
       </c>
       <c r="J89" s="3">
-        <v>8181900</v>
+        <v>8519800</v>
       </c>
       <c r="K89" s="3">
         <v>9690400</v>
@@ -3375,25 +3375,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3681000</v>
+        <v>-3833000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4498600</v>
+        <v>-4684400</v>
       </c>
       <c r="F91" s="3">
-        <v>-4580900</v>
+        <v>-4770100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4700900</v>
+        <v>-4895100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4876200</v>
+        <v>-5077600</v>
       </c>
       <c r="I91" s="3">
-        <v>-6837200</v>
+        <v>-7119600</v>
       </c>
       <c r="J91" s="3">
-        <v>-6230200</v>
+        <v>-6487500</v>
       </c>
       <c r="K91" s="3">
         <v>-5829100</v>
@@ -3483,25 +3483,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2239900</v>
+        <v>-2332400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1399900</v>
+        <v>-1457700</v>
       </c>
       <c r="F94" s="3">
-        <v>-13886200</v>
+        <v>-14459800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4656200</v>
+        <v>-4848500</v>
       </c>
       <c r="H94" s="3">
-        <v>-7634800</v>
+        <v>-7950200</v>
       </c>
       <c r="I94" s="3">
-        <v>-6158500</v>
+        <v>-6412800</v>
       </c>
       <c r="J94" s="3">
-        <v>-5289100</v>
+        <v>-5507600</v>
       </c>
       <c r="K94" s="3">
         <v>-7170000</v>
@@ -3535,25 +3535,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3565700</v>
+        <v>-3712900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3457400</v>
+        <v>-3600200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3349200</v>
+        <v>-3487500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3241000</v>
+        <v>-3374800</v>
       </c>
       <c r="H96" s="3">
-        <v>-3133900</v>
+        <v>-3263400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3025700</v>
+        <v>-3150700</v>
       </c>
       <c r="J96" s="3">
-        <v>-2917500</v>
+        <v>-3038000</v>
       </c>
       <c r="K96" s="3">
         <v>-2856500</v>
@@ -3679,25 +3679,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1830500</v>
+        <v>-1906100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7534800</v>
+        <v>-7846100</v>
       </c>
       <c r="F100" s="3">
-        <v>-61200</v>
+        <v>-63700</v>
       </c>
       <c r="G100" s="3">
-        <v>463500</v>
+        <v>482600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2541000</v>
+        <v>-2646000</v>
       </c>
       <c r="I100" s="3">
-        <v>-4320900</v>
+        <v>-4499400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2915100</v>
+        <v>-3035500</v>
       </c>
       <c r="K100" s="3">
         <v>-2241700</v>
@@ -3715,25 +3715,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-95300</v>
+        <v>-99200</v>
       </c>
       <c r="E101" s="3">
-        <v>43500</v>
+        <v>45300</v>
       </c>
       <c r="F101" s="3">
-        <v>-69400</v>
+        <v>-72300</v>
       </c>
       <c r="G101" s="3">
-        <v>-129400</v>
+        <v>-134700</v>
       </c>
       <c r="H101" s="3">
-        <v>77600</v>
+        <v>80800</v>
       </c>
       <c r="I101" s="3">
-        <v>-22400</v>
+        <v>-23300</v>
       </c>
       <c r="J101" s="3">
-        <v>-105900</v>
+        <v>-110200</v>
       </c>
       <c r="K101" s="3">
         <v>-71800</v>
@@ -3751,25 +3751,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2211600</v>
+        <v>2303000</v>
       </c>
       <c r="E102" s="3">
-        <v>-75300</v>
+        <v>-78400</v>
       </c>
       <c r="F102" s="3">
-        <v>-4677400</v>
+        <v>-4870600</v>
       </c>
       <c r="G102" s="3">
-        <v>6023200</v>
+        <v>6271900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1018800</v>
+        <v>-1060800</v>
       </c>
       <c r="I102" s="3">
-        <v>615300</v>
+        <v>640700</v>
       </c>
       <c r="J102" s="3">
-        <v>-128200</v>
+        <v>-133500</v>
       </c>
       <c r="K102" s="3">
         <v>206900</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>72456900</v>
+        <v>69051100</v>
       </c>
       <c r="E8" s="3">
-        <v>72661500</v>
+        <v>69246100</v>
       </c>
       <c r="F8" s="3">
-        <v>73768900</v>
+        <v>70301400</v>
       </c>
       <c r="G8" s="3">
-        <v>74997600</v>
+        <v>71472300</v>
       </c>
       <c r="H8" s="3">
-        <v>70498200</v>
+        <v>67184400</v>
       </c>
       <c r="I8" s="3">
-        <v>86299300</v>
+        <v>82242900</v>
       </c>
       <c r="J8" s="3">
-        <v>91048600</v>
+        <v>86768900</v>
       </c>
       <c r="K8" s="3">
         <v>88486500</v>
@@ -760,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>53948600</v>
+        <v>51412700</v>
       </c>
       <c r="E9" s="3">
-        <v>52749300</v>
+        <v>50269800</v>
       </c>
       <c r="F9" s="3">
-        <v>52569200</v>
+        <v>50098200</v>
       </c>
       <c r="G9" s="3">
-        <v>50948600</v>
+        <v>48553700</v>
       </c>
       <c r="H9" s="3">
-        <v>48099200</v>
+        <v>45838400</v>
       </c>
       <c r="I9" s="3">
-        <v>62930200</v>
+        <v>59972200</v>
       </c>
       <c r="J9" s="3">
-        <v>68402200</v>
+        <v>65187000</v>
       </c>
       <c r="K9" s="3">
         <v>66480000</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18508400</v>
+        <v>17638400</v>
       </c>
       <c r="E10" s="3">
-        <v>19912200</v>
+        <v>18976200</v>
       </c>
       <c r="F10" s="3">
-        <v>21199700</v>
+        <v>20203200</v>
       </c>
       <c r="G10" s="3">
-        <v>24049000</v>
+        <v>22918600</v>
       </c>
       <c r="H10" s="3">
-        <v>22398900</v>
+        <v>21346100</v>
       </c>
       <c r="I10" s="3">
-        <v>23369100</v>
+        <v>22270700</v>
       </c>
       <c r="J10" s="3">
-        <v>22646400</v>
+        <v>21581900</v>
       </c>
       <c r="K10" s="3">
         <v>22006500</v>
@@ -848,25 +848,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2555300</v>
+        <v>2435200</v>
       </c>
       <c r="E12" s="3">
-        <v>2643500</v>
+        <v>2519300</v>
       </c>
       <c r="F12" s="3">
-        <v>2442600</v>
+        <v>2327800</v>
       </c>
       <c r="G12" s="3">
-        <v>2257700</v>
+        <v>2151500</v>
       </c>
       <c r="H12" s="3">
-        <v>2282200</v>
+        <v>2174900</v>
       </c>
       <c r="I12" s="3">
-        <v>2392400</v>
+        <v>2280000</v>
       </c>
       <c r="J12" s="3">
-        <v>2307900</v>
+        <v>2199400</v>
       </c>
       <c r="K12" s="3">
         <v>2211800</v>
@@ -920,25 +920,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1032700</v>
+        <v>984100</v>
       </c>
       <c r="E14" s="3">
-        <v>853800</v>
+        <v>792700</v>
       </c>
       <c r="F14" s="3">
-        <v>494900</v>
+        <v>471600</v>
       </c>
       <c r="G14" s="3">
-        <v>439800</v>
+        <v>419100</v>
       </c>
       <c r="H14" s="3">
-        <v>590400</v>
+        <v>562700</v>
       </c>
       <c r="I14" s="3">
-        <v>374800</v>
+        <v>357200</v>
       </c>
       <c r="J14" s="3">
-        <v>215600</v>
+        <v>205500</v>
       </c>
       <c r="K14" s="3">
         <v>378000</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3635800</v>
+        <v>3464900</v>
       </c>
       <c r="E15" s="3">
-        <v>521800</v>
+        <v>497300</v>
       </c>
       <c r="F15" s="3">
-        <v>88200</v>
+        <v>84100</v>
       </c>
       <c r="G15" s="3">
-        <v>270700</v>
+        <v>258000</v>
       </c>
       <c r="H15" s="3">
-        <v>412800</v>
+        <v>393400</v>
       </c>
       <c r="I15" s="3">
-        <v>826900</v>
+        <v>788000</v>
       </c>
       <c r="J15" s="3">
-        <v>453200</v>
+        <v>431900</v>
       </c>
       <c r="K15" s="3">
         <v>296700</v>
@@ -1005,25 +1005,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>72732600</v>
+        <v>69313800</v>
       </c>
       <c r="E17" s="3">
-        <v>67515300</v>
+        <v>64320800</v>
       </c>
       <c r="F17" s="3">
-        <v>66450800</v>
+        <v>63327300</v>
       </c>
       <c r="G17" s="3">
-        <v>65703600</v>
+        <v>62615200</v>
       </c>
       <c r="H17" s="3">
-        <v>62811400</v>
+        <v>59858900</v>
       </c>
       <c r="I17" s="3">
-        <v>78645600</v>
+        <v>74948900</v>
       </c>
       <c r="J17" s="3">
-        <v>81706800</v>
+        <v>77866200</v>
       </c>
       <c r="K17" s="3">
         <v>79921700</v>
@@ -1041,25 +1041,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-275600</v>
+        <v>-262700</v>
       </c>
       <c r="E18" s="3">
-        <v>5146200</v>
+        <v>4925300</v>
       </c>
       <c r="F18" s="3">
-        <v>7318100</v>
+        <v>6974100</v>
       </c>
       <c r="G18" s="3">
-        <v>9294000</v>
+        <v>8857100</v>
       </c>
       <c r="H18" s="3">
-        <v>7686800</v>
+        <v>7325500</v>
       </c>
       <c r="I18" s="3">
-        <v>7653700</v>
+        <v>7294000</v>
       </c>
       <c r="J18" s="3">
-        <v>9341800</v>
+        <v>8902700</v>
       </c>
       <c r="K18" s="3">
         <v>8564800</v>
@@ -1093,25 +1093,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-1016700</v>
+        <v>-969000</v>
       </c>
       <c r="E20" s="3">
-        <v>-350300</v>
+        <v>-354900</v>
       </c>
       <c r="F20" s="3">
-        <v>-287900</v>
+        <v>-274300</v>
       </c>
       <c r="G20" s="3">
-        <v>-306200</v>
+        <v>-291900</v>
       </c>
       <c r="H20" s="3">
-        <v>-381000</v>
+        <v>-363100</v>
       </c>
       <c r="I20" s="3">
-        <v>-258500</v>
+        <v>-246300</v>
       </c>
       <c r="J20" s="3">
-        <v>161700</v>
+        <v>154100</v>
       </c>
       <c r="K20" s="3">
         <v>23900</v>
@@ -1129,25 +1129,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6953900</v>
+        <v>6673800</v>
       </c>
       <c r="E21" s="3">
-        <v>9948100</v>
+        <v>9509700</v>
       </c>
       <c r="F21" s="3">
-        <v>11610800</v>
+        <v>11091000</v>
       </c>
       <c r="G21" s="3">
-        <v>14133900</v>
+        <v>13498700</v>
       </c>
       <c r="H21" s="3">
-        <v>12547300</v>
+        <v>11987200</v>
       </c>
       <c r="I21" s="3">
-        <v>12828500</v>
+        <v>12256300</v>
       </c>
       <c r="J21" s="3">
-        <v>13723700</v>
+        <v>13102600</v>
       </c>
       <c r="K21" s="3">
         <v>12536700</v>
@@ -1165,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>621100</v>
+        <v>591900</v>
       </c>
       <c r="E22" s="3">
-        <v>750900</v>
+        <v>715600</v>
       </c>
       <c r="F22" s="3">
-        <v>619800</v>
+        <v>590700</v>
       </c>
       <c r="G22" s="3">
-        <v>557400</v>
+        <v>531200</v>
       </c>
       <c r="H22" s="3">
-        <v>697000</v>
+        <v>664300</v>
       </c>
       <c r="I22" s="3">
-        <v>599000</v>
+        <v>570900</v>
       </c>
       <c r="J22" s="3">
-        <v>679900</v>
+        <v>647900</v>
       </c>
       <c r="K22" s="3">
         <v>693800</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1913400</v>
+        <v>-1823500</v>
       </c>
       <c r="E23" s="3">
-        <v>4044900</v>
+        <v>3854800</v>
       </c>
       <c r="F23" s="3">
-        <v>6410400</v>
+        <v>6109100</v>
       </c>
       <c r="G23" s="3">
-        <v>8430400</v>
+        <v>8034100</v>
       </c>
       <c r="H23" s="3">
-        <v>6608800</v>
+        <v>6298200</v>
       </c>
       <c r="I23" s="3">
-        <v>6796200</v>
+        <v>6476800</v>
       </c>
       <c r="J23" s="3">
-        <v>8823600</v>
+        <v>8408900</v>
       </c>
       <c r="K23" s="3">
         <v>7894900</v>
@@ -1237,25 +1237,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-111500</v>
+        <v>-106200</v>
       </c>
       <c r="E24" s="3">
-        <v>926100</v>
+        <v>882600</v>
       </c>
       <c r="F24" s="3">
-        <v>1368300</v>
+        <v>1304000</v>
       </c>
       <c r="G24" s="3">
-        <v>1580200</v>
+        <v>1506000</v>
       </c>
       <c r="H24" s="3">
-        <v>1396500</v>
+        <v>1330800</v>
       </c>
       <c r="I24" s="3">
-        <v>1527600</v>
+        <v>1455800</v>
       </c>
       <c r="J24" s="3">
-        <v>2096000</v>
+        <v>1997400</v>
       </c>
       <c r="K24" s="3">
         <v>1778700</v>
@@ -1309,25 +1309,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1802000</v>
+        <v>-1717300</v>
       </c>
       <c r="E26" s="3">
-        <v>3118800</v>
+        <v>2972200</v>
       </c>
       <c r="F26" s="3">
-        <v>5042100</v>
+        <v>4805100</v>
       </c>
       <c r="G26" s="3">
-        <v>6850100</v>
+        <v>6528200</v>
       </c>
       <c r="H26" s="3">
-        <v>5212300</v>
+        <v>4967300</v>
       </c>
       <c r="I26" s="3">
-        <v>5268700</v>
+        <v>5021000</v>
       </c>
       <c r="J26" s="3">
-        <v>6727600</v>
+        <v>6411400</v>
       </c>
       <c r="K26" s="3">
         <v>6116200</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1783600</v>
+        <v>-1699700</v>
       </c>
       <c r="E27" s="3">
-        <v>3033100</v>
+        <v>2890500</v>
       </c>
       <c r="F27" s="3">
-        <v>4708900</v>
+        <v>4487500</v>
       </c>
       <c r="G27" s="3">
-        <v>6514500</v>
+        <v>6208300</v>
       </c>
       <c r="H27" s="3">
-        <v>4968600</v>
+        <v>4735000</v>
       </c>
       <c r="I27" s="3">
-        <v>4884000</v>
+        <v>4654500</v>
       </c>
       <c r="J27" s="3">
-        <v>6314800</v>
+        <v>6018000</v>
       </c>
       <c r="K27" s="3">
         <v>5732200</v>
@@ -1417,16 +1417,16 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>485100</v>
+        <v>462300</v>
       </c>
       <c r="E29" s="3">
-        <v>7282600</v>
+        <v>6940300</v>
       </c>
       <c r="F29" s="3">
-        <v>1579000</v>
+        <v>1504800</v>
       </c>
       <c r="G29" s="3">
-        <v>1395300</v>
+        <v>1329700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1525,25 +1525,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1016700</v>
+        <v>969000</v>
       </c>
       <c r="E32" s="3">
-        <v>350300</v>
+        <v>354900</v>
       </c>
       <c r="F32" s="3">
-        <v>287900</v>
+        <v>274300</v>
       </c>
       <c r="G32" s="3">
-        <v>306200</v>
+        <v>291900</v>
       </c>
       <c r="H32" s="3">
-        <v>381000</v>
+        <v>363100</v>
       </c>
       <c r="I32" s="3">
-        <v>258500</v>
+        <v>246300</v>
       </c>
       <c r="J32" s="3">
-        <v>-161700</v>
+        <v>-154100</v>
       </c>
       <c r="K32" s="3">
         <v>-23900</v>
@@ -1561,25 +1561,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1298500</v>
+        <v>-1237500</v>
       </c>
       <c r="E33" s="3">
-        <v>10315600</v>
+        <v>9830800</v>
       </c>
       <c r="F33" s="3">
-        <v>6287900</v>
+        <v>5992300</v>
       </c>
       <c r="G33" s="3">
-        <v>7909800</v>
+        <v>7538000</v>
       </c>
       <c r="H33" s="3">
-        <v>4968600</v>
+        <v>4735000</v>
       </c>
       <c r="I33" s="3">
-        <v>4884000</v>
+        <v>4654500</v>
       </c>
       <c r="J33" s="3">
-        <v>6314800</v>
+        <v>6018000</v>
       </c>
       <c r="K33" s="3">
         <v>5732200</v>
@@ -1633,25 +1633,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1298500</v>
+        <v>-1237500</v>
       </c>
       <c r="E35" s="3">
-        <v>10315600</v>
+        <v>9830800</v>
       </c>
       <c r="F35" s="3">
-        <v>6287900</v>
+        <v>5992300</v>
       </c>
       <c r="G35" s="3">
-        <v>7909800</v>
+        <v>7538000</v>
       </c>
       <c r="H35" s="3">
-        <v>4968600</v>
+        <v>4735000</v>
       </c>
       <c r="I35" s="3">
-        <v>4884000</v>
+        <v>4654500</v>
       </c>
       <c r="J35" s="3">
-        <v>6314800</v>
+        <v>6018000</v>
       </c>
       <c r="K35" s="3">
         <v>5732200</v>
@@ -1742,25 +1742,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5304200</v>
+        <v>5054900</v>
       </c>
       <c r="E41" s="3">
-        <v>2973100</v>
+        <v>2833300</v>
       </c>
       <c r="F41" s="3">
-        <v>2817500</v>
+        <v>2685000</v>
       </c>
       <c r="G41" s="3">
-        <v>7956300</v>
+        <v>7582300</v>
       </c>
       <c r="H41" s="3">
-        <v>1684400</v>
+        <v>1605200</v>
       </c>
       <c r="I41" s="3">
-        <v>2745200</v>
+        <v>2616200</v>
       </c>
       <c r="J41" s="3">
-        <v>2104500</v>
+        <v>2005600</v>
       </c>
       <c r="K41" s="3">
         <v>2185500</v>
@@ -1778,25 +1778,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>253600</v>
+        <v>241700</v>
       </c>
       <c r="E42" s="3">
-        <v>543900</v>
+        <v>518300</v>
       </c>
       <c r="F42" s="3">
-        <v>421400</v>
+        <v>401600</v>
       </c>
       <c r="G42" s="3">
-        <v>63700</v>
+        <v>60700</v>
       </c>
       <c r="H42" s="3">
-        <v>656600</v>
+        <v>625700</v>
       </c>
       <c r="I42" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="J42" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="K42" s="3">
         <v>20300</v>
@@ -1814,25 +1814,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16498200</v>
+        <v>15722700</v>
       </c>
       <c r="E43" s="3">
-        <v>14917900</v>
+        <v>14216700</v>
       </c>
       <c r="F43" s="3">
-        <v>16327900</v>
+        <v>15560400</v>
       </c>
       <c r="G43" s="3">
-        <v>16813000</v>
+        <v>16022700</v>
       </c>
       <c r="H43" s="3">
-        <v>16564300</v>
+        <v>15785700</v>
       </c>
       <c r="I43" s="3">
-        <v>14652100</v>
+        <v>13963400</v>
       </c>
       <c r="J43" s="3">
-        <v>15147000</v>
+        <v>14435000</v>
       </c>
       <c r="K43" s="3">
         <v>15323300</v>
@@ -1850,25 +1850,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12262100</v>
+        <v>11685800</v>
       </c>
       <c r="E44" s="3">
-        <v>13748100</v>
+        <v>13101800</v>
       </c>
       <c r="F44" s="3">
-        <v>14903200</v>
+        <v>14202700</v>
       </c>
       <c r="G44" s="3">
-        <v>12621100</v>
+        <v>12027800</v>
       </c>
       <c r="H44" s="3">
-        <v>12256000</v>
+        <v>11679900</v>
       </c>
       <c r="I44" s="3">
-        <v>11873800</v>
+        <v>11315700</v>
       </c>
       <c r="J44" s="3">
-        <v>13800700</v>
+        <v>13152000</v>
       </c>
       <c r="K44" s="3">
         <v>12153400</v>
@@ -1886,25 +1886,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2269900</v>
+        <v>2163200</v>
       </c>
       <c r="E45" s="3">
-        <v>5779500</v>
+        <v>5507800</v>
       </c>
       <c r="F45" s="3">
-        <v>18475300</v>
+        <v>17606900</v>
       </c>
       <c r="G45" s="3">
-        <v>698200</v>
+        <v>665400</v>
       </c>
       <c r="H45" s="3">
-        <v>622300</v>
+        <v>593000</v>
       </c>
       <c r="I45" s="3">
-        <v>796200</v>
+        <v>758800</v>
       </c>
       <c r="J45" s="3">
-        <v>2513700</v>
+        <v>2395500</v>
       </c>
       <c r="K45" s="3">
         <v>4742900</v>
@@ -1922,25 +1922,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36588000</v>
+        <v>34868200</v>
       </c>
       <c r="E46" s="3">
-        <v>37962400</v>
+        <v>36178000</v>
       </c>
       <c r="F46" s="3">
-        <v>52945300</v>
+        <v>50456600</v>
       </c>
       <c r="G46" s="3">
-        <v>38152300</v>
+        <v>36359000</v>
       </c>
       <c r="H46" s="3">
-        <v>31783600</v>
+        <v>30289600</v>
       </c>
       <c r="I46" s="3">
-        <v>30093100</v>
+        <v>28678600</v>
       </c>
       <c r="J46" s="3">
-        <v>33589200</v>
+        <v>32010400</v>
       </c>
       <c r="K46" s="3">
         <v>31042600</v>
@@ -1958,25 +1958,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16334000</v>
+        <v>15566200</v>
       </c>
       <c r="E47" s="3">
-        <v>19163700</v>
+        <v>18263000</v>
       </c>
       <c r="F47" s="3">
-        <v>3396900</v>
+        <v>3237200</v>
       </c>
       <c r="G47" s="3">
-        <v>6518200</v>
+        <v>6211800</v>
       </c>
       <c r="H47" s="3">
-        <v>6433600</v>
+        <v>6131200</v>
       </c>
       <c r="I47" s="3">
-        <v>6078400</v>
+        <v>5792700</v>
       </c>
       <c r="J47" s="3">
-        <v>4636600</v>
+        <v>4418600</v>
       </c>
       <c r="K47" s="3">
         <v>6811200</v>
@@ -1994,25 +1994,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24067400</v>
+        <v>22936100</v>
       </c>
       <c r="E48" s="3">
-        <v>26695000</v>
+        <v>25440200</v>
       </c>
       <c r="F48" s="3">
-        <v>25455300</v>
+        <v>24258800</v>
       </c>
       <c r="G48" s="3">
-        <v>30940800</v>
+        <v>29486400</v>
       </c>
       <c r="H48" s="3">
-        <v>32355700</v>
+        <v>30834800</v>
       </c>
       <c r="I48" s="3">
-        <v>30943200</v>
+        <v>29488800</v>
       </c>
       <c r="J48" s="3">
-        <v>28782400</v>
+        <v>27429500</v>
       </c>
       <c r="K48" s="3">
         <v>23001700</v>
@@ -2030,25 +2030,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16102500</v>
+        <v>15345600</v>
       </c>
       <c r="E49" s="3">
-        <v>17793000</v>
+        <v>16956600</v>
       </c>
       <c r="F49" s="3">
-        <v>20278500</v>
+        <v>19325300</v>
       </c>
       <c r="G49" s="3">
-        <v>16652500</v>
+        <v>15869800</v>
       </c>
       <c r="H49" s="3">
-        <v>18573300</v>
+        <v>17700300</v>
       </c>
       <c r="I49" s="3">
-        <v>15357700</v>
+        <v>14635800</v>
       </c>
       <c r="J49" s="3">
-        <v>15884400</v>
+        <v>15137800</v>
       </c>
       <c r="K49" s="3">
         <v>14742000</v>
@@ -2138,25 +2138,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5265000</v>
+        <v>5017500</v>
       </c>
       <c r="E52" s="3">
-        <v>4898700</v>
+        <v>4668500</v>
       </c>
       <c r="F52" s="3">
-        <v>3954300</v>
+        <v>3768400</v>
       </c>
       <c r="G52" s="3">
-        <v>4226200</v>
+        <v>4027600</v>
       </c>
       <c r="H52" s="3">
-        <v>4560600</v>
+        <v>4346300</v>
       </c>
       <c r="I52" s="3">
-        <v>4300900</v>
+        <v>4098800</v>
       </c>
       <c r="J52" s="3">
-        <v>4521400</v>
+        <v>4308900</v>
       </c>
       <c r="K52" s="3">
         <v>1203400</v>
@@ -2210,25 +2210,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>98356900</v>
+        <v>93733700</v>
       </c>
       <c r="E54" s="3">
-        <v>106513000</v>
+        <v>101506000</v>
       </c>
       <c r="F54" s="3">
-        <v>106030000</v>
+        <v>101046000</v>
       </c>
       <c r="G54" s="3">
-        <v>96490000</v>
+        <v>91954600</v>
       </c>
       <c r="H54" s="3">
-        <v>93706800</v>
+        <v>89302200</v>
       </c>
       <c r="I54" s="3">
-        <v>86773400</v>
+        <v>82694700</v>
       </c>
       <c r="J54" s="3">
-        <v>87414100</v>
+        <v>83305200</v>
       </c>
       <c r="K54" s="3">
         <v>76800800</v>
@@ -2278,25 +2278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6481400</v>
+        <v>6176800</v>
       </c>
       <c r="E57" s="3">
-        <v>6231500</v>
+        <v>5938600</v>
       </c>
       <c r="F57" s="3">
-        <v>6274400</v>
+        <v>5979500</v>
       </c>
       <c r="G57" s="3">
-        <v>6089400</v>
+        <v>5803200</v>
       </c>
       <c r="H57" s="3">
-        <v>5647200</v>
+        <v>5381800</v>
       </c>
       <c r="I57" s="3">
-        <v>4924500</v>
+        <v>4693000</v>
       </c>
       <c r="J57" s="3">
-        <v>5954700</v>
+        <v>5674800</v>
       </c>
       <c r="K57" s="3">
         <v>6164000</v>
@@ -2314,25 +2314,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4568000</v>
+        <v>4353300</v>
       </c>
       <c r="E58" s="3">
-        <v>4585100</v>
+        <v>4369600</v>
       </c>
       <c r="F58" s="3">
-        <v>6748500</v>
+        <v>6431300</v>
       </c>
       <c r="G58" s="3">
-        <v>3058800</v>
+        <v>2915000</v>
       </c>
       <c r="H58" s="3">
-        <v>4641500</v>
+        <v>4423300</v>
       </c>
       <c r="I58" s="3">
-        <v>5017600</v>
+        <v>4781700</v>
       </c>
       <c r="J58" s="3">
-        <v>4365900</v>
+        <v>4160600</v>
       </c>
       <c r="K58" s="3">
         <v>3910400</v>
@@ -2350,25 +2350,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8893400</v>
+        <v>8475400</v>
       </c>
       <c r="E59" s="3">
-        <v>9523100</v>
+        <v>9075400</v>
       </c>
       <c r="F59" s="3">
-        <v>15554900</v>
+        <v>14823800</v>
       </c>
       <c r="G59" s="3">
-        <v>9079600</v>
+        <v>8652800</v>
       </c>
       <c r="H59" s="3">
-        <v>8474500</v>
+        <v>8076100</v>
       </c>
       <c r="I59" s="3">
-        <v>7496900</v>
+        <v>7144500</v>
       </c>
       <c r="J59" s="3">
-        <v>9148200</v>
+        <v>8718200</v>
       </c>
       <c r="K59" s="3">
         <v>10182100</v>
@@ -2386,25 +2386,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19942800</v>
+        <v>19005400</v>
       </c>
       <c r="E60" s="3">
-        <v>20339700</v>
+        <v>19383700</v>
       </c>
       <c r="F60" s="3">
-        <v>28577800</v>
+        <v>27234500</v>
       </c>
       <c r="G60" s="3">
-        <v>18227900</v>
+        <v>17371100</v>
       </c>
       <c r="H60" s="3">
-        <v>18763200</v>
+        <v>17881200</v>
       </c>
       <c r="I60" s="3">
-        <v>17439000</v>
+        <v>16619200</v>
       </c>
       <c r="J60" s="3">
-        <v>19468800</v>
+        <v>18553600</v>
       </c>
       <c r="K60" s="3">
         <v>17152300</v>
@@ -2422,25 +2422,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20635000</v>
+        <v>19665000</v>
       </c>
       <c r="E61" s="3">
-        <v>19666000</v>
+        <v>18741600</v>
       </c>
       <c r="F61" s="3">
-        <v>18893000</v>
+        <v>18005000</v>
       </c>
       <c r="G61" s="3">
-        <v>19151500</v>
+        <v>18251300</v>
       </c>
       <c r="H61" s="3">
-        <v>15470400</v>
+        <v>14743200</v>
       </c>
       <c r="I61" s="3">
-        <v>13699100</v>
+        <v>13055100</v>
       </c>
       <c r="J61" s="3">
-        <v>14589600</v>
+        <v>13903900</v>
       </c>
       <c r="K61" s="3">
         <v>13425000</v>
@@ -2458,25 +2458,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15641900</v>
+        <v>14906700</v>
       </c>
       <c r="E62" s="3">
-        <v>14628800</v>
+        <v>13941200</v>
       </c>
       <c r="F62" s="3">
-        <v>14326300</v>
+        <v>13652900</v>
       </c>
       <c r="G62" s="3">
-        <v>16534900</v>
+        <v>15757700</v>
       </c>
       <c r="H62" s="3">
-        <v>19577800</v>
+        <v>18657500</v>
       </c>
       <c r="I62" s="3">
-        <v>16993100</v>
+        <v>16194300</v>
       </c>
       <c r="J62" s="3">
-        <v>18817100</v>
+        <v>17932600</v>
       </c>
       <c r="K62" s="3">
         <v>13121100</v>
@@ -2602,25 +2602,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57040400</v>
+        <v>54359300</v>
       </c>
       <c r="E66" s="3">
-        <v>55679500</v>
+        <v>53062300</v>
       </c>
       <c r="F66" s="3">
-        <v>63089400</v>
+        <v>60123900</v>
       </c>
       <c r="G66" s="3">
-        <v>55040000</v>
+        <v>52452900</v>
       </c>
       <c r="H66" s="3">
-        <v>54743600</v>
+        <v>52170400</v>
       </c>
       <c r="I66" s="3">
-        <v>48901600</v>
+        <v>46603000</v>
       </c>
       <c r="J66" s="3">
-        <v>53587200</v>
+        <v>51068400</v>
       </c>
       <c r="K66" s="3">
         <v>44452000</v>
@@ -2798,25 +2798,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50256400</v>
+        <v>47894200</v>
       </c>
       <c r="E72" s="3">
-        <v>55334000</v>
+        <v>52733100</v>
       </c>
       <c r="F72" s="3">
-        <v>48775400</v>
+        <v>46482800</v>
       </c>
       <c r="G72" s="3">
-        <v>46479800</v>
+        <v>44295000</v>
       </c>
       <c r="H72" s="3">
-        <v>42439800</v>
+        <v>40444900</v>
       </c>
       <c r="I72" s="3">
-        <v>40744400</v>
+        <v>38829200</v>
       </c>
       <c r="J72" s="3">
-        <v>39101700</v>
+        <v>37263700</v>
       </c>
       <c r="K72" s="3">
         <v>35009200</v>
@@ -2942,25 +2942,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41316500</v>
+        <v>39374400</v>
       </c>
       <c r="E76" s="3">
-        <v>50833400</v>
+        <v>48444000</v>
       </c>
       <c r="F76" s="3">
-        <v>42940800</v>
+        <v>40922400</v>
       </c>
       <c r="G76" s="3">
-        <v>41450000</v>
+        <v>39501700</v>
       </c>
       <c r="H76" s="3">
-        <v>38963300</v>
+        <v>37131800</v>
       </c>
       <c r="I76" s="3">
-        <v>37871800</v>
+        <v>36091600</v>
       </c>
       <c r="J76" s="3">
-        <v>33826900</v>
+        <v>32236900</v>
       </c>
       <c r="K76" s="3">
         <v>32348800</v>
@@ -3055,25 +3055,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1298500</v>
+        <v>-1237500</v>
       </c>
       <c r="E81" s="3">
-        <v>10315600</v>
+        <v>9830800</v>
       </c>
       <c r="F81" s="3">
-        <v>6287900</v>
+        <v>5992300</v>
       </c>
       <c r="G81" s="3">
-        <v>7909800</v>
+        <v>7538000</v>
       </c>
       <c r="H81" s="3">
-        <v>4968600</v>
+        <v>4735000</v>
       </c>
       <c r="I81" s="3">
-        <v>4884000</v>
+        <v>4654500</v>
       </c>
       <c r="J81" s="3">
-        <v>6314800</v>
+        <v>6018000</v>
       </c>
       <c r="K81" s="3">
         <v>5732200</v>
@@ -3107,25 +3107,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8269900</v>
+        <v>7881200</v>
       </c>
       <c r="E83" s="3">
-        <v>5167000</v>
+        <v>4924100</v>
       </c>
       <c r="F83" s="3">
-        <v>4593700</v>
+        <v>4377800</v>
       </c>
       <c r="G83" s="3">
-        <v>5160900</v>
+        <v>4918300</v>
       </c>
       <c r="H83" s="3">
-        <v>5256400</v>
+        <v>5009400</v>
       </c>
       <c r="I83" s="3">
-        <v>5448800</v>
+        <v>5192600</v>
       </c>
       <c r="J83" s="3">
-        <v>4232300</v>
+        <v>4033400</v>
       </c>
       <c r="K83" s="3">
         <v>3964200</v>
@@ -3323,25 +3323,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6640700</v>
+        <v>6328500</v>
       </c>
       <c r="E89" s="3">
-        <v>9180100</v>
+        <v>8748600</v>
       </c>
       <c r="F89" s="3">
-        <v>9725200</v>
+        <v>9268100</v>
       </c>
       <c r="G89" s="3">
-        <v>10772600</v>
+        <v>10266200</v>
       </c>
       <c r="H89" s="3">
-        <v>9454500</v>
+        <v>9010100</v>
       </c>
       <c r="I89" s="3">
-        <v>11576200</v>
+        <v>11032000</v>
       </c>
       <c r="J89" s="3">
-        <v>8519800</v>
+        <v>8119300</v>
       </c>
       <c r="K89" s="3">
         <v>9690400</v>
@@ -3375,25 +3375,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3833000</v>
+        <v>-3652800</v>
       </c>
       <c r="E91" s="3">
-        <v>-4684400</v>
+        <v>-4464200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4770100</v>
+        <v>-4545900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4895100</v>
+        <v>-4665000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5077600</v>
+        <v>-4838900</v>
       </c>
       <c r="I91" s="3">
-        <v>-7119600</v>
+        <v>-6785000</v>
       </c>
       <c r="J91" s="3">
-        <v>-6487500</v>
+        <v>-6182600</v>
       </c>
       <c r="K91" s="3">
         <v>-5829100</v>
@@ -3483,25 +3483,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2332400</v>
+        <v>-2222700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1457700</v>
+        <v>-1389200</v>
       </c>
       <c r="F94" s="3">
-        <v>-14459800</v>
+        <v>-13780100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4848500</v>
+        <v>-4620600</v>
       </c>
       <c r="H94" s="3">
-        <v>-7950200</v>
+        <v>-7576500</v>
       </c>
       <c r="I94" s="3">
-        <v>-6412800</v>
+        <v>-6111400</v>
       </c>
       <c r="J94" s="3">
-        <v>-5507600</v>
+        <v>-5248700</v>
       </c>
       <c r="K94" s="3">
         <v>-7170000</v>
@@ -3535,25 +3535,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3712900</v>
+        <v>-3538400</v>
       </c>
       <c r="E96" s="3">
-        <v>-3600200</v>
+        <v>-3431000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3487500</v>
+        <v>-3323600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3374800</v>
+        <v>-3216200</v>
       </c>
       <c r="H96" s="3">
-        <v>-3263400</v>
+        <v>-3110000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3150700</v>
+        <v>-3002600</v>
       </c>
       <c r="J96" s="3">
-        <v>-3038000</v>
+        <v>-2895200</v>
       </c>
       <c r="K96" s="3">
         <v>-2856500</v>
@@ -3679,25 +3679,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1906100</v>
+        <v>-1816500</v>
       </c>
       <c r="E100" s="3">
-        <v>-7846100</v>
+        <v>-7477300</v>
       </c>
       <c r="F100" s="3">
-        <v>-63700</v>
+        <v>-60700</v>
       </c>
       <c r="G100" s="3">
-        <v>482600</v>
+        <v>460000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2646000</v>
+        <v>-2521600</v>
       </c>
       <c r="I100" s="3">
-        <v>-4499400</v>
+        <v>-4287900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3035500</v>
+        <v>-2892800</v>
       </c>
       <c r="K100" s="3">
         <v>-2241700</v>
@@ -3715,25 +3715,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-99200</v>
+        <v>-94600</v>
       </c>
       <c r="E101" s="3">
-        <v>45300</v>
+        <v>43200</v>
       </c>
       <c r="F101" s="3">
-        <v>-72300</v>
+        <v>-68900</v>
       </c>
       <c r="G101" s="3">
-        <v>-134700</v>
+        <v>-128400</v>
       </c>
       <c r="H101" s="3">
-        <v>80800</v>
+        <v>77000</v>
       </c>
       <c r="I101" s="3">
-        <v>-23300</v>
+        <v>-22200</v>
       </c>
       <c r="J101" s="3">
-        <v>-110200</v>
+        <v>-105100</v>
       </c>
       <c r="K101" s="3">
         <v>-71800</v>
@@ -3751,25 +3751,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2303000</v>
+        <v>2194700</v>
       </c>
       <c r="E102" s="3">
-        <v>-78400</v>
+        <v>-74700</v>
       </c>
       <c r="F102" s="3">
-        <v>-4870600</v>
+        <v>-4641600</v>
       </c>
       <c r="G102" s="3">
-        <v>6271900</v>
+        <v>5977100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1060800</v>
+        <v>-1011000</v>
       </c>
       <c r="I102" s="3">
-        <v>640700</v>
+        <v>610600</v>
       </c>
       <c r="J102" s="3">
-        <v>-133500</v>
+        <v>-127200</v>
       </c>
       <c r="K102" s="3">
         <v>206900</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>69051100</v>
+        <v>66785100</v>
       </c>
       <c r="E8" s="3">
-        <v>69246100</v>
+        <v>66973700</v>
       </c>
       <c r="F8" s="3">
-        <v>70301400</v>
+        <v>67994400</v>
       </c>
       <c r="G8" s="3">
-        <v>71472300</v>
+        <v>69126900</v>
       </c>
       <c r="H8" s="3">
-        <v>67184400</v>
+        <v>64979700</v>
       </c>
       <c r="I8" s="3">
-        <v>82242900</v>
+        <v>79544000</v>
       </c>
       <c r="J8" s="3">
-        <v>86768900</v>
+        <v>83921500</v>
       </c>
       <c r="K8" s="3">
         <v>88486500</v>
@@ -760,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51412700</v>
+        <v>49725600</v>
       </c>
       <c r="E9" s="3">
-        <v>50269800</v>
+        <v>48620200</v>
       </c>
       <c r="F9" s="3">
-        <v>50098200</v>
+        <v>48454200</v>
       </c>
       <c r="G9" s="3">
-        <v>48553700</v>
+        <v>46960400</v>
       </c>
       <c r="H9" s="3">
-        <v>45838400</v>
+        <v>44334100</v>
       </c>
       <c r="I9" s="3">
-        <v>59972200</v>
+        <v>58004100</v>
       </c>
       <c r="J9" s="3">
-        <v>65187000</v>
+        <v>63047800</v>
       </c>
       <c r="K9" s="3">
         <v>66480000</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17638400</v>
+        <v>17059600</v>
       </c>
       <c r="E10" s="3">
-        <v>18976200</v>
+        <v>18353500</v>
       </c>
       <c r="F10" s="3">
-        <v>20203200</v>
+        <v>19540200</v>
       </c>
       <c r="G10" s="3">
-        <v>22918600</v>
+        <v>22166500</v>
       </c>
       <c r="H10" s="3">
-        <v>21346100</v>
+        <v>20645600</v>
       </c>
       <c r="I10" s="3">
-        <v>22270700</v>
+        <v>21539800</v>
       </c>
       <c r="J10" s="3">
-        <v>21581900</v>
+        <v>20873700</v>
       </c>
       <c r="K10" s="3">
         <v>22006500</v>
@@ -848,25 +848,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2435200</v>
+        <v>2355300</v>
       </c>
       <c r="E12" s="3">
-        <v>2519300</v>
+        <v>2436600</v>
       </c>
       <c r="F12" s="3">
-        <v>2327800</v>
+        <v>2251400</v>
       </c>
       <c r="G12" s="3">
-        <v>2151500</v>
+        <v>2080900</v>
       </c>
       <c r="H12" s="3">
-        <v>2174900</v>
+        <v>2103500</v>
       </c>
       <c r="I12" s="3">
-        <v>2280000</v>
+        <v>2205100</v>
       </c>
       <c r="J12" s="3">
-        <v>2199400</v>
+        <v>2127200</v>
       </c>
       <c r="K12" s="3">
         <v>2211800</v>
@@ -920,25 +920,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>984100</v>
+        <v>951800</v>
       </c>
       <c r="E14" s="3">
-        <v>792700</v>
+        <v>766700</v>
       </c>
       <c r="F14" s="3">
-        <v>471600</v>
+        <v>456200</v>
       </c>
       <c r="G14" s="3">
-        <v>419100</v>
+        <v>405300</v>
       </c>
       <c r="H14" s="3">
-        <v>562700</v>
+        <v>544200</v>
       </c>
       <c r="I14" s="3">
-        <v>357200</v>
+        <v>345500</v>
       </c>
       <c r="J14" s="3">
-        <v>205500</v>
+        <v>198700</v>
       </c>
       <c r="K14" s="3">
         <v>378000</v>
@@ -956,25 +956,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3464900</v>
+        <v>3351200</v>
       </c>
       <c r="E15" s="3">
-        <v>497300</v>
+        <v>481000</v>
       </c>
       <c r="F15" s="3">
-        <v>84100</v>
+        <v>81300</v>
       </c>
       <c r="G15" s="3">
-        <v>258000</v>
+        <v>249500</v>
       </c>
       <c r="H15" s="3">
-        <v>393400</v>
+        <v>380500</v>
       </c>
       <c r="I15" s="3">
-        <v>788000</v>
+        <v>762100</v>
       </c>
       <c r="J15" s="3">
-        <v>431900</v>
+        <v>417800</v>
       </c>
       <c r="K15" s="3">
         <v>296700</v>
@@ -1005,25 +1005,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>69313800</v>
+        <v>67039200</v>
       </c>
       <c r="E17" s="3">
-        <v>64320800</v>
+        <v>62210000</v>
       </c>
       <c r="F17" s="3">
-        <v>63327300</v>
+        <v>61249200</v>
       </c>
       <c r="G17" s="3">
-        <v>62615200</v>
+        <v>60560400</v>
       </c>
       <c r="H17" s="3">
-        <v>59858900</v>
+        <v>57894600</v>
       </c>
       <c r="I17" s="3">
-        <v>74948900</v>
+        <v>72489300</v>
       </c>
       <c r="J17" s="3">
-        <v>77866200</v>
+        <v>75311000</v>
       </c>
       <c r="K17" s="3">
         <v>79921700</v>
@@ -1041,25 +1041,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-262700</v>
+        <v>-254000</v>
       </c>
       <c r="E18" s="3">
-        <v>4925300</v>
+        <v>4763700</v>
       </c>
       <c r="F18" s="3">
-        <v>6974100</v>
+        <v>6745200</v>
       </c>
       <c r="G18" s="3">
-        <v>8857100</v>
+        <v>8566500</v>
       </c>
       <c r="H18" s="3">
-        <v>7325500</v>
+        <v>7085100</v>
       </c>
       <c r="I18" s="3">
-        <v>7294000</v>
+        <v>7054600</v>
       </c>
       <c r="J18" s="3">
-        <v>8902700</v>
+        <v>8610500</v>
       </c>
       <c r="K18" s="3">
         <v>8564800</v>
@@ -1093,25 +1093,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-969000</v>
+        <v>-937200</v>
       </c>
       <c r="E20" s="3">
-        <v>-354900</v>
+        <v>-343200</v>
       </c>
       <c r="F20" s="3">
-        <v>-274300</v>
+        <v>-265300</v>
       </c>
       <c r="G20" s="3">
-        <v>-291900</v>
+        <v>-282300</v>
       </c>
       <c r="H20" s="3">
-        <v>-363100</v>
+        <v>-351200</v>
       </c>
       <c r="I20" s="3">
-        <v>-246300</v>
+        <v>-238200</v>
       </c>
       <c r="J20" s="3">
-        <v>154100</v>
+        <v>149000</v>
       </c>
       <c r="K20" s="3">
         <v>23900</v>
@@ -1129,25 +1129,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6673800</v>
+        <v>6448900</v>
       </c>
       <c r="E21" s="3">
-        <v>9509700</v>
+        <v>9193900</v>
       </c>
       <c r="F21" s="3">
-        <v>11091000</v>
+        <v>10723800</v>
       </c>
       <c r="G21" s="3">
-        <v>13498700</v>
+        <v>13052100</v>
       </c>
       <c r="H21" s="3">
-        <v>11987200</v>
+        <v>11590100</v>
       </c>
       <c r="I21" s="3">
-        <v>12256300</v>
+        <v>11850200</v>
       </c>
       <c r="J21" s="3">
-        <v>13102600</v>
+        <v>12669600</v>
       </c>
       <c r="K21" s="3">
         <v>12536700</v>
@@ -1165,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>591900</v>
+        <v>572500</v>
       </c>
       <c r="E22" s="3">
-        <v>715600</v>
+        <v>692100</v>
       </c>
       <c r="F22" s="3">
-        <v>590700</v>
+        <v>571300</v>
       </c>
       <c r="G22" s="3">
-        <v>531200</v>
+        <v>513700</v>
       </c>
       <c r="H22" s="3">
-        <v>664300</v>
+        <v>642500</v>
       </c>
       <c r="I22" s="3">
-        <v>570900</v>
+        <v>552100</v>
       </c>
       <c r="J22" s="3">
-        <v>647900</v>
+        <v>626700</v>
       </c>
       <c r="K22" s="3">
         <v>693800</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1823500</v>
+        <v>-1763700</v>
       </c>
       <c r="E23" s="3">
-        <v>3854800</v>
+        <v>3728300</v>
       </c>
       <c r="F23" s="3">
-        <v>6109100</v>
+        <v>5908600</v>
       </c>
       <c r="G23" s="3">
-        <v>8034100</v>
+        <v>7770500</v>
       </c>
       <c r="H23" s="3">
-        <v>6298200</v>
+        <v>6091500</v>
       </c>
       <c r="I23" s="3">
-        <v>6476800</v>
+        <v>6264200</v>
       </c>
       <c r="J23" s="3">
-        <v>8408900</v>
+        <v>8132900</v>
       </c>
       <c r="K23" s="3">
         <v>7894900</v>
@@ -1237,25 +1237,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-106200</v>
+        <v>-102700</v>
       </c>
       <c r="E24" s="3">
-        <v>882600</v>
+        <v>853600</v>
       </c>
       <c r="F24" s="3">
-        <v>1304000</v>
+        <v>1261200</v>
       </c>
       <c r="G24" s="3">
-        <v>1506000</v>
+        <v>1456500</v>
       </c>
       <c r="H24" s="3">
-        <v>1330800</v>
+        <v>1287200</v>
       </c>
       <c r="I24" s="3">
-        <v>1455800</v>
+        <v>1408000</v>
       </c>
       <c r="J24" s="3">
-        <v>1997400</v>
+        <v>1931900</v>
       </c>
       <c r="K24" s="3">
         <v>1778700</v>
@@ -1309,25 +1309,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1717300</v>
+        <v>-1660900</v>
       </c>
       <c r="E26" s="3">
-        <v>2972200</v>
+        <v>2874700</v>
       </c>
       <c r="F26" s="3">
-        <v>4805100</v>
+        <v>4647400</v>
       </c>
       <c r="G26" s="3">
-        <v>6528200</v>
+        <v>6313900</v>
       </c>
       <c r="H26" s="3">
-        <v>4967300</v>
+        <v>4804300</v>
       </c>
       <c r="I26" s="3">
-        <v>5021000</v>
+        <v>4856300</v>
       </c>
       <c r="J26" s="3">
-        <v>6411400</v>
+        <v>6201000</v>
       </c>
       <c r="K26" s="3">
         <v>6116200</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1699700</v>
+        <v>-1644000</v>
       </c>
       <c r="E27" s="3">
-        <v>2890500</v>
+        <v>2795700</v>
       </c>
       <c r="F27" s="3">
-        <v>4487500</v>
+        <v>4340300</v>
       </c>
       <c r="G27" s="3">
-        <v>6208300</v>
+        <v>6004600</v>
       </c>
       <c r="H27" s="3">
-        <v>4735000</v>
+        <v>4579600</v>
       </c>
       <c r="I27" s="3">
-        <v>4654500</v>
+        <v>4501700</v>
       </c>
       <c r="J27" s="3">
-        <v>6018000</v>
+        <v>5820500</v>
       </c>
       <c r="K27" s="3">
         <v>5732200</v>
@@ -1417,16 +1417,16 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>462300</v>
+        <v>447100</v>
       </c>
       <c r="E29" s="3">
-        <v>6940300</v>
+        <v>6712500</v>
       </c>
       <c r="F29" s="3">
-        <v>1504800</v>
+        <v>1455400</v>
       </c>
       <c r="G29" s="3">
-        <v>1329700</v>
+        <v>1286000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1525,25 +1525,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>969000</v>
+        <v>937200</v>
       </c>
       <c r="E32" s="3">
-        <v>354900</v>
+        <v>343200</v>
       </c>
       <c r="F32" s="3">
-        <v>274300</v>
+        <v>265300</v>
       </c>
       <c r="G32" s="3">
-        <v>291900</v>
+        <v>282300</v>
       </c>
       <c r="H32" s="3">
-        <v>363100</v>
+        <v>351200</v>
       </c>
       <c r="I32" s="3">
-        <v>246300</v>
+        <v>238200</v>
       </c>
       <c r="J32" s="3">
-        <v>-154100</v>
+        <v>-149000</v>
       </c>
       <c r="K32" s="3">
         <v>-23900</v>
@@ -1561,25 +1561,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1237500</v>
+        <v>-1196800</v>
       </c>
       <c r="E33" s="3">
-        <v>9830800</v>
+        <v>9508200</v>
       </c>
       <c r="F33" s="3">
-        <v>5992300</v>
+        <v>5795700</v>
       </c>
       <c r="G33" s="3">
-        <v>7538000</v>
+        <v>7290600</v>
       </c>
       <c r="H33" s="3">
-        <v>4735000</v>
+        <v>4579600</v>
       </c>
       <c r="I33" s="3">
-        <v>4654500</v>
+        <v>4501700</v>
       </c>
       <c r="J33" s="3">
-        <v>6018000</v>
+        <v>5820500</v>
       </c>
       <c r="K33" s="3">
         <v>5732200</v>
@@ -1633,25 +1633,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1237500</v>
+        <v>-1196800</v>
       </c>
       <c r="E35" s="3">
-        <v>9830800</v>
+        <v>9508200</v>
       </c>
       <c r="F35" s="3">
-        <v>5992300</v>
+        <v>5795700</v>
       </c>
       <c r="G35" s="3">
-        <v>7538000</v>
+        <v>7290600</v>
       </c>
       <c r="H35" s="3">
-        <v>4735000</v>
+        <v>4579600</v>
       </c>
       <c r="I35" s="3">
-        <v>4654500</v>
+        <v>4501700</v>
       </c>
       <c r="J35" s="3">
-        <v>6018000</v>
+        <v>5820500</v>
       </c>
       <c r="K35" s="3">
         <v>5732200</v>
@@ -1742,25 +1742,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5054900</v>
+        <v>4889000</v>
       </c>
       <c r="E41" s="3">
-        <v>2833300</v>
+        <v>2740300</v>
       </c>
       <c r="F41" s="3">
-        <v>2685000</v>
+        <v>2596900</v>
       </c>
       <c r="G41" s="3">
-        <v>7582300</v>
+        <v>7333500</v>
       </c>
       <c r="H41" s="3">
-        <v>1605200</v>
+        <v>1552500</v>
       </c>
       <c r="I41" s="3">
-        <v>2616200</v>
+        <v>2530300</v>
       </c>
       <c r="J41" s="3">
-        <v>2005600</v>
+        <v>1939800</v>
       </c>
       <c r="K41" s="3">
         <v>2185500</v>
@@ -1778,25 +1778,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>241700</v>
+        <v>233700</v>
       </c>
       <c r="E42" s="3">
-        <v>518300</v>
+        <v>501300</v>
       </c>
       <c r="F42" s="3">
-        <v>401600</v>
+        <v>388400</v>
       </c>
       <c r="G42" s="3">
-        <v>60700</v>
+        <v>58700</v>
       </c>
       <c r="H42" s="3">
-        <v>625700</v>
+        <v>605200</v>
       </c>
       <c r="I42" s="3">
-        <v>24500</v>
+        <v>23700</v>
       </c>
       <c r="J42" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="K42" s="3">
         <v>20300</v>
@@ -1814,25 +1814,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15722700</v>
+        <v>15206700</v>
       </c>
       <c r="E43" s="3">
-        <v>14216700</v>
+        <v>13750200</v>
       </c>
       <c r="F43" s="3">
-        <v>15560400</v>
+        <v>15049800</v>
       </c>
       <c r="G43" s="3">
-        <v>16022700</v>
+        <v>15496900</v>
       </c>
       <c r="H43" s="3">
-        <v>15785700</v>
+        <v>15267700</v>
       </c>
       <c r="I43" s="3">
-        <v>13963400</v>
+        <v>13505200</v>
       </c>
       <c r="J43" s="3">
-        <v>14435000</v>
+        <v>13961300</v>
       </c>
       <c r="K43" s="3">
         <v>15323300</v>
@@ -1850,25 +1850,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11685800</v>
+        <v>11302300</v>
       </c>
       <c r="E44" s="3">
-        <v>13101800</v>
+        <v>12671900</v>
       </c>
       <c r="F44" s="3">
-        <v>14202700</v>
+        <v>13736600</v>
       </c>
       <c r="G44" s="3">
-        <v>12027800</v>
+        <v>11633100</v>
       </c>
       <c r="H44" s="3">
-        <v>11679900</v>
+        <v>11296600</v>
       </c>
       <c r="I44" s="3">
-        <v>11315700</v>
+        <v>10944400</v>
       </c>
       <c r="J44" s="3">
-        <v>13152000</v>
+        <v>12720400</v>
       </c>
       <c r="K44" s="3">
         <v>12153400</v>
@@ -1886,25 +1886,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2163200</v>
+        <v>2092200</v>
       </c>
       <c r="E45" s="3">
-        <v>5507800</v>
+        <v>5327100</v>
       </c>
       <c r="F45" s="3">
-        <v>17606900</v>
+        <v>17029100</v>
       </c>
       <c r="G45" s="3">
-        <v>665400</v>
+        <v>643600</v>
       </c>
       <c r="H45" s="3">
-        <v>593000</v>
+        <v>573600</v>
       </c>
       <c r="I45" s="3">
-        <v>758800</v>
+        <v>733900</v>
       </c>
       <c r="J45" s="3">
-        <v>2395500</v>
+        <v>2316900</v>
       </c>
       <c r="K45" s="3">
         <v>4742900</v>
@@ -1922,25 +1922,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34868200</v>
+        <v>33724000</v>
       </c>
       <c r="E46" s="3">
-        <v>36178000</v>
+        <v>34990800</v>
       </c>
       <c r="F46" s="3">
-        <v>50456600</v>
+        <v>48800800</v>
       </c>
       <c r="G46" s="3">
-        <v>36359000</v>
+        <v>35165800</v>
       </c>
       <c r="H46" s="3">
-        <v>30289600</v>
+        <v>29295600</v>
       </c>
       <c r="I46" s="3">
-        <v>28678600</v>
+        <v>27737500</v>
       </c>
       <c r="J46" s="3">
-        <v>32010400</v>
+        <v>30959900</v>
       </c>
       <c r="K46" s="3">
         <v>31042600</v>
@@ -1958,25 +1958,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15566200</v>
+        <v>15055400</v>
       </c>
       <c r="E47" s="3">
-        <v>18263000</v>
+        <v>17663600</v>
       </c>
       <c r="F47" s="3">
-        <v>3237200</v>
+        <v>3131000</v>
       </c>
       <c r="G47" s="3">
-        <v>6211800</v>
+        <v>6007900</v>
       </c>
       <c r="H47" s="3">
-        <v>6131200</v>
+        <v>5930000</v>
       </c>
       <c r="I47" s="3">
-        <v>5792700</v>
+        <v>5602600</v>
       </c>
       <c r="J47" s="3">
-        <v>4418600</v>
+        <v>4273600</v>
       </c>
       <c r="K47" s="3">
         <v>6811200</v>
@@ -1994,25 +1994,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22936100</v>
+        <v>22183400</v>
       </c>
       <c r="E48" s="3">
-        <v>25440200</v>
+        <v>24605300</v>
       </c>
       <c r="F48" s="3">
-        <v>24258800</v>
+        <v>23462700</v>
       </c>
       <c r="G48" s="3">
-        <v>29486400</v>
+        <v>28518800</v>
       </c>
       <c r="H48" s="3">
-        <v>30834800</v>
+        <v>29822900</v>
       </c>
       <c r="I48" s="3">
-        <v>29488800</v>
+        <v>28521100</v>
       </c>
       <c r="J48" s="3">
-        <v>27429500</v>
+        <v>26529300</v>
       </c>
       <c r="K48" s="3">
         <v>23001700</v>
@@ -2030,25 +2030,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15345600</v>
+        <v>14842000</v>
       </c>
       <c r="E49" s="3">
-        <v>16956600</v>
+        <v>16400200</v>
       </c>
       <c r="F49" s="3">
-        <v>19325300</v>
+        <v>18691100</v>
       </c>
       <c r="G49" s="3">
-        <v>15869800</v>
+        <v>15349000</v>
       </c>
       <c r="H49" s="3">
-        <v>17700300</v>
+        <v>17119400</v>
       </c>
       <c r="I49" s="3">
-        <v>14635800</v>
+        <v>14155500</v>
       </c>
       <c r="J49" s="3">
-        <v>15137800</v>
+        <v>14641000</v>
       </c>
       <c r="K49" s="3">
         <v>14742000</v>
@@ -2138,25 +2138,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5017500</v>
+        <v>4852900</v>
       </c>
       <c r="E52" s="3">
-        <v>4668500</v>
+        <v>4515300</v>
       </c>
       <c r="F52" s="3">
-        <v>3768400</v>
+        <v>3644700</v>
       </c>
       <c r="G52" s="3">
-        <v>4027600</v>
+        <v>3895400</v>
       </c>
       <c r="H52" s="3">
-        <v>4346300</v>
+        <v>4203600</v>
       </c>
       <c r="I52" s="3">
-        <v>4098800</v>
+        <v>3964300</v>
       </c>
       <c r="J52" s="3">
-        <v>4308900</v>
+        <v>4167500</v>
       </c>
       <c r="K52" s="3">
         <v>1203400</v>
@@ -2210,25 +2210,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>93733700</v>
+        <v>90657700</v>
       </c>
       <c r="E54" s="3">
-        <v>101506000</v>
+        <v>98175200</v>
       </c>
       <c r="F54" s="3">
-        <v>101046000</v>
+        <v>97730400</v>
       </c>
       <c r="G54" s="3">
-        <v>91954600</v>
+        <v>88936900</v>
       </c>
       <c r="H54" s="3">
-        <v>89302200</v>
+        <v>86371600</v>
       </c>
       <c r="I54" s="3">
-        <v>82694700</v>
+        <v>79980900</v>
       </c>
       <c r="J54" s="3">
-        <v>83305200</v>
+        <v>80571400</v>
       </c>
       <c r="K54" s="3">
         <v>76800800</v>
@@ -2278,25 +2278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6176800</v>
+        <v>5974100</v>
       </c>
       <c r="E57" s="3">
-        <v>5938600</v>
+        <v>5743700</v>
       </c>
       <c r="F57" s="3">
-        <v>5979500</v>
+        <v>5783300</v>
       </c>
       <c r="G57" s="3">
-        <v>5803200</v>
+        <v>5612800</v>
       </c>
       <c r="H57" s="3">
-        <v>5381800</v>
+        <v>5205200</v>
       </c>
       <c r="I57" s="3">
-        <v>4693000</v>
+        <v>4539000</v>
       </c>
       <c r="J57" s="3">
-        <v>5674800</v>
+        <v>5488600</v>
       </c>
       <c r="K57" s="3">
         <v>6164000</v>
@@ -2314,25 +2314,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4353300</v>
+        <v>4210400</v>
       </c>
       <c r="E58" s="3">
-        <v>4369600</v>
+        <v>4226200</v>
       </c>
       <c r="F58" s="3">
-        <v>6431300</v>
+        <v>6220200</v>
       </c>
       <c r="G58" s="3">
-        <v>2915000</v>
+        <v>2819400</v>
       </c>
       <c r="H58" s="3">
-        <v>4423300</v>
+        <v>4278200</v>
       </c>
       <c r="I58" s="3">
-        <v>4781700</v>
+        <v>4624800</v>
       </c>
       <c r="J58" s="3">
-        <v>4160600</v>
+        <v>4024100</v>
       </c>
       <c r="K58" s="3">
         <v>3910400</v>
@@ -2350,25 +2350,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8475400</v>
+        <v>8197300</v>
       </c>
       <c r="E59" s="3">
-        <v>9075400</v>
+        <v>8777600</v>
       </c>
       <c r="F59" s="3">
-        <v>14823800</v>
+        <v>14337300</v>
       </c>
       <c r="G59" s="3">
-        <v>8652800</v>
+        <v>8368900</v>
       </c>
       <c r="H59" s="3">
-        <v>8076100</v>
+        <v>7811100</v>
       </c>
       <c r="I59" s="3">
-        <v>7144500</v>
+        <v>6910100</v>
       </c>
       <c r="J59" s="3">
-        <v>8718200</v>
+        <v>8432100</v>
       </c>
       <c r="K59" s="3">
         <v>10182100</v>
@@ -2386,25 +2386,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19005400</v>
+        <v>18381700</v>
       </c>
       <c r="E60" s="3">
-        <v>19383700</v>
+        <v>18747600</v>
       </c>
       <c r="F60" s="3">
-        <v>27234500</v>
+        <v>26340800</v>
       </c>
       <c r="G60" s="3">
-        <v>17371100</v>
+        <v>16801000</v>
       </c>
       <c r="H60" s="3">
-        <v>17881200</v>
+        <v>17294400</v>
       </c>
       <c r="I60" s="3">
-        <v>16619200</v>
+        <v>16073900</v>
       </c>
       <c r="J60" s="3">
-        <v>18553600</v>
+        <v>17944800</v>
       </c>
       <c r="K60" s="3">
         <v>17152300</v>
@@ -2422,25 +2422,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19665000</v>
+        <v>19019700</v>
       </c>
       <c r="E61" s="3">
-        <v>18741600</v>
+        <v>18126600</v>
       </c>
       <c r="F61" s="3">
-        <v>18005000</v>
+        <v>17414100</v>
       </c>
       <c r="G61" s="3">
-        <v>18251300</v>
+        <v>17652300</v>
       </c>
       <c r="H61" s="3">
-        <v>14743200</v>
+        <v>14259400</v>
       </c>
       <c r="I61" s="3">
-        <v>13055100</v>
+        <v>12626700</v>
       </c>
       <c r="J61" s="3">
-        <v>13903900</v>
+        <v>13447600</v>
       </c>
       <c r="K61" s="3">
         <v>13425000</v>
@@ -2458,25 +2458,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14906700</v>
+        <v>14417500</v>
       </c>
       <c r="E62" s="3">
-        <v>13941200</v>
+        <v>13483700</v>
       </c>
       <c r="F62" s="3">
-        <v>13652900</v>
+        <v>13204800</v>
       </c>
       <c r="G62" s="3">
-        <v>15757700</v>
+        <v>15240600</v>
       </c>
       <c r="H62" s="3">
-        <v>18657500</v>
+        <v>18045300</v>
       </c>
       <c r="I62" s="3">
-        <v>16194300</v>
+        <v>15662900</v>
       </c>
       <c r="J62" s="3">
-        <v>17932600</v>
+        <v>17344100</v>
       </c>
       <c r="K62" s="3">
         <v>13121100</v>
@@ -2602,25 +2602,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54359300</v>
+        <v>52575400</v>
       </c>
       <c r="E66" s="3">
-        <v>53062300</v>
+        <v>51321000</v>
       </c>
       <c r="F66" s="3">
-        <v>60123900</v>
+        <v>58150900</v>
       </c>
       <c r="G66" s="3">
-        <v>52452900</v>
+        <v>50731600</v>
       </c>
       <c r="H66" s="3">
-        <v>52170400</v>
+        <v>50458300</v>
       </c>
       <c r="I66" s="3">
-        <v>46603000</v>
+        <v>45073700</v>
       </c>
       <c r="J66" s="3">
-        <v>51068400</v>
+        <v>49392500</v>
       </c>
       <c r="K66" s="3">
         <v>44452000</v>
@@ -2798,25 +2798,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47894200</v>
+        <v>46322500</v>
       </c>
       <c r="E72" s="3">
-        <v>52733100</v>
+        <v>51002600</v>
       </c>
       <c r="F72" s="3">
-        <v>46482800</v>
+        <v>44957400</v>
       </c>
       <c r="G72" s="3">
-        <v>44295000</v>
+        <v>42841400</v>
       </c>
       <c r="H72" s="3">
-        <v>40444900</v>
+        <v>39117700</v>
       </c>
       <c r="I72" s="3">
-        <v>38829200</v>
+        <v>37555000</v>
       </c>
       <c r="J72" s="3">
-        <v>37263700</v>
+        <v>36040900</v>
       </c>
       <c r="K72" s="3">
         <v>35009200</v>
@@ -2942,25 +2942,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39374400</v>
+        <v>38082300</v>
       </c>
       <c r="E76" s="3">
-        <v>48444000</v>
+        <v>46854300</v>
       </c>
       <c r="F76" s="3">
-        <v>40922400</v>
+        <v>39579500</v>
       </c>
       <c r="G76" s="3">
-        <v>39501700</v>
+        <v>38205400</v>
       </c>
       <c r="H76" s="3">
-        <v>37131800</v>
+        <v>35913300</v>
       </c>
       <c r="I76" s="3">
-        <v>36091600</v>
+        <v>34907300</v>
       </c>
       <c r="J76" s="3">
-        <v>32236900</v>
+        <v>31179000</v>
       </c>
       <c r="K76" s="3">
         <v>32348800</v>
@@ -3055,25 +3055,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1237500</v>
+        <v>-1196800</v>
       </c>
       <c r="E81" s="3">
-        <v>9830800</v>
+        <v>9508200</v>
       </c>
       <c r="F81" s="3">
-        <v>5992300</v>
+        <v>5795700</v>
       </c>
       <c r="G81" s="3">
-        <v>7538000</v>
+        <v>7290600</v>
       </c>
       <c r="H81" s="3">
-        <v>4735000</v>
+        <v>4579600</v>
       </c>
       <c r="I81" s="3">
-        <v>4654500</v>
+        <v>4501700</v>
       </c>
       <c r="J81" s="3">
-        <v>6018000</v>
+        <v>5820500</v>
       </c>
       <c r="K81" s="3">
         <v>5732200</v>
@@ -3107,25 +3107,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7881200</v>
+        <v>7622600</v>
       </c>
       <c r="E83" s="3">
-        <v>4924100</v>
+        <v>4762500</v>
       </c>
       <c r="F83" s="3">
-        <v>4377800</v>
+        <v>4234100</v>
       </c>
       <c r="G83" s="3">
-        <v>4918300</v>
+        <v>4756900</v>
       </c>
       <c r="H83" s="3">
-        <v>5009400</v>
+        <v>4845000</v>
       </c>
       <c r="I83" s="3">
-        <v>5192600</v>
+        <v>5022200</v>
       </c>
       <c r="J83" s="3">
-        <v>4033400</v>
+        <v>3901000</v>
       </c>
       <c r="K83" s="3">
         <v>3964200</v>
@@ -3323,25 +3323,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6328500</v>
+        <v>6120900</v>
       </c>
       <c r="E89" s="3">
-        <v>8748600</v>
+        <v>8461500</v>
       </c>
       <c r="F89" s="3">
-        <v>9268100</v>
+        <v>8963900</v>
       </c>
       <c r="G89" s="3">
-        <v>10266200</v>
+        <v>9929300</v>
       </c>
       <c r="H89" s="3">
-        <v>9010100</v>
+        <v>8714400</v>
       </c>
       <c r="I89" s="3">
-        <v>11032000</v>
+        <v>10670000</v>
       </c>
       <c r="J89" s="3">
-        <v>8119300</v>
+        <v>7852900</v>
       </c>
       <c r="K89" s="3">
         <v>9690400</v>
@@ -3375,25 +3375,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3652800</v>
+        <v>-3533000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4464200</v>
+        <v>-4317700</v>
       </c>
       <c r="F91" s="3">
-        <v>-4545900</v>
+        <v>-4396700</v>
       </c>
       <c r="G91" s="3">
-        <v>-4665000</v>
+        <v>-4511900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4838900</v>
+        <v>-4680100</v>
       </c>
       <c r="I91" s="3">
-        <v>-6785000</v>
+        <v>-6562300</v>
       </c>
       <c r="J91" s="3">
-        <v>-6182600</v>
+        <v>-5979700</v>
       </c>
       <c r="K91" s="3">
         <v>-5829100</v>
@@ -3483,25 +3483,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2222700</v>
+        <v>-2149800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1389200</v>
+        <v>-1343600</v>
       </c>
       <c r="F94" s="3">
-        <v>-13780100</v>
+        <v>-13327900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4620600</v>
+        <v>-4469000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7576500</v>
+        <v>-7327900</v>
       </c>
       <c r="I94" s="3">
-        <v>-6111400</v>
+        <v>-5910800</v>
       </c>
       <c r="J94" s="3">
-        <v>-5248700</v>
+        <v>-5076400</v>
       </c>
       <c r="K94" s="3">
         <v>-7170000</v>
@@ -3535,25 +3535,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3538400</v>
+        <v>-3422300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3431000</v>
+        <v>-3318400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3323600</v>
+        <v>-3214500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3216200</v>
+        <v>-3110700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3110000</v>
+        <v>-3007900</v>
       </c>
       <c r="I96" s="3">
-        <v>-3002600</v>
+        <v>-2904000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2895200</v>
+        <v>-2800200</v>
       </c>
       <c r="K96" s="3">
         <v>-2856500</v>
@@ -3679,25 +3679,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1816500</v>
+        <v>-1756900</v>
       </c>
       <c r="E100" s="3">
-        <v>-7477300</v>
+        <v>-7231900</v>
       </c>
       <c r="F100" s="3">
-        <v>-60700</v>
+        <v>-58700</v>
       </c>
       <c r="G100" s="3">
-        <v>460000</v>
+        <v>444900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2521600</v>
+        <v>-2438900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4287900</v>
+        <v>-4147200</v>
       </c>
       <c r="J100" s="3">
-        <v>-2892800</v>
+        <v>-2797900</v>
       </c>
       <c r="K100" s="3">
         <v>-2241700</v>
@@ -3715,25 +3715,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-94600</v>
+        <v>-91500</v>
       </c>
       <c r="E101" s="3">
-        <v>43200</v>
+        <v>41800</v>
       </c>
       <c r="F101" s="3">
-        <v>-68900</v>
+        <v>-66600</v>
       </c>
       <c r="G101" s="3">
-        <v>-128400</v>
+        <v>-124200</v>
       </c>
       <c r="H101" s="3">
-        <v>77000</v>
+        <v>74500</v>
       </c>
       <c r="I101" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="J101" s="3">
-        <v>-105100</v>
+        <v>-101600</v>
       </c>
       <c r="K101" s="3">
         <v>-71800</v>
@@ -3751,25 +3751,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2194700</v>
+        <v>2122700</v>
       </c>
       <c r="E102" s="3">
-        <v>-74700</v>
+        <v>-72300</v>
       </c>
       <c r="F102" s="3">
-        <v>-4641600</v>
+        <v>-4489300</v>
       </c>
       <c r="G102" s="3">
-        <v>5977100</v>
+        <v>5781000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1011000</v>
+        <v>-977800</v>
       </c>
       <c r="I102" s="3">
-        <v>610600</v>
+        <v>590500</v>
       </c>
       <c r="J102" s="3">
-        <v>-127200</v>
+        <v>-123100</v>
       </c>
       <c r="K102" s="3">
         <v>206900</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,181 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66785100</v>
+        <v>85743300</v>
       </c>
       <c r="E8" s="3">
-        <v>66973700</v>
+        <v>64526200</v>
       </c>
       <c r="F8" s="3">
-        <v>67994400</v>
+        <v>64708400</v>
       </c>
       <c r="G8" s="3">
-        <v>69126900</v>
+        <v>65694600</v>
       </c>
       <c r="H8" s="3">
-        <v>64979700</v>
+        <v>66788800</v>
       </c>
       <c r="I8" s="3">
-        <v>79544000</v>
+        <v>62781900</v>
       </c>
       <c r="J8" s="3">
+        <v>76853500</v>
+      </c>
+      <c r="K8" s="3">
         <v>83921500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>88486500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79197600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>86271500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49725600</v>
+        <v>64146600</v>
       </c>
       <c r="E9" s="3">
-        <v>48620200</v>
+        <v>48043700</v>
       </c>
       <c r="F9" s="3">
-        <v>48454200</v>
+        <v>46975700</v>
       </c>
       <c r="G9" s="3">
-        <v>46960400</v>
+        <v>46815300</v>
       </c>
       <c r="H9" s="3">
-        <v>44334100</v>
+        <v>45372000</v>
       </c>
       <c r="I9" s="3">
-        <v>58004100</v>
+        <v>42834600</v>
       </c>
       <c r="J9" s="3">
+        <v>56042200</v>
+      </c>
+      <c r="K9" s="3">
         <v>63047800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>66480000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>123292200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63369300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17059600</v>
+        <v>21596700</v>
       </c>
       <c r="E10" s="3">
-        <v>18353500</v>
+        <v>16482600</v>
       </c>
       <c r="F10" s="3">
-        <v>19540200</v>
+        <v>17732700</v>
       </c>
       <c r="G10" s="3">
-        <v>22166500</v>
+        <v>18879300</v>
       </c>
       <c r="H10" s="3">
-        <v>20645600</v>
+        <v>21416700</v>
       </c>
       <c r="I10" s="3">
-        <v>21539800</v>
+        <v>19947300</v>
       </c>
       <c r="J10" s="3">
+        <v>20811300</v>
+      </c>
+      <c r="K10" s="3">
         <v>20873700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22006500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-44094600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22902200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,44 +854,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2355300</v>
+        <v>2417500</v>
       </c>
       <c r="E12" s="3">
-        <v>2436600</v>
+        <v>2275600</v>
       </c>
       <c r="F12" s="3">
-        <v>2251400</v>
+        <v>2354200</v>
       </c>
       <c r="G12" s="3">
-        <v>2080900</v>
+        <v>2175300</v>
       </c>
       <c r="H12" s="3">
-        <v>2103500</v>
+        <v>2010500</v>
       </c>
       <c r="I12" s="3">
-        <v>2205100</v>
+        <v>2032400</v>
       </c>
       <c r="J12" s="3">
+        <v>2130500</v>
+      </c>
+      <c r="K12" s="3">
         <v>2127200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2211800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4062600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2099900</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -913,81 +929,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>951800</v>
+        <v>490900</v>
       </c>
       <c r="E14" s="3">
-        <v>766700</v>
+        <v>919600</v>
       </c>
       <c r="F14" s="3">
-        <v>456200</v>
+        <v>740700</v>
       </c>
       <c r="G14" s="3">
-        <v>405300</v>
+        <v>440700</v>
       </c>
       <c r="H14" s="3">
-        <v>544200</v>
+        <v>391600</v>
       </c>
       <c r="I14" s="3">
-        <v>345500</v>
+        <v>525800</v>
       </c>
       <c r="J14" s="3">
+        <v>333800</v>
+      </c>
+      <c r="K14" s="3">
         <v>198700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>378000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>413900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>273500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3351200</v>
+        <v>147300</v>
       </c>
       <c r="E15" s="3">
-        <v>481000</v>
+        <v>3237800</v>
       </c>
       <c r="F15" s="3">
-        <v>81300</v>
+        <v>464700</v>
       </c>
       <c r="G15" s="3">
-        <v>249500</v>
+        <v>78500</v>
       </c>
       <c r="H15" s="3">
-        <v>380500</v>
+        <v>241100</v>
       </c>
       <c r="I15" s="3">
-        <v>762100</v>
+        <v>367600</v>
       </c>
       <c r="J15" s="3">
+        <v>736400</v>
+      </c>
+      <c r="K15" s="3">
         <v>417800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>296700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>413900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>429600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>67039200</v>
+        <v>77356400</v>
       </c>
       <c r="E17" s="3">
-        <v>62210000</v>
+        <v>64771700</v>
       </c>
       <c r="F17" s="3">
-        <v>61249200</v>
+        <v>60105900</v>
       </c>
       <c r="G17" s="3">
-        <v>60560400</v>
+        <v>59177500</v>
       </c>
       <c r="H17" s="3">
-        <v>57894600</v>
+        <v>58512000</v>
       </c>
       <c r="I17" s="3">
-        <v>72489300</v>
+        <v>55936400</v>
       </c>
       <c r="J17" s="3">
+        <v>70037500</v>
+      </c>
+      <c r="K17" s="3">
         <v>75311000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79921700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71794900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76193200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-254000</v>
+        <v>8386900</v>
       </c>
       <c r="E18" s="3">
-        <v>4763700</v>
+        <v>-245500</v>
       </c>
       <c r="F18" s="3">
-        <v>6745200</v>
+        <v>4602500</v>
       </c>
       <c r="G18" s="3">
-        <v>8566500</v>
+        <v>6517100</v>
       </c>
       <c r="H18" s="3">
-        <v>7085100</v>
+        <v>8276700</v>
       </c>
       <c r="I18" s="3">
-        <v>7054600</v>
+        <v>6845500</v>
       </c>
       <c r="J18" s="3">
+        <v>6816000</v>
+      </c>
+      <c r="K18" s="3">
         <v>8610500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8564800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7402700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10078300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1087,188 +1119,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-937200</v>
+        <v>232400</v>
       </c>
       <c r="E20" s="3">
-        <v>-343200</v>
+        <v>-905500</v>
       </c>
       <c r="F20" s="3">
-        <v>-265300</v>
+        <v>-331600</v>
       </c>
       <c r="G20" s="3">
-        <v>-282300</v>
+        <v>-256400</v>
       </c>
       <c r="H20" s="3">
-        <v>-351200</v>
+        <v>-272700</v>
       </c>
       <c r="I20" s="3">
-        <v>-238200</v>
+        <v>-339300</v>
       </c>
       <c r="J20" s="3">
+        <v>-230200</v>
+      </c>
+      <c r="K20" s="3">
         <v>149000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>707100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1346400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6448900</v>
+        <v>12702700</v>
       </c>
       <c r="E21" s="3">
-        <v>9193900</v>
+        <v>6325900</v>
       </c>
       <c r="F21" s="3">
-        <v>10723800</v>
+        <v>8942400</v>
       </c>
       <c r="G21" s="3">
-        <v>13052100</v>
+        <v>10413900</v>
       </c>
       <c r="H21" s="3">
-        <v>11590100</v>
+        <v>12669900</v>
       </c>
       <c r="I21" s="3">
-        <v>11850200</v>
+        <v>11258500</v>
       </c>
       <c r="J21" s="3">
+        <v>11512000</v>
+      </c>
+      <c r="K21" s="3">
         <v>12669600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12536700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11725600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15440700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>572500</v>
+        <v>494200</v>
       </c>
       <c r="E22" s="3">
-        <v>692100</v>
+        <v>553100</v>
       </c>
       <c r="F22" s="3">
-        <v>571300</v>
+        <v>668700</v>
       </c>
       <c r="G22" s="3">
-        <v>513700</v>
+        <v>552000</v>
       </c>
       <c r="H22" s="3">
-        <v>642500</v>
+        <v>496400</v>
       </c>
       <c r="I22" s="3">
-        <v>552100</v>
+        <v>620700</v>
       </c>
       <c r="J22" s="3">
+        <v>533500</v>
+      </c>
+      <c r="K22" s="3">
         <v>626700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>693800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1547100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>895600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1763700</v>
+        <v>8125100</v>
       </c>
       <c r="E23" s="3">
-        <v>3728300</v>
+        <v>-1704000</v>
       </c>
       <c r="F23" s="3">
-        <v>5908600</v>
+        <v>3602200</v>
       </c>
       <c r="G23" s="3">
-        <v>7770500</v>
+        <v>5708700</v>
       </c>
       <c r="H23" s="3">
-        <v>6091500</v>
+        <v>7507600</v>
       </c>
       <c r="I23" s="3">
-        <v>6264200</v>
+        <v>5885500</v>
       </c>
       <c r="J23" s="3">
+        <v>6052400</v>
+      </c>
+      <c r="K23" s="3">
         <v>8132900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7894900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6562700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10529100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-102700</v>
+        <v>1560000</v>
       </c>
       <c r="E24" s="3">
-        <v>853600</v>
+        <v>-99300</v>
       </c>
       <c r="F24" s="3">
-        <v>1261200</v>
+        <v>824700</v>
       </c>
       <c r="G24" s="3">
-        <v>1456500</v>
+        <v>1218500</v>
       </c>
       <c r="H24" s="3">
-        <v>1287200</v>
+        <v>1407300</v>
       </c>
       <c r="I24" s="3">
-        <v>1408000</v>
+        <v>1243600</v>
       </c>
       <c r="J24" s="3">
+        <v>1360400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1931900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1778700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>999200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2778400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1660900</v>
+        <v>6565100</v>
       </c>
       <c r="E26" s="3">
-        <v>2874700</v>
+        <v>-1604700</v>
       </c>
       <c r="F26" s="3">
-        <v>4647400</v>
+        <v>2777500</v>
       </c>
       <c r="G26" s="3">
-        <v>6313900</v>
+        <v>4490200</v>
       </c>
       <c r="H26" s="3">
-        <v>4804300</v>
+        <v>6100400</v>
       </c>
       <c r="I26" s="3">
-        <v>4856300</v>
+        <v>4641800</v>
       </c>
       <c r="J26" s="3">
+        <v>4692000</v>
+      </c>
+      <c r="K26" s="3">
         <v>6201000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6116200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5563600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7750700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1644000</v>
+        <v>6064400</v>
       </c>
       <c r="E27" s="3">
-        <v>2795700</v>
+        <v>-1588400</v>
       </c>
       <c r="F27" s="3">
-        <v>4340300</v>
+        <v>2701100</v>
       </c>
       <c r="G27" s="3">
-        <v>6004600</v>
+        <v>4193500</v>
       </c>
       <c r="H27" s="3">
-        <v>4579600</v>
+        <v>5801500</v>
       </c>
       <c r="I27" s="3">
-        <v>4501700</v>
+        <v>4424700</v>
       </c>
       <c r="J27" s="3">
+        <v>4349500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5820500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5732200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4914600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7263500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1410,26 +1467,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>447100</v>
+        <v>-39300</v>
       </c>
       <c r="E29" s="3">
-        <v>6712500</v>
+        <v>432000</v>
       </c>
       <c r="F29" s="3">
-        <v>1455400</v>
+        <v>6485500</v>
       </c>
       <c r="G29" s="3">
-        <v>1286000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
+        <v>1406200</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1242500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1446,9 +1506,12 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,81 +1584,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>937200</v>
+        <v>-232400</v>
       </c>
       <c r="E32" s="3">
-        <v>343200</v>
+        <v>905500</v>
       </c>
       <c r="F32" s="3">
-        <v>265300</v>
+        <v>331600</v>
       </c>
       <c r="G32" s="3">
-        <v>282300</v>
+        <v>256400</v>
       </c>
       <c r="H32" s="3">
-        <v>351200</v>
+        <v>272700</v>
       </c>
       <c r="I32" s="3">
-        <v>238200</v>
+        <v>339300</v>
       </c>
       <c r="J32" s="3">
+        <v>230200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-149000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-707100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1346400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1196800</v>
+        <v>6025100</v>
       </c>
       <c r="E33" s="3">
-        <v>9508200</v>
+        <v>-1156400</v>
       </c>
       <c r="F33" s="3">
-        <v>5795700</v>
+        <v>9186600</v>
       </c>
       <c r="G33" s="3">
-        <v>7290600</v>
+        <v>5599600</v>
       </c>
       <c r="H33" s="3">
-        <v>4579600</v>
+        <v>7044000</v>
       </c>
       <c r="I33" s="3">
-        <v>4501700</v>
+        <v>4424700</v>
       </c>
       <c r="J33" s="3">
+        <v>4349500</v>
+      </c>
+      <c r="K33" s="3">
         <v>5820500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5732200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4914600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7263500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1196800</v>
+        <v>6025100</v>
       </c>
       <c r="E35" s="3">
-        <v>9508200</v>
+        <v>-1156400</v>
       </c>
       <c r="F35" s="3">
-        <v>5795700</v>
+        <v>9186600</v>
       </c>
       <c r="G35" s="3">
-        <v>7290600</v>
+        <v>5599600</v>
       </c>
       <c r="H35" s="3">
-        <v>4579600</v>
+        <v>7044000</v>
       </c>
       <c r="I35" s="3">
-        <v>4501700</v>
+        <v>4424700</v>
       </c>
       <c r="J35" s="3">
+        <v>4349500</v>
+      </c>
+      <c r="K35" s="3">
         <v>5820500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5732200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4914600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7263500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,332 +1821,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4889000</v>
+        <v>2862500</v>
       </c>
       <c r="E41" s="3">
-        <v>2740300</v>
+        <v>4723600</v>
       </c>
       <c r="F41" s="3">
-        <v>2596900</v>
+        <v>2647600</v>
       </c>
       <c r="G41" s="3">
-        <v>7333500</v>
+        <v>2509100</v>
       </c>
       <c r="H41" s="3">
-        <v>1552500</v>
+        <v>7085500</v>
       </c>
       <c r="I41" s="3">
-        <v>2530300</v>
+        <v>1500000</v>
       </c>
       <c r="J41" s="3">
+        <v>2444700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1939800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2185500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3759600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4637700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>233700</v>
+        <v>226900</v>
       </c>
       <c r="E42" s="3">
-        <v>501300</v>
+        <v>225800</v>
       </c>
       <c r="F42" s="3">
-        <v>388400</v>
+        <v>484400</v>
       </c>
       <c r="G42" s="3">
-        <v>58700</v>
+        <v>375300</v>
       </c>
       <c r="H42" s="3">
-        <v>605200</v>
+        <v>56700</v>
       </c>
       <c r="I42" s="3">
-        <v>23700</v>
+        <v>584700</v>
       </c>
       <c r="J42" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K42" s="3">
         <v>21500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15206700</v>
+        <v>18079700</v>
       </c>
       <c r="E43" s="3">
-        <v>13750200</v>
+        <v>14692400</v>
       </c>
       <c r="F43" s="3">
-        <v>15049800</v>
+        <v>13285100</v>
       </c>
       <c r="G43" s="3">
-        <v>15496900</v>
+        <v>14540700</v>
       </c>
       <c r="H43" s="3">
-        <v>15267700</v>
+        <v>14972700</v>
       </c>
       <c r="I43" s="3">
-        <v>13505200</v>
+        <v>14751300</v>
       </c>
       <c r="J43" s="3">
+        <v>13048400</v>
+      </c>
+      <c r="K43" s="3">
         <v>13961300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15323300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27515900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32577900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11302300</v>
+        <v>15128700</v>
       </c>
       <c r="E44" s="3">
-        <v>12671900</v>
+        <v>10920000</v>
       </c>
       <c r="F44" s="3">
-        <v>13736600</v>
+        <v>12243300</v>
       </c>
       <c r="G44" s="3">
-        <v>11633100</v>
+        <v>13272000</v>
       </c>
       <c r="H44" s="3">
-        <v>11296600</v>
+        <v>11239600</v>
       </c>
       <c r="I44" s="3">
-        <v>10944400</v>
+        <v>10914600</v>
       </c>
       <c r="J44" s="3">
+        <v>10574200</v>
+      </c>
+      <c r="K44" s="3">
         <v>12720400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12153400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21423100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23165100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2092200</v>
+        <v>1939600</v>
       </c>
       <c r="E45" s="3">
-        <v>5327100</v>
+        <v>2021500</v>
       </c>
       <c r="F45" s="3">
-        <v>17029100</v>
+        <v>5146900</v>
       </c>
       <c r="G45" s="3">
-        <v>643600</v>
+        <v>16453100</v>
       </c>
       <c r="H45" s="3">
-        <v>573600</v>
+        <v>621800</v>
       </c>
       <c r="I45" s="3">
-        <v>733900</v>
+        <v>554200</v>
       </c>
       <c r="J45" s="3">
+        <v>709100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2316900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4742900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9030000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1564700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33724000</v>
+        <v>38237500</v>
       </c>
       <c r="E46" s="3">
-        <v>34990800</v>
+        <v>32583300</v>
       </c>
       <c r="F46" s="3">
-        <v>48800800</v>
+        <v>33807300</v>
       </c>
       <c r="G46" s="3">
-        <v>35165800</v>
+        <v>47150200</v>
       </c>
       <c r="H46" s="3">
-        <v>29295600</v>
+        <v>33976400</v>
       </c>
       <c r="I46" s="3">
-        <v>27737500</v>
+        <v>28304800</v>
       </c>
       <c r="J46" s="3">
+        <v>26799300</v>
+      </c>
+      <c r="K46" s="3">
         <v>30959900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31042600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30158800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30188000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15055400</v>
+        <v>14136000</v>
       </c>
       <c r="E47" s="3">
-        <v>17663600</v>
+        <v>14546200</v>
       </c>
       <c r="F47" s="3">
-        <v>3131000</v>
+        <v>17066200</v>
       </c>
       <c r="G47" s="3">
-        <v>6007900</v>
+        <v>3025100</v>
       </c>
       <c r="H47" s="3">
-        <v>5930000</v>
+        <v>5804700</v>
       </c>
       <c r="I47" s="3">
-        <v>5602600</v>
+        <v>5729500</v>
       </c>
       <c r="J47" s="3">
+        <v>5413100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4273600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6811200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8683000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7939700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22183400</v>
+        <v>23512400</v>
       </c>
       <c r="E48" s="3">
-        <v>24605300</v>
+        <v>21433100</v>
       </c>
       <c r="F48" s="3">
-        <v>23462700</v>
+        <v>23773100</v>
       </c>
       <c r="G48" s="3">
-        <v>28518800</v>
+        <v>22669100</v>
       </c>
       <c r="H48" s="3">
-        <v>29822900</v>
+        <v>27554200</v>
       </c>
       <c r="I48" s="3">
-        <v>28521100</v>
+        <v>28814200</v>
       </c>
       <c r="J48" s="3">
+        <v>27556400</v>
+      </c>
+      <c r="K48" s="3">
         <v>26529300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23001700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38196100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40083300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14842000</v>
+        <v>14726200</v>
       </c>
       <c r="E49" s="3">
-        <v>16400200</v>
+        <v>14340000</v>
       </c>
       <c r="F49" s="3">
-        <v>18691100</v>
+        <v>15845500</v>
       </c>
       <c r="G49" s="3">
-        <v>15349000</v>
+        <v>18058900</v>
       </c>
       <c r="H49" s="3">
-        <v>17119400</v>
+        <v>14829800</v>
       </c>
       <c r="I49" s="3">
-        <v>14155500</v>
+        <v>16540400</v>
       </c>
       <c r="J49" s="3">
+        <v>13676700</v>
+      </c>
+      <c r="K49" s="3">
         <v>14641000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14742000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26828500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27900300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,45 +2247,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4852900</v>
+        <v>4714900</v>
       </c>
       <c r="E52" s="3">
-        <v>4515300</v>
+        <v>4688700</v>
       </c>
       <c r="F52" s="3">
-        <v>3644700</v>
+        <v>4362500</v>
       </c>
       <c r="G52" s="3">
-        <v>3895400</v>
+        <v>3521500</v>
       </c>
       <c r="H52" s="3">
-        <v>4203600</v>
+        <v>3763600</v>
       </c>
       <c r="I52" s="3">
-        <v>3964300</v>
+        <v>4061500</v>
       </c>
       <c r="J52" s="3">
+        <v>3830200</v>
+      </c>
+      <c r="K52" s="3">
         <v>4167500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1203400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4027500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3732700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>90657700</v>
+        <v>95327000</v>
       </c>
       <c r="E54" s="3">
-        <v>98175200</v>
+        <v>87591300</v>
       </c>
       <c r="F54" s="3">
-        <v>97730400</v>
+        <v>94854600</v>
       </c>
       <c r="G54" s="3">
-        <v>88936900</v>
+        <v>94424800</v>
       </c>
       <c r="H54" s="3">
-        <v>86371600</v>
+        <v>85928800</v>
       </c>
       <c r="I54" s="3">
-        <v>79980900</v>
+        <v>83450300</v>
       </c>
       <c r="J54" s="3">
+        <v>77275700</v>
+      </c>
+      <c r="K54" s="3">
         <v>80571400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76800800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68873100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69832300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,224 +2401,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5974100</v>
+        <v>8537500</v>
       </c>
       <c r="E57" s="3">
-        <v>5743700</v>
+        <v>5772000</v>
       </c>
       <c r="F57" s="3">
-        <v>5783300</v>
+        <v>5549500</v>
       </c>
       <c r="G57" s="3">
-        <v>5612800</v>
+        <v>5587600</v>
       </c>
       <c r="H57" s="3">
-        <v>5205200</v>
+        <v>5422900</v>
       </c>
       <c r="I57" s="3">
-        <v>4539000</v>
+        <v>5029100</v>
       </c>
       <c r="J57" s="3">
+        <v>4385500</v>
+      </c>
+      <c r="K57" s="3">
         <v>5488600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6164000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10099400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11677100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4210400</v>
+        <v>4095300</v>
       </c>
       <c r="E58" s="3">
-        <v>4226200</v>
+        <v>4068000</v>
       </c>
       <c r="F58" s="3">
-        <v>6220200</v>
+        <v>4083300</v>
       </c>
       <c r="G58" s="3">
-        <v>2819400</v>
+        <v>6009800</v>
       </c>
       <c r="H58" s="3">
-        <v>4278200</v>
+        <v>2724000</v>
       </c>
       <c r="I58" s="3">
-        <v>4624800</v>
+        <v>4133500</v>
       </c>
       <c r="J58" s="3">
+        <v>4468400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4024100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3910400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9177100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9188600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8197300</v>
+        <v>9273800</v>
       </c>
       <c r="E59" s="3">
-        <v>8777600</v>
+        <v>7920000</v>
       </c>
       <c r="F59" s="3">
-        <v>14337300</v>
+        <v>8480700</v>
       </c>
       <c r="G59" s="3">
-        <v>8368900</v>
+        <v>13852400</v>
       </c>
       <c r="H59" s="3">
-        <v>7811100</v>
+        <v>8085800</v>
       </c>
       <c r="I59" s="3">
-        <v>6910100</v>
+        <v>7546900</v>
       </c>
       <c r="J59" s="3">
+        <v>6676400</v>
+      </c>
+      <c r="K59" s="3">
         <v>8432100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10182100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18101600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16962700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18381700</v>
+        <v>21906600</v>
       </c>
       <c r="E60" s="3">
-        <v>18747600</v>
+        <v>17760000</v>
       </c>
       <c r="F60" s="3">
-        <v>26340800</v>
+        <v>18113500</v>
       </c>
       <c r="G60" s="3">
-        <v>16801000</v>
+        <v>25449800</v>
       </c>
       <c r="H60" s="3">
-        <v>17294400</v>
+        <v>16232700</v>
       </c>
       <c r="I60" s="3">
-        <v>16073900</v>
+        <v>16709500</v>
       </c>
       <c r="J60" s="3">
+        <v>15530200</v>
+      </c>
+      <c r="K60" s="3">
         <v>17944800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17152300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18347600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18487500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19019700</v>
+        <v>16191300</v>
       </c>
       <c r="E61" s="3">
-        <v>18126600</v>
+        <v>18376400</v>
       </c>
       <c r="F61" s="3">
-        <v>17414100</v>
+        <v>17513500</v>
       </c>
       <c r="G61" s="3">
-        <v>17652300</v>
+        <v>16825100</v>
       </c>
       <c r="H61" s="3">
-        <v>14259400</v>
+        <v>17055300</v>
       </c>
       <c r="I61" s="3">
-        <v>12626700</v>
+        <v>13777100</v>
       </c>
       <c r="J61" s="3">
+        <v>12199600</v>
+      </c>
+      <c r="K61" s="3">
         <v>13447600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13425000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9624000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10176900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14417500</v>
+        <v>11322600</v>
       </c>
       <c r="E62" s="3">
-        <v>13483700</v>
+        <v>13929800</v>
       </c>
       <c r="F62" s="3">
-        <v>13204800</v>
+        <v>13027600</v>
       </c>
       <c r="G62" s="3">
-        <v>15240600</v>
+        <v>12758200</v>
       </c>
       <c r="H62" s="3">
-        <v>18045300</v>
+        <v>14725100</v>
       </c>
       <c r="I62" s="3">
-        <v>15662900</v>
+        <v>17434900</v>
       </c>
       <c r="J62" s="3">
+        <v>15133100</v>
+      </c>
+      <c r="K62" s="3">
         <v>17344100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13121100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25963300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23594800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2559,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52575400</v>
+        <v>50826600</v>
       </c>
       <c r="E66" s="3">
-        <v>51321000</v>
+        <v>50797100</v>
       </c>
       <c r="F66" s="3">
-        <v>58150900</v>
+        <v>49585100</v>
       </c>
       <c r="G66" s="3">
-        <v>50731600</v>
+        <v>56184000</v>
       </c>
       <c r="H66" s="3">
-        <v>50458300</v>
+        <v>49015700</v>
       </c>
       <c r="I66" s="3">
-        <v>45073700</v>
+        <v>48751700</v>
       </c>
       <c r="J66" s="3">
+        <v>43549100</v>
+      </c>
+      <c r="K66" s="3">
         <v>49392500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44452000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41850300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41455400</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2755,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>46322500</v>
+        <v>47422900</v>
       </c>
       <c r="E72" s="3">
-        <v>51002600</v>
+        <v>44755700</v>
       </c>
       <c r="F72" s="3">
-        <v>44957400</v>
+        <v>49277500</v>
       </c>
       <c r="G72" s="3">
-        <v>42841400</v>
+        <v>43436800</v>
       </c>
       <c r="H72" s="3">
-        <v>39117700</v>
+        <v>41392400</v>
       </c>
       <c r="I72" s="3">
-        <v>37555000</v>
+        <v>37794600</v>
       </c>
       <c r="J72" s="3">
+        <v>36284800</v>
+      </c>
+      <c r="K72" s="3">
         <v>36040900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35009200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51608200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51432800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38082300</v>
+        <v>44500400</v>
       </c>
       <c r="E76" s="3">
-        <v>46854300</v>
+        <v>36794200</v>
       </c>
       <c r="F76" s="3">
-        <v>39579500</v>
+        <v>45269500</v>
       </c>
       <c r="G76" s="3">
-        <v>38205400</v>
+        <v>38240800</v>
       </c>
       <c r="H76" s="3">
-        <v>35913300</v>
+        <v>36913100</v>
       </c>
       <c r="I76" s="3">
-        <v>34907300</v>
+        <v>34698600</v>
       </c>
       <c r="J76" s="3">
+        <v>33726600</v>
+      </c>
+      <c r="K76" s="3">
         <v>31179000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32348800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27022900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28376900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1196800</v>
+        <v>6025100</v>
       </c>
       <c r="E81" s="3">
-        <v>9508200</v>
+        <v>-1156400</v>
       </c>
       <c r="F81" s="3">
-        <v>5795700</v>
+        <v>9186600</v>
       </c>
       <c r="G81" s="3">
-        <v>7290600</v>
+        <v>5599600</v>
       </c>
       <c r="H81" s="3">
-        <v>4579600</v>
+        <v>7044000</v>
       </c>
       <c r="I81" s="3">
-        <v>4501700</v>
+        <v>4424700</v>
       </c>
       <c r="J81" s="3">
+        <v>4349500</v>
+      </c>
+      <c r="K81" s="3">
         <v>5820500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5732200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4914600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7263500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7622600</v>
+        <v>4022200</v>
       </c>
       <c r="E83" s="3">
-        <v>4762500</v>
+        <v>7364700</v>
       </c>
       <c r="F83" s="3">
-        <v>4234100</v>
+        <v>4601500</v>
       </c>
       <c r="G83" s="3">
-        <v>4756900</v>
+        <v>4090900</v>
       </c>
       <c r="H83" s="3">
-        <v>4845000</v>
+        <v>4596000</v>
       </c>
       <c r="I83" s="3">
-        <v>5022200</v>
+        <v>4681100</v>
       </c>
       <c r="J83" s="3">
+        <v>4852400</v>
+      </c>
+      <c r="K83" s="3">
         <v>3901000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3964200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3610200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4013300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6120900</v>
+        <v>7896000</v>
       </c>
       <c r="E89" s="3">
-        <v>8461500</v>
+        <v>5913800</v>
       </c>
       <c r="F89" s="3">
-        <v>8963900</v>
+        <v>8175300</v>
       </c>
       <c r="G89" s="3">
-        <v>9929300</v>
+        <v>8660700</v>
       </c>
       <c r="H89" s="3">
-        <v>8714400</v>
+        <v>9593500</v>
       </c>
       <c r="I89" s="3">
-        <v>10670000</v>
+        <v>8419600</v>
       </c>
       <c r="J89" s="3">
+        <v>10309100</v>
+      </c>
+      <c r="K89" s="3">
         <v>7852900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9690400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7251200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8336400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3533000</v>
+        <v>-3853100</v>
       </c>
       <c r="E91" s="3">
-        <v>-4317700</v>
+        <v>-3413500</v>
       </c>
       <c r="F91" s="3">
-        <v>-4396700</v>
+        <v>-4171600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4511900</v>
+        <v>-4248000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4680100</v>
+        <v>-4359300</v>
       </c>
       <c r="I91" s="3">
-        <v>-6562300</v>
+        <v>-4521800</v>
       </c>
       <c r="J91" s="3">
+        <v>-6340400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5979700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5829100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4408500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4002700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2149800</v>
+        <v>-2860400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1343600</v>
+        <v>-2077100</v>
       </c>
       <c r="F94" s="3">
-        <v>-13327900</v>
+        <v>-1298200</v>
       </c>
       <c r="G94" s="3">
-        <v>-4469000</v>
+        <v>-12877100</v>
       </c>
       <c r="H94" s="3">
-        <v>-7327900</v>
+        <v>-4317800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5910800</v>
+        <v>-7080000</v>
       </c>
       <c r="J94" s="3">
+        <v>-5710900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5076400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7170000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4366700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2040100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,44 +3761,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3422300</v>
+        <v>-3306500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3318400</v>
+        <v>-3306500</v>
       </c>
       <c r="F96" s="3">
-        <v>-3214500</v>
+        <v>-3206200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3110700</v>
+        <v>-3105800</v>
       </c>
       <c r="H96" s="3">
-        <v>-3007900</v>
+        <v>-3005500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2904000</v>
+        <v>-2906200</v>
       </c>
       <c r="J96" s="3">
+        <v>-2805800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2800200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2856500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2521000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2372300</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1756900</v>
+        <v>-7044000</v>
       </c>
       <c r="E100" s="3">
-        <v>-7231900</v>
+        <v>-1697500</v>
       </c>
       <c r="F100" s="3">
-        <v>-58700</v>
+        <v>-6987300</v>
       </c>
       <c r="G100" s="3">
-        <v>444900</v>
+        <v>-56700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2438900</v>
+        <v>429800</v>
       </c>
       <c r="I100" s="3">
-        <v>-4147200</v>
+        <v>-2356400</v>
       </c>
       <c r="J100" s="3">
+        <v>-4006900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2797900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2241700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3188600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5655400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-91500</v>
+        <v>142900</v>
       </c>
       <c r="E101" s="3">
-        <v>41800</v>
+        <v>-88400</v>
       </c>
       <c r="F101" s="3">
-        <v>-66600</v>
+        <v>40400</v>
       </c>
       <c r="G101" s="3">
-        <v>-124200</v>
+        <v>-64400</v>
       </c>
       <c r="H101" s="3">
-        <v>74500</v>
+        <v>-120000</v>
       </c>
       <c r="I101" s="3">
-        <v>-21500</v>
+        <v>72000</v>
       </c>
       <c r="J101" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-101600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-71800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2122700</v>
+        <v>-1865500</v>
       </c>
       <c r="E102" s="3">
-        <v>-72300</v>
+        <v>2050900</v>
       </c>
       <c r="F102" s="3">
-        <v>-4489300</v>
+        <v>-69800</v>
       </c>
       <c r="G102" s="3">
-        <v>5781000</v>
+        <v>-4337500</v>
       </c>
       <c r="H102" s="3">
-        <v>-977800</v>
+        <v>5585500</v>
       </c>
       <c r="I102" s="3">
-        <v>590500</v>
+        <v>-944700</v>
       </c>
       <c r="J102" s="3">
+        <v>570500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-123100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>206900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-281100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>651500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>85743300</v>
+        <v>81576900</v>
       </c>
       <c r="E8" s="3">
-        <v>64526200</v>
+        <v>61390700</v>
       </c>
       <c r="F8" s="3">
-        <v>64708400</v>
+        <v>61564100</v>
       </c>
       <c r="G8" s="3">
-        <v>65694600</v>
+        <v>62502300</v>
       </c>
       <c r="H8" s="3">
-        <v>66788800</v>
+        <v>63543400</v>
       </c>
       <c r="I8" s="3">
-        <v>62781900</v>
+        <v>59731100</v>
       </c>
       <c r="J8" s="3">
-        <v>76853500</v>
+        <v>73119000</v>
       </c>
       <c r="K8" s="3">
         <v>83921500</v>
@@ -766,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>64146600</v>
+        <v>61029600</v>
       </c>
       <c r="E9" s="3">
-        <v>48043700</v>
+        <v>45709100</v>
       </c>
       <c r="F9" s="3">
-        <v>46975700</v>
+        <v>44693000</v>
       </c>
       <c r="G9" s="3">
-        <v>46815300</v>
+        <v>44540400</v>
       </c>
       <c r="H9" s="3">
-        <v>45372000</v>
+        <v>43167300</v>
       </c>
       <c r="I9" s="3">
-        <v>42834600</v>
+        <v>40753100</v>
       </c>
       <c r="J9" s="3">
-        <v>56042200</v>
+        <v>53319000</v>
       </c>
       <c r="K9" s="3">
         <v>63047800</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21596700</v>
+        <v>20547300</v>
       </c>
       <c r="E10" s="3">
-        <v>16482600</v>
+        <v>15681600</v>
       </c>
       <c r="F10" s="3">
-        <v>17732700</v>
+        <v>16871100</v>
       </c>
       <c r="G10" s="3">
-        <v>18879300</v>
+        <v>17961900</v>
       </c>
       <c r="H10" s="3">
-        <v>21416700</v>
+        <v>20376100</v>
       </c>
       <c r="I10" s="3">
-        <v>19947300</v>
+        <v>18978000</v>
       </c>
       <c r="J10" s="3">
-        <v>20811300</v>
+        <v>19800000</v>
       </c>
       <c r="K10" s="3">
         <v>20873700</v>
@@ -861,25 +861,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2417500</v>
+        <v>2300000</v>
       </c>
       <c r="E12" s="3">
-        <v>2275600</v>
+        <v>2165100</v>
       </c>
       <c r="F12" s="3">
-        <v>2354200</v>
+        <v>2239800</v>
       </c>
       <c r="G12" s="3">
-        <v>2175300</v>
+        <v>2069600</v>
       </c>
       <c r="H12" s="3">
-        <v>2010500</v>
+        <v>1912800</v>
       </c>
       <c r="I12" s="3">
-        <v>2032400</v>
+        <v>1933600</v>
       </c>
       <c r="J12" s="3">
-        <v>2130500</v>
+        <v>2027000</v>
       </c>
       <c r="K12" s="3">
         <v>2127200</v>
@@ -939,25 +939,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>490900</v>
+        <v>467100</v>
       </c>
       <c r="E14" s="3">
-        <v>919600</v>
+        <v>874900</v>
       </c>
       <c r="F14" s="3">
-        <v>740700</v>
+        <v>704700</v>
       </c>
       <c r="G14" s="3">
-        <v>440700</v>
+        <v>419300</v>
       </c>
       <c r="H14" s="3">
-        <v>391600</v>
+        <v>372600</v>
       </c>
       <c r="I14" s="3">
-        <v>525800</v>
+        <v>500300</v>
       </c>
       <c r="J14" s="3">
-        <v>333800</v>
+        <v>317600</v>
       </c>
       <c r="K14" s="3">
         <v>198700</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>147300</v>
+        <v>140100</v>
       </c>
       <c r="E15" s="3">
-        <v>3237800</v>
+        <v>3080500</v>
       </c>
       <c r="F15" s="3">
-        <v>464700</v>
+        <v>442100</v>
       </c>
       <c r="G15" s="3">
-        <v>78500</v>
+        <v>74700</v>
       </c>
       <c r="H15" s="3">
-        <v>241100</v>
+        <v>229400</v>
       </c>
       <c r="I15" s="3">
-        <v>367600</v>
+        <v>349800</v>
       </c>
       <c r="J15" s="3">
-        <v>736400</v>
+        <v>700600</v>
       </c>
       <c r="K15" s="3">
         <v>417800</v>
@@ -1031,25 +1031,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>77356400</v>
+        <v>73597500</v>
       </c>
       <c r="E17" s="3">
-        <v>64771700</v>
+        <v>61624300</v>
       </c>
       <c r="F17" s="3">
-        <v>60105900</v>
+        <v>57185200</v>
       </c>
       <c r="G17" s="3">
-        <v>59177500</v>
+        <v>56301900</v>
       </c>
       <c r="H17" s="3">
-        <v>58512000</v>
+        <v>55668800</v>
       </c>
       <c r="I17" s="3">
-        <v>55936400</v>
+        <v>53218300</v>
       </c>
       <c r="J17" s="3">
-        <v>70037500</v>
+        <v>66634200</v>
       </c>
       <c r="K17" s="3">
         <v>75311000</v>
@@ -1070,25 +1070,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>8386900</v>
+        <v>7979400</v>
       </c>
       <c r="E18" s="3">
-        <v>-245500</v>
+        <v>-233500</v>
       </c>
       <c r="F18" s="3">
-        <v>4602500</v>
+        <v>4378900</v>
       </c>
       <c r="G18" s="3">
-        <v>6517100</v>
+        <v>6200400</v>
       </c>
       <c r="H18" s="3">
-        <v>8276700</v>
+        <v>7874500</v>
       </c>
       <c r="I18" s="3">
-        <v>6845500</v>
+        <v>6512800</v>
       </c>
       <c r="J18" s="3">
-        <v>6816000</v>
+        <v>6484800</v>
       </c>
       <c r="K18" s="3">
         <v>8610500</v>
@@ -1126,25 +1126,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>232400</v>
+        <v>221100</v>
       </c>
       <c r="E20" s="3">
-        <v>-905500</v>
+        <v>-861500</v>
       </c>
       <c r="F20" s="3">
-        <v>-331600</v>
+        <v>-315500</v>
       </c>
       <c r="G20" s="3">
-        <v>-256400</v>
+        <v>-243900</v>
       </c>
       <c r="H20" s="3">
-        <v>-272700</v>
+        <v>-259500</v>
       </c>
       <c r="I20" s="3">
-        <v>-339300</v>
+        <v>-322800</v>
       </c>
       <c r="J20" s="3">
-        <v>-230200</v>
+        <v>-219000</v>
       </c>
       <c r="K20" s="3">
         <v>149000</v>
@@ -1165,25 +1165,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12702700</v>
+        <v>12075900</v>
       </c>
       <c r="E21" s="3">
-        <v>6325900</v>
+        <v>6001000</v>
       </c>
       <c r="F21" s="3">
-        <v>8942400</v>
+        <v>8496900</v>
       </c>
       <c r="G21" s="3">
-        <v>10413900</v>
+        <v>9898100</v>
       </c>
       <c r="H21" s="3">
-        <v>12669900</v>
+        <v>12043400</v>
       </c>
       <c r="I21" s="3">
-        <v>11258500</v>
+        <v>10700300</v>
       </c>
       <c r="J21" s="3">
-        <v>11512000</v>
+        <v>10941100</v>
       </c>
       <c r="K21" s="3">
         <v>12669600</v>
@@ -1204,25 +1204,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>494200</v>
+        <v>470200</v>
       </c>
       <c r="E22" s="3">
-        <v>553100</v>
+        <v>526200</v>
       </c>
       <c r="F22" s="3">
-        <v>668700</v>
+        <v>636200</v>
       </c>
       <c r="G22" s="3">
-        <v>552000</v>
+        <v>525200</v>
       </c>
       <c r="H22" s="3">
-        <v>496400</v>
+        <v>472200</v>
       </c>
       <c r="I22" s="3">
-        <v>620700</v>
+        <v>590600</v>
       </c>
       <c r="J22" s="3">
-        <v>533500</v>
+        <v>507500</v>
       </c>
       <c r="K22" s="3">
         <v>626700</v>
@@ -1243,25 +1243,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>8125100</v>
+        <v>7730300</v>
       </c>
       <c r="E23" s="3">
-        <v>-1704000</v>
+        <v>-1621200</v>
       </c>
       <c r="F23" s="3">
-        <v>3602200</v>
+        <v>3427100</v>
       </c>
       <c r="G23" s="3">
-        <v>5708700</v>
+        <v>5431300</v>
       </c>
       <c r="H23" s="3">
-        <v>7507600</v>
+        <v>7142800</v>
       </c>
       <c r="I23" s="3">
-        <v>5885500</v>
+        <v>5599500</v>
       </c>
       <c r="J23" s="3">
-        <v>6052400</v>
+        <v>5758300</v>
       </c>
       <c r="K23" s="3">
         <v>8132900</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1560000</v>
+        <v>1484200</v>
       </c>
       <c r="E24" s="3">
-        <v>-99300</v>
+        <v>-94400</v>
       </c>
       <c r="F24" s="3">
-        <v>824700</v>
+        <v>784700</v>
       </c>
       <c r="G24" s="3">
-        <v>1218500</v>
+        <v>1159300</v>
       </c>
       <c r="H24" s="3">
-        <v>1407300</v>
+        <v>1338900</v>
       </c>
       <c r="I24" s="3">
-        <v>1243600</v>
+        <v>1183200</v>
       </c>
       <c r="J24" s="3">
-        <v>1360400</v>
+        <v>1294300</v>
       </c>
       <c r="K24" s="3">
         <v>1931900</v>
@@ -1360,25 +1360,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6565100</v>
+        <v>6246100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1604700</v>
+        <v>-1526800</v>
       </c>
       <c r="F26" s="3">
-        <v>2777500</v>
+        <v>2642500</v>
       </c>
       <c r="G26" s="3">
-        <v>4490200</v>
+        <v>4272000</v>
       </c>
       <c r="H26" s="3">
-        <v>6100400</v>
+        <v>5803900</v>
       </c>
       <c r="I26" s="3">
-        <v>4641800</v>
+        <v>4416300</v>
       </c>
       <c r="J26" s="3">
-        <v>4692000</v>
+        <v>4464000</v>
       </c>
       <c r="K26" s="3">
         <v>6201000</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>6064400</v>
+        <v>5769700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1588400</v>
+        <v>-1511200</v>
       </c>
       <c r="F27" s="3">
-        <v>2701100</v>
+        <v>2569800</v>
       </c>
       <c r="G27" s="3">
-        <v>4193500</v>
+        <v>3989700</v>
       </c>
       <c r="H27" s="3">
-        <v>5801500</v>
+        <v>5519600</v>
       </c>
       <c r="I27" s="3">
-        <v>4424700</v>
+        <v>4209700</v>
       </c>
       <c r="J27" s="3">
-        <v>4349500</v>
+        <v>4138100</v>
       </c>
       <c r="K27" s="3">
         <v>5820500</v>
@@ -1477,19 +1477,19 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-39300</v>
+        <v>-37400</v>
       </c>
       <c r="E29" s="3">
-        <v>432000</v>
+        <v>411000</v>
       </c>
       <c r="F29" s="3">
-        <v>6485500</v>
+        <v>6170300</v>
       </c>
       <c r="G29" s="3">
-        <v>1406200</v>
+        <v>1337900</v>
       </c>
       <c r="H29" s="3">
-        <v>1242500</v>
+        <v>1182200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1594,25 +1594,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-232400</v>
+        <v>-221100</v>
       </c>
       <c r="E32" s="3">
-        <v>905500</v>
+        <v>861500</v>
       </c>
       <c r="F32" s="3">
-        <v>331600</v>
+        <v>315500</v>
       </c>
       <c r="G32" s="3">
-        <v>256400</v>
+        <v>243900</v>
       </c>
       <c r="H32" s="3">
-        <v>272700</v>
+        <v>259500</v>
       </c>
       <c r="I32" s="3">
-        <v>339300</v>
+        <v>322800</v>
       </c>
       <c r="J32" s="3">
-        <v>230200</v>
+        <v>219000</v>
       </c>
       <c r="K32" s="3">
         <v>-149000</v>
@@ -1633,25 +1633,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6025100</v>
+        <v>5732300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1156400</v>
+        <v>-1100200</v>
       </c>
       <c r="F33" s="3">
-        <v>9186600</v>
+        <v>8740200</v>
       </c>
       <c r="G33" s="3">
-        <v>5599600</v>
+        <v>5327500</v>
       </c>
       <c r="H33" s="3">
-        <v>7044000</v>
+        <v>6701700</v>
       </c>
       <c r="I33" s="3">
-        <v>4424700</v>
+        <v>4209700</v>
       </c>
       <c r="J33" s="3">
-        <v>4349500</v>
+        <v>4138100</v>
       </c>
       <c r="K33" s="3">
         <v>5820500</v>
@@ -1711,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6025100</v>
+        <v>5732300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1156400</v>
+        <v>-1100200</v>
       </c>
       <c r="F35" s="3">
-        <v>9186600</v>
+        <v>8740200</v>
       </c>
       <c r="G35" s="3">
-        <v>5599600</v>
+        <v>5327500</v>
       </c>
       <c r="H35" s="3">
-        <v>7044000</v>
+        <v>6701700</v>
       </c>
       <c r="I35" s="3">
-        <v>4424700</v>
+        <v>4209700</v>
       </c>
       <c r="J35" s="3">
-        <v>4349500</v>
+        <v>4138100</v>
       </c>
       <c r="K35" s="3">
         <v>5820500</v>
@@ -1828,25 +1828,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2862500</v>
+        <v>2723400</v>
       </c>
       <c r="E41" s="3">
-        <v>4723600</v>
+        <v>4494100</v>
       </c>
       <c r="F41" s="3">
-        <v>2647600</v>
+        <v>2519000</v>
       </c>
       <c r="G41" s="3">
-        <v>2509100</v>
+        <v>2387200</v>
       </c>
       <c r="H41" s="3">
-        <v>7085500</v>
+        <v>6741200</v>
       </c>
       <c r="I41" s="3">
-        <v>1500000</v>
+        <v>1427100</v>
       </c>
       <c r="J41" s="3">
-        <v>2444700</v>
+        <v>2325900</v>
       </c>
       <c r="K41" s="3">
         <v>1939800</v>
@@ -1867,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>226900</v>
+        <v>215900</v>
       </c>
       <c r="E42" s="3">
-        <v>225800</v>
+        <v>214800</v>
       </c>
       <c r="F42" s="3">
-        <v>484400</v>
+        <v>460800</v>
       </c>
       <c r="G42" s="3">
-        <v>375300</v>
+        <v>357000</v>
       </c>
       <c r="H42" s="3">
-        <v>56700</v>
+        <v>54000</v>
       </c>
       <c r="I42" s="3">
-        <v>584700</v>
+        <v>556300</v>
       </c>
       <c r="J42" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="K42" s="3">
         <v>21500</v>
@@ -1906,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18079700</v>
+        <v>17201100</v>
       </c>
       <c r="E43" s="3">
-        <v>14692400</v>
+        <v>13978400</v>
       </c>
       <c r="F43" s="3">
-        <v>13285100</v>
+        <v>12639500</v>
       </c>
       <c r="G43" s="3">
-        <v>14540700</v>
+        <v>13834200</v>
       </c>
       <c r="H43" s="3">
-        <v>14972700</v>
+        <v>14245200</v>
       </c>
       <c r="I43" s="3">
-        <v>14751300</v>
+        <v>14034500</v>
       </c>
       <c r="J43" s="3">
-        <v>13048400</v>
+        <v>12414300</v>
       </c>
       <c r="K43" s="3">
         <v>13961300</v>
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15128700</v>
+        <v>14393600</v>
       </c>
       <c r="E44" s="3">
-        <v>10920000</v>
+        <v>10389400</v>
       </c>
       <c r="F44" s="3">
-        <v>12243300</v>
+        <v>11648400</v>
       </c>
       <c r="G44" s="3">
-        <v>13272000</v>
+        <v>12627100</v>
       </c>
       <c r="H44" s="3">
-        <v>11239600</v>
+        <v>10693500</v>
       </c>
       <c r="I44" s="3">
-        <v>10914600</v>
+        <v>10384200</v>
       </c>
       <c r="J44" s="3">
-        <v>10574200</v>
+        <v>10060400</v>
       </c>
       <c r="K44" s="3">
         <v>12720400</v>
@@ -1984,25 +1984,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1939600</v>
+        <v>1845400</v>
       </c>
       <c r="E45" s="3">
-        <v>2021500</v>
+        <v>1923200</v>
       </c>
       <c r="F45" s="3">
-        <v>5146900</v>
+        <v>4896800</v>
       </c>
       <c r="G45" s="3">
-        <v>16453100</v>
+        <v>15653600</v>
       </c>
       <c r="H45" s="3">
-        <v>621800</v>
+        <v>591600</v>
       </c>
       <c r="I45" s="3">
-        <v>554200</v>
+        <v>527300</v>
       </c>
       <c r="J45" s="3">
-        <v>709100</v>
+        <v>674600</v>
       </c>
       <c r="K45" s="3">
         <v>2316900</v>
@@ -2023,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38237500</v>
+        <v>36379400</v>
       </c>
       <c r="E46" s="3">
-        <v>32583300</v>
+        <v>31000000</v>
       </c>
       <c r="F46" s="3">
-        <v>33807300</v>
+        <v>32164500</v>
       </c>
       <c r="G46" s="3">
-        <v>47150200</v>
+        <v>44859100</v>
       </c>
       <c r="H46" s="3">
-        <v>33976400</v>
+        <v>32325400</v>
       </c>
       <c r="I46" s="3">
-        <v>28304800</v>
+        <v>26929400</v>
       </c>
       <c r="J46" s="3">
-        <v>26799300</v>
+        <v>25497100</v>
       </c>
       <c r="K46" s="3">
         <v>30959900</v>
@@ -2062,25 +2062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14136000</v>
+        <v>13449100</v>
       </c>
       <c r="E47" s="3">
-        <v>14546200</v>
+        <v>13839400</v>
       </c>
       <c r="F47" s="3">
-        <v>17066200</v>
+        <v>16236900</v>
       </c>
       <c r="G47" s="3">
-        <v>3025100</v>
+        <v>2878100</v>
       </c>
       <c r="H47" s="3">
-        <v>5804700</v>
+        <v>5522700</v>
       </c>
       <c r="I47" s="3">
-        <v>5729500</v>
+        <v>5451100</v>
       </c>
       <c r="J47" s="3">
-        <v>5413100</v>
+        <v>5150100</v>
       </c>
       <c r="K47" s="3">
         <v>4273600</v>
@@ -2101,25 +2101,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23512400</v>
+        <v>22369900</v>
       </c>
       <c r="E48" s="3">
-        <v>21433100</v>
+        <v>20391600</v>
       </c>
       <c r="F48" s="3">
-        <v>23773100</v>
+        <v>22617900</v>
       </c>
       <c r="G48" s="3">
-        <v>22669100</v>
+        <v>21567600</v>
       </c>
       <c r="H48" s="3">
-        <v>27554200</v>
+        <v>26215300</v>
       </c>
       <c r="I48" s="3">
-        <v>28814200</v>
+        <v>27414100</v>
       </c>
       <c r="J48" s="3">
-        <v>27556400</v>
+        <v>26217400</v>
       </c>
       <c r="K48" s="3">
         <v>26529300</v>
@@ -2140,25 +2140,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14726200</v>
+        <v>14010600</v>
       </c>
       <c r="E49" s="3">
-        <v>14340000</v>
+        <v>13643200</v>
       </c>
       <c r="F49" s="3">
-        <v>15845500</v>
+        <v>15075500</v>
       </c>
       <c r="G49" s="3">
-        <v>18058900</v>
+        <v>17181400</v>
       </c>
       <c r="H49" s="3">
-        <v>14829800</v>
+        <v>14109200</v>
       </c>
       <c r="I49" s="3">
-        <v>16540400</v>
+        <v>15736600</v>
       </c>
       <c r="J49" s="3">
-        <v>13676700</v>
+        <v>13012200</v>
       </c>
       <c r="K49" s="3">
         <v>14641000</v>
@@ -2257,25 +2257,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4714900</v>
+        <v>4485800</v>
       </c>
       <c r="E52" s="3">
-        <v>4688700</v>
+        <v>4460900</v>
       </c>
       <c r="F52" s="3">
-        <v>4362500</v>
+        <v>4150600</v>
       </c>
       <c r="G52" s="3">
-        <v>3521500</v>
+        <v>3350300</v>
       </c>
       <c r="H52" s="3">
-        <v>3763600</v>
+        <v>3580800</v>
       </c>
       <c r="I52" s="3">
-        <v>4061500</v>
+        <v>3864100</v>
       </c>
       <c r="J52" s="3">
-        <v>3830200</v>
+        <v>3644100</v>
       </c>
       <c r="K52" s="3">
         <v>4167500</v>
@@ -2335,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>95327000</v>
+        <v>90694800</v>
       </c>
       <c r="E54" s="3">
-        <v>87591300</v>
+        <v>83335100</v>
       </c>
       <c r="F54" s="3">
-        <v>94854600</v>
+        <v>90245400</v>
       </c>
       <c r="G54" s="3">
-        <v>94424800</v>
+        <v>89836500</v>
       </c>
       <c r="H54" s="3">
-        <v>85928800</v>
+        <v>81753300</v>
       </c>
       <c r="I54" s="3">
-        <v>83450300</v>
+        <v>79395200</v>
       </c>
       <c r="J54" s="3">
-        <v>77275700</v>
+        <v>73520700</v>
       </c>
       <c r="K54" s="3">
         <v>80571400</v>
@@ -2408,25 +2408,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8537500</v>
+        <v>8122600</v>
       </c>
       <c r="E57" s="3">
-        <v>5772000</v>
+        <v>5491500</v>
       </c>
       <c r="F57" s="3">
-        <v>5549500</v>
+        <v>5279800</v>
       </c>
       <c r="G57" s="3">
-        <v>5587600</v>
+        <v>5316100</v>
       </c>
       <c r="H57" s="3">
-        <v>5422900</v>
+        <v>5159400</v>
       </c>
       <c r="I57" s="3">
-        <v>5029100</v>
+        <v>4784700</v>
       </c>
       <c r="J57" s="3">
-        <v>4385500</v>
+        <v>4172400</v>
       </c>
       <c r="K57" s="3">
         <v>5488600</v>
@@ -2447,25 +2447,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4095300</v>
+        <v>3896300</v>
       </c>
       <c r="E58" s="3">
-        <v>4068000</v>
+        <v>3870300</v>
       </c>
       <c r="F58" s="3">
-        <v>4083300</v>
+        <v>3884900</v>
       </c>
       <c r="G58" s="3">
-        <v>6009800</v>
+        <v>5717800</v>
       </c>
       <c r="H58" s="3">
-        <v>2724000</v>
+        <v>2591600</v>
       </c>
       <c r="I58" s="3">
-        <v>4133500</v>
+        <v>3932600</v>
       </c>
       <c r="J58" s="3">
-        <v>4468400</v>
+        <v>4251200</v>
       </c>
       <c r="K58" s="3">
         <v>4024100</v>
@@ -2486,25 +2486,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9273800</v>
+        <v>8823200</v>
       </c>
       <c r="E59" s="3">
-        <v>7920000</v>
+        <v>7535200</v>
       </c>
       <c r="F59" s="3">
-        <v>8480700</v>
+        <v>8068600</v>
       </c>
       <c r="G59" s="3">
-        <v>13852400</v>
+        <v>13179300</v>
       </c>
       <c r="H59" s="3">
-        <v>8085800</v>
+        <v>7692900</v>
       </c>
       <c r="I59" s="3">
-        <v>7546900</v>
+        <v>7180200</v>
       </c>
       <c r="J59" s="3">
-        <v>6676400</v>
+        <v>6351900</v>
       </c>
       <c r="K59" s="3">
         <v>8432100</v>
@@ -2525,25 +2525,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21906600</v>
+        <v>20842100</v>
       </c>
       <c r="E60" s="3">
-        <v>17760000</v>
+        <v>16897000</v>
       </c>
       <c r="F60" s="3">
-        <v>18113500</v>
+        <v>17233300</v>
       </c>
       <c r="G60" s="3">
-        <v>25449800</v>
+        <v>24213200</v>
       </c>
       <c r="H60" s="3">
-        <v>16232700</v>
+        <v>15444000</v>
       </c>
       <c r="I60" s="3">
-        <v>16709500</v>
+        <v>15897500</v>
       </c>
       <c r="J60" s="3">
-        <v>15530200</v>
+        <v>14775500</v>
       </c>
       <c r="K60" s="3">
         <v>17944800</v>
@@ -2564,25 +2564,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16191300</v>
+        <v>15404500</v>
       </c>
       <c r="E61" s="3">
-        <v>18376400</v>
+        <v>17483400</v>
       </c>
       <c r="F61" s="3">
-        <v>17513500</v>
+        <v>16662400</v>
       </c>
       <c r="G61" s="3">
-        <v>16825100</v>
+        <v>16007500</v>
       </c>
       <c r="H61" s="3">
-        <v>17055300</v>
+        <v>16226500</v>
       </c>
       <c r="I61" s="3">
-        <v>13777100</v>
+        <v>13107600</v>
       </c>
       <c r="J61" s="3">
-        <v>12199600</v>
+        <v>11606800</v>
       </c>
       <c r="K61" s="3">
         <v>13447600</v>
@@ -2603,25 +2603,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11322600</v>
+        <v>10772400</v>
       </c>
       <c r="E62" s="3">
-        <v>13929800</v>
+        <v>13252900</v>
       </c>
       <c r="F62" s="3">
-        <v>13027600</v>
+        <v>12394600</v>
       </c>
       <c r="G62" s="3">
-        <v>12758200</v>
+        <v>12138200</v>
       </c>
       <c r="H62" s="3">
-        <v>14725100</v>
+        <v>14009600</v>
       </c>
       <c r="I62" s="3">
-        <v>17434900</v>
+        <v>16587700</v>
       </c>
       <c r="J62" s="3">
-        <v>15133100</v>
+        <v>14397700</v>
       </c>
       <c r="K62" s="3">
         <v>17344100</v>
@@ -2759,25 +2759,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50826600</v>
+        <v>48356800</v>
       </c>
       <c r="E66" s="3">
-        <v>50797100</v>
+        <v>48328800</v>
       </c>
       <c r="F66" s="3">
-        <v>49585100</v>
+        <v>47175700</v>
       </c>
       <c r="G66" s="3">
-        <v>56184000</v>
+        <v>53453900</v>
       </c>
       <c r="H66" s="3">
-        <v>49015700</v>
+        <v>46633900</v>
       </c>
       <c r="I66" s="3">
-        <v>48751700</v>
+        <v>46382700</v>
       </c>
       <c r="J66" s="3">
-        <v>43549100</v>
+        <v>41433000</v>
       </c>
       <c r="K66" s="3">
         <v>49392500</v>
@@ -2971,25 +2971,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47422900</v>
+        <v>45118600</v>
       </c>
       <c r="E72" s="3">
-        <v>44755700</v>
+        <v>42580900</v>
       </c>
       <c r="F72" s="3">
-        <v>49277500</v>
+        <v>46883000</v>
       </c>
       <c r="G72" s="3">
-        <v>43436800</v>
+        <v>41326100</v>
       </c>
       <c r="H72" s="3">
-        <v>41392400</v>
+        <v>39381000</v>
       </c>
       <c r="I72" s="3">
-        <v>37794600</v>
+        <v>35958000</v>
       </c>
       <c r="J72" s="3">
-        <v>36284800</v>
+        <v>34521600</v>
       </c>
       <c r="K72" s="3">
         <v>36040900</v>
@@ -3127,25 +3127,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44500400</v>
+        <v>42338000</v>
       </c>
       <c r="E76" s="3">
-        <v>36794200</v>
+        <v>35006300</v>
       </c>
       <c r="F76" s="3">
-        <v>45269500</v>
+        <v>43069700</v>
       </c>
       <c r="G76" s="3">
-        <v>38240800</v>
+        <v>36382500</v>
       </c>
       <c r="H76" s="3">
-        <v>36913100</v>
+        <v>35119400</v>
       </c>
       <c r="I76" s="3">
-        <v>34698600</v>
+        <v>33012500</v>
       </c>
       <c r="J76" s="3">
-        <v>33726600</v>
+        <v>32087700</v>
       </c>
       <c r="K76" s="3">
         <v>31179000</v>
@@ -3249,25 +3249,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6025100</v>
+        <v>5732300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1156400</v>
+        <v>-1100200</v>
       </c>
       <c r="F81" s="3">
-        <v>9186600</v>
+        <v>8740200</v>
       </c>
       <c r="G81" s="3">
-        <v>5599600</v>
+        <v>5327500</v>
       </c>
       <c r="H81" s="3">
-        <v>7044000</v>
+        <v>6701700</v>
       </c>
       <c r="I81" s="3">
-        <v>4424700</v>
+        <v>4209700</v>
       </c>
       <c r="J81" s="3">
-        <v>4349500</v>
+        <v>4138100</v>
       </c>
       <c r="K81" s="3">
         <v>5820500</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4022200</v>
+        <v>3826700</v>
       </c>
       <c r="E83" s="3">
-        <v>7364700</v>
+        <v>7006900</v>
       </c>
       <c r="F83" s="3">
-        <v>4601500</v>
+        <v>4377900</v>
       </c>
       <c r="G83" s="3">
-        <v>4090900</v>
+        <v>3892100</v>
       </c>
       <c r="H83" s="3">
-        <v>4596000</v>
+        <v>4372700</v>
       </c>
       <c r="I83" s="3">
-        <v>4681100</v>
+        <v>4453600</v>
       </c>
       <c r="J83" s="3">
-        <v>4852400</v>
+        <v>4616600</v>
       </c>
       <c r="K83" s="3">
         <v>3901000</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7896000</v>
+        <v>7512300</v>
       </c>
       <c r="E89" s="3">
-        <v>5913800</v>
+        <v>5626500</v>
       </c>
       <c r="F89" s="3">
-        <v>8175300</v>
+        <v>7778000</v>
       </c>
       <c r="G89" s="3">
-        <v>8660700</v>
+        <v>8239900</v>
       </c>
       <c r="H89" s="3">
-        <v>9593500</v>
+        <v>9127300</v>
       </c>
       <c r="I89" s="3">
-        <v>8419600</v>
+        <v>8010500</v>
       </c>
       <c r="J89" s="3">
-        <v>10309100</v>
+        <v>9808200</v>
       </c>
       <c r="K89" s="3">
         <v>7852900</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3853100</v>
+        <v>-3665900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3413500</v>
+        <v>-3247600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4171600</v>
+        <v>-3968900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4248000</v>
+        <v>-4041600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4359300</v>
+        <v>-4147400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4521800</v>
+        <v>-4302100</v>
       </c>
       <c r="J91" s="3">
-        <v>-6340400</v>
+        <v>-6032300</v>
       </c>
       <c r="K91" s="3">
         <v>-5979700</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2860400</v>
+        <v>-2721400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2077100</v>
+        <v>-1976200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1298200</v>
+        <v>-1235100</v>
       </c>
       <c r="G94" s="3">
-        <v>-12877100</v>
+        <v>-12251400</v>
       </c>
       <c r="H94" s="3">
-        <v>-4317800</v>
+        <v>-4108000</v>
       </c>
       <c r="I94" s="3">
-        <v>-7080000</v>
+        <v>-6736000</v>
       </c>
       <c r="J94" s="3">
-        <v>-5710900</v>
+        <v>-5433400</v>
       </c>
       <c r="K94" s="3">
         <v>-5076400</v>
@@ -3768,25 +3768,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3306500</v>
+        <v>-3145900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3306500</v>
+        <v>-3145900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3206200</v>
+        <v>-3050400</v>
       </c>
       <c r="G96" s="3">
-        <v>-3105800</v>
+        <v>-2954900</v>
       </c>
       <c r="H96" s="3">
-        <v>-3005500</v>
+        <v>-2859400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2906200</v>
+        <v>-2765000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2805800</v>
+        <v>-2669500</v>
       </c>
       <c r="K96" s="3">
         <v>-2800200</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7044000</v>
+        <v>-6701700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1697500</v>
+        <v>-1615000</v>
       </c>
       <c r="F100" s="3">
-        <v>-6987300</v>
+        <v>-6647700</v>
       </c>
       <c r="G100" s="3">
-        <v>-56700</v>
+        <v>-54000</v>
       </c>
       <c r="H100" s="3">
-        <v>429800</v>
+        <v>408900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2356400</v>
+        <v>-2241900</v>
       </c>
       <c r="J100" s="3">
-        <v>-4006900</v>
+        <v>-3812200</v>
       </c>
       <c r="K100" s="3">
         <v>-2797900</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>142900</v>
+        <v>136000</v>
       </c>
       <c r="E101" s="3">
-        <v>-88400</v>
+        <v>-84100</v>
       </c>
       <c r="F101" s="3">
-        <v>40400</v>
+        <v>38400</v>
       </c>
       <c r="G101" s="3">
-        <v>-64400</v>
+        <v>-61200</v>
       </c>
       <c r="H101" s="3">
-        <v>-120000</v>
+        <v>-114200</v>
       </c>
       <c r="I101" s="3">
-        <v>72000</v>
+        <v>68500</v>
       </c>
       <c r="J101" s="3">
-        <v>-20700</v>
+        <v>-19700</v>
       </c>
       <c r="K101" s="3">
         <v>-101600</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1865500</v>
+        <v>-1774800</v>
       </c>
       <c r="E102" s="3">
-        <v>2050900</v>
+        <v>1951300</v>
       </c>
       <c r="F102" s="3">
-        <v>-69800</v>
+        <v>-66400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4337500</v>
+        <v>-4126700</v>
       </c>
       <c r="H102" s="3">
-        <v>5585500</v>
+        <v>5314000</v>
       </c>
       <c r="I102" s="3">
-        <v>-944700</v>
+        <v>-898800</v>
       </c>
       <c r="J102" s="3">
-        <v>570500</v>
+        <v>542800</v>
       </c>
       <c r="K102" s="3">
         <v>-123100</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>81576900</v>
+        <v>78393600</v>
       </c>
       <c r="E8" s="3">
-        <v>61390700</v>
+        <v>58995200</v>
       </c>
       <c r="F8" s="3">
-        <v>61564100</v>
+        <v>59161800</v>
       </c>
       <c r="G8" s="3">
-        <v>62502300</v>
+        <v>60063400</v>
       </c>
       <c r="H8" s="3">
-        <v>63543400</v>
+        <v>61063800</v>
       </c>
       <c r="I8" s="3">
-        <v>59731100</v>
+        <v>57400400</v>
       </c>
       <c r="J8" s="3">
-        <v>73119000</v>
+        <v>70265800</v>
       </c>
       <c r="K8" s="3">
         <v>83921500</v>
@@ -766,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>61029600</v>
+        <v>58648100</v>
       </c>
       <c r="E9" s="3">
-        <v>45709100</v>
+        <v>43925500</v>
       </c>
       <c r="F9" s="3">
-        <v>44693000</v>
+        <v>42949000</v>
       </c>
       <c r="G9" s="3">
-        <v>44540400</v>
+        <v>42802400</v>
       </c>
       <c r="H9" s="3">
-        <v>43167300</v>
+        <v>41482900</v>
       </c>
       <c r="I9" s="3">
-        <v>40753100</v>
+        <v>39162900</v>
       </c>
       <c r="J9" s="3">
-        <v>53319000</v>
+        <v>51238400</v>
       </c>
       <c r="K9" s="3">
         <v>63047800</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20547300</v>
+        <v>19745500</v>
       </c>
       <c r="E10" s="3">
-        <v>15681600</v>
+        <v>15069700</v>
       </c>
       <c r="F10" s="3">
-        <v>16871100</v>
+        <v>16212700</v>
       </c>
       <c r="G10" s="3">
-        <v>17961900</v>
+        <v>17261000</v>
       </c>
       <c r="H10" s="3">
-        <v>20376100</v>
+        <v>19581000</v>
       </c>
       <c r="I10" s="3">
-        <v>18978000</v>
+        <v>18237500</v>
       </c>
       <c r="J10" s="3">
-        <v>19800000</v>
+        <v>19027400</v>
       </c>
       <c r="K10" s="3">
         <v>20873700</v>
@@ -861,25 +861,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2300000</v>
+        <v>2210200</v>
       </c>
       <c r="E12" s="3">
-        <v>2165100</v>
+        <v>2080600</v>
       </c>
       <c r="F12" s="3">
-        <v>2239800</v>
+        <v>2152400</v>
       </c>
       <c r="G12" s="3">
-        <v>2069600</v>
+        <v>1988800</v>
       </c>
       <c r="H12" s="3">
-        <v>1912800</v>
+        <v>1838200</v>
       </c>
       <c r="I12" s="3">
-        <v>1933600</v>
+        <v>1858200</v>
       </c>
       <c r="J12" s="3">
-        <v>2027000</v>
+        <v>1947900</v>
       </c>
       <c r="K12" s="3">
         <v>2127200</v>
@@ -939,25 +939,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>467100</v>
+        <v>448800</v>
       </c>
       <c r="E14" s="3">
-        <v>874900</v>
+        <v>840800</v>
       </c>
       <c r="F14" s="3">
-        <v>704700</v>
+        <v>677200</v>
       </c>
       <c r="G14" s="3">
-        <v>419300</v>
+        <v>402900</v>
       </c>
       <c r="H14" s="3">
-        <v>372600</v>
+        <v>358100</v>
       </c>
       <c r="I14" s="3">
-        <v>500300</v>
+        <v>480700</v>
       </c>
       <c r="J14" s="3">
-        <v>317600</v>
+        <v>305200</v>
       </c>
       <c r="K14" s="3">
         <v>198700</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>140100</v>
+        <v>134600</v>
       </c>
       <c r="E15" s="3">
-        <v>3080500</v>
+        <v>2960300</v>
       </c>
       <c r="F15" s="3">
-        <v>442100</v>
+        <v>424900</v>
       </c>
       <c r="G15" s="3">
-        <v>74700</v>
+        <v>71800</v>
       </c>
       <c r="H15" s="3">
-        <v>229400</v>
+        <v>220400</v>
       </c>
       <c r="I15" s="3">
-        <v>349800</v>
+        <v>336100</v>
       </c>
       <c r="J15" s="3">
-        <v>700600</v>
+        <v>673200</v>
       </c>
       <c r="K15" s="3">
         <v>417800</v>
@@ -1031,25 +1031,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>73597500</v>
+        <v>70725600</v>
       </c>
       <c r="E17" s="3">
-        <v>61624300</v>
+        <v>59219600</v>
       </c>
       <c r="F17" s="3">
-        <v>57185200</v>
+        <v>54953700</v>
       </c>
       <c r="G17" s="3">
-        <v>56301900</v>
+        <v>54105000</v>
       </c>
       <c r="H17" s="3">
-        <v>55668800</v>
+        <v>53496500</v>
       </c>
       <c r="I17" s="3">
-        <v>53218300</v>
+        <v>51141700</v>
       </c>
       <c r="J17" s="3">
-        <v>66634200</v>
+        <v>64034100</v>
       </c>
       <c r="K17" s="3">
         <v>75311000</v>
@@ -1070,25 +1070,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7979400</v>
+        <v>7668000</v>
       </c>
       <c r="E18" s="3">
-        <v>-233500</v>
+        <v>-224400</v>
       </c>
       <c r="F18" s="3">
-        <v>4378900</v>
+        <v>4208000</v>
       </c>
       <c r="G18" s="3">
-        <v>6200400</v>
+        <v>5958500</v>
       </c>
       <c r="H18" s="3">
-        <v>7874500</v>
+        <v>7567300</v>
       </c>
       <c r="I18" s="3">
-        <v>6512800</v>
+        <v>6258700</v>
       </c>
       <c r="J18" s="3">
-        <v>6484800</v>
+        <v>6231800</v>
       </c>
       <c r="K18" s="3">
         <v>8610500</v>
@@ -1126,25 +1126,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>221100</v>
+        <v>212400</v>
       </c>
       <c r="E20" s="3">
-        <v>-861500</v>
+        <v>-827800</v>
       </c>
       <c r="F20" s="3">
-        <v>-315500</v>
+        <v>-303200</v>
       </c>
       <c r="G20" s="3">
-        <v>-243900</v>
+        <v>-234400</v>
       </c>
       <c r="H20" s="3">
-        <v>-259500</v>
+        <v>-249300</v>
       </c>
       <c r="I20" s="3">
-        <v>-322800</v>
+        <v>-310200</v>
       </c>
       <c r="J20" s="3">
-        <v>-219000</v>
+        <v>-210500</v>
       </c>
       <c r="K20" s="3">
         <v>149000</v>
@@ -1165,25 +1165,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>12075900</v>
+        <v>11554600</v>
       </c>
       <c r="E21" s="3">
-        <v>6001000</v>
+        <v>5675100</v>
       </c>
       <c r="F21" s="3">
-        <v>8496900</v>
+        <v>8108100</v>
       </c>
       <c r="G21" s="3">
-        <v>9898100</v>
+        <v>9461000</v>
       </c>
       <c r="H21" s="3">
-        <v>12043400</v>
+        <v>11516200</v>
       </c>
       <c r="I21" s="3">
-        <v>10700300</v>
+        <v>10224500</v>
       </c>
       <c r="J21" s="3">
-        <v>10941100</v>
+        <v>10453700</v>
       </c>
       <c r="K21" s="3">
         <v>12669600</v>
@@ -1204,25 +1204,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>470200</v>
+        <v>451800</v>
       </c>
       <c r="E22" s="3">
-        <v>526200</v>
+        <v>505700</v>
       </c>
       <c r="F22" s="3">
-        <v>636200</v>
+        <v>611400</v>
       </c>
       <c r="G22" s="3">
-        <v>525200</v>
+        <v>504700</v>
       </c>
       <c r="H22" s="3">
-        <v>472200</v>
+        <v>453800</v>
       </c>
       <c r="I22" s="3">
-        <v>590600</v>
+        <v>567500</v>
       </c>
       <c r="J22" s="3">
-        <v>507500</v>
+        <v>487700</v>
       </c>
       <c r="K22" s="3">
         <v>626700</v>
@@ -1243,25 +1243,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7730300</v>
+        <v>7428600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1621200</v>
+        <v>-1557900</v>
       </c>
       <c r="F23" s="3">
-        <v>3427100</v>
+        <v>3293400</v>
       </c>
       <c r="G23" s="3">
-        <v>5431300</v>
+        <v>5219400</v>
       </c>
       <c r="H23" s="3">
-        <v>7142800</v>
+        <v>6864100</v>
       </c>
       <c r="I23" s="3">
-        <v>5599500</v>
+        <v>5381000</v>
       </c>
       <c r="J23" s="3">
-        <v>5758300</v>
+        <v>5533600</v>
       </c>
       <c r="K23" s="3">
         <v>8132900</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1484200</v>
+        <v>1426300</v>
       </c>
       <c r="E24" s="3">
-        <v>-94400</v>
+        <v>-90800</v>
       </c>
       <c r="F24" s="3">
-        <v>784700</v>
+        <v>754000</v>
       </c>
       <c r="G24" s="3">
-        <v>1159300</v>
+        <v>1114100</v>
       </c>
       <c r="H24" s="3">
-        <v>1338900</v>
+        <v>1286600</v>
       </c>
       <c r="I24" s="3">
-        <v>1183200</v>
+        <v>1137000</v>
       </c>
       <c r="J24" s="3">
-        <v>1294300</v>
+        <v>1243800</v>
       </c>
       <c r="K24" s="3">
         <v>1931900</v>
@@ -1360,25 +1360,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6246100</v>
+        <v>6002400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1526800</v>
+        <v>-1467200</v>
       </c>
       <c r="F26" s="3">
-        <v>2642500</v>
+        <v>2539400</v>
       </c>
       <c r="G26" s="3">
-        <v>4272000</v>
+        <v>4105300</v>
       </c>
       <c r="H26" s="3">
-        <v>5803900</v>
+        <v>5577500</v>
       </c>
       <c r="I26" s="3">
-        <v>4416300</v>
+        <v>4243900</v>
       </c>
       <c r="J26" s="3">
-        <v>4464000</v>
+        <v>4289800</v>
       </c>
       <c r="K26" s="3">
         <v>6201000</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5769700</v>
+        <v>5544500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1511200</v>
+        <v>-1452200</v>
       </c>
       <c r="F27" s="3">
-        <v>2569800</v>
+        <v>2469600</v>
       </c>
       <c r="G27" s="3">
-        <v>3989700</v>
+        <v>3834000</v>
       </c>
       <c r="H27" s="3">
-        <v>5519600</v>
+        <v>5304200</v>
       </c>
       <c r="I27" s="3">
-        <v>4209700</v>
+        <v>4045500</v>
       </c>
       <c r="J27" s="3">
-        <v>4138100</v>
+        <v>3976600</v>
       </c>
       <c r="K27" s="3">
         <v>5820500</v>
@@ -1477,19 +1477,19 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-37400</v>
+        <v>-35900</v>
       </c>
       <c r="E29" s="3">
-        <v>411000</v>
+        <v>395000</v>
       </c>
       <c r="F29" s="3">
-        <v>6170300</v>
+        <v>5929500</v>
       </c>
       <c r="G29" s="3">
-        <v>1337900</v>
+        <v>1285600</v>
       </c>
       <c r="H29" s="3">
-        <v>1182200</v>
+        <v>1136000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1594,25 +1594,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-221100</v>
+        <v>-212400</v>
       </c>
       <c r="E32" s="3">
-        <v>861500</v>
+        <v>827800</v>
       </c>
       <c r="F32" s="3">
-        <v>315500</v>
+        <v>303200</v>
       </c>
       <c r="G32" s="3">
-        <v>243900</v>
+        <v>234400</v>
       </c>
       <c r="H32" s="3">
-        <v>259500</v>
+        <v>249300</v>
       </c>
       <c r="I32" s="3">
-        <v>322800</v>
+        <v>310200</v>
       </c>
       <c r="J32" s="3">
-        <v>219000</v>
+        <v>210500</v>
       </c>
       <c r="K32" s="3">
         <v>-149000</v>
@@ -1633,25 +1633,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5732300</v>
+        <v>5508600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1100200</v>
+        <v>-1057200</v>
       </c>
       <c r="F33" s="3">
-        <v>8740200</v>
+        <v>8399100</v>
       </c>
       <c r="G33" s="3">
-        <v>5327500</v>
+        <v>5119700</v>
       </c>
       <c r="H33" s="3">
-        <v>6701700</v>
+        <v>6440200</v>
       </c>
       <c r="I33" s="3">
-        <v>4209700</v>
+        <v>4045500</v>
       </c>
       <c r="J33" s="3">
-        <v>4138100</v>
+        <v>3976600</v>
       </c>
       <c r="K33" s="3">
         <v>5820500</v>
@@ -1711,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5732300</v>
+        <v>5508600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1100200</v>
+        <v>-1057200</v>
       </c>
       <c r="F35" s="3">
-        <v>8740200</v>
+        <v>8399100</v>
       </c>
       <c r="G35" s="3">
-        <v>5327500</v>
+        <v>5119700</v>
       </c>
       <c r="H35" s="3">
-        <v>6701700</v>
+        <v>6440200</v>
       </c>
       <c r="I35" s="3">
-        <v>4209700</v>
+        <v>4045500</v>
       </c>
       <c r="J35" s="3">
-        <v>4138100</v>
+        <v>3976600</v>
       </c>
       <c r="K35" s="3">
         <v>5820500</v>
@@ -1828,25 +1828,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2723400</v>
+        <v>2617200</v>
       </c>
       <c r="E41" s="3">
-        <v>4494100</v>
+        <v>4318700</v>
       </c>
       <c r="F41" s="3">
-        <v>2519000</v>
+        <v>2420700</v>
       </c>
       <c r="G41" s="3">
-        <v>2387200</v>
+        <v>2294000</v>
       </c>
       <c r="H41" s="3">
-        <v>6741200</v>
+        <v>6478100</v>
       </c>
       <c r="I41" s="3">
-        <v>1427100</v>
+        <v>1371400</v>
       </c>
       <c r="J41" s="3">
-        <v>2325900</v>
+        <v>2235200</v>
       </c>
       <c r="K41" s="3">
         <v>1939800</v>
@@ -1867,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>215900</v>
+        <v>207500</v>
       </c>
       <c r="E42" s="3">
-        <v>214800</v>
+        <v>206500</v>
       </c>
       <c r="F42" s="3">
-        <v>460800</v>
+        <v>442800</v>
       </c>
       <c r="G42" s="3">
-        <v>357000</v>
+        <v>343100</v>
       </c>
       <c r="H42" s="3">
-        <v>54000</v>
+        <v>51900</v>
       </c>
       <c r="I42" s="3">
-        <v>556300</v>
+        <v>534600</v>
       </c>
       <c r="J42" s="3">
-        <v>21800</v>
+        <v>20900</v>
       </c>
       <c r="K42" s="3">
         <v>21500</v>
@@ -1906,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17201100</v>
+        <v>16529900</v>
       </c>
       <c r="E43" s="3">
-        <v>13978400</v>
+        <v>13433000</v>
       </c>
       <c r="F43" s="3">
-        <v>12639500</v>
+        <v>12146300</v>
       </c>
       <c r="G43" s="3">
-        <v>13834200</v>
+        <v>13294300</v>
       </c>
       <c r="H43" s="3">
-        <v>14245200</v>
+        <v>13689300</v>
       </c>
       <c r="I43" s="3">
-        <v>14034500</v>
+        <v>13486800</v>
       </c>
       <c r="J43" s="3">
-        <v>12414300</v>
+        <v>11929900</v>
       </c>
       <c r="K43" s="3">
         <v>13961300</v>
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14393600</v>
+        <v>13831900</v>
       </c>
       <c r="E44" s="3">
-        <v>10389400</v>
+        <v>9984000</v>
       </c>
       <c r="F44" s="3">
-        <v>11648400</v>
+        <v>11193800</v>
       </c>
       <c r="G44" s="3">
-        <v>12627100</v>
+        <v>12134400</v>
       </c>
       <c r="H44" s="3">
-        <v>10693500</v>
+        <v>10276200</v>
       </c>
       <c r="I44" s="3">
-        <v>10384200</v>
+        <v>9979000</v>
       </c>
       <c r="J44" s="3">
-        <v>10060400</v>
+        <v>9667800</v>
       </c>
       <c r="K44" s="3">
         <v>12720400</v>
@@ -1984,25 +1984,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1845400</v>
+        <v>1773400</v>
       </c>
       <c r="E45" s="3">
-        <v>1923200</v>
+        <v>1848200</v>
       </c>
       <c r="F45" s="3">
-        <v>4896800</v>
+        <v>4705700</v>
       </c>
       <c r="G45" s="3">
-        <v>15653600</v>
+        <v>15042800</v>
       </c>
       <c r="H45" s="3">
-        <v>591600</v>
+        <v>568500</v>
       </c>
       <c r="I45" s="3">
-        <v>527300</v>
+        <v>506700</v>
       </c>
       <c r="J45" s="3">
-        <v>674600</v>
+        <v>648300</v>
       </c>
       <c r="K45" s="3">
         <v>2316900</v>
@@ -2023,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36379400</v>
+        <v>34959900</v>
       </c>
       <c r="E46" s="3">
-        <v>31000000</v>
+        <v>29790300</v>
       </c>
       <c r="F46" s="3">
-        <v>32164500</v>
+        <v>30909400</v>
       </c>
       <c r="G46" s="3">
-        <v>44859100</v>
+        <v>43108600</v>
       </c>
       <c r="H46" s="3">
-        <v>32325400</v>
+        <v>31064000</v>
       </c>
       <c r="I46" s="3">
-        <v>26929400</v>
+        <v>25878500</v>
       </c>
       <c r="J46" s="3">
-        <v>25497100</v>
+        <v>24502100</v>
       </c>
       <c r="K46" s="3">
         <v>30959900</v>
@@ -2062,25 +2062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13449100</v>
+        <v>12924300</v>
       </c>
       <c r="E47" s="3">
-        <v>13839400</v>
+        <v>13299300</v>
       </c>
       <c r="F47" s="3">
-        <v>16236900</v>
+        <v>15603300</v>
       </c>
       <c r="G47" s="3">
-        <v>2878100</v>
+        <v>2765800</v>
       </c>
       <c r="H47" s="3">
-        <v>5522700</v>
+        <v>5307200</v>
       </c>
       <c r="I47" s="3">
-        <v>5451100</v>
+        <v>5238300</v>
       </c>
       <c r="J47" s="3">
-        <v>5150100</v>
+        <v>4949100</v>
       </c>
       <c r="K47" s="3">
         <v>4273600</v>
@@ -2101,25 +2101,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22369900</v>
+        <v>21497000</v>
       </c>
       <c r="E48" s="3">
-        <v>20391600</v>
+        <v>19595900</v>
       </c>
       <c r="F48" s="3">
-        <v>22617900</v>
+        <v>21735300</v>
       </c>
       <c r="G48" s="3">
-        <v>21567600</v>
+        <v>20726000</v>
       </c>
       <c r="H48" s="3">
-        <v>26215300</v>
+        <v>25192300</v>
       </c>
       <c r="I48" s="3">
-        <v>27414100</v>
+        <v>26344300</v>
       </c>
       <c r="J48" s="3">
-        <v>26217400</v>
+        <v>25194300</v>
       </c>
       <c r="K48" s="3">
         <v>26529300</v>
@@ -2140,25 +2140,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14010600</v>
+        <v>13463900</v>
       </c>
       <c r="E49" s="3">
-        <v>13643200</v>
+        <v>13110800</v>
       </c>
       <c r="F49" s="3">
-        <v>15075500</v>
+        <v>14487200</v>
       </c>
       <c r="G49" s="3">
-        <v>17181400</v>
+        <v>16511000</v>
       </c>
       <c r="H49" s="3">
-        <v>14109200</v>
+        <v>13558700</v>
       </c>
       <c r="I49" s="3">
-        <v>15736600</v>
+        <v>15122600</v>
       </c>
       <c r="J49" s="3">
-        <v>13012200</v>
+        <v>12504400</v>
       </c>
       <c r="K49" s="3">
         <v>14641000</v>
@@ -2257,25 +2257,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4485800</v>
+        <v>4310800</v>
       </c>
       <c r="E52" s="3">
-        <v>4460900</v>
+        <v>4286800</v>
       </c>
       <c r="F52" s="3">
-        <v>4150600</v>
+        <v>3988600</v>
       </c>
       <c r="G52" s="3">
-        <v>3350300</v>
+        <v>3219600</v>
       </c>
       <c r="H52" s="3">
-        <v>3580800</v>
+        <v>3441000</v>
       </c>
       <c r="I52" s="3">
-        <v>3864100</v>
+        <v>3713300</v>
       </c>
       <c r="J52" s="3">
-        <v>3644100</v>
+        <v>3501900</v>
       </c>
       <c r="K52" s="3">
         <v>4167500</v>
@@ -2335,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>90694800</v>
+        <v>87155800</v>
       </c>
       <c r="E54" s="3">
-        <v>83335100</v>
+        <v>80083200</v>
       </c>
       <c r="F54" s="3">
-        <v>90245400</v>
+        <v>86723900</v>
       </c>
       <c r="G54" s="3">
-        <v>89836500</v>
+        <v>86331000</v>
       </c>
       <c r="H54" s="3">
-        <v>81753300</v>
+        <v>78563200</v>
       </c>
       <c r="I54" s="3">
-        <v>79395200</v>
+        <v>76297100</v>
       </c>
       <c r="J54" s="3">
-        <v>73520700</v>
+        <v>70651800</v>
       </c>
       <c r="K54" s="3">
         <v>80571400</v>
@@ -2408,25 +2408,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8122600</v>
+        <v>7805700</v>
       </c>
       <c r="E57" s="3">
-        <v>5491500</v>
+        <v>5277200</v>
       </c>
       <c r="F57" s="3">
-        <v>5279800</v>
+        <v>5073800</v>
       </c>
       <c r="G57" s="3">
-        <v>5316100</v>
+        <v>5108700</v>
       </c>
       <c r="H57" s="3">
-        <v>5159400</v>
+        <v>4958100</v>
       </c>
       <c r="I57" s="3">
-        <v>4784700</v>
+        <v>4598000</v>
       </c>
       <c r="J57" s="3">
-        <v>4172400</v>
+        <v>4009500</v>
       </c>
       <c r="K57" s="3">
         <v>5488600</v>
@@ -2447,25 +2447,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3896300</v>
+        <v>3744200</v>
       </c>
       <c r="E58" s="3">
-        <v>3870300</v>
+        <v>3719300</v>
       </c>
       <c r="F58" s="3">
-        <v>3884900</v>
+        <v>3733300</v>
       </c>
       <c r="G58" s="3">
-        <v>5717800</v>
+        <v>5494700</v>
       </c>
       <c r="H58" s="3">
-        <v>2591600</v>
+        <v>2490500</v>
       </c>
       <c r="I58" s="3">
-        <v>3932600</v>
+        <v>3779100</v>
       </c>
       <c r="J58" s="3">
-        <v>4251200</v>
+        <v>4085400</v>
       </c>
       <c r="K58" s="3">
         <v>4024100</v>
@@ -2486,25 +2486,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8823200</v>
+        <v>8478900</v>
       </c>
       <c r="E59" s="3">
-        <v>7535200</v>
+        <v>7241100</v>
       </c>
       <c r="F59" s="3">
-        <v>8068600</v>
+        <v>7753800</v>
       </c>
       <c r="G59" s="3">
-        <v>13179300</v>
+        <v>12665000</v>
       </c>
       <c r="H59" s="3">
-        <v>7692900</v>
+        <v>7392700</v>
       </c>
       <c r="I59" s="3">
-        <v>7180200</v>
+        <v>6900000</v>
       </c>
       <c r="J59" s="3">
-        <v>6351900</v>
+        <v>6104100</v>
       </c>
       <c r="K59" s="3">
         <v>8432100</v>
@@ -2525,25 +2525,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20842100</v>
+        <v>20028800</v>
       </c>
       <c r="E60" s="3">
-        <v>16897000</v>
+        <v>16237700</v>
       </c>
       <c r="F60" s="3">
-        <v>17233300</v>
+        <v>16560800</v>
       </c>
       <c r="G60" s="3">
-        <v>24213200</v>
+        <v>23268300</v>
       </c>
       <c r="H60" s="3">
-        <v>15444000</v>
+        <v>14841300</v>
       </c>
       <c r="I60" s="3">
-        <v>15897500</v>
+        <v>15277200</v>
       </c>
       <c r="J60" s="3">
-        <v>14775500</v>
+        <v>14199000</v>
       </c>
       <c r="K60" s="3">
         <v>17944800</v>
@@ -2564,25 +2564,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15404500</v>
+        <v>14803400</v>
       </c>
       <c r="E61" s="3">
-        <v>17483400</v>
+        <v>16801200</v>
       </c>
       <c r="F61" s="3">
-        <v>16662400</v>
+        <v>16012300</v>
       </c>
       <c r="G61" s="3">
-        <v>16007500</v>
+        <v>15382900</v>
       </c>
       <c r="H61" s="3">
-        <v>16226500</v>
+        <v>15593400</v>
       </c>
       <c r="I61" s="3">
-        <v>13107600</v>
+        <v>12596200</v>
       </c>
       <c r="J61" s="3">
-        <v>11606800</v>
+        <v>11153900</v>
       </c>
       <c r="K61" s="3">
         <v>13447600</v>
@@ -2603,25 +2603,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10772400</v>
+        <v>10352000</v>
       </c>
       <c r="E62" s="3">
-        <v>13252900</v>
+        <v>12735800</v>
       </c>
       <c r="F62" s="3">
-        <v>12394600</v>
+        <v>11911000</v>
       </c>
       <c r="G62" s="3">
-        <v>12138200</v>
+        <v>11664600</v>
       </c>
       <c r="H62" s="3">
-        <v>14009600</v>
+        <v>13462900</v>
       </c>
       <c r="I62" s="3">
-        <v>16587700</v>
+        <v>15940400</v>
       </c>
       <c r="J62" s="3">
-        <v>14397700</v>
+        <v>13835900</v>
       </c>
       <c r="K62" s="3">
         <v>17344100</v>
@@ -2759,25 +2759,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48356800</v>
+        <v>46469900</v>
       </c>
       <c r="E66" s="3">
-        <v>48328800</v>
+        <v>46442900</v>
       </c>
       <c r="F66" s="3">
-        <v>47175700</v>
+        <v>45334800</v>
       </c>
       <c r="G66" s="3">
-        <v>53453900</v>
+        <v>51368100</v>
       </c>
       <c r="H66" s="3">
-        <v>46633900</v>
+        <v>44814200</v>
       </c>
       <c r="I66" s="3">
-        <v>46382700</v>
+        <v>44572800</v>
       </c>
       <c r="J66" s="3">
-        <v>41433000</v>
+        <v>39816200</v>
       </c>
       <c r="K66" s="3">
         <v>49392500</v>
@@ -2971,25 +2971,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45118600</v>
+        <v>43358000</v>
       </c>
       <c r="E72" s="3">
-        <v>42580900</v>
+        <v>40919300</v>
       </c>
       <c r="F72" s="3">
-        <v>46883000</v>
+        <v>45053600</v>
       </c>
       <c r="G72" s="3">
-        <v>41326100</v>
+        <v>39713500</v>
       </c>
       <c r="H72" s="3">
-        <v>39381000</v>
+        <v>37844300</v>
       </c>
       <c r="I72" s="3">
-        <v>35958000</v>
+        <v>34554900</v>
       </c>
       <c r="J72" s="3">
-        <v>34521600</v>
+        <v>33174500</v>
       </c>
       <c r="K72" s="3">
         <v>36040900</v>
@@ -3127,25 +3127,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42338000</v>
+        <v>40685900</v>
       </c>
       <c r="E76" s="3">
-        <v>35006300</v>
+        <v>33640300</v>
       </c>
       <c r="F76" s="3">
-        <v>43069700</v>
+        <v>41389100</v>
       </c>
       <c r="G76" s="3">
-        <v>36382500</v>
+        <v>34962900</v>
       </c>
       <c r="H76" s="3">
-        <v>35119400</v>
+        <v>33749000</v>
       </c>
       <c r="I76" s="3">
-        <v>33012500</v>
+        <v>31724300</v>
       </c>
       <c r="J76" s="3">
-        <v>32087700</v>
+        <v>30835600</v>
       </c>
       <c r="K76" s="3">
         <v>31179000</v>
@@ -3249,25 +3249,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5732300</v>
+        <v>5508600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1100200</v>
+        <v>-1057200</v>
       </c>
       <c r="F81" s="3">
-        <v>8740200</v>
+        <v>8399100</v>
       </c>
       <c r="G81" s="3">
-        <v>5327500</v>
+        <v>5119700</v>
       </c>
       <c r="H81" s="3">
-        <v>6701700</v>
+        <v>6440200</v>
       </c>
       <c r="I81" s="3">
-        <v>4209700</v>
+        <v>4045500</v>
       </c>
       <c r="J81" s="3">
-        <v>4138100</v>
+        <v>3976600</v>
       </c>
       <c r="K81" s="3">
         <v>5820500</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3826700</v>
+        <v>3677400</v>
       </c>
       <c r="E83" s="3">
-        <v>7006900</v>
+        <v>6733400</v>
       </c>
       <c r="F83" s="3">
-        <v>4377900</v>
+        <v>4207000</v>
       </c>
       <c r="G83" s="3">
-        <v>3892100</v>
+        <v>3740300</v>
       </c>
       <c r="H83" s="3">
-        <v>4372700</v>
+        <v>4202000</v>
       </c>
       <c r="I83" s="3">
-        <v>4453600</v>
+        <v>4279800</v>
       </c>
       <c r="J83" s="3">
-        <v>4616600</v>
+        <v>4436400</v>
       </c>
       <c r="K83" s="3">
         <v>3901000</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7512300</v>
+        <v>7219200</v>
       </c>
       <c r="E89" s="3">
-        <v>5626500</v>
+        <v>5406900</v>
       </c>
       <c r="F89" s="3">
-        <v>7778000</v>
+        <v>7474500</v>
       </c>
       <c r="G89" s="3">
-        <v>8239900</v>
+        <v>7918400</v>
       </c>
       <c r="H89" s="3">
-        <v>9127300</v>
+        <v>8771100</v>
       </c>
       <c r="I89" s="3">
-        <v>8010500</v>
+        <v>7697900</v>
       </c>
       <c r="J89" s="3">
-        <v>9808200</v>
+        <v>9425400</v>
       </c>
       <c r="K89" s="3">
         <v>7852900</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3665900</v>
+        <v>-3522800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3247600</v>
+        <v>-3120900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3968900</v>
+        <v>-3814100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4041600</v>
+        <v>-3883900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4147400</v>
+        <v>-3985600</v>
       </c>
       <c r="I91" s="3">
-        <v>-4302100</v>
+        <v>-4134200</v>
       </c>
       <c r="J91" s="3">
-        <v>-6032300</v>
+        <v>-5796900</v>
       </c>
       <c r="K91" s="3">
         <v>-5979700</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2721400</v>
+        <v>-2615200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1976200</v>
+        <v>-1899000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1235100</v>
+        <v>-1186900</v>
       </c>
       <c r="G94" s="3">
-        <v>-12251400</v>
+        <v>-11773300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4108000</v>
+        <v>-3947700</v>
       </c>
       <c r="I94" s="3">
-        <v>-6736000</v>
+        <v>-6473100</v>
       </c>
       <c r="J94" s="3">
-        <v>-5433400</v>
+        <v>-5221400</v>
       </c>
       <c r="K94" s="3">
         <v>-5076400</v>
@@ -3768,25 +3768,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3145900</v>
+        <v>-3023100</v>
       </c>
       <c r="E96" s="3">
-        <v>-3145900</v>
+        <v>-3023100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3050400</v>
+        <v>-2931400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2954900</v>
+        <v>-2839600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2859400</v>
+        <v>-2747800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2765000</v>
+        <v>-2657100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2669500</v>
+        <v>-2565300</v>
       </c>
       <c r="K96" s="3">
         <v>-2800200</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6701700</v>
+        <v>-6440200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1615000</v>
+        <v>-1552000</v>
       </c>
       <c r="F100" s="3">
-        <v>-6647700</v>
+        <v>-6388300</v>
       </c>
       <c r="G100" s="3">
-        <v>-54000</v>
+        <v>-51900</v>
       </c>
       <c r="H100" s="3">
-        <v>408900</v>
+        <v>393000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2241900</v>
+        <v>-2154400</v>
       </c>
       <c r="J100" s="3">
-        <v>-3812200</v>
+        <v>-3663500</v>
       </c>
       <c r="K100" s="3">
         <v>-2797900</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>136000</v>
+        <v>130700</v>
       </c>
       <c r="E101" s="3">
-        <v>-84100</v>
+        <v>-80800</v>
       </c>
       <c r="F101" s="3">
-        <v>38400</v>
+        <v>36900</v>
       </c>
       <c r="G101" s="3">
-        <v>-61200</v>
+        <v>-58800</v>
       </c>
       <c r="H101" s="3">
-        <v>-114200</v>
+        <v>-109700</v>
       </c>
       <c r="I101" s="3">
-        <v>68500</v>
+        <v>65800</v>
       </c>
       <c r="J101" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="K101" s="3">
         <v>-101600</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1774800</v>
+        <v>-1705600</v>
       </c>
       <c r="E102" s="3">
-        <v>1951300</v>
+        <v>1875100</v>
       </c>
       <c r="F102" s="3">
-        <v>-66400</v>
+        <v>-63800</v>
       </c>
       <c r="G102" s="3">
-        <v>-4126700</v>
+        <v>-3965700</v>
       </c>
       <c r="H102" s="3">
-        <v>5314000</v>
+        <v>5106700</v>
       </c>
       <c r="I102" s="3">
-        <v>-898800</v>
+        <v>-863700</v>
       </c>
       <c r="J102" s="3">
-        <v>542800</v>
+        <v>521600</v>
       </c>
       <c r="K102" s="3">
         <v>-123100</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>78393600</v>
+        <v>80232800</v>
       </c>
       <c r="E8" s="3">
-        <v>58995200</v>
+        <v>60379300</v>
       </c>
       <c r="F8" s="3">
-        <v>59161800</v>
+        <v>60549800</v>
       </c>
       <c r="G8" s="3">
-        <v>60063400</v>
+        <v>61472600</v>
       </c>
       <c r="H8" s="3">
-        <v>61063800</v>
+        <v>62496400</v>
       </c>
       <c r="I8" s="3">
-        <v>57400400</v>
+        <v>58747000</v>
       </c>
       <c r="J8" s="3">
-        <v>70265800</v>
+        <v>71914300</v>
       </c>
       <c r="K8" s="3">
         <v>83921500</v>
@@ -766,25 +766,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>58648100</v>
+        <v>60024100</v>
       </c>
       <c r="E9" s="3">
-        <v>43925500</v>
+        <v>44956000</v>
       </c>
       <c r="F9" s="3">
-        <v>42949000</v>
+        <v>43956700</v>
       </c>
       <c r="G9" s="3">
-        <v>42802400</v>
+        <v>43806600</v>
       </c>
       <c r="H9" s="3">
-        <v>41482900</v>
+        <v>42456100</v>
       </c>
       <c r="I9" s="3">
-        <v>39162900</v>
+        <v>40081700</v>
       </c>
       <c r="J9" s="3">
-        <v>51238400</v>
+        <v>52440500</v>
       </c>
       <c r="K9" s="3">
         <v>63047800</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19745500</v>
+        <v>20208800</v>
       </c>
       <c r="E10" s="3">
-        <v>15069700</v>
+        <v>15423300</v>
       </c>
       <c r="F10" s="3">
-        <v>16212700</v>
+        <v>16593100</v>
       </c>
       <c r="G10" s="3">
-        <v>17261000</v>
+        <v>17666000</v>
       </c>
       <c r="H10" s="3">
-        <v>19581000</v>
+        <v>20040300</v>
       </c>
       <c r="I10" s="3">
-        <v>18237500</v>
+        <v>18665300</v>
       </c>
       <c r="J10" s="3">
-        <v>19027400</v>
+        <v>19473800</v>
       </c>
       <c r="K10" s="3">
         <v>20873700</v>
@@ -861,25 +861,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2210200</v>
+        <v>2262100</v>
       </c>
       <c r="E12" s="3">
-        <v>2080600</v>
+        <v>2129400</v>
       </c>
       <c r="F12" s="3">
-        <v>2152400</v>
+        <v>2202900</v>
       </c>
       <c r="G12" s="3">
-        <v>1988800</v>
+        <v>2035500</v>
       </c>
       <c r="H12" s="3">
-        <v>1838200</v>
+        <v>1881300</v>
       </c>
       <c r="I12" s="3">
-        <v>1858200</v>
+        <v>1901800</v>
       </c>
       <c r="J12" s="3">
-        <v>1947900</v>
+        <v>1993600</v>
       </c>
       <c r="K12" s="3">
         <v>2127200</v>
@@ -939,25 +939,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>448800</v>
+        <v>459400</v>
       </c>
       <c r="E14" s="3">
-        <v>840800</v>
+        <v>860500</v>
       </c>
       <c r="F14" s="3">
-        <v>677200</v>
+        <v>693100</v>
       </c>
       <c r="G14" s="3">
-        <v>402900</v>
+        <v>412400</v>
       </c>
       <c r="H14" s="3">
-        <v>358100</v>
+        <v>366500</v>
       </c>
       <c r="I14" s="3">
-        <v>480700</v>
+        <v>492000</v>
       </c>
       <c r="J14" s="3">
-        <v>305200</v>
+        <v>312400</v>
       </c>
       <c r="K14" s="3">
         <v>198700</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>134600</v>
+        <v>137800</v>
       </c>
       <c r="E15" s="3">
-        <v>2960300</v>
+        <v>3029700</v>
       </c>
       <c r="F15" s="3">
-        <v>424900</v>
+        <v>434900</v>
       </c>
       <c r="G15" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="H15" s="3">
-        <v>220400</v>
+        <v>225600</v>
       </c>
       <c r="I15" s="3">
-        <v>336100</v>
+        <v>344000</v>
       </c>
       <c r="J15" s="3">
-        <v>673200</v>
+        <v>689000</v>
       </c>
       <c r="K15" s="3">
         <v>417800</v>
@@ -1031,25 +1031,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>70725600</v>
+        <v>72384900</v>
       </c>
       <c r="E17" s="3">
-        <v>59219600</v>
+        <v>60609000</v>
       </c>
       <c r="F17" s="3">
-        <v>54953700</v>
+        <v>56243000</v>
       </c>
       <c r="G17" s="3">
-        <v>54105000</v>
+        <v>55374300</v>
       </c>
       <c r="H17" s="3">
-        <v>53496500</v>
+        <v>54751600</v>
       </c>
       <c r="I17" s="3">
-        <v>51141700</v>
+        <v>52341500</v>
       </c>
       <c r="J17" s="3">
-        <v>64034100</v>
+        <v>65536400</v>
       </c>
       <c r="K17" s="3">
         <v>75311000</v>
@@ -1070,25 +1070,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7668000</v>
+        <v>7847900</v>
       </c>
       <c r="E18" s="3">
-        <v>-224400</v>
+        <v>-229700</v>
       </c>
       <c r="F18" s="3">
-        <v>4208000</v>
+        <v>4306800</v>
       </c>
       <c r="G18" s="3">
-        <v>5958500</v>
+        <v>6098300</v>
       </c>
       <c r="H18" s="3">
-        <v>7567300</v>
+        <v>7744800</v>
       </c>
       <c r="I18" s="3">
-        <v>6258700</v>
+        <v>6405500</v>
       </c>
       <c r="J18" s="3">
-        <v>6231800</v>
+        <v>6378000</v>
       </c>
       <c r="K18" s="3">
         <v>8610500</v>
@@ -1126,25 +1126,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>212400</v>
+        <v>217400</v>
       </c>
       <c r="E20" s="3">
-        <v>-827800</v>
+        <v>-847300</v>
       </c>
       <c r="F20" s="3">
-        <v>-303200</v>
+        <v>-310300</v>
       </c>
       <c r="G20" s="3">
-        <v>-234400</v>
+        <v>-239900</v>
       </c>
       <c r="H20" s="3">
-        <v>-249300</v>
+        <v>-255200</v>
       </c>
       <c r="I20" s="3">
-        <v>-310200</v>
+        <v>-317500</v>
       </c>
       <c r="J20" s="3">
-        <v>-210500</v>
+        <v>-215400</v>
       </c>
       <c r="K20" s="3">
         <v>149000</v>
@@ -1165,25 +1165,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>11554600</v>
+        <v>11756400</v>
       </c>
       <c r="E21" s="3">
-        <v>5675100</v>
+        <v>5681500</v>
       </c>
       <c r="F21" s="3">
-        <v>8108100</v>
+        <v>8219100</v>
       </c>
       <c r="G21" s="3">
-        <v>9461000</v>
+        <v>9612500</v>
       </c>
       <c r="H21" s="3">
-        <v>11516200</v>
+        <v>11707200</v>
       </c>
       <c r="I21" s="3">
-        <v>10224500</v>
+        <v>10383800</v>
       </c>
       <c r="J21" s="3">
-        <v>10453700</v>
+        <v>10615500</v>
       </c>
       <c r="K21" s="3">
         <v>12669600</v>
@@ -1204,25 +1204,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>451800</v>
+        <v>462400</v>
       </c>
       <c r="E22" s="3">
-        <v>505700</v>
+        <v>517500</v>
       </c>
       <c r="F22" s="3">
-        <v>611400</v>
+        <v>625800</v>
       </c>
       <c r="G22" s="3">
-        <v>504700</v>
+        <v>516500</v>
       </c>
       <c r="H22" s="3">
-        <v>453800</v>
+        <v>464500</v>
       </c>
       <c r="I22" s="3">
-        <v>567500</v>
+        <v>580800</v>
       </c>
       <c r="J22" s="3">
-        <v>487700</v>
+        <v>499200</v>
       </c>
       <c r="K22" s="3">
         <v>626700</v>
@@ -1243,25 +1243,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7428600</v>
+        <v>7602900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1557900</v>
+        <v>-1594500</v>
       </c>
       <c r="F23" s="3">
-        <v>3293400</v>
+        <v>3370700</v>
       </c>
       <c r="G23" s="3">
-        <v>5219400</v>
+        <v>5341800</v>
       </c>
       <c r="H23" s="3">
-        <v>6864100</v>
+        <v>7025100</v>
       </c>
       <c r="I23" s="3">
-        <v>5381000</v>
+        <v>5507200</v>
       </c>
       <c r="J23" s="3">
-        <v>5533600</v>
+        <v>5663400</v>
       </c>
       <c r="K23" s="3">
         <v>8132900</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1426300</v>
+        <v>1459700</v>
       </c>
       <c r="E24" s="3">
-        <v>-90800</v>
+        <v>-92900</v>
       </c>
       <c r="F24" s="3">
-        <v>754000</v>
+        <v>771700</v>
       </c>
       <c r="G24" s="3">
-        <v>1114100</v>
+        <v>1140200</v>
       </c>
       <c r="H24" s="3">
-        <v>1286600</v>
+        <v>1316800</v>
       </c>
       <c r="I24" s="3">
-        <v>1137000</v>
+        <v>1163700</v>
       </c>
       <c r="J24" s="3">
-        <v>1243800</v>
+        <v>1272900</v>
       </c>
       <c r="K24" s="3">
         <v>1931900</v>
@@ -1360,25 +1360,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6002400</v>
+        <v>6143200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1467200</v>
+        <v>-1501600</v>
       </c>
       <c r="F26" s="3">
-        <v>2539400</v>
+        <v>2599000</v>
       </c>
       <c r="G26" s="3">
-        <v>4105300</v>
+        <v>4201600</v>
       </c>
       <c r="H26" s="3">
-        <v>5577500</v>
+        <v>5708300</v>
       </c>
       <c r="I26" s="3">
-        <v>4243900</v>
+        <v>4343500</v>
       </c>
       <c r="J26" s="3">
-        <v>4289800</v>
+        <v>4390500</v>
       </c>
       <c r="K26" s="3">
         <v>6201000</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5544500</v>
+        <v>5674600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1452200</v>
+        <v>-1486300</v>
       </c>
       <c r="F27" s="3">
-        <v>2469600</v>
+        <v>2527500</v>
       </c>
       <c r="G27" s="3">
-        <v>3834000</v>
+        <v>3924000</v>
       </c>
       <c r="H27" s="3">
-        <v>5304200</v>
+        <v>5428600</v>
       </c>
       <c r="I27" s="3">
-        <v>4045500</v>
+        <v>4140400</v>
       </c>
       <c r="J27" s="3">
-        <v>3976600</v>
+        <v>4069900</v>
       </c>
       <c r="K27" s="3">
         <v>5820500</v>
@@ -1477,19 +1477,19 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-35900</v>
+        <v>-36700</v>
       </c>
       <c r="E29" s="3">
-        <v>395000</v>
+        <v>404200</v>
       </c>
       <c r="F29" s="3">
-        <v>5929500</v>
+        <v>6068700</v>
       </c>
       <c r="G29" s="3">
-        <v>1285600</v>
+        <v>1315800</v>
       </c>
       <c r="H29" s="3">
-        <v>1136000</v>
+        <v>1162700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1594,25 +1594,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-212400</v>
+        <v>-217400</v>
       </c>
       <c r="E32" s="3">
-        <v>827800</v>
+        <v>847300</v>
       </c>
       <c r="F32" s="3">
-        <v>303200</v>
+        <v>310300</v>
       </c>
       <c r="G32" s="3">
-        <v>234400</v>
+        <v>239900</v>
       </c>
       <c r="H32" s="3">
-        <v>249300</v>
+        <v>255200</v>
       </c>
       <c r="I32" s="3">
-        <v>310200</v>
+        <v>317500</v>
       </c>
       <c r="J32" s="3">
-        <v>210500</v>
+        <v>215400</v>
       </c>
       <c r="K32" s="3">
         <v>-149000</v>
@@ -1633,25 +1633,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5508600</v>
+        <v>5637900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1057200</v>
+        <v>-1082000</v>
       </c>
       <c r="F33" s="3">
-        <v>8399100</v>
+        <v>8596200</v>
       </c>
       <c r="G33" s="3">
-        <v>5119700</v>
+        <v>5239800</v>
       </c>
       <c r="H33" s="3">
-        <v>6440200</v>
+        <v>6591300</v>
       </c>
       <c r="I33" s="3">
-        <v>4045500</v>
+        <v>4140400</v>
       </c>
       <c r="J33" s="3">
-        <v>3976600</v>
+        <v>4069900</v>
       </c>
       <c r="K33" s="3">
         <v>5820500</v>
@@ -1711,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5508600</v>
+        <v>5637900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1057200</v>
+        <v>-1082000</v>
       </c>
       <c r="F35" s="3">
-        <v>8399100</v>
+        <v>8596200</v>
       </c>
       <c r="G35" s="3">
-        <v>5119700</v>
+        <v>5239800</v>
       </c>
       <c r="H35" s="3">
-        <v>6440200</v>
+        <v>6591300</v>
       </c>
       <c r="I35" s="3">
-        <v>4045500</v>
+        <v>4140400</v>
       </c>
       <c r="J35" s="3">
-        <v>3976600</v>
+        <v>4069900</v>
       </c>
       <c r="K35" s="3">
         <v>5820500</v>
@@ -1828,25 +1828,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2617200</v>
+        <v>2678600</v>
       </c>
       <c r="E41" s="3">
-        <v>4318700</v>
+        <v>4420100</v>
       </c>
       <c r="F41" s="3">
-        <v>2420700</v>
+        <v>2477500</v>
       </c>
       <c r="G41" s="3">
-        <v>2294000</v>
+        <v>2347800</v>
       </c>
       <c r="H41" s="3">
-        <v>6478100</v>
+        <v>6630100</v>
       </c>
       <c r="I41" s="3">
-        <v>1371400</v>
+        <v>1403600</v>
       </c>
       <c r="J41" s="3">
-        <v>2235200</v>
+        <v>2287600</v>
       </c>
       <c r="K41" s="3">
         <v>1939800</v>
@@ -1867,25 +1867,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>207500</v>
+        <v>212300</v>
       </c>
       <c r="E42" s="3">
-        <v>206500</v>
+        <v>211300</v>
       </c>
       <c r="F42" s="3">
-        <v>442800</v>
+        <v>453200</v>
       </c>
       <c r="G42" s="3">
-        <v>343100</v>
+        <v>351200</v>
       </c>
       <c r="H42" s="3">
-        <v>51900</v>
+        <v>53100</v>
       </c>
       <c r="I42" s="3">
-        <v>534600</v>
+        <v>547100</v>
       </c>
       <c r="J42" s="3">
-        <v>20900</v>
+        <v>21400</v>
       </c>
       <c r="K42" s="3">
         <v>21500</v>
@@ -1906,25 +1906,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16529900</v>
+        <v>16917700</v>
       </c>
       <c r="E43" s="3">
-        <v>13433000</v>
+        <v>13748100</v>
       </c>
       <c r="F43" s="3">
-        <v>12146300</v>
+        <v>12431300</v>
       </c>
       <c r="G43" s="3">
-        <v>13294300</v>
+        <v>13606200</v>
       </c>
       <c r="H43" s="3">
-        <v>13689300</v>
+        <v>14010500</v>
       </c>
       <c r="I43" s="3">
-        <v>13486800</v>
+        <v>13803300</v>
       </c>
       <c r="J43" s="3">
-        <v>11929900</v>
+        <v>12209800</v>
       </c>
       <c r="K43" s="3">
         <v>13961300</v>
@@ -1945,25 +1945,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13831900</v>
+        <v>14156500</v>
       </c>
       <c r="E44" s="3">
-        <v>9984000</v>
+        <v>10218200</v>
       </c>
       <c r="F44" s="3">
-        <v>11193800</v>
+        <v>11456400</v>
       </c>
       <c r="G44" s="3">
-        <v>12134400</v>
+        <v>12419100</v>
       </c>
       <c r="H44" s="3">
-        <v>10276200</v>
+        <v>10517300</v>
       </c>
       <c r="I44" s="3">
-        <v>9979000</v>
+        <v>10213100</v>
       </c>
       <c r="J44" s="3">
-        <v>9667800</v>
+        <v>9894600</v>
       </c>
       <c r="K44" s="3">
         <v>12720400</v>
@@ -1984,25 +1984,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1773400</v>
+        <v>1815000</v>
       </c>
       <c r="E45" s="3">
-        <v>1848200</v>
+        <v>1891500</v>
       </c>
       <c r="F45" s="3">
-        <v>4705700</v>
+        <v>4816100</v>
       </c>
       <c r="G45" s="3">
-        <v>15042800</v>
+        <v>15395700</v>
       </c>
       <c r="H45" s="3">
-        <v>568500</v>
+        <v>581900</v>
       </c>
       <c r="I45" s="3">
-        <v>506700</v>
+        <v>518600</v>
       </c>
       <c r="J45" s="3">
-        <v>648300</v>
+        <v>663500</v>
       </c>
       <c r="K45" s="3">
         <v>2316900</v>
@@ -2023,25 +2023,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34959900</v>
+        <v>35780100</v>
       </c>
       <c r="E46" s="3">
-        <v>29790300</v>
+        <v>30489300</v>
       </c>
       <c r="F46" s="3">
-        <v>30909400</v>
+        <v>31634600</v>
       </c>
       <c r="G46" s="3">
-        <v>43108600</v>
+        <v>44120000</v>
       </c>
       <c r="H46" s="3">
-        <v>31064000</v>
+        <v>31792800</v>
       </c>
       <c r="I46" s="3">
-        <v>25878500</v>
+        <v>26485700</v>
       </c>
       <c r="J46" s="3">
-        <v>24502100</v>
+        <v>25077000</v>
       </c>
       <c r="K46" s="3">
         <v>30959900</v>
@@ -2062,25 +2062,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12924300</v>
+        <v>13227500</v>
       </c>
       <c r="E47" s="3">
-        <v>13299300</v>
+        <v>13611300</v>
       </c>
       <c r="F47" s="3">
-        <v>15603300</v>
+        <v>15969400</v>
       </c>
       <c r="G47" s="3">
-        <v>2765800</v>
+        <v>2830700</v>
       </c>
       <c r="H47" s="3">
-        <v>5307200</v>
+        <v>5431700</v>
       </c>
       <c r="I47" s="3">
-        <v>5238300</v>
+        <v>5361200</v>
       </c>
       <c r="J47" s="3">
-        <v>4949100</v>
+        <v>5065200</v>
       </c>
       <c r="K47" s="3">
         <v>4273600</v>
@@ -2101,25 +2101,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21497000</v>
+        <v>22001300</v>
       </c>
       <c r="E48" s="3">
-        <v>19595900</v>
+        <v>20055700</v>
       </c>
       <c r="F48" s="3">
-        <v>21735300</v>
+        <v>22245300</v>
       </c>
       <c r="G48" s="3">
-        <v>20726000</v>
+        <v>21212200</v>
       </c>
       <c r="H48" s="3">
-        <v>25192300</v>
+        <v>25783400</v>
       </c>
       <c r="I48" s="3">
-        <v>26344300</v>
+        <v>26962400</v>
       </c>
       <c r="J48" s="3">
-        <v>25194300</v>
+        <v>25785400</v>
       </c>
       <c r="K48" s="3">
         <v>26529300</v>
@@ -2140,25 +2140,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13463900</v>
+        <v>13779800</v>
       </c>
       <c r="E49" s="3">
-        <v>13110800</v>
+        <v>13418400</v>
       </c>
       <c r="F49" s="3">
-        <v>14487200</v>
+        <v>14827100</v>
       </c>
       <c r="G49" s="3">
-        <v>16511000</v>
+        <v>16898300</v>
       </c>
       <c r="H49" s="3">
-        <v>13558700</v>
+        <v>13876800</v>
       </c>
       <c r="I49" s="3">
-        <v>15122600</v>
+        <v>15477400</v>
       </c>
       <c r="J49" s="3">
-        <v>12504400</v>
+        <v>12797800</v>
       </c>
       <c r="K49" s="3">
         <v>14641000</v>
@@ -2257,25 +2257,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4310800</v>
+        <v>4411900</v>
       </c>
       <c r="E52" s="3">
-        <v>4286800</v>
+        <v>4387400</v>
       </c>
       <c r="F52" s="3">
-        <v>3988600</v>
+        <v>4082200</v>
       </c>
       <c r="G52" s="3">
-        <v>3219600</v>
+        <v>3295100</v>
       </c>
       <c r="H52" s="3">
-        <v>3441000</v>
+        <v>3521800</v>
       </c>
       <c r="I52" s="3">
-        <v>3713300</v>
+        <v>3800400</v>
       </c>
       <c r="J52" s="3">
-        <v>3501900</v>
+        <v>3584000</v>
       </c>
       <c r="K52" s="3">
         <v>4167500</v>
@@ -2335,25 +2335,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>87155800</v>
+        <v>89200600</v>
       </c>
       <c r="E54" s="3">
-        <v>80083200</v>
+        <v>81962100</v>
       </c>
       <c r="F54" s="3">
-        <v>86723900</v>
+        <v>88758600</v>
       </c>
       <c r="G54" s="3">
-        <v>86331000</v>
+        <v>88356400</v>
       </c>
       <c r="H54" s="3">
-        <v>78563200</v>
+        <v>80406400</v>
       </c>
       <c r="I54" s="3">
-        <v>76297100</v>
+        <v>78087100</v>
       </c>
       <c r="J54" s="3">
-        <v>70651800</v>
+        <v>72309400</v>
       </c>
       <c r="K54" s="3">
         <v>80571400</v>
@@ -2408,25 +2408,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7805700</v>
+        <v>7988800</v>
       </c>
       <c r="E57" s="3">
-        <v>5277200</v>
+        <v>5401100</v>
       </c>
       <c r="F57" s="3">
-        <v>5073800</v>
+        <v>5192800</v>
       </c>
       <c r="G57" s="3">
-        <v>5108700</v>
+        <v>5228500</v>
       </c>
       <c r="H57" s="3">
-        <v>4958100</v>
+        <v>5074400</v>
       </c>
       <c r="I57" s="3">
-        <v>4598000</v>
+        <v>4705900</v>
       </c>
       <c r="J57" s="3">
-        <v>4009500</v>
+        <v>4103600</v>
       </c>
       <c r="K57" s="3">
         <v>5488600</v>
@@ -2447,25 +2447,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3744200</v>
+        <v>3832100</v>
       </c>
       <c r="E58" s="3">
-        <v>3719300</v>
+        <v>3806600</v>
       </c>
       <c r="F58" s="3">
-        <v>3733300</v>
+        <v>3820900</v>
       </c>
       <c r="G58" s="3">
-        <v>5494700</v>
+        <v>5623600</v>
       </c>
       <c r="H58" s="3">
-        <v>2490500</v>
+        <v>2548900</v>
       </c>
       <c r="I58" s="3">
-        <v>3779100</v>
+        <v>3867800</v>
       </c>
       <c r="J58" s="3">
-        <v>4085400</v>
+        <v>4181200</v>
       </c>
       <c r="K58" s="3">
         <v>4024100</v>
@@ -2486,25 +2486,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8478900</v>
+        <v>8677800</v>
       </c>
       <c r="E59" s="3">
-        <v>7241100</v>
+        <v>7411000</v>
       </c>
       <c r="F59" s="3">
-        <v>7753800</v>
+        <v>7935700</v>
       </c>
       <c r="G59" s="3">
-        <v>12665000</v>
+        <v>12962100</v>
       </c>
       <c r="H59" s="3">
-        <v>7392700</v>
+        <v>7566200</v>
       </c>
       <c r="I59" s="3">
-        <v>6900000</v>
+        <v>7061900</v>
       </c>
       <c r="J59" s="3">
-        <v>6104100</v>
+        <v>6247300</v>
       </c>
       <c r="K59" s="3">
         <v>8432100</v>
@@ -2525,25 +2525,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20028800</v>
+        <v>20498700</v>
       </c>
       <c r="E60" s="3">
-        <v>16237700</v>
+        <v>16618600</v>
       </c>
       <c r="F60" s="3">
-        <v>16560800</v>
+        <v>16949400</v>
       </c>
       <c r="G60" s="3">
-        <v>23268300</v>
+        <v>23814200</v>
       </c>
       <c r="H60" s="3">
-        <v>14841300</v>
+        <v>15189500</v>
       </c>
       <c r="I60" s="3">
-        <v>15277200</v>
+        <v>15635600</v>
       </c>
       <c r="J60" s="3">
-        <v>14199000</v>
+        <v>14532100</v>
       </c>
       <c r="K60" s="3">
         <v>17944800</v>
@@ -2564,25 +2564,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14803400</v>
+        <v>15150700</v>
       </c>
       <c r="E61" s="3">
-        <v>16801200</v>
+        <v>17195400</v>
       </c>
       <c r="F61" s="3">
-        <v>16012300</v>
+        <v>16387900</v>
       </c>
       <c r="G61" s="3">
-        <v>15382900</v>
+        <v>15743800</v>
       </c>
       <c r="H61" s="3">
-        <v>15593400</v>
+        <v>15959200</v>
       </c>
       <c r="I61" s="3">
-        <v>12596200</v>
+        <v>12891700</v>
       </c>
       <c r="J61" s="3">
-        <v>11153900</v>
+        <v>11415600</v>
       </c>
       <c r="K61" s="3">
         <v>13447600</v>
@@ -2603,25 +2603,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10352000</v>
+        <v>10594900</v>
       </c>
       <c r="E62" s="3">
-        <v>12735800</v>
+        <v>13034600</v>
       </c>
       <c r="F62" s="3">
-        <v>11911000</v>
+        <v>12190400</v>
       </c>
       <c r="G62" s="3">
-        <v>11664600</v>
+        <v>11938300</v>
       </c>
       <c r="H62" s="3">
-        <v>13462900</v>
+        <v>13778800</v>
       </c>
       <c r="I62" s="3">
-        <v>15940400</v>
+        <v>16314400</v>
       </c>
       <c r="J62" s="3">
-        <v>13835900</v>
+        <v>14160500</v>
       </c>
       <c r="K62" s="3">
         <v>17344100</v>
@@ -2759,25 +2759,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46469900</v>
+        <v>47560100</v>
       </c>
       <c r="E66" s="3">
-        <v>46442900</v>
+        <v>47532500</v>
       </c>
       <c r="F66" s="3">
-        <v>45334800</v>
+        <v>46398400</v>
       </c>
       <c r="G66" s="3">
-        <v>51368100</v>
+        <v>52573200</v>
       </c>
       <c r="H66" s="3">
-        <v>44814200</v>
+        <v>45865600</v>
       </c>
       <c r="I66" s="3">
-        <v>44572800</v>
+        <v>45618500</v>
       </c>
       <c r="J66" s="3">
-        <v>39816200</v>
+        <v>40750300</v>
       </c>
       <c r="K66" s="3">
         <v>49392500</v>
@@ -2971,25 +2971,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43358000</v>
+        <v>44375200</v>
       </c>
       <c r="E72" s="3">
-        <v>40919300</v>
+        <v>41879300</v>
       </c>
       <c r="F72" s="3">
-        <v>45053600</v>
+        <v>46110600</v>
       </c>
       <c r="G72" s="3">
-        <v>39713500</v>
+        <v>40645200</v>
       </c>
       <c r="H72" s="3">
-        <v>37844300</v>
+        <v>38732200</v>
       </c>
       <c r="I72" s="3">
-        <v>34554900</v>
+        <v>35365600</v>
       </c>
       <c r="J72" s="3">
-        <v>33174500</v>
+        <v>33952800</v>
       </c>
       <c r="K72" s="3">
         <v>36040900</v>
@@ -3127,25 +3127,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40685900</v>
+        <v>41640500</v>
       </c>
       <c r="E76" s="3">
-        <v>33640300</v>
+        <v>34429500</v>
       </c>
       <c r="F76" s="3">
-        <v>41389100</v>
+        <v>42360100</v>
       </c>
       <c r="G76" s="3">
-        <v>34962900</v>
+        <v>35783100</v>
       </c>
       <c r="H76" s="3">
-        <v>33749000</v>
+        <v>34540800</v>
       </c>
       <c r="I76" s="3">
-        <v>31724300</v>
+        <v>32468600</v>
       </c>
       <c r="J76" s="3">
-        <v>30835600</v>
+        <v>31559100</v>
       </c>
       <c r="K76" s="3">
         <v>31179000</v>
@@ -3249,25 +3249,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5508600</v>
+        <v>5637900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1057200</v>
+        <v>-1082000</v>
       </c>
       <c r="F81" s="3">
-        <v>8399100</v>
+        <v>8596200</v>
       </c>
       <c r="G81" s="3">
-        <v>5119700</v>
+        <v>5239800</v>
       </c>
       <c r="H81" s="3">
-        <v>6440200</v>
+        <v>6591300</v>
       </c>
       <c r="I81" s="3">
-        <v>4045500</v>
+        <v>4140400</v>
       </c>
       <c r="J81" s="3">
-        <v>3976600</v>
+        <v>4069900</v>
       </c>
       <c r="K81" s="3">
         <v>5820500</v>
@@ -3305,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3677400</v>
+        <v>3763700</v>
       </c>
       <c r="E83" s="3">
-        <v>6733400</v>
+        <v>6891400</v>
       </c>
       <c r="F83" s="3">
-        <v>4207000</v>
+        <v>4305700</v>
       </c>
       <c r="G83" s="3">
-        <v>3740300</v>
+        <v>3828000</v>
       </c>
       <c r="H83" s="3">
-        <v>4202000</v>
+        <v>4300600</v>
       </c>
       <c r="I83" s="3">
-        <v>4279800</v>
+        <v>4380300</v>
       </c>
       <c r="J83" s="3">
-        <v>4436400</v>
+        <v>4540500</v>
       </c>
       <c r="K83" s="3">
         <v>3901000</v>
@@ -3539,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7219200</v>
+        <v>7388600</v>
       </c>
       <c r="E89" s="3">
-        <v>5406900</v>
+        <v>5533800</v>
       </c>
       <c r="F89" s="3">
-        <v>7474500</v>
+        <v>7649900</v>
       </c>
       <c r="G89" s="3">
-        <v>7918400</v>
+        <v>8104100</v>
       </c>
       <c r="H89" s="3">
-        <v>8771100</v>
+        <v>8976900</v>
       </c>
       <c r="I89" s="3">
-        <v>7697900</v>
+        <v>7878500</v>
       </c>
       <c r="J89" s="3">
-        <v>9425400</v>
+        <v>9646600</v>
       </c>
       <c r="K89" s="3">
         <v>7852900</v>
@@ -3595,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3522800</v>
+        <v>-3605500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3120900</v>
+        <v>-3194100</v>
       </c>
       <c r="F91" s="3">
-        <v>-3814100</v>
+        <v>-3903500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3883900</v>
+        <v>-3975000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3985600</v>
+        <v>-4079100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4134200</v>
+        <v>-4231200</v>
       </c>
       <c r="J91" s="3">
-        <v>-5796900</v>
+        <v>-5932900</v>
       </c>
       <c r="K91" s="3">
         <v>-5979700</v>
@@ -3712,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2615200</v>
+        <v>-2676500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1899000</v>
+        <v>-1943600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1186900</v>
+        <v>-1214800</v>
       </c>
       <c r="G94" s="3">
-        <v>-11773300</v>
+        <v>-12049500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3947700</v>
+        <v>-4040300</v>
       </c>
       <c r="I94" s="3">
-        <v>-6473100</v>
+        <v>-6625000</v>
       </c>
       <c r="J94" s="3">
-        <v>-5221400</v>
+        <v>-5343900</v>
       </c>
       <c r="K94" s="3">
         <v>-5076400</v>
@@ -3768,25 +3768,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3023100</v>
+        <v>-3094000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3023100</v>
+        <v>-3094000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2931400</v>
+        <v>-3000100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2839600</v>
+        <v>-2906200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2747800</v>
+        <v>-2812300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2657100</v>
+        <v>-2719400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2565300</v>
+        <v>-2625500</v>
       </c>
       <c r="K96" s="3">
         <v>-2800200</v>
@@ -3924,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6440200</v>
+        <v>-6591300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1552000</v>
+        <v>-1588400</v>
       </c>
       <c r="F100" s="3">
-        <v>-6388300</v>
+        <v>-6538200</v>
       </c>
       <c r="G100" s="3">
-        <v>-51900</v>
+        <v>-53100</v>
       </c>
       <c r="H100" s="3">
-        <v>393000</v>
+        <v>402200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2154400</v>
+        <v>-2204900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3663500</v>
+        <v>-3749400</v>
       </c>
       <c r="K100" s="3">
         <v>-2797900</v>
@@ -3963,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>130700</v>
+        <v>133700</v>
       </c>
       <c r="E101" s="3">
-        <v>-80800</v>
+        <v>-82700</v>
       </c>
       <c r="F101" s="3">
-        <v>36900</v>
+        <v>37800</v>
       </c>
       <c r="G101" s="3">
-        <v>-58800</v>
+        <v>-60200</v>
       </c>
       <c r="H101" s="3">
-        <v>-109700</v>
+        <v>-112300</v>
       </c>
       <c r="I101" s="3">
-        <v>65800</v>
+        <v>67400</v>
       </c>
       <c r="J101" s="3">
-        <v>-19000</v>
+        <v>-19400</v>
       </c>
       <c r="K101" s="3">
         <v>-101600</v>
@@ -4002,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1705600</v>
+        <v>-1745600</v>
       </c>
       <c r="E102" s="3">
-        <v>1875100</v>
+        <v>1919100</v>
       </c>
       <c r="F102" s="3">
-        <v>-63800</v>
+        <v>-65300</v>
       </c>
       <c r="G102" s="3">
-        <v>-3965700</v>
+        <v>-4058700</v>
       </c>
       <c r="H102" s="3">
-        <v>5106700</v>
+        <v>5226500</v>
       </c>
       <c r="I102" s="3">
-        <v>-863700</v>
+        <v>-884000</v>
       </c>
       <c r="J102" s="3">
-        <v>521600</v>
+        <v>533900</v>
       </c>
       <c r="K102" s="3">
         <v>-123100</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>80232800</v>
+        <v>92392000</v>
       </c>
       <c r="E8" s="3">
-        <v>60379300</v>
+        <v>83156700</v>
       </c>
       <c r="F8" s="3">
-        <v>60549800</v>
+        <v>62579600</v>
       </c>
       <c r="G8" s="3">
-        <v>61472600</v>
+        <v>62756300</v>
       </c>
       <c r="H8" s="3">
-        <v>62496400</v>
+        <v>63712800</v>
       </c>
       <c r="I8" s="3">
-        <v>58747000</v>
+        <v>64773900</v>
       </c>
       <c r="J8" s="3">
+        <v>60887900</v>
+      </c>
+      <c r="K8" s="3">
         <v>71914300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83921500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>88486500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79197600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>86271500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60024100</v>
+        <v>70103100</v>
       </c>
       <c r="E9" s="3">
-        <v>44956000</v>
+        <v>62211500</v>
       </c>
       <c r="F9" s="3">
-        <v>43956700</v>
+        <v>46594300</v>
       </c>
       <c r="G9" s="3">
-        <v>43806600</v>
+        <v>45558500</v>
       </c>
       <c r="H9" s="3">
-        <v>42456100</v>
+        <v>45403000</v>
       </c>
       <c r="I9" s="3">
-        <v>40081700</v>
+        <v>44003300</v>
       </c>
       <c r="J9" s="3">
+        <v>41542400</v>
+      </c>
+      <c r="K9" s="3">
         <v>52440500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63047800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>66480000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>123292200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63369300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20208800</v>
+        <v>22288900</v>
       </c>
       <c r="E10" s="3">
-        <v>15423300</v>
+        <v>20945200</v>
       </c>
       <c r="F10" s="3">
-        <v>16593100</v>
+        <v>15985300</v>
       </c>
       <c r="G10" s="3">
-        <v>17666000</v>
+        <v>17197800</v>
       </c>
       <c r="H10" s="3">
-        <v>20040300</v>
+        <v>18309700</v>
       </c>
       <c r="I10" s="3">
-        <v>18665300</v>
+        <v>20770700</v>
       </c>
       <c r="J10" s="3">
+        <v>19345500</v>
+      </c>
+      <c r="K10" s="3">
         <v>19473800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20873700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22006500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-44094600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22902200</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,47 +867,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2262100</v>
+        <v>2431300</v>
       </c>
       <c r="E12" s="3">
-        <v>2129400</v>
+        <v>2344500</v>
       </c>
       <c r="F12" s="3">
-        <v>2202900</v>
+        <v>2207000</v>
       </c>
       <c r="G12" s="3">
-        <v>2035500</v>
+        <v>2283200</v>
       </c>
       <c r="H12" s="3">
-        <v>1881300</v>
+        <v>2109700</v>
       </c>
       <c r="I12" s="3">
-        <v>1901800</v>
+        <v>1949900</v>
       </c>
       <c r="J12" s="3">
+        <v>1971100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1993600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2127200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2211800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4062600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2099900</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,87 +948,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>459400</v>
+        <v>514200</v>
       </c>
       <c r="E14" s="3">
-        <v>860500</v>
+        <v>476100</v>
       </c>
       <c r="F14" s="3">
-        <v>693100</v>
+        <v>891900</v>
       </c>
       <c r="G14" s="3">
-        <v>412400</v>
+        <v>718400</v>
       </c>
       <c r="H14" s="3">
-        <v>366500</v>
+        <v>427400</v>
       </c>
       <c r="I14" s="3">
-        <v>492000</v>
+        <v>379800</v>
       </c>
       <c r="J14" s="3">
+        <v>510000</v>
+      </c>
+      <c r="K14" s="3">
         <v>312400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>198700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>378000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>413900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>273500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>137800</v>
+        <v>432700</v>
       </c>
       <c r="E15" s="3">
-        <v>3029700</v>
+        <v>142800</v>
       </c>
       <c r="F15" s="3">
-        <v>434900</v>
+        <v>3140100</v>
       </c>
       <c r="G15" s="3">
-        <v>73500</v>
+        <v>450700</v>
       </c>
       <c r="H15" s="3">
-        <v>225600</v>
+        <v>76200</v>
       </c>
       <c r="I15" s="3">
-        <v>344000</v>
+        <v>233800</v>
       </c>
       <c r="J15" s="3">
+        <v>356500</v>
+      </c>
+      <c r="K15" s="3">
         <v>689000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>417800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>296700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>413900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>429600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>72384900</v>
+        <v>85483200</v>
       </c>
       <c r="E17" s="3">
-        <v>60609000</v>
+        <v>75022800</v>
       </c>
       <c r="F17" s="3">
-        <v>56243000</v>
+        <v>62817700</v>
       </c>
       <c r="G17" s="3">
-        <v>55374300</v>
+        <v>58292600</v>
       </c>
       <c r="H17" s="3">
-        <v>54751600</v>
+        <v>57392300</v>
       </c>
       <c r="I17" s="3">
-        <v>52341500</v>
+        <v>56746900</v>
       </c>
       <c r="J17" s="3">
+        <v>54249000</v>
+      </c>
+      <c r="K17" s="3">
         <v>65536400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75311000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79921700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71794900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76193200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7847900</v>
+        <v>6908700</v>
       </c>
       <c r="E18" s="3">
-        <v>-229700</v>
+        <v>8133900</v>
       </c>
       <c r="F18" s="3">
-        <v>4306800</v>
+        <v>-238100</v>
       </c>
       <c r="G18" s="3">
-        <v>6098300</v>
+        <v>4463700</v>
       </c>
       <c r="H18" s="3">
-        <v>7744800</v>
+        <v>6320500</v>
       </c>
       <c r="I18" s="3">
-        <v>6405500</v>
+        <v>8027000</v>
       </c>
       <c r="J18" s="3">
+        <v>6639000</v>
+      </c>
+      <c r="K18" s="3">
         <v>6378000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8610500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8564800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7402700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10078300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1120,203 +1152,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>217400</v>
+        <v>-5026600</v>
       </c>
       <c r="E20" s="3">
-        <v>-847300</v>
+        <v>225400</v>
       </c>
       <c r="F20" s="3">
-        <v>-310300</v>
+        <v>-878100</v>
       </c>
       <c r="G20" s="3">
-        <v>-239900</v>
+        <v>-321600</v>
       </c>
       <c r="H20" s="3">
-        <v>-255200</v>
+        <v>-248600</v>
       </c>
       <c r="I20" s="3">
-        <v>-317500</v>
+        <v>-264500</v>
       </c>
       <c r="J20" s="3">
+        <v>-329000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-215400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>149000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>707100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1346400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>11756400</v>
+        <v>6310700</v>
       </c>
       <c r="E21" s="3">
-        <v>5681500</v>
+        <v>12246800</v>
       </c>
       <c r="F21" s="3">
-        <v>8219100</v>
+        <v>6002100</v>
       </c>
       <c r="G21" s="3">
-        <v>9612500</v>
+        <v>8589500</v>
       </c>
       <c r="H21" s="3">
-        <v>11707200</v>
+        <v>10025900</v>
       </c>
       <c r="I21" s="3">
-        <v>10383800</v>
+        <v>12204700</v>
       </c>
       <c r="J21" s="3">
+        <v>10834300</v>
+      </c>
+      <c r="K21" s="3">
         <v>10615500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12669600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12536700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11725600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15440700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>462400</v>
+        <v>623200</v>
       </c>
       <c r="E22" s="3">
-        <v>517500</v>
+        <v>479300</v>
       </c>
       <c r="F22" s="3">
-        <v>625800</v>
+        <v>536400</v>
       </c>
       <c r="G22" s="3">
-        <v>516500</v>
+        <v>648600</v>
       </c>
       <c r="H22" s="3">
-        <v>464500</v>
+        <v>535300</v>
       </c>
       <c r="I22" s="3">
-        <v>580800</v>
+        <v>481400</v>
       </c>
       <c r="J22" s="3">
+        <v>602000</v>
+      </c>
+      <c r="K22" s="3">
         <v>499200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>626700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>693800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1547100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>895600</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>7602900</v>
+        <v>1259000</v>
       </c>
       <c r="E23" s="3">
-        <v>-1594500</v>
+        <v>7880000</v>
       </c>
       <c r="F23" s="3">
-        <v>3370700</v>
+        <v>-1652600</v>
       </c>
       <c r="G23" s="3">
-        <v>5341800</v>
+        <v>3493500</v>
       </c>
       <c r="H23" s="3">
-        <v>7025100</v>
+        <v>5536500</v>
       </c>
       <c r="I23" s="3">
-        <v>5507200</v>
+        <v>7281200</v>
       </c>
       <c r="J23" s="3">
+        <v>5707900</v>
+      </c>
+      <c r="K23" s="3">
         <v>5663400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8132900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7894900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6562700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10529100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1459700</v>
+        <v>1672700</v>
       </c>
       <c r="E24" s="3">
-        <v>-92900</v>
+        <v>1512900</v>
       </c>
       <c r="F24" s="3">
-        <v>771700</v>
+        <v>-96300</v>
       </c>
       <c r="G24" s="3">
-        <v>1140200</v>
+        <v>799800</v>
       </c>
       <c r="H24" s="3">
-        <v>1316800</v>
+        <v>1181800</v>
       </c>
       <c r="I24" s="3">
-        <v>1163700</v>
+        <v>1364800</v>
       </c>
       <c r="J24" s="3">
+        <v>1206100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1272900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1931900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1778700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>999200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2778400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1353,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>6143200</v>
+        <v>-413700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1501600</v>
+        <v>6367000</v>
       </c>
       <c r="F26" s="3">
-        <v>2599000</v>
+        <v>-1556300</v>
       </c>
       <c r="G26" s="3">
-        <v>4201600</v>
+        <v>2693700</v>
       </c>
       <c r="H26" s="3">
-        <v>5708300</v>
+        <v>4354700</v>
       </c>
       <c r="I26" s="3">
-        <v>4343500</v>
+        <v>5916300</v>
       </c>
       <c r="J26" s="3">
+        <v>4501800</v>
+      </c>
+      <c r="K26" s="3">
         <v>4390500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6201000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6116200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5563600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7750700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>5674600</v>
+        <v>-663400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1486300</v>
+        <v>5881400</v>
       </c>
       <c r="F27" s="3">
-        <v>2527500</v>
+        <v>-1540400</v>
       </c>
       <c r="G27" s="3">
-        <v>3924000</v>
+        <v>2619600</v>
       </c>
       <c r="H27" s="3">
-        <v>5428600</v>
+        <v>4067000</v>
       </c>
       <c r="I27" s="3">
-        <v>4140400</v>
+        <v>5626400</v>
       </c>
       <c r="J27" s="3">
+        <v>4291200</v>
+      </c>
+      <c r="K27" s="3">
         <v>4069900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5820500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5732200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4914600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7263500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1470,29 +1527,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-36700</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>404200</v>
+        <v>-38100</v>
       </c>
       <c r="F29" s="3">
-        <v>6068700</v>
+        <v>419000</v>
       </c>
       <c r="G29" s="3">
-        <v>1315800</v>
+        <v>6289800</v>
       </c>
       <c r="H29" s="3">
-        <v>1162700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+        <v>1363800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1205100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1509,9 +1569,12 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1653,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-217400</v>
+        <v>5026600</v>
       </c>
       <c r="E32" s="3">
-        <v>847300</v>
+        <v>-225400</v>
       </c>
       <c r="F32" s="3">
-        <v>310300</v>
+        <v>878100</v>
       </c>
       <c r="G32" s="3">
-        <v>239900</v>
+        <v>321600</v>
       </c>
       <c r="H32" s="3">
-        <v>255200</v>
+        <v>248600</v>
       </c>
       <c r="I32" s="3">
-        <v>317500</v>
+        <v>264500</v>
       </c>
       <c r="J32" s="3">
+        <v>329000</v>
+      </c>
+      <c r="K32" s="3">
         <v>215400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-149000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-707100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1346400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5637900</v>
+        <v>-663400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1082000</v>
+        <v>5843300</v>
       </c>
       <c r="F33" s="3">
-        <v>8596200</v>
+        <v>-1121500</v>
       </c>
       <c r="G33" s="3">
-        <v>5239800</v>
+        <v>8909400</v>
       </c>
       <c r="H33" s="3">
-        <v>6591300</v>
+        <v>5430700</v>
       </c>
       <c r="I33" s="3">
-        <v>4140400</v>
+        <v>6831500</v>
       </c>
       <c r="J33" s="3">
+        <v>4291200</v>
+      </c>
+      <c r="K33" s="3">
         <v>4069900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5820500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5732200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4914600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7263500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5637900</v>
+        <v>-663400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1082000</v>
+        <v>5843300</v>
       </c>
       <c r="F35" s="3">
-        <v>8596200</v>
+        <v>-1121500</v>
       </c>
       <c r="G35" s="3">
-        <v>5239800</v>
+        <v>8909400</v>
       </c>
       <c r="H35" s="3">
-        <v>6591300</v>
+        <v>5430700</v>
       </c>
       <c r="I35" s="3">
-        <v>4140400</v>
+        <v>6831500</v>
       </c>
       <c r="J35" s="3">
+        <v>4291200</v>
+      </c>
+      <c r="K35" s="3">
         <v>4069900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5820500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5732200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4914600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7263500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,359 +1907,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2678600</v>
+        <v>2661900</v>
       </c>
       <c r="E41" s="3">
-        <v>4420100</v>
+        <v>2776200</v>
       </c>
       <c r="F41" s="3">
-        <v>2477500</v>
+        <v>4581100</v>
       </c>
       <c r="G41" s="3">
-        <v>2347800</v>
+        <v>2567800</v>
       </c>
       <c r="H41" s="3">
-        <v>6630100</v>
+        <v>2433400</v>
       </c>
       <c r="I41" s="3">
-        <v>1403600</v>
+        <v>6871700</v>
       </c>
       <c r="J41" s="3">
+        <v>1454800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2287600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1939800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2185500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3759600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4637700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>212300</v>
+        <v>245500</v>
       </c>
       <c r="E42" s="3">
-        <v>211300</v>
+        <v>220100</v>
       </c>
       <c r="F42" s="3">
-        <v>453200</v>
+        <v>219000</v>
       </c>
       <c r="G42" s="3">
-        <v>351200</v>
+        <v>469800</v>
       </c>
       <c r="H42" s="3">
-        <v>53100</v>
+        <v>364000</v>
       </c>
       <c r="I42" s="3">
-        <v>547100</v>
+        <v>55000</v>
       </c>
       <c r="J42" s="3">
+        <v>567100</v>
+      </c>
+      <c r="K42" s="3">
         <v>21400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16917700</v>
+        <v>18418700</v>
       </c>
       <c r="E43" s="3">
-        <v>13748100</v>
+        <v>17534200</v>
       </c>
       <c r="F43" s="3">
-        <v>12431300</v>
+        <v>14249100</v>
       </c>
       <c r="G43" s="3">
-        <v>13606200</v>
+        <v>12884300</v>
       </c>
       <c r="H43" s="3">
-        <v>14010500</v>
+        <v>14102100</v>
       </c>
       <c r="I43" s="3">
-        <v>13803300</v>
+        <v>14521100</v>
       </c>
       <c r="J43" s="3">
+        <v>14306300</v>
+      </c>
+      <c r="K43" s="3">
         <v>12209800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13961300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15323300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27515900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32577900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14156500</v>
+        <v>16957600</v>
       </c>
       <c r="E44" s="3">
-        <v>10218200</v>
+        <v>14672300</v>
       </c>
       <c r="F44" s="3">
-        <v>11456400</v>
+        <v>10590600</v>
       </c>
       <c r="G44" s="3">
-        <v>12419100</v>
+        <v>11873900</v>
       </c>
       <c r="H44" s="3">
-        <v>10517300</v>
+        <v>12871600</v>
       </c>
       <c r="I44" s="3">
-        <v>10213100</v>
+        <v>10900600</v>
       </c>
       <c r="J44" s="3">
+        <v>10585300</v>
+      </c>
+      <c r="K44" s="3">
         <v>9894600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12720400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12153400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21423100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23165100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1815000</v>
+        <v>1308700</v>
       </c>
       <c r="E45" s="3">
-        <v>1891500</v>
+        <v>1881100</v>
       </c>
       <c r="F45" s="3">
-        <v>4816100</v>
+        <v>1960500</v>
       </c>
       <c r="G45" s="3">
-        <v>15395700</v>
+        <v>4991600</v>
       </c>
       <c r="H45" s="3">
-        <v>581900</v>
+        <v>15956800</v>
       </c>
       <c r="I45" s="3">
-        <v>518600</v>
+        <v>603100</v>
       </c>
       <c r="J45" s="3">
+        <v>537500</v>
+      </c>
+      <c r="K45" s="3">
         <v>663500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2316900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4742900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9030000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1564700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>35780100</v>
+        <v>39592500</v>
       </c>
       <c r="E46" s="3">
-        <v>30489300</v>
+        <v>37084000</v>
       </c>
       <c r="F46" s="3">
-        <v>31634600</v>
+        <v>31600300</v>
       </c>
       <c r="G46" s="3">
-        <v>44120000</v>
+        <v>32787400</v>
       </c>
       <c r="H46" s="3">
-        <v>31792800</v>
+        <v>45727800</v>
       </c>
       <c r="I46" s="3">
-        <v>26485700</v>
+        <v>32951400</v>
       </c>
       <c r="J46" s="3">
+        <v>27450900</v>
+      </c>
+      <c r="K46" s="3">
         <v>25077000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30959900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31042600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30158800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30188000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13227500</v>
+        <v>8592000</v>
       </c>
       <c r="E47" s="3">
-        <v>13611300</v>
+        <v>13709600</v>
       </c>
       <c r="F47" s="3">
-        <v>15969400</v>
+        <v>14107400</v>
       </c>
       <c r="G47" s="3">
-        <v>2830700</v>
+        <v>16551400</v>
       </c>
       <c r="H47" s="3">
-        <v>5431700</v>
+        <v>2933800</v>
       </c>
       <c r="I47" s="3">
-        <v>5361200</v>
+        <v>5629600</v>
       </c>
       <c r="J47" s="3">
+        <v>5556600</v>
+      </c>
+      <c r="K47" s="3">
         <v>5065200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4273600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6811200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8683000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7939700</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22001300</v>
+        <v>24299100</v>
       </c>
       <c r="E48" s="3">
-        <v>20055700</v>
+        <v>22803100</v>
       </c>
       <c r="F48" s="3">
-        <v>22245300</v>
+        <v>20786500</v>
       </c>
       <c r="G48" s="3">
-        <v>21212200</v>
+        <v>23055900</v>
       </c>
       <c r="H48" s="3">
-        <v>25783400</v>
+        <v>21985200</v>
       </c>
       <c r="I48" s="3">
-        <v>26962400</v>
+        <v>26723000</v>
       </c>
       <c r="J48" s="3">
+        <v>27945000</v>
+      </c>
+      <c r="K48" s="3">
         <v>25785400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26529300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23001700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38196100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40083300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13779800</v>
+        <v>14042800</v>
       </c>
       <c r="E49" s="3">
-        <v>13418400</v>
+        <v>14281900</v>
       </c>
       <c r="F49" s="3">
-        <v>14827100</v>
+        <v>13907400</v>
       </c>
       <c r="G49" s="3">
-        <v>16898300</v>
+        <v>15367500</v>
       </c>
       <c r="H49" s="3">
-        <v>13876800</v>
+        <v>17514100</v>
       </c>
       <c r="I49" s="3">
-        <v>15477400</v>
+        <v>14382500</v>
       </c>
       <c r="J49" s="3">
+        <v>16041400</v>
+      </c>
+      <c r="K49" s="3">
         <v>12797800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14641000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14742000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26828500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27900300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4411900</v>
+        <v>2845000</v>
       </c>
       <c r="E52" s="3">
-        <v>4387400</v>
+        <v>4572700</v>
       </c>
       <c r="F52" s="3">
-        <v>4082200</v>
+        <v>4547300</v>
       </c>
       <c r="G52" s="3">
-        <v>3295100</v>
+        <v>4230900</v>
       </c>
       <c r="H52" s="3">
-        <v>3521800</v>
+        <v>3415200</v>
       </c>
       <c r="I52" s="3">
-        <v>3800400</v>
+        <v>3650100</v>
       </c>
       <c r="J52" s="3">
+        <v>3938900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3584000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4167500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1203400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4027500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3732700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89200600</v>
+        <v>89371400</v>
       </c>
       <c r="E54" s="3">
-        <v>81962100</v>
+        <v>92451200</v>
       </c>
       <c r="F54" s="3">
-        <v>88758600</v>
+        <v>84948900</v>
       </c>
       <c r="G54" s="3">
-        <v>88356400</v>
+        <v>91993100</v>
       </c>
       <c r="H54" s="3">
-        <v>80406400</v>
+        <v>91576200</v>
       </c>
       <c r="I54" s="3">
-        <v>78087100</v>
+        <v>83336500</v>
       </c>
       <c r="J54" s="3">
+        <v>80932800</v>
+      </c>
+      <c r="K54" s="3">
         <v>72309400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>80571400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76800800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68873100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69832300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,242 +2531,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7988800</v>
+        <v>8923200</v>
       </c>
       <c r="E57" s="3">
-        <v>5401100</v>
+        <v>8279900</v>
       </c>
       <c r="F57" s="3">
-        <v>5192800</v>
+        <v>5597900</v>
       </c>
       <c r="G57" s="3">
-        <v>5228500</v>
+        <v>5382000</v>
       </c>
       <c r="H57" s="3">
-        <v>5074400</v>
+        <v>5419100</v>
       </c>
       <c r="I57" s="3">
-        <v>4705900</v>
+        <v>5259300</v>
       </c>
       <c r="J57" s="3">
+        <v>4877400</v>
+      </c>
+      <c r="K57" s="3">
         <v>4103600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5488600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6164000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10099400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11677100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3832100</v>
+        <v>4415000</v>
       </c>
       <c r="E58" s="3">
-        <v>3806600</v>
+        <v>3971700</v>
       </c>
       <c r="F58" s="3">
-        <v>3820900</v>
+        <v>3945300</v>
       </c>
       <c r="G58" s="3">
-        <v>5623600</v>
+        <v>3960100</v>
       </c>
       <c r="H58" s="3">
-        <v>2548900</v>
+        <v>5828500</v>
       </c>
       <c r="I58" s="3">
-        <v>3867800</v>
+        <v>2641800</v>
       </c>
       <c r="J58" s="3">
+        <v>4008800</v>
+      </c>
+      <c r="K58" s="3">
         <v>4181200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4024100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3910400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9177100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9188600</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8677800</v>
+        <v>8287300</v>
       </c>
       <c r="E59" s="3">
-        <v>7411000</v>
+        <v>8994100</v>
       </c>
       <c r="F59" s="3">
-        <v>7935700</v>
+        <v>7681100</v>
       </c>
       <c r="G59" s="3">
-        <v>12962100</v>
+        <v>8224900</v>
       </c>
       <c r="H59" s="3">
-        <v>7566200</v>
+        <v>13434500</v>
       </c>
       <c r="I59" s="3">
-        <v>7061900</v>
+        <v>7841900</v>
       </c>
       <c r="J59" s="3">
+        <v>7319200</v>
+      </c>
+      <c r="K59" s="3">
         <v>6247300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8432100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10182100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18101600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16962700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20498700</v>
+        <v>21625500</v>
       </c>
       <c r="E60" s="3">
-        <v>16618600</v>
+        <v>21245700</v>
       </c>
       <c r="F60" s="3">
-        <v>16949400</v>
+        <v>17224200</v>
       </c>
       <c r="G60" s="3">
-        <v>23814200</v>
+        <v>17567000</v>
       </c>
       <c r="H60" s="3">
-        <v>15189500</v>
+        <v>24682100</v>
       </c>
       <c r="I60" s="3">
-        <v>15635600</v>
+        <v>15743000</v>
       </c>
       <c r="J60" s="3">
+        <v>16205400</v>
+      </c>
+      <c r="K60" s="3">
         <v>14532100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17944800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17152300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18347600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18487500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15150700</v>
+        <v>17277100</v>
       </c>
       <c r="E61" s="3">
-        <v>17195400</v>
+        <v>15702800</v>
       </c>
       <c r="F61" s="3">
-        <v>16387900</v>
+        <v>17822000</v>
       </c>
       <c r="G61" s="3">
-        <v>15743800</v>
+        <v>16985100</v>
       </c>
       <c r="H61" s="3">
-        <v>15959200</v>
+        <v>16317500</v>
       </c>
       <c r="I61" s="3">
-        <v>12891700</v>
+        <v>16540800</v>
       </c>
       <c r="J61" s="3">
+        <v>13361500</v>
+      </c>
+      <c r="K61" s="3">
         <v>11415600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13447600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13425000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9624000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10176900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10594900</v>
+        <v>7172200</v>
       </c>
       <c r="E62" s="3">
-        <v>13034600</v>
+        <v>10981000</v>
       </c>
       <c r="F62" s="3">
-        <v>12190400</v>
+        <v>13509600</v>
       </c>
       <c r="G62" s="3">
-        <v>11938300</v>
+        <v>12634600</v>
       </c>
       <c r="H62" s="3">
-        <v>13778800</v>
+        <v>12373300</v>
       </c>
       <c r="I62" s="3">
-        <v>16314400</v>
+        <v>14280900</v>
       </c>
       <c r="J62" s="3">
+        <v>16909000</v>
+      </c>
+      <c r="K62" s="3">
         <v>14160500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17344100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13121100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25963300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23594800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2713,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47560100</v>
+        <v>47503100</v>
       </c>
       <c r="E66" s="3">
-        <v>47532500</v>
+        <v>49293300</v>
       </c>
       <c r="F66" s="3">
-        <v>46398400</v>
+        <v>49264700</v>
       </c>
       <c r="G66" s="3">
-        <v>52573200</v>
+        <v>48089300</v>
       </c>
       <c r="H66" s="3">
-        <v>45865600</v>
+        <v>54489100</v>
       </c>
       <c r="I66" s="3">
-        <v>45618500</v>
+        <v>47537000</v>
       </c>
       <c r="J66" s="3">
+        <v>47281000</v>
+      </c>
+      <c r="K66" s="3">
         <v>40750300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49392500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44452000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41850300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41455400</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2925,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44375200</v>
+        <v>40838800</v>
       </c>
       <c r="E72" s="3">
-        <v>41879300</v>
+        <v>45992300</v>
       </c>
       <c r="F72" s="3">
-        <v>46110600</v>
+        <v>43405500</v>
       </c>
       <c r="G72" s="3">
-        <v>40645200</v>
+        <v>47790900</v>
       </c>
       <c r="H72" s="3">
-        <v>38732200</v>
+        <v>42126400</v>
       </c>
       <c r="I72" s="3">
-        <v>35365600</v>
+        <v>40143700</v>
       </c>
       <c r="J72" s="3">
+        <v>36654400</v>
+      </c>
+      <c r="K72" s="3">
         <v>33952800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36040900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35009200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51608200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51432800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41640500</v>
+        <v>41868200</v>
       </c>
       <c r="E76" s="3">
-        <v>34429500</v>
+        <v>43157900</v>
       </c>
       <c r="F76" s="3">
-        <v>42360100</v>
+        <v>35684200</v>
       </c>
       <c r="G76" s="3">
-        <v>35783100</v>
+        <v>43903800</v>
       </c>
       <c r="H76" s="3">
-        <v>34540800</v>
+        <v>37087100</v>
       </c>
       <c r="I76" s="3">
-        <v>32468600</v>
+        <v>35799500</v>
       </c>
       <c r="J76" s="3">
+        <v>33651800</v>
+      </c>
+      <c r="K76" s="3">
         <v>31559100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31179000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32348800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27022900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28376900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5637900</v>
+        <v>-663400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1082000</v>
+        <v>5843300</v>
       </c>
       <c r="F81" s="3">
-        <v>8596200</v>
+        <v>-1121500</v>
       </c>
       <c r="G81" s="3">
-        <v>5239800</v>
+        <v>8909400</v>
       </c>
       <c r="H81" s="3">
-        <v>6591300</v>
+        <v>5430700</v>
       </c>
       <c r="I81" s="3">
-        <v>4140400</v>
+        <v>6831500</v>
       </c>
       <c r="J81" s="3">
+        <v>4291200</v>
+      </c>
+      <c r="K81" s="3">
         <v>4069900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5820500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5732200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4914600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7263500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3763700</v>
+        <v>4443600</v>
       </c>
       <c r="E83" s="3">
-        <v>6891400</v>
+        <v>3900800</v>
       </c>
       <c r="F83" s="3">
-        <v>4305700</v>
+        <v>7142600</v>
       </c>
       <c r="G83" s="3">
-        <v>3828000</v>
+        <v>4462600</v>
       </c>
       <c r="H83" s="3">
-        <v>4300600</v>
+        <v>3967500</v>
       </c>
       <c r="I83" s="3">
-        <v>4380300</v>
+        <v>4457400</v>
       </c>
       <c r="J83" s="3">
+        <v>4539900</v>
+      </c>
+      <c r="K83" s="3">
         <v>4540500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3901000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3964200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3610200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4013300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7388600</v>
+        <v>8149800</v>
       </c>
       <c r="E89" s="3">
-        <v>5533800</v>
+        <v>7657800</v>
       </c>
       <c r="F89" s="3">
-        <v>7649900</v>
+        <v>5735400</v>
       </c>
       <c r="G89" s="3">
-        <v>8104100</v>
+        <v>7928700</v>
       </c>
       <c r="H89" s="3">
-        <v>8976900</v>
+        <v>8399500</v>
       </c>
       <c r="I89" s="3">
-        <v>7878500</v>
+        <v>9304100</v>
       </c>
       <c r="J89" s="3">
+        <v>8165600</v>
+      </c>
+      <c r="K89" s="3">
         <v>9646600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7852900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9690400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7251200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8336400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3605500</v>
+        <v>-4628800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3194100</v>
+        <v>-3736900</v>
       </c>
       <c r="F91" s="3">
-        <v>-3903500</v>
+        <v>-3310500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3975000</v>
+        <v>-4045800</v>
       </c>
       <c r="H91" s="3">
-        <v>-4079100</v>
+        <v>-4119900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4231200</v>
+        <v>-4227800</v>
       </c>
       <c r="J91" s="3">
+        <v>-4385400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5932900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5979700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5829100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4408500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4002700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2676500</v>
+        <v>-3997100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1943600</v>
+        <v>-2774100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1214800</v>
+        <v>-2014400</v>
       </c>
       <c r="G94" s="3">
-        <v>-12049500</v>
+        <v>-1259000</v>
       </c>
       <c r="H94" s="3">
-        <v>-4040300</v>
+        <v>-12488600</v>
       </c>
       <c r="I94" s="3">
-        <v>-6625000</v>
+        <v>-4187600</v>
       </c>
       <c r="J94" s="3">
+        <v>-6866400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5343900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5076400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7170000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4366700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2040100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,47 +3994,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3094000</v>
+        <v>-3250200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3094000</v>
+        <v>-3206800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3000100</v>
+        <v>-3206800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2906200</v>
+        <v>-3109500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2812300</v>
+        <v>-3012100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2719400</v>
+        <v>-2914800</v>
       </c>
       <c r="J96" s="3">
+        <v>-2818500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2625500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2800200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2856500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2521000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2372300</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4159,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6591300</v>
+        <v>-4245800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1588400</v>
+        <v>-6831500</v>
       </c>
       <c r="F100" s="3">
-        <v>-6538200</v>
+        <v>-1646200</v>
       </c>
       <c r="G100" s="3">
-        <v>-53100</v>
+        <v>-6776500</v>
       </c>
       <c r="H100" s="3">
-        <v>402200</v>
+        <v>-55000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2204900</v>
+        <v>416900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2285300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3749400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2797900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2241700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3188600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5655400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>133700</v>
+        <v>-20100</v>
       </c>
       <c r="E101" s="3">
-        <v>-82700</v>
+        <v>138600</v>
       </c>
       <c r="F101" s="3">
-        <v>37800</v>
+        <v>-85700</v>
       </c>
       <c r="G101" s="3">
-        <v>-60200</v>
+        <v>39100</v>
       </c>
       <c r="H101" s="3">
-        <v>-112300</v>
+        <v>-62400</v>
       </c>
       <c r="I101" s="3">
-        <v>67400</v>
+        <v>-116400</v>
       </c>
       <c r="J101" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-19400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-101600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-71800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1745600</v>
+        <v>-113200</v>
       </c>
       <c r="E102" s="3">
-        <v>1919100</v>
+        <v>-1809200</v>
       </c>
       <c r="F102" s="3">
-        <v>-65300</v>
+        <v>1989000</v>
       </c>
       <c r="G102" s="3">
-        <v>-4058700</v>
+        <v>-67700</v>
       </c>
       <c r="H102" s="3">
-        <v>5226500</v>
+        <v>-4206600</v>
       </c>
       <c r="I102" s="3">
-        <v>-884000</v>
+        <v>5417000</v>
       </c>
       <c r="J102" s="3">
+        <v>-916200</v>
+      </c>
+      <c r="K102" s="3">
         <v>533900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-123100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>206900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-281100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>651500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>92392000</v>
+        <v>94042400</v>
       </c>
       <c r="E8" s="3">
-        <v>83156700</v>
+        <v>84642200</v>
       </c>
       <c r="F8" s="3">
-        <v>62579600</v>
+        <v>63697600</v>
       </c>
       <c r="G8" s="3">
-        <v>62756300</v>
+        <v>63877400</v>
       </c>
       <c r="H8" s="3">
-        <v>63712800</v>
+        <v>64850900</v>
       </c>
       <c r="I8" s="3">
-        <v>64773900</v>
+        <v>65931000</v>
       </c>
       <c r="J8" s="3">
-        <v>60887900</v>
+        <v>61975600</v>
       </c>
       <c r="K8" s="3">
         <v>71914300</v>
@@ -772,25 +772,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>70103100</v>
+        <v>71355400</v>
       </c>
       <c r="E9" s="3">
-        <v>62211500</v>
+        <v>63322800</v>
       </c>
       <c r="F9" s="3">
-        <v>46594300</v>
+        <v>47426700</v>
       </c>
       <c r="G9" s="3">
-        <v>45558500</v>
+        <v>46372400</v>
       </c>
       <c r="H9" s="3">
-        <v>45403000</v>
+        <v>46214100</v>
       </c>
       <c r="I9" s="3">
-        <v>44003300</v>
+        <v>44789300</v>
       </c>
       <c r="J9" s="3">
-        <v>41542400</v>
+        <v>42284500</v>
       </c>
       <c r="K9" s="3">
         <v>52440500</v>
@@ -814,25 +814,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22288900</v>
+        <v>22687100</v>
       </c>
       <c r="E10" s="3">
-        <v>20945200</v>
+        <v>21319400</v>
       </c>
       <c r="F10" s="3">
-        <v>15985300</v>
+        <v>16270900</v>
       </c>
       <c r="G10" s="3">
-        <v>17197800</v>
+        <v>17505000</v>
       </c>
       <c r="H10" s="3">
-        <v>18309700</v>
+        <v>18636800</v>
       </c>
       <c r="I10" s="3">
-        <v>20770700</v>
+        <v>21141700</v>
       </c>
       <c r="J10" s="3">
-        <v>19345500</v>
+        <v>19691100</v>
       </c>
       <c r="K10" s="3">
         <v>19473800</v>
@@ -874,25 +874,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2431300</v>
+        <v>2474700</v>
       </c>
       <c r="E12" s="3">
-        <v>2344500</v>
+        <v>2386400</v>
       </c>
       <c r="F12" s="3">
-        <v>2207000</v>
+        <v>2246400</v>
       </c>
       <c r="G12" s="3">
-        <v>2283200</v>
+        <v>2324000</v>
       </c>
       <c r="H12" s="3">
-        <v>2109700</v>
+        <v>2147300</v>
       </c>
       <c r="I12" s="3">
-        <v>1949900</v>
+        <v>1984700</v>
       </c>
       <c r="J12" s="3">
-        <v>1971100</v>
+        <v>2006300</v>
       </c>
       <c r="K12" s="3">
         <v>1993600</v>
@@ -958,25 +958,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>514200</v>
+        <v>523400</v>
       </c>
       <c r="E14" s="3">
-        <v>476100</v>
+        <v>484600</v>
       </c>
       <c r="F14" s="3">
-        <v>891900</v>
+        <v>907800</v>
       </c>
       <c r="G14" s="3">
-        <v>718400</v>
+        <v>731200</v>
       </c>
       <c r="H14" s="3">
-        <v>427400</v>
+        <v>435100</v>
       </c>
       <c r="I14" s="3">
-        <v>379800</v>
+        <v>386600</v>
       </c>
       <c r="J14" s="3">
-        <v>510000</v>
+        <v>519100</v>
       </c>
       <c r="K14" s="3">
         <v>312400</v>
@@ -1000,25 +1000,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>432700</v>
+        <v>440500</v>
       </c>
       <c r="E15" s="3">
-        <v>142800</v>
+        <v>145400</v>
       </c>
       <c r="F15" s="3">
-        <v>3140100</v>
+        <v>3196200</v>
       </c>
       <c r="G15" s="3">
-        <v>450700</v>
+        <v>458800</v>
       </c>
       <c r="H15" s="3">
-        <v>76200</v>
+        <v>77500</v>
       </c>
       <c r="I15" s="3">
-        <v>233800</v>
+        <v>238000</v>
       </c>
       <c r="J15" s="3">
-        <v>356500</v>
+        <v>362900</v>
       </c>
       <c r="K15" s="3">
         <v>689000</v>
@@ -1057,25 +1057,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>85483200</v>
+        <v>87010300</v>
       </c>
       <c r="E17" s="3">
-        <v>75022800</v>
+        <v>76363000</v>
       </c>
       <c r="F17" s="3">
-        <v>62817700</v>
+        <v>63939900</v>
       </c>
       <c r="G17" s="3">
-        <v>58292600</v>
+        <v>59334000</v>
       </c>
       <c r="H17" s="3">
-        <v>57392300</v>
+        <v>58417500</v>
       </c>
       <c r="I17" s="3">
-        <v>56746900</v>
+        <v>57760600</v>
       </c>
       <c r="J17" s="3">
-        <v>54249000</v>
+        <v>55218000</v>
       </c>
       <c r="K17" s="3">
         <v>65536400</v>
@@ -1099,25 +1099,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6908700</v>
+        <v>7032200</v>
       </c>
       <c r="E18" s="3">
-        <v>8133900</v>
+        <v>8279200</v>
       </c>
       <c r="F18" s="3">
-        <v>-238100</v>
+        <v>-242300</v>
       </c>
       <c r="G18" s="3">
-        <v>4463700</v>
+        <v>4543400</v>
       </c>
       <c r="H18" s="3">
-        <v>6320500</v>
+        <v>6433400</v>
       </c>
       <c r="I18" s="3">
-        <v>8027000</v>
+        <v>8170400</v>
       </c>
       <c r="J18" s="3">
-        <v>6639000</v>
+        <v>6757500</v>
       </c>
       <c r="K18" s="3">
         <v>6378000</v>
@@ -1159,25 +1159,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5026600</v>
+        <v>-5116400</v>
       </c>
       <c r="E20" s="3">
-        <v>225400</v>
+        <v>229400</v>
       </c>
       <c r="F20" s="3">
-        <v>-878100</v>
+        <v>-893800</v>
       </c>
       <c r="G20" s="3">
-        <v>-321600</v>
+        <v>-327400</v>
       </c>
       <c r="H20" s="3">
-        <v>-248600</v>
+        <v>-253100</v>
       </c>
       <c r="I20" s="3">
-        <v>-264500</v>
+        <v>-269200</v>
       </c>
       <c r="J20" s="3">
-        <v>-329000</v>
+        <v>-334900</v>
       </c>
       <c r="K20" s="3">
         <v>-215400</v>
@@ -1201,25 +1201,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6310700</v>
+        <v>6468200</v>
       </c>
       <c r="E21" s="3">
-        <v>12246800</v>
+        <v>12505000</v>
       </c>
       <c r="F21" s="3">
-        <v>6002100</v>
+        <v>6181300</v>
       </c>
       <c r="G21" s="3">
-        <v>8589500</v>
+        <v>8788000</v>
       </c>
       <c r="H21" s="3">
-        <v>10025900</v>
+        <v>10245000</v>
       </c>
       <c r="I21" s="3">
-        <v>12204700</v>
+        <v>12467700</v>
       </c>
       <c r="J21" s="3">
-        <v>10834300</v>
+        <v>11073700</v>
       </c>
       <c r="K21" s="3">
         <v>10615500</v>
@@ -1243,25 +1243,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>623200</v>
+        <v>634300</v>
       </c>
       <c r="E22" s="3">
-        <v>479300</v>
+        <v>487800</v>
       </c>
       <c r="F22" s="3">
-        <v>536400</v>
+        <v>546000</v>
       </c>
       <c r="G22" s="3">
-        <v>648600</v>
+        <v>660100</v>
       </c>
       <c r="H22" s="3">
-        <v>535300</v>
+        <v>544900</v>
       </c>
       <c r="I22" s="3">
-        <v>481400</v>
+        <v>490000</v>
       </c>
       <c r="J22" s="3">
-        <v>602000</v>
+        <v>612800</v>
       </c>
       <c r="K22" s="3">
         <v>499200</v>
@@ -1285,25 +1285,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1259000</v>
+        <v>1281500</v>
       </c>
       <c r="E23" s="3">
-        <v>7880000</v>
+        <v>8020800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1652600</v>
+        <v>-1682100</v>
       </c>
       <c r="G23" s="3">
-        <v>3493500</v>
+        <v>3555900</v>
       </c>
       <c r="H23" s="3">
-        <v>5536500</v>
+        <v>5635400</v>
       </c>
       <c r="I23" s="3">
-        <v>7281200</v>
+        <v>7411200</v>
       </c>
       <c r="J23" s="3">
-        <v>5707900</v>
+        <v>5809900</v>
       </c>
       <c r="K23" s="3">
         <v>5663400</v>
@@ -1327,25 +1327,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1672700</v>
+        <v>1702600</v>
       </c>
       <c r="E24" s="3">
-        <v>1512900</v>
+        <v>1540000</v>
       </c>
       <c r="F24" s="3">
-        <v>-96300</v>
+        <v>-98000</v>
       </c>
       <c r="G24" s="3">
-        <v>799800</v>
+        <v>814100</v>
       </c>
       <c r="H24" s="3">
-        <v>1181800</v>
+        <v>1202900</v>
       </c>
       <c r="I24" s="3">
-        <v>1364800</v>
+        <v>1389200</v>
       </c>
       <c r="J24" s="3">
-        <v>1206100</v>
+        <v>1227700</v>
       </c>
       <c r="K24" s="3">
         <v>1272900</v>
@@ -1411,25 +1411,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-413700</v>
+        <v>-421100</v>
       </c>
       <c r="E26" s="3">
-        <v>6367000</v>
+        <v>6480800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1556300</v>
+        <v>-1584100</v>
       </c>
       <c r="G26" s="3">
-        <v>2693700</v>
+        <v>2741800</v>
       </c>
       <c r="H26" s="3">
-        <v>4354700</v>
+        <v>4432500</v>
       </c>
       <c r="I26" s="3">
-        <v>5916300</v>
+        <v>6022000</v>
       </c>
       <c r="J26" s="3">
-        <v>4501800</v>
+        <v>4582200</v>
       </c>
       <c r="K26" s="3">
         <v>4390500</v>
@@ -1453,25 +1453,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-663400</v>
+        <v>-675200</v>
       </c>
       <c r="E27" s="3">
-        <v>5881400</v>
+        <v>5986500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1540400</v>
+        <v>-1568000</v>
       </c>
       <c r="G27" s="3">
-        <v>2619600</v>
+        <v>2666400</v>
       </c>
       <c r="H27" s="3">
-        <v>4067000</v>
+        <v>4139600</v>
       </c>
       <c r="I27" s="3">
-        <v>5626400</v>
+        <v>5727000</v>
       </c>
       <c r="J27" s="3">
-        <v>4291200</v>
+        <v>4367900</v>
       </c>
       <c r="K27" s="3">
         <v>4069900</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-38100</v>
+        <v>-38800</v>
       </c>
       <c r="F29" s="3">
-        <v>419000</v>
+        <v>426500</v>
       </c>
       <c r="G29" s="3">
-        <v>6289800</v>
+        <v>6402200</v>
       </c>
       <c r="H29" s="3">
-        <v>1363800</v>
+        <v>1388100</v>
       </c>
       <c r="I29" s="3">
-        <v>1205100</v>
+        <v>1226600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1663,25 +1663,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5026600</v>
+        <v>5116400</v>
       </c>
       <c r="E32" s="3">
-        <v>-225400</v>
+        <v>-229400</v>
       </c>
       <c r="F32" s="3">
-        <v>878100</v>
+        <v>893800</v>
       </c>
       <c r="G32" s="3">
-        <v>321600</v>
+        <v>327400</v>
       </c>
       <c r="H32" s="3">
-        <v>248600</v>
+        <v>253100</v>
       </c>
       <c r="I32" s="3">
-        <v>264500</v>
+        <v>269200</v>
       </c>
       <c r="J32" s="3">
-        <v>329000</v>
+        <v>334900</v>
       </c>
       <c r="K32" s="3">
         <v>215400</v>
@@ -1705,25 +1705,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-663400</v>
+        <v>-675200</v>
       </c>
       <c r="E33" s="3">
-        <v>5843300</v>
+        <v>5947700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1121500</v>
+        <v>-1141500</v>
       </c>
       <c r="G33" s="3">
-        <v>8909400</v>
+        <v>9068600</v>
       </c>
       <c r="H33" s="3">
-        <v>5430700</v>
+        <v>5527700</v>
       </c>
       <c r="I33" s="3">
-        <v>6831500</v>
+        <v>6953500</v>
       </c>
       <c r="J33" s="3">
-        <v>4291200</v>
+        <v>4367900</v>
       </c>
       <c r="K33" s="3">
         <v>4069900</v>
@@ -1789,25 +1789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-663400</v>
+        <v>-675200</v>
       </c>
       <c r="E35" s="3">
-        <v>5843300</v>
+        <v>5947700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1121500</v>
+        <v>-1141500</v>
       </c>
       <c r="G35" s="3">
-        <v>8909400</v>
+        <v>9068600</v>
       </c>
       <c r="H35" s="3">
-        <v>5430700</v>
+        <v>5527700</v>
       </c>
       <c r="I35" s="3">
-        <v>6831500</v>
+        <v>6953500</v>
       </c>
       <c r="J35" s="3">
-        <v>4291200</v>
+        <v>4367900</v>
       </c>
       <c r="K35" s="3">
         <v>4069900</v>
@@ -1914,25 +1914,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2661900</v>
+        <v>2709500</v>
       </c>
       <c r="E41" s="3">
-        <v>2776200</v>
+        <v>2825800</v>
       </c>
       <c r="F41" s="3">
-        <v>4581100</v>
+        <v>4663000</v>
       </c>
       <c r="G41" s="3">
-        <v>2567800</v>
+        <v>2613600</v>
       </c>
       <c r="H41" s="3">
-        <v>2433400</v>
+        <v>2476900</v>
       </c>
       <c r="I41" s="3">
-        <v>6871700</v>
+        <v>6994500</v>
       </c>
       <c r="J41" s="3">
-        <v>1454800</v>
+        <v>1480700</v>
       </c>
       <c r="K41" s="3">
         <v>2287600</v>
@@ -1956,25 +1956,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>245500</v>
+        <v>249800</v>
       </c>
       <c r="E42" s="3">
-        <v>220100</v>
+        <v>224000</v>
       </c>
       <c r="F42" s="3">
-        <v>219000</v>
+        <v>222900</v>
       </c>
       <c r="G42" s="3">
-        <v>469800</v>
+        <v>478100</v>
       </c>
       <c r="H42" s="3">
-        <v>364000</v>
+        <v>370500</v>
       </c>
       <c r="I42" s="3">
-        <v>55000</v>
+        <v>56000</v>
       </c>
       <c r="J42" s="3">
-        <v>567100</v>
+        <v>577200</v>
       </c>
       <c r="K42" s="3">
         <v>21400</v>
@@ -1998,25 +1998,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18418700</v>
+        <v>18747800</v>
       </c>
       <c r="E43" s="3">
-        <v>17534200</v>
+        <v>17847500</v>
       </c>
       <c r="F43" s="3">
-        <v>14249100</v>
+        <v>14503700</v>
       </c>
       <c r="G43" s="3">
-        <v>12884300</v>
+        <v>13114500</v>
       </c>
       <c r="H43" s="3">
-        <v>14102100</v>
+        <v>14354000</v>
       </c>
       <c r="I43" s="3">
-        <v>14521100</v>
+        <v>14780500</v>
       </c>
       <c r="J43" s="3">
-        <v>14306300</v>
+        <v>14561800</v>
       </c>
       <c r="K43" s="3">
         <v>12209800</v>
@@ -2040,25 +2040,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16957600</v>
+        <v>17260600</v>
       </c>
       <c r="E44" s="3">
-        <v>14672300</v>
+        <v>14934400</v>
       </c>
       <c r="F44" s="3">
-        <v>10590600</v>
+        <v>10779800</v>
       </c>
       <c r="G44" s="3">
-        <v>11873900</v>
+        <v>12086000</v>
       </c>
       <c r="H44" s="3">
-        <v>12871600</v>
+        <v>13101600</v>
       </c>
       <c r="I44" s="3">
-        <v>10900600</v>
+        <v>11095300</v>
       </c>
       <c r="J44" s="3">
-        <v>10585300</v>
+        <v>10774400</v>
       </c>
       <c r="K44" s="3">
         <v>9894600</v>
@@ -2082,25 +2082,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1308700</v>
+        <v>1332100</v>
       </c>
       <c r="E45" s="3">
-        <v>1881100</v>
+        <v>1914700</v>
       </c>
       <c r="F45" s="3">
-        <v>1960500</v>
+        <v>1995500</v>
       </c>
       <c r="G45" s="3">
-        <v>4991600</v>
+        <v>5080800</v>
       </c>
       <c r="H45" s="3">
-        <v>15956800</v>
+        <v>16241800</v>
       </c>
       <c r="I45" s="3">
-        <v>603100</v>
+        <v>613800</v>
       </c>
       <c r="J45" s="3">
-        <v>537500</v>
+        <v>547100</v>
       </c>
       <c r="K45" s="3">
         <v>663500</v>
@@ -2124,25 +2124,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39592500</v>
+        <v>40299800</v>
       </c>
       <c r="E46" s="3">
-        <v>37084000</v>
+        <v>37746400</v>
       </c>
       <c r="F46" s="3">
-        <v>31600300</v>
+        <v>32164800</v>
       </c>
       <c r="G46" s="3">
-        <v>32787400</v>
+        <v>33373100</v>
       </c>
       <c r="H46" s="3">
-        <v>45727800</v>
+        <v>46544700</v>
       </c>
       <c r="I46" s="3">
-        <v>32951400</v>
+        <v>33540100</v>
       </c>
       <c r="J46" s="3">
-        <v>27450900</v>
+        <v>27941200</v>
       </c>
       <c r="K46" s="3">
         <v>25077000</v>
@@ -2166,25 +2166,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8592000</v>
+        <v>8745500</v>
       </c>
       <c r="E47" s="3">
-        <v>13709600</v>
+        <v>13954500</v>
       </c>
       <c r="F47" s="3">
-        <v>14107400</v>
+        <v>14359400</v>
       </c>
       <c r="G47" s="3">
-        <v>16551400</v>
+        <v>16847000</v>
       </c>
       <c r="H47" s="3">
-        <v>2933800</v>
+        <v>2986200</v>
       </c>
       <c r="I47" s="3">
-        <v>5629600</v>
+        <v>5730200</v>
       </c>
       <c r="J47" s="3">
-        <v>5556600</v>
+        <v>5655900</v>
       </c>
       <c r="K47" s="3">
         <v>5065200</v>
@@ -2208,25 +2208,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24299100</v>
+        <v>24733200</v>
       </c>
       <c r="E48" s="3">
-        <v>22803100</v>
+        <v>23210400</v>
       </c>
       <c r="F48" s="3">
-        <v>20786500</v>
+        <v>21157900</v>
       </c>
       <c r="G48" s="3">
-        <v>23055900</v>
+        <v>23467800</v>
       </c>
       <c r="H48" s="3">
-        <v>21985200</v>
+        <v>22378000</v>
       </c>
       <c r="I48" s="3">
-        <v>26723000</v>
+        <v>27200300</v>
       </c>
       <c r="J48" s="3">
-        <v>27945000</v>
+        <v>28444200</v>
       </c>
       <c r="K48" s="3">
         <v>25785400</v>
@@ -2250,25 +2250,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14042800</v>
+        <v>14293700</v>
       </c>
       <c r="E49" s="3">
-        <v>14281900</v>
+        <v>14537100</v>
       </c>
       <c r="F49" s="3">
-        <v>13907400</v>
+        <v>14155900</v>
       </c>
       <c r="G49" s="3">
-        <v>15367500</v>
+        <v>15642000</v>
       </c>
       <c r="H49" s="3">
-        <v>17514100</v>
+        <v>17827000</v>
       </c>
       <c r="I49" s="3">
-        <v>14382500</v>
+        <v>14639400</v>
       </c>
       <c r="J49" s="3">
-        <v>16041400</v>
+        <v>16328000</v>
       </c>
       <c r="K49" s="3">
         <v>12797800</v>
@@ -2376,25 +2376,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2845000</v>
+        <v>2895800</v>
       </c>
       <c r="E52" s="3">
-        <v>4572700</v>
+        <v>4654400</v>
       </c>
       <c r="F52" s="3">
-        <v>4547300</v>
+        <v>4628500</v>
       </c>
       <c r="G52" s="3">
-        <v>4230900</v>
+        <v>4306500</v>
       </c>
       <c r="H52" s="3">
-        <v>3415200</v>
+        <v>3476200</v>
       </c>
       <c r="I52" s="3">
-        <v>3650100</v>
+        <v>3715300</v>
       </c>
       <c r="J52" s="3">
-        <v>3938900</v>
+        <v>4009300</v>
       </c>
       <c r="K52" s="3">
         <v>3584000</v>
@@ -2460,25 +2460,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89371400</v>
+        <v>90967900</v>
       </c>
       <c r="E54" s="3">
-        <v>92451200</v>
+        <v>94102800</v>
       </c>
       <c r="F54" s="3">
-        <v>84948900</v>
+        <v>86466500</v>
       </c>
       <c r="G54" s="3">
-        <v>91993100</v>
+        <v>93636500</v>
       </c>
       <c r="H54" s="3">
-        <v>91576200</v>
+        <v>93212200</v>
       </c>
       <c r="I54" s="3">
-        <v>83336500</v>
+        <v>84825300</v>
       </c>
       <c r="J54" s="3">
-        <v>80932800</v>
+        <v>82378500</v>
       </c>
       <c r="K54" s="3">
         <v>72309400</v>
@@ -2538,25 +2538,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8923200</v>
+        <v>9082600</v>
       </c>
       <c r="E57" s="3">
-        <v>8279900</v>
+        <v>8427800</v>
       </c>
       <c r="F57" s="3">
-        <v>5597900</v>
+        <v>5697900</v>
       </c>
       <c r="G57" s="3">
-        <v>5382000</v>
+        <v>5478200</v>
       </c>
       <c r="H57" s="3">
-        <v>5419100</v>
+        <v>5515900</v>
       </c>
       <c r="I57" s="3">
-        <v>5259300</v>
+        <v>5353300</v>
       </c>
       <c r="J57" s="3">
-        <v>4877400</v>
+        <v>4964500</v>
       </c>
       <c r="K57" s="3">
         <v>4103600</v>
@@ -2580,25 +2580,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4415000</v>
+        <v>4493900</v>
       </c>
       <c r="E58" s="3">
-        <v>3971700</v>
+        <v>4042700</v>
       </c>
       <c r="F58" s="3">
-        <v>3945300</v>
+        <v>4015800</v>
       </c>
       <c r="G58" s="3">
-        <v>3960100</v>
+        <v>4030800</v>
       </c>
       <c r="H58" s="3">
-        <v>5828500</v>
+        <v>5932600</v>
       </c>
       <c r="I58" s="3">
-        <v>2641800</v>
+        <v>2689000</v>
       </c>
       <c r="J58" s="3">
-        <v>4008800</v>
+        <v>4080400</v>
       </c>
       <c r="K58" s="3">
         <v>4181200</v>
@@ -2622,25 +2622,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8287300</v>
+        <v>8435400</v>
       </c>
       <c r="E59" s="3">
-        <v>8994100</v>
+        <v>9154700</v>
       </c>
       <c r="F59" s="3">
-        <v>7681100</v>
+        <v>7818300</v>
       </c>
       <c r="G59" s="3">
-        <v>8224900</v>
+        <v>8371800</v>
       </c>
       <c r="H59" s="3">
-        <v>13434500</v>
+        <v>13674500</v>
       </c>
       <c r="I59" s="3">
-        <v>7841900</v>
+        <v>7982000</v>
       </c>
       <c r="J59" s="3">
-        <v>7319200</v>
+        <v>7450000</v>
       </c>
       <c r="K59" s="3">
         <v>6247300</v>
@@ -2664,25 +2664,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21625500</v>
+        <v>22011800</v>
       </c>
       <c r="E60" s="3">
-        <v>21245700</v>
+        <v>21625200</v>
       </c>
       <c r="F60" s="3">
-        <v>17224200</v>
+        <v>17531900</v>
       </c>
       <c r="G60" s="3">
-        <v>17567000</v>
+        <v>17880800</v>
       </c>
       <c r="H60" s="3">
-        <v>24682100</v>
+        <v>25123000</v>
       </c>
       <c r="I60" s="3">
-        <v>15743000</v>
+        <v>16024300</v>
       </c>
       <c r="J60" s="3">
-        <v>16205400</v>
+        <v>16494900</v>
       </c>
       <c r="K60" s="3">
         <v>14532100</v>
@@ -2706,25 +2706,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17277100</v>
+        <v>17585800</v>
       </c>
       <c r="E61" s="3">
-        <v>15702800</v>
+        <v>15983300</v>
       </c>
       <c r="F61" s="3">
-        <v>17822000</v>
+        <v>18140400</v>
       </c>
       <c r="G61" s="3">
-        <v>16985100</v>
+        <v>17288600</v>
       </c>
       <c r="H61" s="3">
-        <v>16317500</v>
+        <v>16609000</v>
       </c>
       <c r="I61" s="3">
-        <v>16540800</v>
+        <v>16836300</v>
       </c>
       <c r="J61" s="3">
-        <v>13361500</v>
+        <v>13600200</v>
       </c>
       <c r="K61" s="3">
         <v>11415600</v>
@@ -2748,25 +2748,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7172200</v>
+        <v>7300300</v>
       </c>
       <c r="E62" s="3">
-        <v>10981000</v>
+        <v>11177100</v>
       </c>
       <c r="F62" s="3">
-        <v>13509600</v>
+        <v>13750900</v>
       </c>
       <c r="G62" s="3">
-        <v>12634600</v>
+        <v>12860300</v>
       </c>
       <c r="H62" s="3">
-        <v>12373300</v>
+        <v>12594300</v>
       </c>
       <c r="I62" s="3">
-        <v>14280900</v>
+        <v>14536000</v>
       </c>
       <c r="J62" s="3">
-        <v>16909000</v>
+        <v>17211000</v>
       </c>
       <c r="K62" s="3">
         <v>14160500</v>
@@ -2916,25 +2916,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47503100</v>
+        <v>48351700</v>
       </c>
       <c r="E66" s="3">
-        <v>49293300</v>
+        <v>50173800</v>
       </c>
       <c r="F66" s="3">
-        <v>49264700</v>
+        <v>50144800</v>
       </c>
       <c r="G66" s="3">
-        <v>48089300</v>
+        <v>48948300</v>
       </c>
       <c r="H66" s="3">
-        <v>54489100</v>
+        <v>55462500</v>
       </c>
       <c r="I66" s="3">
-        <v>47537000</v>
+        <v>48386200</v>
       </c>
       <c r="J66" s="3">
-        <v>47281000</v>
+        <v>48125600</v>
       </c>
       <c r="K66" s="3">
         <v>40750300</v>
@@ -3144,25 +3144,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40838800</v>
+        <v>41568300</v>
       </c>
       <c r="E72" s="3">
-        <v>45992300</v>
+        <v>46813900</v>
       </c>
       <c r="F72" s="3">
-        <v>43405500</v>
+        <v>44180900</v>
       </c>
       <c r="G72" s="3">
-        <v>47790900</v>
+        <v>48644600</v>
       </c>
       <c r="H72" s="3">
-        <v>42126400</v>
+        <v>42878900</v>
       </c>
       <c r="I72" s="3">
-        <v>40143700</v>
+        <v>40860800</v>
       </c>
       <c r="J72" s="3">
-        <v>36654400</v>
+        <v>37309200</v>
       </c>
       <c r="K72" s="3">
         <v>33952800</v>
@@ -3312,25 +3312,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41868200</v>
+        <v>42616200</v>
       </c>
       <c r="E76" s="3">
-        <v>43157900</v>
+        <v>43928900</v>
       </c>
       <c r="F76" s="3">
-        <v>35684200</v>
+        <v>36321700</v>
       </c>
       <c r="G76" s="3">
-        <v>43903800</v>
+        <v>44688100</v>
       </c>
       <c r="H76" s="3">
-        <v>37087100</v>
+        <v>37749700</v>
       </c>
       <c r="I76" s="3">
-        <v>35799500</v>
+        <v>36439100</v>
       </c>
       <c r="J76" s="3">
-        <v>33651800</v>
+        <v>34253000</v>
       </c>
       <c r="K76" s="3">
         <v>31559100</v>
@@ -3443,25 +3443,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-663400</v>
+        <v>-675200</v>
       </c>
       <c r="E81" s="3">
-        <v>5843300</v>
+        <v>5947700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1121500</v>
+        <v>-1141500</v>
       </c>
       <c r="G81" s="3">
-        <v>8909400</v>
+        <v>9068600</v>
       </c>
       <c r="H81" s="3">
-        <v>5430700</v>
+        <v>5527700</v>
       </c>
       <c r="I81" s="3">
-        <v>6831500</v>
+        <v>6953500</v>
       </c>
       <c r="J81" s="3">
-        <v>4291200</v>
+        <v>4367900</v>
       </c>
       <c r="K81" s="3">
         <v>4069900</v>
@@ -3503,25 +3503,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4443600</v>
+        <v>4523000</v>
       </c>
       <c r="E83" s="3">
-        <v>3900800</v>
+        <v>3970500</v>
       </c>
       <c r="F83" s="3">
-        <v>7142600</v>
+        <v>7270200</v>
       </c>
       <c r="G83" s="3">
-        <v>4462600</v>
+        <v>4542400</v>
       </c>
       <c r="H83" s="3">
-        <v>3967500</v>
+        <v>4038400</v>
       </c>
       <c r="I83" s="3">
-        <v>4457400</v>
+        <v>4537000</v>
       </c>
       <c r="J83" s="3">
-        <v>4539900</v>
+        <v>4621000</v>
       </c>
       <c r="K83" s="3">
         <v>4540500</v>
@@ -3755,25 +3755,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8149800</v>
+        <v>8295400</v>
       </c>
       <c r="E89" s="3">
-        <v>7657800</v>
+        <v>7794600</v>
       </c>
       <c r="F89" s="3">
-        <v>5735400</v>
+        <v>5837900</v>
       </c>
       <c r="G89" s="3">
-        <v>7928700</v>
+        <v>8070300</v>
       </c>
       <c r="H89" s="3">
-        <v>8399500</v>
+        <v>8549500</v>
       </c>
       <c r="I89" s="3">
-        <v>9304100</v>
+        <v>9470300</v>
       </c>
       <c r="J89" s="3">
-        <v>8165600</v>
+        <v>8311500</v>
       </c>
       <c r="K89" s="3">
         <v>9646600</v>
@@ -3815,25 +3815,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4628800</v>
+        <v>-4711400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3736900</v>
+        <v>-3803600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3310500</v>
+        <v>-3369600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4045800</v>
+        <v>-4118100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4119900</v>
+        <v>-4193400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4227800</v>
+        <v>-4303300</v>
       </c>
       <c r="J91" s="3">
-        <v>-4385400</v>
+        <v>-4463800</v>
       </c>
       <c r="K91" s="3">
         <v>-5932900</v>
@@ -3941,25 +3941,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3997100</v>
+        <v>-4068500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2774100</v>
+        <v>-2823600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2014400</v>
+        <v>-2050400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1259000</v>
+        <v>-1281500</v>
       </c>
       <c r="H94" s="3">
-        <v>-12488600</v>
+        <v>-12711700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4187600</v>
+        <v>-4262400</v>
       </c>
       <c r="J94" s="3">
-        <v>-6866400</v>
+        <v>-6989100</v>
       </c>
       <c r="K94" s="3">
         <v>-5343900</v>
@@ -4001,25 +4001,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3250200</v>
+        <v>-3308200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3206800</v>
+        <v>-3264100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3206800</v>
+        <v>-3264100</v>
       </c>
       <c r="G96" s="3">
-        <v>-3109500</v>
+        <v>-3165000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3012100</v>
+        <v>-3065900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2914800</v>
+        <v>-2966900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2818500</v>
+        <v>-2868900</v>
       </c>
       <c r="K96" s="3">
         <v>-2625500</v>
@@ -4169,25 +4169,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4245800</v>
+        <v>-4321600</v>
       </c>
       <c r="E100" s="3">
-        <v>-6831500</v>
+        <v>-6953500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1646200</v>
+        <v>-1675700</v>
       </c>
       <c r="G100" s="3">
-        <v>-6776500</v>
+        <v>-6897500</v>
       </c>
       <c r="H100" s="3">
-        <v>-55000</v>
+        <v>-56000</v>
       </c>
       <c r="I100" s="3">
-        <v>416900</v>
+        <v>424300</v>
       </c>
       <c r="J100" s="3">
-        <v>-2285300</v>
+        <v>-2326100</v>
       </c>
       <c r="K100" s="3">
         <v>-3749400</v>
@@ -4211,25 +4211,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20100</v>
+        <v>-20500</v>
       </c>
       <c r="E101" s="3">
-        <v>138600</v>
+        <v>141100</v>
       </c>
       <c r="F101" s="3">
-        <v>-85700</v>
+        <v>-87200</v>
       </c>
       <c r="G101" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="H101" s="3">
-        <v>-62400</v>
+        <v>-63500</v>
       </c>
       <c r="I101" s="3">
-        <v>-116400</v>
+        <v>-118500</v>
       </c>
       <c r="J101" s="3">
-        <v>69800</v>
+        <v>71100</v>
       </c>
       <c r="K101" s="3">
         <v>-19400</v>
@@ -4253,25 +4253,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-113200</v>
+        <v>-115200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1809200</v>
+        <v>-1841500</v>
       </c>
       <c r="F102" s="3">
-        <v>1989000</v>
+        <v>2024600</v>
       </c>
       <c r="G102" s="3">
-        <v>-67700</v>
+        <v>-68900</v>
       </c>
       <c r="H102" s="3">
-        <v>-4206600</v>
+        <v>-4281800</v>
       </c>
       <c r="I102" s="3">
-        <v>5417000</v>
+        <v>5513700</v>
       </c>
       <c r="J102" s="3">
-        <v>-916200</v>
+        <v>-932600</v>
       </c>
       <c r="K102" s="3">
         <v>533900</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>94042400</v>
+        <v>94671200</v>
       </c>
       <c r="E8" s="3">
-        <v>84642200</v>
+        <v>85208100</v>
       </c>
       <c r="F8" s="3">
-        <v>63697600</v>
+        <v>64123400</v>
       </c>
       <c r="G8" s="3">
-        <v>63877400</v>
+        <v>64304500</v>
       </c>
       <c r="H8" s="3">
-        <v>64850900</v>
+        <v>65284500</v>
       </c>
       <c r="I8" s="3">
-        <v>65931000</v>
+        <v>66371900</v>
       </c>
       <c r="J8" s="3">
-        <v>61975600</v>
+        <v>62390000</v>
       </c>
       <c r="K8" s="3">
         <v>71914300</v>
@@ -772,25 +772,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71355400</v>
+        <v>72306200</v>
       </c>
       <c r="E9" s="3">
-        <v>63322800</v>
+        <v>63746200</v>
       </c>
       <c r="F9" s="3">
-        <v>47426700</v>
+        <v>47743800</v>
       </c>
       <c r="G9" s="3">
-        <v>46372400</v>
+        <v>46682400</v>
       </c>
       <c r="H9" s="3">
-        <v>46214100</v>
+        <v>46523100</v>
       </c>
       <c r="I9" s="3">
-        <v>44789300</v>
+        <v>45088800</v>
       </c>
       <c r="J9" s="3">
-        <v>42284500</v>
+        <v>42567200</v>
       </c>
       <c r="K9" s="3">
         <v>52440500</v>
@@ -814,25 +814,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22687100</v>
+        <v>22365000</v>
       </c>
       <c r="E10" s="3">
-        <v>21319400</v>
+        <v>21461900</v>
       </c>
       <c r="F10" s="3">
-        <v>16270900</v>
+        <v>16379700</v>
       </c>
       <c r="G10" s="3">
-        <v>17505000</v>
+        <v>17622000</v>
       </c>
       <c r="H10" s="3">
-        <v>18636800</v>
+        <v>18761400</v>
       </c>
       <c r="I10" s="3">
-        <v>21141700</v>
+        <v>21283100</v>
       </c>
       <c r="J10" s="3">
-        <v>19691100</v>
+        <v>19822800</v>
       </c>
       <c r="K10" s="3">
         <v>19473800</v>
@@ -874,25 +874,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2474700</v>
+        <v>2491300</v>
       </c>
       <c r="E12" s="3">
-        <v>2386400</v>
+        <v>2402400</v>
       </c>
       <c r="F12" s="3">
-        <v>2246400</v>
+        <v>2261400</v>
       </c>
       <c r="G12" s="3">
-        <v>2324000</v>
+        <v>2339500</v>
       </c>
       <c r="H12" s="3">
-        <v>2147300</v>
+        <v>2161700</v>
       </c>
       <c r="I12" s="3">
-        <v>1984700</v>
+        <v>1998000</v>
       </c>
       <c r="J12" s="3">
-        <v>2006300</v>
+        <v>2019700</v>
       </c>
       <c r="K12" s="3">
         <v>1993600</v>
@@ -958,25 +958,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>523400</v>
+        <v>7364300</v>
       </c>
       <c r="E14" s="3">
-        <v>484600</v>
+        <v>487800</v>
       </c>
       <c r="F14" s="3">
-        <v>907800</v>
+        <v>913900</v>
       </c>
       <c r="G14" s="3">
-        <v>731200</v>
+        <v>736100</v>
       </c>
       <c r="H14" s="3">
-        <v>435100</v>
+        <v>438000</v>
       </c>
       <c r="I14" s="3">
-        <v>386600</v>
+        <v>389200</v>
       </c>
       <c r="J14" s="3">
-        <v>519100</v>
+        <v>522500</v>
       </c>
       <c r="K14" s="3">
         <v>312400</v>
@@ -1000,25 +1000,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>440500</v>
+        <v>443400</v>
       </c>
       <c r="E15" s="3">
-        <v>145400</v>
+        <v>146400</v>
       </c>
       <c r="F15" s="3">
-        <v>3196200</v>
+        <v>3217600</v>
       </c>
       <c r="G15" s="3">
-        <v>458800</v>
+        <v>461800</v>
       </c>
       <c r="H15" s="3">
-        <v>77500</v>
+        <v>78100</v>
       </c>
       <c r="I15" s="3">
-        <v>238000</v>
+        <v>239600</v>
       </c>
       <c r="J15" s="3">
-        <v>362900</v>
+        <v>365300</v>
       </c>
       <c r="K15" s="3">
         <v>689000</v>
@@ -1057,25 +1057,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>87010300</v>
+        <v>94429400</v>
       </c>
       <c r="E17" s="3">
-        <v>76363000</v>
+        <v>76873500</v>
       </c>
       <c r="F17" s="3">
-        <v>63939900</v>
+        <v>64367400</v>
       </c>
       <c r="G17" s="3">
-        <v>59334000</v>
+        <v>59730700</v>
       </c>
       <c r="H17" s="3">
-        <v>58417500</v>
+        <v>58808100</v>
       </c>
       <c r="I17" s="3">
-        <v>57760600</v>
+        <v>58146800</v>
       </c>
       <c r="J17" s="3">
-        <v>55218000</v>
+        <v>55587200</v>
       </c>
       <c r="K17" s="3">
         <v>65536400</v>
@@ -1099,25 +1099,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7032200</v>
+        <v>241800</v>
       </c>
       <c r="E18" s="3">
-        <v>8279200</v>
+        <v>8334600</v>
       </c>
       <c r="F18" s="3">
-        <v>-242300</v>
+        <v>-243900</v>
       </c>
       <c r="G18" s="3">
-        <v>4543400</v>
+        <v>4573800</v>
       </c>
       <c r="H18" s="3">
-        <v>6433400</v>
+        <v>6476400</v>
       </c>
       <c r="I18" s="3">
-        <v>8170400</v>
+        <v>8225100</v>
       </c>
       <c r="J18" s="3">
-        <v>6757500</v>
+        <v>6802700</v>
       </c>
       <c r="K18" s="3">
         <v>6378000</v>
@@ -1159,25 +1159,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5116400</v>
+        <v>1686900</v>
       </c>
       <c r="E20" s="3">
-        <v>229400</v>
+        <v>230900</v>
       </c>
       <c r="F20" s="3">
-        <v>-893800</v>
+        <v>-899800</v>
       </c>
       <c r="G20" s="3">
-        <v>-327400</v>
+        <v>-329600</v>
       </c>
       <c r="H20" s="3">
-        <v>-253100</v>
+        <v>-254800</v>
       </c>
       <c r="I20" s="3">
-        <v>-269200</v>
+        <v>-271000</v>
       </c>
       <c r="J20" s="3">
-        <v>-334900</v>
+        <v>-337200</v>
       </c>
       <c r="K20" s="3">
         <v>-215400</v>
@@ -1201,25 +1201,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6468200</v>
+        <v>6481800</v>
       </c>
       <c r="E21" s="3">
-        <v>12505000</v>
+        <v>12562600</v>
       </c>
       <c r="F21" s="3">
-        <v>6181300</v>
+        <v>6175000</v>
       </c>
       <c r="G21" s="3">
-        <v>8788000</v>
+        <v>8817000</v>
       </c>
       <c r="H21" s="3">
-        <v>10245000</v>
+        <v>10287000</v>
       </c>
       <c r="I21" s="3">
-        <v>12467700</v>
+        <v>12521400</v>
       </c>
       <c r="J21" s="3">
-        <v>11073700</v>
+        <v>11117400</v>
       </c>
       <c r="K21" s="3">
         <v>10615500</v>
@@ -1243,25 +1243,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>634300</v>
+        <v>638500</v>
       </c>
       <c r="E22" s="3">
-        <v>487800</v>
+        <v>491100</v>
       </c>
       <c r="F22" s="3">
-        <v>546000</v>
+        <v>549600</v>
       </c>
       <c r="G22" s="3">
-        <v>660100</v>
+        <v>664600</v>
       </c>
       <c r="H22" s="3">
-        <v>544900</v>
+        <v>548600</v>
       </c>
       <c r="I22" s="3">
-        <v>490000</v>
+        <v>493300</v>
       </c>
       <c r="J22" s="3">
-        <v>612800</v>
+        <v>616900</v>
       </c>
       <c r="K22" s="3">
         <v>499200</v>
@@ -1285,25 +1285,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1281500</v>
+        <v>1290100</v>
       </c>
       <c r="E23" s="3">
-        <v>8020800</v>
+        <v>8074400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1682100</v>
+        <v>-1693400</v>
       </c>
       <c r="G23" s="3">
-        <v>3555900</v>
+        <v>3579700</v>
       </c>
       <c r="H23" s="3">
-        <v>5635400</v>
+        <v>5673100</v>
       </c>
       <c r="I23" s="3">
-        <v>7411200</v>
+        <v>7460800</v>
       </c>
       <c r="J23" s="3">
-        <v>5809900</v>
+        <v>5848700</v>
       </c>
       <c r="K23" s="3">
         <v>5663400</v>
@@ -1327,25 +1327,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1702600</v>
+        <v>1714000</v>
       </c>
       <c r="E24" s="3">
-        <v>1540000</v>
+        <v>1550300</v>
       </c>
       <c r="F24" s="3">
-        <v>-98000</v>
+        <v>-98700</v>
       </c>
       <c r="G24" s="3">
-        <v>814100</v>
+        <v>819600</v>
       </c>
       <c r="H24" s="3">
-        <v>1202900</v>
+        <v>1210900</v>
       </c>
       <c r="I24" s="3">
-        <v>1389200</v>
+        <v>1398500</v>
       </c>
       <c r="J24" s="3">
-        <v>1227700</v>
+        <v>1235900</v>
       </c>
       <c r="K24" s="3">
         <v>1272900</v>
@@ -1411,25 +1411,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-421100</v>
+        <v>-423900</v>
       </c>
       <c r="E26" s="3">
-        <v>6480800</v>
+        <v>6524100</v>
       </c>
       <c r="F26" s="3">
-        <v>-1584100</v>
+        <v>-1594700</v>
       </c>
       <c r="G26" s="3">
-        <v>2741800</v>
+        <v>2760100</v>
       </c>
       <c r="H26" s="3">
-        <v>4432500</v>
+        <v>4462200</v>
       </c>
       <c r="I26" s="3">
-        <v>6022000</v>
+        <v>6062300</v>
       </c>
       <c r="J26" s="3">
-        <v>4582200</v>
+        <v>4612800</v>
       </c>
       <c r="K26" s="3">
         <v>4390500</v>
@@ -1453,25 +1453,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-675200</v>
+        <v>-679700</v>
       </c>
       <c r="E27" s="3">
-        <v>5986500</v>
+        <v>6026500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1568000</v>
+        <v>-1578400</v>
       </c>
       <c r="G27" s="3">
-        <v>2666400</v>
+        <v>2684200</v>
       </c>
       <c r="H27" s="3">
-        <v>4139600</v>
+        <v>4167300</v>
       </c>
       <c r="I27" s="3">
-        <v>5727000</v>
+        <v>5765200</v>
       </c>
       <c r="J27" s="3">
-        <v>4367900</v>
+        <v>4397100</v>
       </c>
       <c r="K27" s="3">
         <v>4069900</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-38800</v>
+        <v>-39000</v>
       </c>
       <c r="F29" s="3">
-        <v>426500</v>
+        <v>429300</v>
       </c>
       <c r="G29" s="3">
-        <v>6402200</v>
+        <v>6445000</v>
       </c>
       <c r="H29" s="3">
-        <v>1388100</v>
+        <v>1397400</v>
       </c>
       <c r="I29" s="3">
-        <v>1226600</v>
+        <v>1234800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1663,25 +1663,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5116400</v>
+        <v>-1686900</v>
       </c>
       <c r="E32" s="3">
-        <v>-229400</v>
+        <v>-230900</v>
       </c>
       <c r="F32" s="3">
-        <v>893800</v>
+        <v>899800</v>
       </c>
       <c r="G32" s="3">
-        <v>327400</v>
+        <v>329600</v>
       </c>
       <c r="H32" s="3">
-        <v>253100</v>
+        <v>254800</v>
       </c>
       <c r="I32" s="3">
-        <v>269200</v>
+        <v>271000</v>
       </c>
       <c r="J32" s="3">
-        <v>334900</v>
+        <v>337200</v>
       </c>
       <c r="K32" s="3">
         <v>215400</v>
@@ -1705,25 +1705,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-675200</v>
+        <v>-679700</v>
       </c>
       <c r="E33" s="3">
-        <v>5947700</v>
+        <v>5987500</v>
       </c>
       <c r="F33" s="3">
-        <v>-1141500</v>
+        <v>-1149100</v>
       </c>
       <c r="G33" s="3">
-        <v>9068600</v>
+        <v>9129200</v>
       </c>
       <c r="H33" s="3">
-        <v>5527700</v>
+        <v>5564700</v>
       </c>
       <c r="I33" s="3">
-        <v>6953500</v>
+        <v>7000000</v>
       </c>
       <c r="J33" s="3">
-        <v>4367900</v>
+        <v>4397100</v>
       </c>
       <c r="K33" s="3">
         <v>4069900</v>
@@ -1789,25 +1789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-675200</v>
+        <v>-679700</v>
       </c>
       <c r="E35" s="3">
-        <v>5947700</v>
+        <v>5987500</v>
       </c>
       <c r="F35" s="3">
-        <v>-1141500</v>
+        <v>-1149100</v>
       </c>
       <c r="G35" s="3">
-        <v>9068600</v>
+        <v>9129200</v>
       </c>
       <c r="H35" s="3">
-        <v>5527700</v>
+        <v>5564700</v>
       </c>
       <c r="I35" s="3">
-        <v>6953500</v>
+        <v>7000000</v>
       </c>
       <c r="J35" s="3">
-        <v>4367900</v>
+        <v>4397100</v>
       </c>
       <c r="K35" s="3">
         <v>4069900</v>
@@ -1914,25 +1914,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2709500</v>
+        <v>2727600</v>
       </c>
       <c r="E41" s="3">
-        <v>2825800</v>
+        <v>2844700</v>
       </c>
       <c r="F41" s="3">
-        <v>4663000</v>
+        <v>4694200</v>
       </c>
       <c r="G41" s="3">
-        <v>2613600</v>
+        <v>2631100</v>
       </c>
       <c r="H41" s="3">
-        <v>2476900</v>
+        <v>2493400</v>
       </c>
       <c r="I41" s="3">
-        <v>6994500</v>
+        <v>7041200</v>
       </c>
       <c r="J41" s="3">
-        <v>1480700</v>
+        <v>1490600</v>
       </c>
       <c r="K41" s="3">
         <v>2287600</v>
@@ -1956,25 +1956,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>249800</v>
+        <v>251500</v>
       </c>
       <c r="E42" s="3">
-        <v>224000</v>
+        <v>225500</v>
       </c>
       <c r="F42" s="3">
-        <v>222900</v>
+        <v>224400</v>
       </c>
       <c r="G42" s="3">
-        <v>478100</v>
+        <v>481300</v>
       </c>
       <c r="H42" s="3">
-        <v>370500</v>
+        <v>372900</v>
       </c>
       <c r="I42" s="3">
-        <v>56000</v>
+        <v>56400</v>
       </c>
       <c r="J42" s="3">
-        <v>577200</v>
+        <v>581100</v>
       </c>
       <c r="K42" s="3">
         <v>21400</v>
@@ -1998,25 +1998,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18747800</v>
+        <v>18873100</v>
       </c>
       <c r="E43" s="3">
-        <v>17847500</v>
+        <v>17966800</v>
       </c>
       <c r="F43" s="3">
-        <v>14503700</v>
+        <v>14600700</v>
       </c>
       <c r="G43" s="3">
-        <v>13114500</v>
+        <v>13202200</v>
       </c>
       <c r="H43" s="3">
-        <v>14354000</v>
+        <v>14450000</v>
       </c>
       <c r="I43" s="3">
-        <v>14780500</v>
+        <v>14879300</v>
       </c>
       <c r="J43" s="3">
-        <v>14561800</v>
+        <v>14659200</v>
       </c>
       <c r="K43" s="3">
         <v>12209800</v>
@@ -2040,25 +2040,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17260600</v>
+        <v>17376000</v>
       </c>
       <c r="E44" s="3">
-        <v>14934400</v>
+        <v>15034300</v>
       </c>
       <c r="F44" s="3">
-        <v>10779800</v>
+        <v>10851800</v>
       </c>
       <c r="G44" s="3">
-        <v>12086000</v>
+        <v>12166900</v>
       </c>
       <c r="H44" s="3">
-        <v>13101600</v>
+        <v>13189200</v>
       </c>
       <c r="I44" s="3">
-        <v>11095300</v>
+        <v>11169500</v>
       </c>
       <c r="J44" s="3">
-        <v>10774400</v>
+        <v>10846400</v>
       </c>
       <c r="K44" s="3">
         <v>9894600</v>
@@ -2082,25 +2082,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1332100</v>
+        <v>1341000</v>
       </c>
       <c r="E45" s="3">
-        <v>1914700</v>
+        <v>1927500</v>
       </c>
       <c r="F45" s="3">
-        <v>1995500</v>
+        <v>2008800</v>
       </c>
       <c r="G45" s="3">
-        <v>5080800</v>
+        <v>5114800</v>
       </c>
       <c r="H45" s="3">
-        <v>16241800</v>
+        <v>16350400</v>
       </c>
       <c r="I45" s="3">
-        <v>613800</v>
+        <v>617900</v>
       </c>
       <c r="J45" s="3">
-        <v>547100</v>
+        <v>550700</v>
       </c>
       <c r="K45" s="3">
         <v>663500</v>
@@ -2124,25 +2124,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40299800</v>
+        <v>40569200</v>
       </c>
       <c r="E46" s="3">
-        <v>37746400</v>
+        <v>37998800</v>
       </c>
       <c r="F46" s="3">
-        <v>32164800</v>
+        <v>32379900</v>
       </c>
       <c r="G46" s="3">
-        <v>33373100</v>
+        <v>33596300</v>
       </c>
       <c r="H46" s="3">
-        <v>46544700</v>
+        <v>46855900</v>
       </c>
       <c r="I46" s="3">
-        <v>33540100</v>
+        <v>33764300</v>
       </c>
       <c r="J46" s="3">
-        <v>27941200</v>
+        <v>28128100</v>
       </c>
       <c r="K46" s="3">
         <v>25077000</v>
@@ -2166,25 +2166,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8745500</v>
+        <v>8804000</v>
       </c>
       <c r="E47" s="3">
-        <v>13954500</v>
+        <v>14047800</v>
       </c>
       <c r="F47" s="3">
-        <v>14359400</v>
+        <v>14455400</v>
       </c>
       <c r="G47" s="3">
-        <v>16847000</v>
+        <v>16959700</v>
       </c>
       <c r="H47" s="3">
-        <v>2986200</v>
+        <v>3006200</v>
       </c>
       <c r="I47" s="3">
-        <v>5730200</v>
+        <v>5768500</v>
       </c>
       <c r="J47" s="3">
-        <v>5655900</v>
+        <v>5693700</v>
       </c>
       <c r="K47" s="3">
         <v>5065200</v>
@@ -2208,25 +2208,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24733200</v>
+        <v>24898500</v>
       </c>
       <c r="E48" s="3">
-        <v>23210400</v>
+        <v>23365600</v>
       </c>
       <c r="F48" s="3">
-        <v>21157900</v>
+        <v>21299300</v>
       </c>
       <c r="G48" s="3">
-        <v>23467800</v>
+        <v>23624700</v>
       </c>
       <c r="H48" s="3">
-        <v>22378000</v>
+        <v>22527600</v>
       </c>
       <c r="I48" s="3">
-        <v>27200300</v>
+        <v>27382200</v>
       </c>
       <c r="J48" s="3">
-        <v>28444200</v>
+        <v>28634300</v>
       </c>
       <c r="K48" s="3">
         <v>25785400</v>
@@ -2250,25 +2250,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14293700</v>
+        <v>14389300</v>
       </c>
       <c r="E49" s="3">
-        <v>14537100</v>
+        <v>14634300</v>
       </c>
       <c r="F49" s="3">
-        <v>14155900</v>
+        <v>14250500</v>
       </c>
       <c r="G49" s="3">
-        <v>15642000</v>
+        <v>15746600</v>
       </c>
       <c r="H49" s="3">
-        <v>17827000</v>
+        <v>17946200</v>
       </c>
       <c r="I49" s="3">
-        <v>14639400</v>
+        <v>14737300</v>
       </c>
       <c r="J49" s="3">
-        <v>16328000</v>
+        <v>16437100</v>
       </c>
       <c r="K49" s="3">
         <v>12797800</v>
@@ -2376,25 +2376,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2895800</v>
+        <v>2915100</v>
       </c>
       <c r="E52" s="3">
-        <v>4654400</v>
+        <v>4685500</v>
       </c>
       <c r="F52" s="3">
-        <v>4628500</v>
+        <v>4659500</v>
       </c>
       <c r="G52" s="3">
-        <v>4306500</v>
+        <v>4335300</v>
       </c>
       <c r="H52" s="3">
-        <v>3476200</v>
+        <v>3499500</v>
       </c>
       <c r="I52" s="3">
-        <v>3715300</v>
+        <v>3740100</v>
       </c>
       <c r="J52" s="3">
-        <v>4009300</v>
+        <v>4036100</v>
       </c>
       <c r="K52" s="3">
         <v>3584000</v>
@@ -2460,25 +2460,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>90967900</v>
+        <v>91576100</v>
       </c>
       <c r="E54" s="3">
-        <v>94102800</v>
+        <v>94731900</v>
       </c>
       <c r="F54" s="3">
-        <v>86466500</v>
+        <v>87044600</v>
       </c>
       <c r="G54" s="3">
-        <v>93636500</v>
+        <v>94262500</v>
       </c>
       <c r="H54" s="3">
-        <v>93212200</v>
+        <v>93835400</v>
       </c>
       <c r="I54" s="3">
-        <v>84825300</v>
+        <v>85392400</v>
       </c>
       <c r="J54" s="3">
-        <v>82378500</v>
+        <v>82929300</v>
       </c>
       <c r="K54" s="3">
         <v>72309400</v>
@@ -2538,25 +2538,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9082600</v>
+        <v>9143300</v>
       </c>
       <c r="E57" s="3">
-        <v>8427800</v>
+        <v>8484200</v>
       </c>
       <c r="F57" s="3">
-        <v>5697900</v>
+        <v>5736000</v>
       </c>
       <c r="G57" s="3">
-        <v>5478200</v>
+        <v>5514800</v>
       </c>
       <c r="H57" s="3">
-        <v>5515900</v>
+        <v>5552800</v>
       </c>
       <c r="I57" s="3">
-        <v>5353300</v>
+        <v>5389100</v>
       </c>
       <c r="J57" s="3">
-        <v>4964500</v>
+        <v>4997700</v>
       </c>
       <c r="K57" s="3">
         <v>4103600</v>
@@ -2580,25 +2580,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4493900</v>
+        <v>4523900</v>
       </c>
       <c r="E58" s="3">
-        <v>4042700</v>
+        <v>4069700</v>
       </c>
       <c r="F58" s="3">
-        <v>4015800</v>
+        <v>4042600</v>
       </c>
       <c r="G58" s="3">
-        <v>4030800</v>
+        <v>4057800</v>
       </c>
       <c r="H58" s="3">
-        <v>5932600</v>
+        <v>5972300</v>
       </c>
       <c r="I58" s="3">
-        <v>2689000</v>
+        <v>2707000</v>
       </c>
       <c r="J58" s="3">
-        <v>4080400</v>
+        <v>4107700</v>
       </c>
       <c r="K58" s="3">
         <v>4181200</v>
@@ -2622,25 +2622,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8435400</v>
+        <v>8491800</v>
       </c>
       <c r="E59" s="3">
-        <v>9154700</v>
+        <v>9215900</v>
       </c>
       <c r="F59" s="3">
-        <v>7818300</v>
+        <v>7870600</v>
       </c>
       <c r="G59" s="3">
-        <v>8371800</v>
+        <v>8427800</v>
       </c>
       <c r="H59" s="3">
-        <v>13674500</v>
+        <v>13765900</v>
       </c>
       <c r="I59" s="3">
-        <v>7982000</v>
+        <v>8035300</v>
       </c>
       <c r="J59" s="3">
-        <v>7450000</v>
+        <v>7499800</v>
       </c>
       <c r="K59" s="3">
         <v>6247300</v>
@@ -2664,25 +2664,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22011800</v>
+        <v>22159000</v>
       </c>
       <c r="E60" s="3">
-        <v>21625200</v>
+        <v>21769800</v>
       </c>
       <c r="F60" s="3">
-        <v>17531900</v>
+        <v>17649100</v>
       </c>
       <c r="G60" s="3">
-        <v>17880800</v>
+        <v>18000400</v>
       </c>
       <c r="H60" s="3">
-        <v>25123000</v>
+        <v>25291000</v>
       </c>
       <c r="I60" s="3">
-        <v>16024300</v>
+        <v>16131400</v>
       </c>
       <c r="J60" s="3">
-        <v>16494900</v>
+        <v>16605200</v>
       </c>
       <c r="K60" s="3">
         <v>14532100</v>
@@ -2706,25 +2706,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17585800</v>
+        <v>17703400</v>
       </c>
       <c r="E61" s="3">
-        <v>15983300</v>
+        <v>16090200</v>
       </c>
       <c r="F61" s="3">
-        <v>18140400</v>
+        <v>18261700</v>
       </c>
       <c r="G61" s="3">
-        <v>17288600</v>
+        <v>17404100</v>
       </c>
       <c r="H61" s="3">
-        <v>16609000</v>
+        <v>16720100</v>
       </c>
       <c r="I61" s="3">
-        <v>16836300</v>
+        <v>16948800</v>
       </c>
       <c r="J61" s="3">
-        <v>13600200</v>
+        <v>13691100</v>
       </c>
       <c r="K61" s="3">
         <v>11415600</v>
@@ -2748,25 +2748,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7300300</v>
+        <v>7349100</v>
       </c>
       <c r="E62" s="3">
-        <v>11177100</v>
+        <v>11251900</v>
       </c>
       <c r="F62" s="3">
-        <v>13750900</v>
+        <v>13842900</v>
       </c>
       <c r="G62" s="3">
-        <v>12860300</v>
+        <v>12946300</v>
       </c>
       <c r="H62" s="3">
-        <v>12594300</v>
+        <v>12678500</v>
       </c>
       <c r="I62" s="3">
-        <v>14536000</v>
+        <v>14633200</v>
       </c>
       <c r="J62" s="3">
-        <v>17211000</v>
+        <v>17326100</v>
       </c>
       <c r="K62" s="3">
         <v>14160500</v>
@@ -2916,25 +2916,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48351700</v>
+        <v>48675000</v>
       </c>
       <c r="E66" s="3">
-        <v>50173800</v>
+        <v>50509300</v>
       </c>
       <c r="F66" s="3">
-        <v>50144800</v>
+        <v>50480000</v>
       </c>
       <c r="G66" s="3">
-        <v>48948300</v>
+        <v>49275600</v>
       </c>
       <c r="H66" s="3">
-        <v>55462500</v>
+        <v>55833300</v>
       </c>
       <c r="I66" s="3">
-        <v>48386200</v>
+        <v>48709700</v>
       </c>
       <c r="J66" s="3">
-        <v>48125600</v>
+        <v>48447300</v>
       </c>
       <c r="K66" s="3">
         <v>40750300</v>
@@ -3144,25 +3144,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41568300</v>
+        <v>41846300</v>
       </c>
       <c r="E72" s="3">
-        <v>46813900</v>
+        <v>47126900</v>
       </c>
       <c r="F72" s="3">
-        <v>44180900</v>
+        <v>44476300</v>
       </c>
       <c r="G72" s="3">
-        <v>48644600</v>
+        <v>48969900</v>
       </c>
       <c r="H72" s="3">
-        <v>42878900</v>
+        <v>43165600</v>
       </c>
       <c r="I72" s="3">
-        <v>40860800</v>
+        <v>41134000</v>
       </c>
       <c r="J72" s="3">
-        <v>37309200</v>
+        <v>37558600</v>
       </c>
       <c r="K72" s="3">
         <v>33952800</v>
@@ -3312,25 +3312,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42616200</v>
+        <v>42901100</v>
       </c>
       <c r="E76" s="3">
-        <v>43928900</v>
+        <v>44222600</v>
       </c>
       <c r="F76" s="3">
-        <v>36321700</v>
+        <v>36564500</v>
       </c>
       <c r="G76" s="3">
-        <v>44688100</v>
+        <v>44986900</v>
       </c>
       <c r="H76" s="3">
-        <v>37749700</v>
+        <v>38002000</v>
       </c>
       <c r="I76" s="3">
-        <v>36439100</v>
+        <v>36682700</v>
       </c>
       <c r="J76" s="3">
-        <v>34253000</v>
+        <v>34482000</v>
       </c>
       <c r="K76" s="3">
         <v>31559100</v>
@@ -3443,25 +3443,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-675200</v>
+        <v>-679700</v>
       </c>
       <c r="E81" s="3">
-        <v>5947700</v>
+        <v>5987500</v>
       </c>
       <c r="F81" s="3">
-        <v>-1141500</v>
+        <v>-1149100</v>
       </c>
       <c r="G81" s="3">
-        <v>9068600</v>
+        <v>9129200</v>
       </c>
       <c r="H81" s="3">
-        <v>5527700</v>
+        <v>5564700</v>
       </c>
       <c r="I81" s="3">
-        <v>6953500</v>
+        <v>7000000</v>
       </c>
       <c r="J81" s="3">
-        <v>4367900</v>
+        <v>4397100</v>
       </c>
       <c r="K81" s="3">
         <v>4069900</v>
@@ -3503,25 +3503,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4523000</v>
+        <v>4553200</v>
       </c>
       <c r="E83" s="3">
-        <v>3970500</v>
+        <v>3997100</v>
       </c>
       <c r="F83" s="3">
-        <v>7270200</v>
+        <v>7318800</v>
       </c>
       <c r="G83" s="3">
-        <v>4542400</v>
+        <v>4572700</v>
       </c>
       <c r="H83" s="3">
-        <v>4038400</v>
+        <v>4065400</v>
       </c>
       <c r="I83" s="3">
-        <v>4537000</v>
+        <v>4567300</v>
       </c>
       <c r="J83" s="3">
-        <v>4621000</v>
+        <v>4651900</v>
       </c>
       <c r="K83" s="3">
         <v>4540500</v>
@@ -3755,25 +3755,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8295400</v>
+        <v>8350800</v>
       </c>
       <c r="E89" s="3">
-        <v>7794600</v>
+        <v>7846700</v>
       </c>
       <c r="F89" s="3">
-        <v>5837900</v>
+        <v>5876900</v>
       </c>
       <c r="G89" s="3">
-        <v>8070300</v>
+        <v>8124200</v>
       </c>
       <c r="H89" s="3">
-        <v>8549500</v>
+        <v>8606700</v>
       </c>
       <c r="I89" s="3">
-        <v>9470300</v>
+        <v>9533600</v>
       </c>
       <c r="J89" s="3">
-        <v>8311500</v>
+        <v>8367100</v>
       </c>
       <c r="K89" s="3">
         <v>9646600</v>
@@ -3815,25 +3815,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4711400</v>
+        <v>-4742900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3803600</v>
+        <v>-3829000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3369600</v>
+        <v>-3392100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4118100</v>
+        <v>-4145600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4193400</v>
+        <v>-4221500</v>
       </c>
       <c r="I91" s="3">
-        <v>-4303300</v>
+        <v>-4332100</v>
       </c>
       <c r="J91" s="3">
-        <v>-4463800</v>
+        <v>-4493600</v>
       </c>
       <c r="K91" s="3">
         <v>-5932900</v>
@@ -3941,25 +3941,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4068500</v>
+        <v>-4095700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2823600</v>
+        <v>-2842500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2050400</v>
+        <v>-2064100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1281500</v>
+        <v>-1290100</v>
       </c>
       <c r="H94" s="3">
-        <v>-12711700</v>
+        <v>-12796700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4262400</v>
+        <v>-4290900</v>
       </c>
       <c r="J94" s="3">
-        <v>-6989100</v>
+        <v>-7035800</v>
       </c>
       <c r="K94" s="3">
         <v>-5343900</v>
@@ -4001,25 +4001,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3308200</v>
+        <v>-3330400</v>
       </c>
       <c r="E96" s="3">
-        <v>-3264100</v>
+        <v>-3285900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3264100</v>
+        <v>-3285900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3165000</v>
+        <v>-3186200</v>
       </c>
       <c r="H96" s="3">
-        <v>-3065900</v>
+        <v>-3086400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2966900</v>
+        <v>-2986700</v>
       </c>
       <c r="J96" s="3">
-        <v>-2868900</v>
+        <v>-2888000</v>
       </c>
       <c r="K96" s="3">
         <v>-2625500</v>
@@ -4169,25 +4169,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4321600</v>
+        <v>-4350500</v>
       </c>
       <c r="E100" s="3">
-        <v>-6953500</v>
+        <v>-7000000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1675700</v>
+        <v>-1686900</v>
       </c>
       <c r="G100" s="3">
-        <v>-6897500</v>
+        <v>-6943700</v>
       </c>
       <c r="H100" s="3">
-        <v>-56000</v>
+        <v>-56400</v>
       </c>
       <c r="I100" s="3">
-        <v>424300</v>
+        <v>427100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2326100</v>
+        <v>-2341700</v>
       </c>
       <c r="K100" s="3">
         <v>-3749400</v>
@@ -4211,25 +4211,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="E101" s="3">
-        <v>141100</v>
+        <v>142000</v>
       </c>
       <c r="F101" s="3">
-        <v>-87200</v>
+        <v>-87800</v>
       </c>
       <c r="G101" s="3">
-        <v>39800</v>
+        <v>40100</v>
       </c>
       <c r="H101" s="3">
-        <v>-63500</v>
+        <v>-64000</v>
       </c>
       <c r="I101" s="3">
-        <v>-118500</v>
+        <v>-119300</v>
       </c>
       <c r="J101" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="K101" s="3">
         <v>-19400</v>
@@ -4253,25 +4253,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-115200</v>
+        <v>-116000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1841500</v>
+        <v>-1853800</v>
       </c>
       <c r="F102" s="3">
-        <v>2024600</v>
+        <v>2038100</v>
       </c>
       <c r="G102" s="3">
-        <v>-68900</v>
+        <v>-69400</v>
       </c>
       <c r="H102" s="3">
-        <v>-4281800</v>
+        <v>-4310400</v>
       </c>
       <c r="I102" s="3">
-        <v>5513700</v>
+        <v>5550600</v>
       </c>
       <c r="J102" s="3">
-        <v>-932600</v>
+        <v>-938800</v>
       </c>
       <c r="K102" s="3">
         <v>533900</v>

--- a/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>94671200</v>
+        <v>94749800</v>
       </c>
       <c r="E8" s="3">
-        <v>85208100</v>
+        <v>85278800</v>
       </c>
       <c r="F8" s="3">
-        <v>64123400</v>
+        <v>64176700</v>
       </c>
       <c r="G8" s="3">
-        <v>64304500</v>
+        <v>64357900</v>
       </c>
       <c r="H8" s="3">
-        <v>65284500</v>
+        <v>65338700</v>
       </c>
       <c r="I8" s="3">
-        <v>66371900</v>
+        <v>66427000</v>
       </c>
       <c r="J8" s="3">
-        <v>62390000</v>
+        <v>62441800</v>
       </c>
       <c r="K8" s="3">
         <v>71914300</v>
@@ -772,25 +772,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72306200</v>
+        <v>72366200</v>
       </c>
       <c r="E9" s="3">
-        <v>63746200</v>
+        <v>63799100</v>
       </c>
       <c r="F9" s="3">
-        <v>47743800</v>
+        <v>47783400</v>
       </c>
       <c r="G9" s="3">
-        <v>46682400</v>
+        <v>46721200</v>
       </c>
       <c r="H9" s="3">
-        <v>46523100</v>
+        <v>46561700</v>
       </c>
       <c r="I9" s="3">
-        <v>45088800</v>
+        <v>45126200</v>
       </c>
       <c r="J9" s="3">
-        <v>42567200</v>
+        <v>42602500</v>
       </c>
       <c r="K9" s="3">
         <v>52440500</v>
@@ -814,25 +814,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22365000</v>
+        <v>22383600</v>
       </c>
       <c r="E10" s="3">
-        <v>21461900</v>
+        <v>21479700</v>
       </c>
       <c r="F10" s="3">
-        <v>16379700</v>
+        <v>16393300</v>
       </c>
       <c r="G10" s="3">
-        <v>17622000</v>
+        <v>17636700</v>
       </c>
       <c r="H10" s="3">
-        <v>18761400</v>
+        <v>18777000</v>
       </c>
       <c r="I10" s="3">
-        <v>21283100</v>
+        <v>21300700</v>
       </c>
       <c r="J10" s="3">
-        <v>19822800</v>
+        <v>19839200</v>
       </c>
       <c r="K10" s="3">
         <v>19473800</v>
@@ -874,25 +874,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2491300</v>
+        <v>2493300</v>
       </c>
       <c r="E12" s="3">
-        <v>2402400</v>
+        <v>2404400</v>
       </c>
       <c r="F12" s="3">
-        <v>2261400</v>
+        <v>2263300</v>
       </c>
       <c r="G12" s="3">
-        <v>2339500</v>
+        <v>2341400</v>
       </c>
       <c r="H12" s="3">
-        <v>2161700</v>
+        <v>2163500</v>
       </c>
       <c r="I12" s="3">
-        <v>1998000</v>
+        <v>1999700</v>
       </c>
       <c r="J12" s="3">
-        <v>2019700</v>
+        <v>2021400</v>
       </c>
       <c r="K12" s="3">
         <v>1993600</v>
@@ -958,25 +958,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>7364300</v>
+        <v>7370400</v>
       </c>
       <c r="E14" s="3">
-        <v>487800</v>
+        <v>488300</v>
       </c>
       <c r="F14" s="3">
-        <v>913900</v>
+        <v>914700</v>
       </c>
       <c r="G14" s="3">
-        <v>736100</v>
+        <v>736700</v>
       </c>
       <c r="H14" s="3">
-        <v>438000</v>
+        <v>438300</v>
       </c>
       <c r="I14" s="3">
-        <v>389200</v>
+        <v>389500</v>
       </c>
       <c r="J14" s="3">
-        <v>522500</v>
+        <v>523000</v>
       </c>
       <c r="K14" s="3">
         <v>312400</v>
@@ -1000,25 +1000,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>443400</v>
+        <v>443800</v>
       </c>
       <c r="E15" s="3">
-        <v>146400</v>
+        <v>146500</v>
       </c>
       <c r="F15" s="3">
-        <v>3217600</v>
+        <v>3220300</v>
       </c>
       <c r="G15" s="3">
-        <v>461800</v>
+        <v>462200</v>
       </c>
       <c r="H15" s="3">
         <v>78100</v>
       </c>
       <c r="I15" s="3">
-        <v>239600</v>
+        <v>239800</v>
       </c>
       <c r="J15" s="3">
-        <v>365300</v>
+        <v>365600</v>
       </c>
       <c r="K15" s="3">
         <v>689000</v>
@@ -1057,25 +1057,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>94429400</v>
+        <v>94507800</v>
       </c>
       <c r="E17" s="3">
-        <v>76873500</v>
+        <v>76937400</v>
       </c>
       <c r="F17" s="3">
-        <v>64367400</v>
+        <v>64420800</v>
       </c>
       <c r="G17" s="3">
-        <v>59730700</v>
+        <v>59780200</v>
       </c>
       <c r="H17" s="3">
-        <v>58808100</v>
+        <v>58856900</v>
       </c>
       <c r="I17" s="3">
-        <v>58146800</v>
+        <v>58195100</v>
       </c>
       <c r="J17" s="3">
-        <v>55587200</v>
+        <v>55633400</v>
       </c>
       <c r="K17" s="3">
         <v>65536400</v>
@@ -1099,25 +1099,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>241800</v>
+        <v>242000</v>
       </c>
       <c r="E18" s="3">
-        <v>8334600</v>
+        <v>8341500</v>
       </c>
       <c r="F18" s="3">
-        <v>-243900</v>
+        <v>-244100</v>
       </c>
       <c r="G18" s="3">
-        <v>4573800</v>
+        <v>4577600</v>
       </c>
       <c r="H18" s="3">
-        <v>6476400</v>
+        <v>6481800</v>
       </c>
       <c r="I18" s="3">
-        <v>8225100</v>
+        <v>8231900</v>
       </c>
       <c r="J18" s="3">
-        <v>6802700</v>
+        <v>6808400</v>
       </c>
       <c r="K18" s="3">
         <v>6378000</v>
@@ -1159,25 +1159,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1686900</v>
+        <v>1688300</v>
       </c>
       <c r="E20" s="3">
-        <v>230900</v>
+        <v>231100</v>
       </c>
       <c r="F20" s="3">
-        <v>-899800</v>
+        <v>-900600</v>
       </c>
       <c r="G20" s="3">
-        <v>-329600</v>
+        <v>-329800</v>
       </c>
       <c r="H20" s="3">
-        <v>-254800</v>
+        <v>-255000</v>
       </c>
       <c r="I20" s="3">
-        <v>-271000</v>
+        <v>-271300</v>
       </c>
       <c r="J20" s="3">
-        <v>-337200</v>
+        <v>-337400</v>
       </c>
       <c r="K20" s="3">
         <v>-215400</v>
@@ -1201,25 +1201,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6481800</v>
+        <v>6485500</v>
       </c>
       <c r="E21" s="3">
-        <v>12562600</v>
+        <v>12571500</v>
       </c>
       <c r="F21" s="3">
-        <v>6175000</v>
+        <v>6177500</v>
       </c>
       <c r="G21" s="3">
-        <v>8817000</v>
+        <v>8822600</v>
       </c>
       <c r="H21" s="3">
-        <v>10287000</v>
+        <v>10294100</v>
       </c>
       <c r="I21" s="3">
-        <v>12521400</v>
+        <v>12530100</v>
       </c>
       <c r="J21" s="3">
-        <v>11117400</v>
+        <v>11125000</v>
       </c>
       <c r="K21" s="3">
         <v>10615500</v>
@@ -1243,25 +1243,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>638500</v>
+        <v>639100</v>
       </c>
       <c r="E22" s="3">
-        <v>491100</v>
+        <v>491500</v>
       </c>
       <c r="F22" s="3">
-        <v>549600</v>
+        <v>550100</v>
       </c>
       <c r="G22" s="3">
-        <v>664600</v>
+        <v>665100</v>
       </c>
       <c r="H22" s="3">
-        <v>548600</v>
+        <v>549000</v>
       </c>
       <c r="I22" s="3">
-        <v>493300</v>
+        <v>493700</v>
       </c>
       <c r="J22" s="3">
-        <v>616900</v>
+        <v>617400</v>
       </c>
       <c r="K22" s="3">
         <v>499200</v>
@@ -1285,25 +1285,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1290100</v>
+        <v>1291200</v>
       </c>
       <c r="E23" s="3">
-        <v>8074400</v>
+        <v>8081100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1693400</v>
+        <v>-1694800</v>
       </c>
       <c r="G23" s="3">
-        <v>3579700</v>
+        <v>3582700</v>
       </c>
       <c r="H23" s="3">
-        <v>5673100</v>
+        <v>5677800</v>
       </c>
       <c r="I23" s="3">
-        <v>7460800</v>
+        <v>7467000</v>
       </c>
       <c r="J23" s="3">
-        <v>5848700</v>
+        <v>5853600</v>
       </c>
       <c r="K23" s="3">
         <v>5663400</v>
@@ -1327,25 +1327,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1714000</v>
+        <v>1715400</v>
       </c>
       <c r="E24" s="3">
-        <v>1550300</v>
+        <v>1551600</v>
       </c>
       <c r="F24" s="3">
         <v>-98700</v>
       </c>
       <c r="G24" s="3">
-        <v>819600</v>
+        <v>820300</v>
       </c>
       <c r="H24" s="3">
-        <v>1210900</v>
+        <v>1211900</v>
       </c>
       <c r="I24" s="3">
-        <v>1398500</v>
+        <v>1399700</v>
       </c>
       <c r="J24" s="3">
-        <v>1235900</v>
+        <v>1236900</v>
       </c>
       <c r="K24" s="3">
         <v>1272900</v>
@@ -1411,25 +1411,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-423900</v>
+        <v>-424200</v>
       </c>
       <c r="E26" s="3">
-        <v>6524100</v>
+        <v>6529500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1594700</v>
+        <v>-1596000</v>
       </c>
       <c r="G26" s="3">
-        <v>2760100</v>
+        <v>2762400</v>
       </c>
       <c r="H26" s="3">
-        <v>4462200</v>
+        <v>4465900</v>
       </c>
       <c r="I26" s="3">
-        <v>6062300</v>
+        <v>6067300</v>
       </c>
       <c r="J26" s="3">
-        <v>4612800</v>
+        <v>4616700</v>
       </c>
       <c r="K26" s="3">
         <v>4390500</v>
@@ -1453,25 +1453,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-679700</v>
+        <v>-680300</v>
       </c>
       <c r="E27" s="3">
-        <v>6026500</v>
+        <v>6031500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1578400</v>
+        <v>-1579800</v>
       </c>
       <c r="G27" s="3">
-        <v>2684200</v>
+        <v>2686500</v>
       </c>
       <c r="H27" s="3">
-        <v>4167300</v>
+        <v>4170700</v>
       </c>
       <c r="I27" s="3">
-        <v>5765200</v>
+        <v>5770000</v>
       </c>
       <c r="J27" s="3">
-        <v>4397100</v>
+        <v>4400800</v>
       </c>
       <c r="K27" s="3">
         <v>4069900</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-39000</v>
+        <v>-39100</v>
       </c>
       <c r="F29" s="3">
-        <v>429300</v>
+        <v>429700</v>
       </c>
       <c r="G29" s="3">
-        <v>6445000</v>
+        <v>6450300</v>
       </c>
       <c r="H29" s="3">
-        <v>1397400</v>
+        <v>1398600</v>
       </c>
       <c r="I29" s="3">
-        <v>1234800</v>
+        <v>1235800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1663,25 +1663,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1686900</v>
+        <v>-1688300</v>
       </c>
       <c r="E32" s="3">
-        <v>-230900</v>
+        <v>-231100</v>
       </c>
       <c r="F32" s="3">
-        <v>899800</v>
+        <v>900600</v>
       </c>
       <c r="G32" s="3">
-        <v>329600</v>
+        <v>329800</v>
       </c>
       <c r="H32" s="3">
-        <v>254800</v>
+        <v>255000</v>
       </c>
       <c r="I32" s="3">
-        <v>271000</v>
+        <v>271300</v>
       </c>
       <c r="J32" s="3">
-        <v>337200</v>
+        <v>337400</v>
       </c>
       <c r="K32" s="3">
         <v>215400</v>
@@ -1705,25 +1705,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-679700</v>
+        <v>-680300</v>
       </c>
       <c r="E33" s="3">
-        <v>5987500</v>
+        <v>5992500</v>
       </c>
       <c r="F33" s="3">
-        <v>-1149100</v>
+        <v>-1150100</v>
       </c>
       <c r="G33" s="3">
-        <v>9129200</v>
+        <v>9136800</v>
       </c>
       <c r="H33" s="3">
-        <v>5564700</v>
+        <v>5569300</v>
       </c>
       <c r="I33" s="3">
-        <v>7000000</v>
+        <v>7005800</v>
       </c>
       <c r="J33" s="3">
-        <v>4397100</v>
+        <v>4400800</v>
       </c>
       <c r="K33" s="3">
         <v>4069900</v>
@@ -1789,25 +1789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-679700</v>
+        <v>-680300</v>
       </c>
       <c r="E35" s="3">
-        <v>5987500</v>
+        <v>5992500</v>
       </c>
       <c r="F35" s="3">
-        <v>-1149100</v>
+        <v>-1150100</v>
       </c>
       <c r="G35" s="3">
-        <v>9129200</v>
+        <v>9136800</v>
       </c>
       <c r="H35" s="3">
-        <v>5564700</v>
+        <v>5569300</v>
       </c>
       <c r="I35" s="3">
-        <v>7000000</v>
+        <v>7005800</v>
       </c>
       <c r="J35" s="3">
-        <v>4397100</v>
+        <v>4400800</v>
       </c>
       <c r="K35" s="3">
         <v>4069900</v>
@@ -1914,25 +1914,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2727600</v>
+        <v>2729900</v>
       </c>
       <c r="E41" s="3">
-        <v>2844700</v>
+        <v>2847000</v>
       </c>
       <c r="F41" s="3">
-        <v>4694200</v>
+        <v>4698100</v>
       </c>
       <c r="G41" s="3">
-        <v>2631100</v>
+        <v>2633300</v>
       </c>
       <c r="H41" s="3">
-        <v>2493400</v>
+        <v>2495500</v>
       </c>
       <c r="I41" s="3">
-        <v>7041200</v>
+        <v>7047100</v>
       </c>
       <c r="J41" s="3">
-        <v>1490600</v>
+        <v>1491900</v>
       </c>
       <c r="K41" s="3">
         <v>2287600</v>
@@ -1956,25 +1956,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>251500</v>
+        <v>251700</v>
       </c>
       <c r="E42" s="3">
-        <v>225500</v>
+        <v>225700</v>
       </c>
       <c r="F42" s="3">
-        <v>224400</v>
+        <v>224600</v>
       </c>
       <c r="G42" s="3">
-        <v>481300</v>
+        <v>481700</v>
       </c>
       <c r="H42" s="3">
-        <v>372900</v>
+        <v>373200</v>
       </c>
       <c r="I42" s="3">
         <v>56400</v>
       </c>
       <c r="J42" s="3">
-        <v>581100</v>
+        <v>581600</v>
       </c>
       <c r="K42" s="3">
         <v>21400</v>
@@ -1998,25 +1998,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18873100</v>
+        <v>18888800</v>
       </c>
       <c r="E43" s="3">
-        <v>17966800</v>
+        <v>17981700</v>
       </c>
       <c r="F43" s="3">
-        <v>14600700</v>
+        <v>14612800</v>
       </c>
       <c r="G43" s="3">
-        <v>13202200</v>
+        <v>13213100</v>
       </c>
       <c r="H43" s="3">
-        <v>14450000</v>
+        <v>14462000</v>
       </c>
       <c r="I43" s="3">
-        <v>14879300</v>
+        <v>14891600</v>
       </c>
       <c r="J43" s="3">
-        <v>14659200</v>
+        <v>14671400</v>
       </c>
       <c r="K43" s="3">
         <v>12209800</v>
@@ -2040,25 +2040,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17376000</v>
+        <v>17390400</v>
       </c>
       <c r="E44" s="3">
-        <v>15034300</v>
+        <v>15046800</v>
       </c>
       <c r="F44" s="3">
-        <v>10851800</v>
+        <v>10860900</v>
       </c>
       <c r="G44" s="3">
-        <v>12166900</v>
+        <v>12177000</v>
       </c>
       <c r="H44" s="3">
-        <v>13189200</v>
+        <v>13200100</v>
       </c>
       <c r="I44" s="3">
-        <v>11169500</v>
+        <v>11178800</v>
       </c>
       <c r="J44" s="3">
-        <v>10846400</v>
+        <v>10855400</v>
       </c>
       <c r="K44" s="3">
         <v>9894600</v>
@@ -2082,25 +2082,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1341000</v>
+        <v>1342100</v>
       </c>
       <c r="E45" s="3">
-        <v>1927500</v>
+        <v>1929100</v>
       </c>
       <c r="F45" s="3">
-        <v>2008800</v>
+        <v>2010500</v>
       </c>
       <c r="G45" s="3">
-        <v>5114800</v>
+        <v>5119000</v>
       </c>
       <c r="H45" s="3">
-        <v>16350400</v>
+        <v>16364000</v>
       </c>
       <c r="I45" s="3">
-        <v>617900</v>
+        <v>618400</v>
       </c>
       <c r="J45" s="3">
-        <v>550700</v>
+        <v>551200</v>
       </c>
       <c r="K45" s="3">
         <v>663500</v>
@@ -2124,25 +2124,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40569200</v>
+        <v>40602900</v>
       </c>
       <c r="E46" s="3">
-        <v>37998800</v>
+        <v>38030300</v>
       </c>
       <c r="F46" s="3">
-        <v>32379900</v>
+        <v>32406800</v>
       </c>
       <c r="G46" s="3">
-        <v>33596300</v>
+        <v>33624200</v>
       </c>
       <c r="H46" s="3">
-        <v>46855900</v>
+        <v>46894800</v>
       </c>
       <c r="I46" s="3">
-        <v>33764300</v>
+        <v>33792300</v>
       </c>
       <c r="J46" s="3">
-        <v>28128100</v>
+        <v>28151400</v>
       </c>
       <c r="K46" s="3">
         <v>25077000</v>
@@ -2166,25 +2166,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8804000</v>
+        <v>8811300</v>
       </c>
       <c r="E47" s="3">
-        <v>14047800</v>
+        <v>14059400</v>
       </c>
       <c r="F47" s="3">
-        <v>14455400</v>
+        <v>14467400</v>
       </c>
       <c r="G47" s="3">
-        <v>16959700</v>
+        <v>16973700</v>
       </c>
       <c r="H47" s="3">
-        <v>3006200</v>
+        <v>3008700</v>
       </c>
       <c r="I47" s="3">
-        <v>5768500</v>
+        <v>5773300</v>
       </c>
       <c r="J47" s="3">
-        <v>5693700</v>
+        <v>5698400</v>
       </c>
       <c r="K47" s="3">
         <v>5065200</v>
@@ -2208,25 +2208,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24898500</v>
+        <v>24919200</v>
       </c>
       <c r="E48" s="3">
-        <v>23365600</v>
+        <v>23385000</v>
       </c>
       <c r="F48" s="3">
-        <v>21299300</v>
+        <v>21317000</v>
       </c>
       <c r="G48" s="3">
-        <v>23624700</v>
+        <v>23644300</v>
       </c>
       <c r="H48" s="3">
-        <v>22527600</v>
+        <v>22546300</v>
       </c>
       <c r="I48" s="3">
-        <v>27382200</v>
+        <v>27404900</v>
       </c>
       <c r="J48" s="3">
-        <v>28634300</v>
+        <v>28658100</v>
       </c>
       <c r="K48" s="3">
         <v>25785400</v>
@@ -2250,25 +2250,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14389300</v>
+        <v>14401200</v>
       </c>
       <c r="E49" s="3">
-        <v>14634300</v>
+        <v>14646400</v>
       </c>
       <c r="F49" s="3">
-        <v>14250500</v>
+        <v>14262300</v>
       </c>
       <c r="G49" s="3">
-        <v>15746600</v>
+        <v>15759600</v>
       </c>
       <c r="H49" s="3">
-        <v>17946200</v>
+        <v>17961100</v>
       </c>
       <c r="I49" s="3">
-        <v>14737300</v>
+        <v>14749500</v>
       </c>
       <c r="J49" s="3">
-        <v>16437100</v>
+        <v>16450800</v>
       </c>
       <c r="K49" s="3">
         <v>12797800</v>
@@ -2376,25 +2376,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2915100</v>
+        <v>2917600</v>
       </c>
       <c r="E52" s="3">
-        <v>4685500</v>
+        <v>4689400</v>
       </c>
       <c r="F52" s="3">
-        <v>4659500</v>
+        <v>4663300</v>
       </c>
       <c r="G52" s="3">
-        <v>4335300</v>
+        <v>4338900</v>
       </c>
       <c r="H52" s="3">
-        <v>3499500</v>
+        <v>3502400</v>
       </c>
       <c r="I52" s="3">
-        <v>3740100</v>
+        <v>3743300</v>
       </c>
       <c r="J52" s="3">
-        <v>4036100</v>
+        <v>4039500</v>
       </c>
       <c r="K52" s="3">
         <v>3584000</v>
@@ -2460,25 +2460,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>91576100</v>
+        <v>91652100</v>
       </c>
       <c r="E54" s="3">
-        <v>94731900</v>
+        <v>94810600</v>
       </c>
       <c r="F54" s="3">
-        <v>87044600</v>
+        <v>87116800</v>
       </c>
       <c r="G54" s="3">
-        <v>94262500</v>
+        <v>94340800</v>
       </c>
       <c r="H54" s="3">
-        <v>93835400</v>
+        <v>93913300</v>
       </c>
       <c r="I54" s="3">
-        <v>85392400</v>
+        <v>85463300</v>
       </c>
       <c r="J54" s="3">
-        <v>82929300</v>
+        <v>82998200</v>
       </c>
       <c r="K54" s="3">
         <v>72309400</v>
@@ -2538,25 +2538,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9143300</v>
+        <v>9150900</v>
       </c>
       <c r="E57" s="3">
-        <v>8484200</v>
+        <v>8491200</v>
       </c>
       <c r="F57" s="3">
-        <v>5736000</v>
+        <v>5740700</v>
       </c>
       <c r="G57" s="3">
-        <v>5514800</v>
+        <v>5519400</v>
       </c>
       <c r="H57" s="3">
-        <v>5552800</v>
+        <v>5557400</v>
       </c>
       <c r="I57" s="3">
-        <v>5389100</v>
+        <v>5393500</v>
       </c>
       <c r="J57" s="3">
-        <v>4997700</v>
+        <v>5001800</v>
       </c>
       <c r="K57" s="3">
         <v>4103600</v>
@@ -2580,25 +2580,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4523900</v>
+        <v>4527700</v>
       </c>
       <c r="E58" s="3">
-        <v>4069700</v>
+        <v>4073100</v>
       </c>
       <c r="F58" s="3">
-        <v>4042600</v>
+        <v>4046000</v>
       </c>
       <c r="G58" s="3">
-        <v>4057800</v>
+        <v>4061200</v>
       </c>
       <c r="H58" s="3">
-        <v>5972300</v>
+        <v>5977300</v>
       </c>
       <c r="I58" s="3">
-        <v>2707000</v>
+        <v>2709200</v>
       </c>
       <c r="J58" s="3">
-        <v>4107700</v>
+        <v>4111100</v>
       </c>
       <c r="K58" s="3">
         <v>4181200</v>
@@ -2622,25 +2622,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8491800</v>
+        <v>8498800</v>
       </c>
       <c r="E59" s="3">
-        <v>9215900</v>
+        <v>9223600</v>
       </c>
       <c r="F59" s="3">
-        <v>7870600</v>
+        <v>7877100</v>
       </c>
       <c r="G59" s="3">
-        <v>8427800</v>
+        <v>8434800</v>
       </c>
       <c r="H59" s="3">
-        <v>13765900</v>
+        <v>13777300</v>
       </c>
       <c r="I59" s="3">
-        <v>8035300</v>
+        <v>8042000</v>
       </c>
       <c r="J59" s="3">
-        <v>7499800</v>
+        <v>7506000</v>
       </c>
       <c r="K59" s="3">
         <v>6247300</v>
@@ -2664,25 +2664,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22159000</v>
+        <v>22177400</v>
       </c>
       <c r="E60" s="3">
-        <v>21769800</v>
+        <v>21787900</v>
       </c>
       <c r="F60" s="3">
-        <v>17649100</v>
+        <v>17663800</v>
       </c>
       <c r="G60" s="3">
-        <v>18000400</v>
+        <v>18015300</v>
       </c>
       <c r="H60" s="3">
-        <v>25291000</v>
+        <v>25312000</v>
       </c>
       <c r="I60" s="3">
-        <v>16131400</v>
+        <v>16144800</v>
       </c>
       <c r="J60" s="3">
-        <v>16605200</v>
+        <v>16618900</v>
       </c>
       <c r="K60" s="3">
         <v>14532100</v>
@@ -2706,25 +2706,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17703400</v>
+        <v>17718000</v>
       </c>
       <c r="E61" s="3">
-        <v>16090200</v>
+        <v>16103600</v>
       </c>
       <c r="F61" s="3">
-        <v>18261700</v>
+        <v>18276800</v>
       </c>
       <c r="G61" s="3">
-        <v>17404100</v>
+        <v>17418600</v>
       </c>
       <c r="H61" s="3">
-        <v>16720100</v>
+        <v>16734000</v>
       </c>
       <c r="I61" s="3">
-        <v>16948800</v>
+        <v>16962900</v>
       </c>
       <c r="J61" s="3">
-        <v>13691100</v>
+        <v>13702500</v>
       </c>
       <c r="K61" s="3">
         <v>11415600</v>
@@ -2748,25 +2748,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7349100</v>
+        <v>7355200</v>
       </c>
       <c r="E62" s="3">
-        <v>11251900</v>
+        <v>11261200</v>
       </c>
       <c r="F62" s="3">
-        <v>13842900</v>
+        <v>13854400</v>
       </c>
       <c r="G62" s="3">
-        <v>12946300</v>
+        <v>12957100</v>
       </c>
       <c r="H62" s="3">
-        <v>12678500</v>
+        <v>12689100</v>
       </c>
       <c r="I62" s="3">
-        <v>14633200</v>
+        <v>14645300</v>
       </c>
       <c r="J62" s="3">
-        <v>17326100</v>
+        <v>17340500</v>
       </c>
       <c r="K62" s="3">
         <v>14160500</v>
@@ -2916,25 +2916,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48675000</v>
+        <v>48715400</v>
       </c>
       <c r="E66" s="3">
-        <v>50509300</v>
+        <v>50551200</v>
       </c>
       <c r="F66" s="3">
-        <v>50480000</v>
+        <v>50521900</v>
       </c>
       <c r="G66" s="3">
-        <v>49275600</v>
+        <v>49316500</v>
       </c>
       <c r="H66" s="3">
-        <v>55833300</v>
+        <v>55879700</v>
       </c>
       <c r="I66" s="3">
-        <v>48709700</v>
+        <v>48750100</v>
       </c>
       <c r="J66" s="3">
-        <v>48447300</v>
+        <v>48487600</v>
       </c>
       <c r="K66" s="3">
         <v>40750300</v>
@@ -3144,25 +3144,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41846300</v>
+        <v>41881000</v>
       </c>
       <c r="E72" s="3">
-        <v>47126900</v>
+        <v>47166000</v>
       </c>
       <c r="F72" s="3">
-        <v>44476300</v>
+        <v>44513200</v>
       </c>
       <c r="G72" s="3">
-        <v>48969900</v>
+        <v>49010500</v>
       </c>
       <c r="H72" s="3">
-        <v>43165600</v>
+        <v>43201400</v>
       </c>
       <c r="I72" s="3">
-        <v>41134000</v>
+        <v>41168200</v>
       </c>
       <c r="J72" s="3">
-        <v>37558600</v>
+        <v>37589800</v>
       </c>
       <c r="K72" s="3">
         <v>33952800</v>
@@ -3312,25 +3312,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42901100</v>
+        <v>42936700</v>
       </c>
       <c r="E76" s="3">
-        <v>44222600</v>
+        <v>44259300</v>
       </c>
       <c r="F76" s="3">
-        <v>36564500</v>
+        <v>36594900</v>
       </c>
       <c r="G76" s="3">
-        <v>44986900</v>
+        <v>45024200</v>
       </c>
       <c r="H76" s="3">
-        <v>38002000</v>
+        <v>38033600</v>
       </c>
       <c r="I76" s="3">
-        <v>36682700</v>
+        <v>36713100</v>
       </c>
       <c r="J76" s="3">
-        <v>34482000</v>
+        <v>34510600</v>
       </c>
       <c r="K76" s="3">
         <v>31559100</v>
@@ -3443,25 +3443,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-679700</v>
+        <v>-680300</v>
       </c>
       <c r="E81" s="3">
-        <v>5987500</v>
+        <v>5992500</v>
       </c>
       <c r="F81" s="3">
-        <v>-1149100</v>
+        <v>-1150100</v>
       </c>
       <c r="G81" s="3">
-        <v>9129200</v>
+        <v>9136800</v>
       </c>
       <c r="H81" s="3">
-        <v>5564700</v>
+        <v>5569300</v>
       </c>
       <c r="I81" s="3">
-        <v>7000000</v>
+        <v>7005800</v>
       </c>
       <c r="J81" s="3">
-        <v>4397100</v>
+        <v>4400800</v>
       </c>
       <c r="K81" s="3">
         <v>4069900</v>
@@ -3503,25 +3503,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4553200</v>
+        <v>4557000</v>
       </c>
       <c r="E83" s="3">
-        <v>3997100</v>
+        <v>4000400</v>
       </c>
       <c r="F83" s="3">
-        <v>7318800</v>
+        <v>7324800</v>
       </c>
       <c r="G83" s="3">
-        <v>4572700</v>
+        <v>4576500</v>
       </c>
       <c r="H83" s="3">
-        <v>4065400</v>
+        <v>4068800</v>
       </c>
       <c r="I83" s="3">
-        <v>4567300</v>
+        <v>4571100</v>
       </c>
       <c r="J83" s="3">
-        <v>4651900</v>
+        <v>4655700</v>
       </c>
       <c r="K83" s="3">
         <v>4540500</v>
@@ -3755,25 +3755,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8350800</v>
+        <v>8357800</v>
       </c>
       <c r="E89" s="3">
-        <v>7846700</v>
+        <v>7853200</v>
       </c>
       <c r="F89" s="3">
-        <v>5876900</v>
+        <v>5881800</v>
       </c>
       <c r="G89" s="3">
-        <v>8124200</v>
+        <v>8131000</v>
       </c>
       <c r="H89" s="3">
-        <v>8606700</v>
+        <v>8613800</v>
       </c>
       <c r="I89" s="3">
-        <v>9533600</v>
+        <v>9541500</v>
       </c>
       <c r="J89" s="3">
-        <v>8367100</v>
+        <v>8374000</v>
       </c>
       <c r="K89" s="3">
         <v>9646600</v>
@@ -3815,25 +3815,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4742900</v>
+        <v>-4746900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3829000</v>
+        <v>-3832200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3392100</v>
+        <v>-3395000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4145600</v>
+        <v>-4149000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4221500</v>
+        <v>-4225000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4332100</v>
+        <v>-4335700</v>
       </c>
       <c r="J91" s="3">
-        <v>-4493600</v>
+        <v>-4497300</v>
       </c>
       <c r="K91" s="3">
         <v>-5932900</v>
@@ -3941,25 +3941,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4095700</v>
+        <v>-4099100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2842500</v>
+        <v>-2844900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2064100</v>
+        <v>-2065800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1290100</v>
+        <v>-1291200</v>
       </c>
       <c r="H94" s="3">
-        <v>-12796700</v>
+        <v>-12807300</v>
       </c>
       <c r="I94" s="3">
-        <v>-4290900</v>
+        <v>-4294400</v>
       </c>
       <c r="J94" s="3">
-        <v>-7035800</v>
+        <v>-7041700</v>
       </c>
       <c r="K94" s="3">
         <v>-5343900</v>
@@ -4001,25 +4001,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3330400</v>
+        <v>-3333100</v>
       </c>
       <c r="E96" s="3">
-        <v>-3285900</v>
+        <v>-3288600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3285900</v>
+        <v>-3288600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3186200</v>
+        <v>-3188800</v>
       </c>
       <c r="H96" s="3">
-        <v>-3086400</v>
+        <v>-3089000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2986700</v>
+        <v>-2989200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2888000</v>
+        <v>-2890400</v>
       </c>
       <c r="K96" s="3">
         <v>-2625500</v>
@@ -4169,25 +4169,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4350500</v>
+        <v>-4354100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7000000</v>
+        <v>-7005800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1686900</v>
+        <v>-1688300</v>
       </c>
       <c r="G100" s="3">
-        <v>-6943700</v>
+        <v>-6949400</v>
       </c>
       <c r="H100" s="3">
         <v>-56400</v>
       </c>
       <c r="I100" s="3">
-        <v>427100</v>
+        <v>427500</v>
       </c>
       <c r="J100" s="3">
-        <v>-2341700</v>
+        <v>-2343600</v>
       </c>
       <c r="K100" s="3">
         <v>-3749400</v>
@@ -4214,10 +4214,10 @@
         <v>-20600</v>
       </c>
       <c r="E101" s="3">
-        <v>142000</v>
+        <v>142100</v>
       </c>
       <c r="F101" s="3">
-        <v>-87800</v>
+        <v>-87900</v>
       </c>
       <c r="G101" s="3">
         <v>40100</v>
@@ -4226,7 +4226,7 @@
         <v>-64000</v>
       </c>
       <c r="I101" s="3">
-        <v>-119300</v>
+        <v>-119400</v>
       </c>
       <c r="J101" s="3">
         <v>71600</v>
@@ -4253,25 +4253,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-116000</v>
+        <v>-116100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1853800</v>
+        <v>-1855400</v>
       </c>
       <c r="F102" s="3">
-        <v>2038100</v>
+        <v>2039800</v>
       </c>
       <c r="G102" s="3">
         <v>-69400</v>
       </c>
       <c r="H102" s="3">
-        <v>-4310400</v>
+        <v>-4314000</v>
       </c>
       <c r="I102" s="3">
-        <v>5550600</v>
+        <v>5555200</v>
       </c>
       <c r="J102" s="3">
-        <v>-938800</v>
+        <v>-939600</v>
       </c>
       <c r="K102" s="3">
         <v>533900</v>
